--- a/API/documentos/Dados Entrada Cliente.xlsx
+++ b/API/documentos/Dados Entrada Cliente.xlsx
@@ -3371,7 +3371,7 @@
     <t>registroDocumento</t>
   </si>
   <si>
-    <t>registroVinculo</t>
+    <t>registroReferencia</t>
   </si>
 </sst>
 </file>
@@ -3395,7 +3395,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3440,6 +3440,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3457,7 +3463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3480,6 +3486,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11772,8 +11779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D273" workbookViewId="0">
-      <selection activeCell="J363" sqref="J363"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11817,22 +11824,22 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="18" t="s">
@@ -11852,22 +11859,22 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="22" t="s">
         <v>631</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="18" t="s">
@@ -11887,22 +11894,22 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="22" t="s">
         <v>632</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="18" t="s">
@@ -11922,22 +11929,22 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="22" t="s">
         <v>633</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="18" t="s">
@@ -11957,22 +11964,22 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="22" t="s">
         <v>634</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="18" t="s">
@@ -11992,22 +11999,22 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="22" t="s">
         <v>635</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="18" t="s">
@@ -12027,22 +12034,22 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="22" t="s">
         <v>636</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="18" t="s">
@@ -12062,22 +12069,22 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="22" t="s">
         <v>637</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="18" t="s">
@@ -12097,22 +12104,22 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="22" t="s">
         <v>638</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="18" t="s">
@@ -12132,22 +12139,22 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="22" t="s">
         <v>639</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="18" t="s">
@@ -12167,22 +12174,22 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="22" t="s">
         <v>640</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="18" t="s">
@@ -12202,22 +12209,22 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="22" t="s">
         <v>641</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G13" s="18" t="s">
@@ -12237,22 +12244,22 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="21" t="s">
+      <c r="A14" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="22" t="s">
         <v>642</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G14" s="18" t="s">
@@ -12272,22 +12279,22 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="22" t="s">
         <v>643</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="18" t="s">
@@ -12307,22 +12314,22 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="21" t="s">
+      <c r="A16" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="22" t="s">
         <v>644</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G16" s="18" t="s">
@@ -12342,22 +12349,22 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="21" t="s">
+      <c r="A17" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="22" t="s">
         <v>645</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G17" s="18" t="s">
@@ -12377,22 +12384,22 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="21" t="s">
+      <c r="A18" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="22" t="s">
         <v>646</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G18" s="18" t="s">
@@ -12412,22 +12419,22 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="21" t="s">
+      <c r="A19" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="22" t="s">
         <v>647</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G19" s="18" t="s">
@@ -12447,22 +12454,22 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="21" t="s">
+      <c r="A20" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="22" t="s">
         <v>648</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G20" s="18" t="s">
@@ -12482,22 +12489,22 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="21" t="s">
+      <c r="A21" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="22" t="s">
         <v>649</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="18" t="s">
@@ -12517,22 +12524,22 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="21" t="s">
+      <c r="A22" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="22" t="s">
         <v>650</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="18" t="s">
@@ -12552,22 +12559,22 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="21" t="s">
+      <c r="A23" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="22" t="s">
         <v>651</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G23" s="18" t="s">
@@ -12587,22 +12594,22 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="21" t="s">
+      <c r="A24" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="22" t="s">
         <v>1066</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G24" s="18" t="s">
@@ -12622,22 +12629,22 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="21" t="s">
+      <c r="A25" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="22" t="s">
         <v>652</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G25" s="18" t="s">
@@ -12657,22 +12664,22 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="21" t="s">
+      <c r="A26" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="22" t="s">
         <v>653</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G26" s="18" t="s">
@@ -12692,22 +12699,22 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="21" t="s">
+      <c r="A27" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="22" t="s">
         <v>654</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G27" s="18" t="s">
@@ -12727,22 +12734,22 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="21" t="s">
+      <c r="A28" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="22" t="s">
         <v>655</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G28" s="18" t="s">
@@ -12762,22 +12769,22 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="21" t="s">
+      <c r="A29" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="22" t="s">
         <v>657</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G29" s="18" t="s">
@@ -12797,22 +12804,22 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="21" t="s">
+      <c r="A30" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="22" t="s">
         <v>656</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G30" s="18" t="s">
@@ -12832,22 +12839,22 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="21" t="s">
+      <c r="A31" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="22" t="s">
         <v>658</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G31" s="18" t="s">
@@ -12867,22 +12874,22 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="21" t="s">
+      <c r="A32" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="22" t="s">
         <v>659</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G32" s="18" t="s">
@@ -12902,22 +12909,22 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="21" t="s">
+      <c r="A33" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="22" t="s">
         <v>660</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G33" s="18" t="s">
@@ -12937,22 +12944,22 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="21" t="s">
+      <c r="A34" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="22" t="s">
         <v>661</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G34" s="18" t="s">
@@ -12972,22 +12979,22 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="21" t="s">
+      <c r="A35" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="22" t="s">
         <v>662</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G35" s="18" t="s">
@@ -13007,22 +13014,22 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="21" t="s">
+      <c r="A36" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="22" t="s">
         <v>663</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G36" s="18" t="s">
@@ -13042,22 +13049,22 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="21" t="s">
+      <c r="A37" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="22" t="s">
         <v>664</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G37" s="18" t="s">
@@ -13077,22 +13084,22 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="21" t="s">
+      <c r="A38" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="22" t="s">
         <v>665</v>
       </c>
-      <c r="F38" s="21" t="s">
+      <c r="F38" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G38" s="18" t="s">
@@ -13112,22 +13119,22 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="21" t="s">
+      <c r="A39" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="22" t="s">
         <v>666</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F39" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G39" s="18" t="s">
@@ -13147,22 +13154,22 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="21" t="s">
+      <c r="A40" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="22" t="s">
         <v>1018</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="22" t="s">
         <v>1019</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G40" s="18" t="s">
@@ -13182,22 +13189,22 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="21" t="s">
+      <c r="A41" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E41" s="22" t="s">
         <v>667</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="F41" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G41" s="18" t="s">
@@ -13217,22 +13224,22 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="21" t="s">
+      <c r="A42" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="22" t="s">
         <v>890</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F42" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G42" s="18" t="s">
@@ -13252,22 +13259,22 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="21" t="s">
+      <c r="A43" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="E43" s="22" t="s">
         <v>668</v>
       </c>
-      <c r="F43" s="21" t="s">
+      <c r="F43" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G43" s="18" t="s">
@@ -13287,22 +13294,22 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="21" t="s">
+      <c r="A44" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="22" t="s">
         <v>1067</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G44" s="18" t="s">
@@ -13322,22 +13329,22 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="21" t="s">
+      <c r="A45" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="E45" s="22" t="s">
         <v>1068</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="F45" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G45" s="18" t="s">
@@ -13357,22 +13364,22 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="21" t="s">
+      <c r="A46" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="E46" s="22" t="s">
         <v>671</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="F46" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G46" s="18" t="s">
@@ -13392,20 +13399,20 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="21" t="s">
+      <c r="A47" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21" t="s">
+      <c r="D47" s="22"/>
+      <c r="E47" s="22" t="s">
         <v>939</v>
       </c>
-      <c r="F47" s="21" t="s">
+      <c r="F47" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G47" s="18" t="s">
@@ -13425,22 +13432,22 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="21" t="s">
+      <c r="A48" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="E48" s="22" t="s">
         <v>672</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="F48" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G48" s="18" t="s">
@@ -13460,22 +13467,22 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="21" t="s">
+      <c r="A49" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="E49" s="21" t="s">
+      <c r="E49" s="22" t="s">
         <v>673</v>
       </c>
-      <c r="F49" s="21" t="s">
+      <c r="F49" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G49" s="18" t="s">
@@ -13495,20 +13502,20 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="21" t="s">
+      <c r="A50" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21" t="s">
+      <c r="D50" s="22"/>
+      <c r="E50" s="22" t="s">
         <v>1060</v>
       </c>
-      <c r="F50" s="21" t="s">
+      <c r="F50" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G50" s="18" t="s">
@@ -13528,22 +13535,22 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="21" t="s">
+      <c r="A51" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E51" s="21" t="s">
+      <c r="E51" s="22" t="s">
         <v>674</v>
       </c>
-      <c r="F51" s="21" t="s">
+      <c r="F51" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G51" s="18" t="s">
@@ -13563,22 +13570,22 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="21" t="s">
+      <c r="A52" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="E52" s="22" t="s">
         <v>675</v>
       </c>
-      <c r="F52" s="21" t="s">
+      <c r="F52" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G52" s="18" t="s">
@@ -13598,22 +13605,22 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="21" t="s">
+      <c r="A53" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="E53" s="21" t="s">
+      <c r="E53" s="22" t="s">
         <v>676</v>
       </c>
-      <c r="F53" s="21" t="s">
+      <c r="F53" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G53" s="18" t="s">
@@ -13633,22 +13640,22 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="21" t="s">
+      <c r="A54" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="E54" s="22" t="s">
         <v>677</v>
       </c>
-      <c r="F54" s="21" t="s">
+      <c r="F54" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G54" s="18" t="s">
@@ -13668,22 +13675,22 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="21" t="s">
+      <c r="A55" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="22" t="s">
         <v>1064</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D55" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="E55" s="21" t="s">
+      <c r="E55" s="22" t="s">
         <v>1065</v>
       </c>
-      <c r="F55" s="21" t="s">
+      <c r="F55" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G55" s="18" t="s">
@@ -13703,20 +13710,20 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="21" t="s">
+      <c r="A56" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21" t="s">
+      <c r="D56" s="22"/>
+      <c r="E56" s="22" t="s">
         <v>941</v>
       </c>
-      <c r="F56" s="21" t="s">
+      <c r="F56" s="22" t="s">
         <v>991</v>
       </c>
       <c r="G56" s="18" t="s">
@@ -13736,20 +13743,20 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="21" t="s">
+      <c r="A57" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21" t="s">
+      <c r="D57" s="22"/>
+      <c r="E57" s="22" t="s">
         <v>817</v>
       </c>
-      <c r="F57" s="21" t="s">
+      <c r="F57" s="22" t="s">
         <v>991</v>
       </c>
       <c r="G57" s="18" t="s">
@@ -13769,20 +13776,20 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="21" t="s">
+      <c r="A58" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21" t="s">
+      <c r="D58" s="22"/>
+      <c r="E58" s="22" t="s">
         <v>975</v>
       </c>
-      <c r="F58" s="21" t="s">
+      <c r="F58" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G58" s="18" t="s">
@@ -13802,22 +13809,22 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="21" t="s">
+      <c r="A59" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="D59" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="E59" s="21" t="s">
+      <c r="E59" s="22" t="s">
         <v>679</v>
       </c>
-      <c r="F59" s="21" t="s">
+      <c r="F59" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G59" s="18" t="s">
@@ -13837,20 +13844,20 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="21" t="s">
+      <c r="A60" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21" t="s">
+      <c r="D60" s="22"/>
+      <c r="E60" s="22" t="s">
         <v>1069</v>
       </c>
-      <c r="F60" s="21" t="s">
+      <c r="F60" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G60" s="18" t="s">
@@ -13870,22 +13877,22 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="21" t="s">
+      <c r="A61" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D61" s="21" t="s">
+      <c r="D61" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E61" s="21" t="s">
+      <c r="E61" s="22" t="s">
         <v>680</v>
       </c>
-      <c r="F61" s="21" t="s">
+      <c r="F61" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G61" s="18" t="s">
@@ -13905,22 +13912,22 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="21" t="s">
+      <c r="A62" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="22" t="s">
         <v>1048</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="D62" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E62" s="21" t="s">
+      <c r="E62" s="22" t="s">
         <v>1013</v>
       </c>
-      <c r="F62" s="21" t="s">
+      <c r="F62" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G62" s="18" t="s">
@@ -13940,22 +13947,22 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="21" t="s">
+      <c r="A63" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="22" t="s">
         <v>1049</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D63" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E63" s="21" t="s">
+      <c r="E63" s="22" t="s">
         <v>1014</v>
       </c>
-      <c r="F63" s="21" t="s">
+      <c r="F63" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G63" s="18" t="s">
@@ -13975,22 +13982,22 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="21" t="s">
+      <c r="A64" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="22" t="s">
         <v>1050</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D64" s="21" t="s">
+      <c r="D64" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="E64" s="21" t="s">
+      <c r="E64" s="22" t="s">
         <v>1015</v>
       </c>
-      <c r="F64" s="21" t="s">
+      <c r="F64" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G64" s="18" t="s">
@@ -14010,22 +14017,22 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="21" t="s">
+      <c r="A65" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D65" s="21" t="s">
+      <c r="D65" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E65" s="21" t="s">
+      <c r="E65" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="F65" s="21" t="s">
+      <c r="F65" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G65" s="18" t="s">
@@ -14045,22 +14052,22 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="21" t="s">
+      <c r="A66" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="22" t="s">
         <v>1051</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="D66" s="21" t="s">
+      <c r="D66" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E66" s="21" t="s">
+      <c r="E66" s="22" t="s">
         <v>1052</v>
       </c>
-      <c r="F66" s="21" t="s">
+      <c r="F66" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G66" s="18" t="s">
@@ -14080,22 +14087,22 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="21" t="s">
+      <c r="A67" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="22" t="s">
         <v>1053</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D67" s="21" t="s">
+      <c r="D67" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="E67" s="21" t="s">
+      <c r="E67" s="22" t="s">
         <v>1054</v>
       </c>
-      <c r="F67" s="21" t="s">
+      <c r="F67" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G67" s="18" t="s">
@@ -14115,22 +14122,22 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="21" t="s">
+      <c r="A68" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D68" s="21" t="s">
+      <c r="D68" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="E68" s="21" t="s">
+      <c r="E68" s="22" t="s">
         <v>945</v>
       </c>
-      <c r="F68" s="21" t="s">
+      <c r="F68" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G68" s="18" t="s">
@@ -14150,22 +14157,22 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" s="21" t="s">
+      <c r="A69" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="D69" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="E69" s="21" t="s">
+      <c r="E69" s="22" t="s">
         <v>944</v>
       </c>
-      <c r="F69" s="21" t="s">
+      <c r="F69" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G69" s="18" t="s">
@@ -14185,22 +14192,22 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="21" t="s">
+      <c r="A70" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="D70" s="21" t="s">
+      <c r="D70" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="E70" s="21" t="s">
+      <c r="E70" s="22" t="s">
         <v>686</v>
       </c>
-      <c r="F70" s="21" t="s">
+      <c r="F70" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G70" s="18" t="s">
@@ -14220,22 +14227,22 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="21" t="s">
+      <c r="A71" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="D71" s="21" t="s">
+      <c r="D71" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="E71" s="21" t="s">
+      <c r="E71" s="22" t="s">
         <v>687</v>
       </c>
-      <c r="F71" s="21" t="s">
+      <c r="F71" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G71" s="18" t="s">
@@ -14255,22 +14262,22 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="21" t="s">
+      <c r="A72" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="D72" s="21" t="s">
+      <c r="D72" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E72" s="21" t="s">
+      <c r="E72" s="22" t="s">
         <v>688</v>
       </c>
-      <c r="F72" s="21" t="s">
+      <c r="F72" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G72" s="18" t="s">
@@ -14290,22 +14297,22 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="21" t="s">
+      <c r="A73" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="D73" s="21" t="s">
+      <c r="D73" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E73" s="21" t="s">
+      <c r="E73" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="F73" s="21" t="s">
+      <c r="F73" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G73" s="18" t="s">
@@ -14325,22 +14332,22 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="21" t="s">
+      <c r="A74" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="D74" s="21" t="s">
+      <c r="D74" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E74" s="21" t="s">
+      <c r="E74" s="22" t="s">
         <v>1088</v>
       </c>
-      <c r="F74" s="21" t="s">
+      <c r="F74" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G74" s="18" t="s">
@@ -14360,22 +14367,22 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="21" t="s">
+      <c r="A75" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="D75" s="21" t="s">
+      <c r="D75" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="E75" s="21" t="s">
+      <c r="E75" s="22" t="s">
         <v>989</v>
       </c>
-      <c r="F75" s="21" t="s">
+      <c r="F75" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G75" s="18" t="s">
@@ -14395,22 +14402,22 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="21" t="s">
+      <c r="A76" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="D76" s="21" t="s">
+      <c r="D76" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E76" s="21" t="s">
+      <c r="E76" s="22" t="s">
         <v>1009</v>
       </c>
-      <c r="F76" s="21" t="s">
+      <c r="F76" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G76" s="18" t="s">
@@ -14430,22 +14437,22 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="21" t="s">
+      <c r="A77" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="D77" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="E77" s="21" t="s">
+      <c r="E77" s="22" t="s">
         <v>767</v>
       </c>
-      <c r="F77" s="21" t="s">
+      <c r="F77" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G77" s="18" t="s">
@@ -14465,22 +14472,22 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="21" t="s">
+      <c r="A78" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D78" s="21" t="s">
+      <c r="D78" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="E78" s="21" t="s">
+      <c r="E78" s="22" t="s">
         <v>692</v>
       </c>
-      <c r="F78" s="21" t="s">
+      <c r="F78" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G78" s="18" t="s">
@@ -14500,22 +14507,22 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="21" t="s">
+      <c r="A79" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="D79" s="21" t="s">
+      <c r="D79" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="E79" s="21" t="s">
+      <c r="E79" s="22" t="s">
         <v>693</v>
       </c>
-      <c r="F79" s="21" t="s">
+      <c r="F79" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G79" s="18" t="s">
@@ -14535,22 +14542,22 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" s="21" t="s">
+      <c r="A80" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D80" s="21" t="s">
+      <c r="D80" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="E80" s="21" t="s">
+      <c r="E80" s="22" t="s">
         <v>694</v>
       </c>
-      <c r="F80" s="21" t="s">
+      <c r="F80" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G80" s="18" t="s">
@@ -14570,22 +14577,22 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="21" t="s">
+      <c r="A81" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C81" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="D81" s="21" t="s">
+      <c r="D81" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="E81" s="21" t="s">
+      <c r="E81" s="22" t="s">
         <v>695</v>
       </c>
-      <c r="F81" s="21" t="s">
+      <c r="F81" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G81" s="18" t="s">
@@ -14605,22 +14612,22 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="21" t="s">
+      <c r="A82" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D82" s="21" t="s">
+      <c r="D82" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="E82" s="21" t="s">
+      <c r="E82" s="22" t="s">
         <v>696</v>
       </c>
-      <c r="F82" s="21" t="s">
+      <c r="F82" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G82" s="18" t="s">
@@ -14640,22 +14647,22 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="21" t="s">
+      <c r="A83" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="D83" s="21" t="s">
+      <c r="D83" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="E83" s="21" t="s">
+      <c r="E83" s="22" t="s">
         <v>697</v>
       </c>
-      <c r="F83" s="21" t="s">
+      <c r="F83" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G83" s="18" t="s">
@@ -14675,22 +14682,22 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="21" t="s">
+      <c r="A84" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="D84" s="21" t="s">
+      <c r="D84" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="E84" s="21" t="s">
+      <c r="E84" s="22" t="s">
         <v>698</v>
       </c>
-      <c r="F84" s="21" t="s">
+      <c r="F84" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G84" s="18" t="s">
@@ -14710,22 +14717,22 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" s="21" t="s">
+      <c r="A85" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="D85" s="21" t="s">
+      <c r="D85" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="E85" s="21" t="s">
+      <c r="E85" s="22" t="s">
         <v>699</v>
       </c>
-      <c r="F85" s="21" t="s">
+      <c r="F85" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G85" s="18" t="s">
@@ -14745,22 +14752,22 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" s="21" t="s">
+      <c r="A86" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="D86" s="21" t="s">
+      <c r="D86" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="E86" s="21" t="s">
+      <c r="E86" s="22" t="s">
         <v>700</v>
       </c>
-      <c r="F86" s="21" t="s">
+      <c r="F86" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G86" s="18" t="s">
@@ -14780,22 +14787,22 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" s="21" t="s">
+      <c r="A87" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="D87" s="21" t="s">
+      <c r="D87" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="E87" s="21" t="s">
+      <c r="E87" s="22" t="s">
         <v>701</v>
       </c>
-      <c r="F87" s="21" t="s">
+      <c r="F87" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G87" s="18" t="s">
@@ -14815,22 +14822,22 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" s="21" t="s">
+      <c r="A88" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="D88" s="21" t="s">
+      <c r="D88" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="E88" s="21" t="s">
+      <c r="E88" s="22" t="s">
         <v>702</v>
       </c>
-      <c r="F88" s="21" t="s">
+      <c r="F88" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G88" s="18" t="s">
@@ -14850,22 +14857,22 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" s="21" t="s">
+      <c r="A89" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="C89" s="21" t="s">
+      <c r="C89" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="D89" s="21" t="s">
+      <c r="D89" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="E89" s="21" t="s">
+      <c r="E89" s="22" t="s">
         <v>703</v>
       </c>
-      <c r="F89" s="21" t="s">
+      <c r="F89" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G89" s="18" t="s">
@@ -14885,22 +14892,22 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" s="21" t="s">
+      <c r="A90" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="C90" s="21" t="s">
+      <c r="C90" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="D90" s="21" t="s">
+      <c r="D90" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="E90" s="21" t="s">
+      <c r="E90" s="22" t="s">
         <v>704</v>
       </c>
-      <c r="F90" s="21" t="s">
+      <c r="F90" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G90" s="18" t="s">
@@ -14920,22 +14927,22 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" s="21" t="s">
+      <c r="A91" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D91" s="21" t="s">
+      <c r="D91" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="E91" s="21" t="s">
+      <c r="E91" s="22" t="s">
         <v>1070</v>
       </c>
-      <c r="F91" s="21" t="s">
+      <c r="F91" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G91" s="18" t="s">
@@ -14955,22 +14962,22 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" s="21" t="s">
+      <c r="A92" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="C92" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="D92" s="21" t="s">
+      <c r="D92" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="E92" s="21" t="s">
+      <c r="E92" s="22" t="s">
         <v>706</v>
       </c>
-      <c r="F92" s="21" t="s">
+      <c r="F92" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G92" s="18" t="s">
@@ -14990,22 +14997,22 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" s="21" t="s">
+      <c r="A93" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C93" s="21" t="s">
+      <c r="C93" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="D93" s="21" t="s">
+      <c r="D93" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="E93" s="21" t="s">
+      <c r="E93" s="22" t="s">
         <v>707</v>
       </c>
-      <c r="F93" s="21" t="s">
+      <c r="F93" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G93" s="18" t="s">
@@ -15025,22 +15032,22 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" s="21" t="s">
+      <c r="A94" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="C94" s="21" t="s">
+      <c r="C94" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="D94" s="21" t="s">
+      <c r="D94" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="E94" s="21" t="s">
+      <c r="E94" s="22" t="s">
         <v>708</v>
       </c>
-      <c r="F94" s="21" t="s">
+      <c r="F94" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G94" s="18" t="s">
@@ -15060,22 +15067,22 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" s="21" t="s">
+      <c r="A95" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="C95" s="21" t="s">
+      <c r="C95" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="D95" s="21" t="s">
+      <c r="D95" s="22" t="s">
         <v>861</v>
       </c>
-      <c r="E95" s="21" t="s">
+      <c r="E95" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="F95" s="21" t="s">
+      <c r="F95" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G95" s="18" t="s">
@@ -15095,22 +15102,22 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" s="21" t="s">
+      <c r="A96" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="C96" s="21" t="s">
+      <c r="C96" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="D96" s="21" t="s">
+      <c r="D96" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="E96" s="21" t="s">
+      <c r="E96" s="22" t="s">
         <v>1071</v>
       </c>
-      <c r="F96" s="21" t="s">
+      <c r="F96" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G96" s="18" t="s">
@@ -15130,22 +15137,22 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97" s="21" t="s">
+      <c r="A97" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="22" t="s">
         <v>1061</v>
       </c>
-      <c r="C97" s="21" t="s">
+      <c r="C97" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="D97" s="21" t="s">
+      <c r="D97" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="E97" s="21" t="s">
+      <c r="E97" s="22" t="s">
         <v>1062</v>
       </c>
-      <c r="F97" s="21" t="s">
+      <c r="F97" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G97" s="18" t="s">
@@ -15165,22 +15172,22 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" s="21" t="s">
+      <c r="A98" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="D98" s="21" t="s">
+      <c r="D98" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="E98" s="21" t="s">
+      <c r="E98" s="22" t="s">
         <v>711</v>
       </c>
-      <c r="F98" s="21" t="s">
+      <c r="F98" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G98" s="18" t="s">
@@ -15200,22 +15207,22 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99" s="21" t="s">
+      <c r="A99" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="C99" s="21" t="s">
+      <c r="C99" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="D99" s="21" t="s">
+      <c r="D99" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="E99" s="21" t="s">
+      <c r="E99" s="22" t="s">
         <v>1072</v>
       </c>
-      <c r="F99" s="21" t="s">
+      <c r="F99" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G99" s="18" t="s">
@@ -15299,20 +15306,20 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" s="21" t="s">
+      <c r="A102" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="C102" s="21" t="s">
+      <c r="C102" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="D102" s="21"/>
-      <c r="E102" s="21" t="s">
+      <c r="D102" s="22"/>
+      <c r="E102" s="22" t="s">
         <v>727</v>
       </c>
-      <c r="F102" s="21" t="s">
+      <c r="F102" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G102" s="18" t="s">
@@ -15332,20 +15339,20 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" s="21" t="s">
+      <c r="A103" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="C103" s="21" t="s">
+      <c r="C103" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="D103" s="21"/>
-      <c r="E103" s="21" t="s">
+      <c r="D103" s="22"/>
+      <c r="E103" s="22" t="s">
         <v>1073</v>
       </c>
-      <c r="F103" s="21" t="s">
+      <c r="F103" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G103" s="18" t="s">
@@ -15365,20 +15372,20 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" s="21" t="s">
+      <c r="A104" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="C104" s="21" t="s">
+      <c r="C104" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="D104" s="21"/>
-      <c r="E104" s="21" t="s">
+      <c r="D104" s="22"/>
+      <c r="E104" s="22" t="s">
         <v>946</v>
       </c>
-      <c r="F104" s="21" t="s">
+      <c r="F104" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G104" s="18" t="s">
@@ -15398,20 +15405,20 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105" s="21" t="s">
+      <c r="A105" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="C105" s="21" t="s">
+      <c r="C105" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D105" s="21"/>
-      <c r="E105" s="21" t="s">
+      <c r="D105" s="22"/>
+      <c r="E105" s="22" t="s">
         <v>729</v>
       </c>
-      <c r="F105" s="21" t="s">
+      <c r="F105" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G105" s="18" t="s">
@@ -15463,20 +15470,20 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B107" s="21" t="s">
+      <c r="A107" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="C107" s="21" t="s">
+      <c r="C107" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D107" s="21"/>
-      <c r="E107" s="21" t="s">
+      <c r="D107" s="22"/>
+      <c r="E107" s="22" t="s">
         <v>713</v>
       </c>
-      <c r="F107" s="21" t="s">
+      <c r="F107" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G107" s="18" t="s">
@@ -15496,20 +15503,20 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" s="21" t="s">
+      <c r="A108" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="C108" s="21" t="s">
+      <c r="C108" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="D108" s="21"/>
-      <c r="E108" s="21" t="s">
+      <c r="D108" s="22"/>
+      <c r="E108" s="22" t="s">
         <v>1074</v>
       </c>
-      <c r="F108" s="21" t="s">
+      <c r="F108" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G108" s="18" t="s">
@@ -15529,20 +15536,20 @@
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B109" s="21" t="s">
+      <c r="A109" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="C109" s="21" t="s">
+      <c r="C109" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="D109" s="21"/>
-      <c r="E109" s="21" t="s">
+      <c r="D109" s="22"/>
+      <c r="E109" s="22" t="s">
         <v>715</v>
       </c>
-      <c r="F109" s="21" t="s">
+      <c r="F109" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G109" s="18" t="s">
@@ -15562,20 +15569,20 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110" s="21" t="s">
+      <c r="A110" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C110" s="21" t="s">
+      <c r="C110" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="D110" s="21"/>
-      <c r="E110" s="21" t="s">
+      <c r="D110" s="22"/>
+      <c r="E110" s="22" t="s">
         <v>716</v>
       </c>
-      <c r="F110" s="21" t="s">
+      <c r="F110" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G110" s="18" t="s">
@@ -15595,20 +15602,20 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" s="21" t="s">
+      <c r="A111" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="C111" s="21" t="s">
+      <c r="C111" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="D111" s="21"/>
-      <c r="E111" s="21" t="s">
+      <c r="D111" s="22"/>
+      <c r="E111" s="22" t="s">
         <v>717</v>
       </c>
-      <c r="F111" s="21" t="s">
+      <c r="F111" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G111" s="18" t="s">
@@ -15628,20 +15635,20 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="21" t="s">
+      <c r="A112" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="C112" s="21" t="s">
+      <c r="C112" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="D112" s="21"/>
-      <c r="E112" s="21" t="s">
+      <c r="D112" s="22"/>
+      <c r="E112" s="22" t="s">
         <v>718</v>
       </c>
-      <c r="F112" s="21" t="s">
+      <c r="F112" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G112" s="18" t="s">
@@ -15661,20 +15668,20 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B113" s="21" t="s">
+      <c r="A113" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="C113" s="21" t="s">
+      <c r="C113" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="D113" s="21"/>
-      <c r="E113" s="21" t="s">
+      <c r="D113" s="22"/>
+      <c r="E113" s="22" t="s">
         <v>770</v>
       </c>
-      <c r="F113" s="21" t="s">
+      <c r="F113" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G113" s="18" t="s">
@@ -15694,20 +15701,20 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B114" s="21" t="s">
+      <c r="A114" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="C114" s="21" t="s">
+      <c r="C114" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="D114" s="21"/>
-      <c r="E114" s="21" t="s">
+      <c r="D114" s="22"/>
+      <c r="E114" s="22" t="s">
         <v>1075</v>
       </c>
-      <c r="F114" s="21" t="s">
+      <c r="F114" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G114" s="18" t="s">
@@ -15727,20 +15734,20 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115" s="21" t="s">
+      <c r="A115" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="22" t="s">
         <v>1077</v>
       </c>
-      <c r="C115" s="21" t="s">
+      <c r="C115" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="D115" s="21"/>
-      <c r="E115" s="21" t="s">
+      <c r="D115" s="22"/>
+      <c r="E115" s="22" t="s">
         <v>1076</v>
       </c>
-      <c r="F115" s="21" t="s">
+      <c r="F115" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G115" s="18" t="s">
@@ -15760,20 +15767,20 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B116" s="21" t="s">
+      <c r="A116" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="C116" s="21" t="s">
+      <c r="C116" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="D116" s="21"/>
-      <c r="E116" s="21" t="s">
+      <c r="D116" s="22"/>
+      <c r="E116" s="22" t="s">
         <v>719</v>
       </c>
-      <c r="F116" s="21" t="s">
+      <c r="F116" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G116" s="18" t="s">
@@ -15793,20 +15800,20 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B117" s="21" t="s">
+      <c r="A117" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="C117" s="21" t="s">
+      <c r="C117" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="D117" s="21"/>
-      <c r="E117" s="21" t="s">
+      <c r="D117" s="22"/>
+      <c r="E117" s="22" t="s">
         <v>720</v>
       </c>
-      <c r="F117" s="21" t="s">
+      <c r="F117" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G117" s="18" t="s">
@@ -15826,20 +15833,20 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B118" s="21" t="s">
+      <c r="A118" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="C118" s="21" t="s">
+      <c r="C118" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="D118" s="21"/>
-      <c r="E118" s="21" t="s">
+      <c r="D118" s="22"/>
+      <c r="E118" s="22" t="s">
         <v>721</v>
       </c>
-      <c r="F118" s="21" t="s">
+      <c r="F118" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G118" s="18" t="s">
@@ -15859,20 +15866,20 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B119" s="21" t="s">
+      <c r="A119" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="C119" s="21" t="s">
+      <c r="C119" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="D119" s="21"/>
-      <c r="E119" s="21" t="s">
+      <c r="D119" s="22"/>
+      <c r="E119" s="22" t="s">
         <v>722</v>
       </c>
-      <c r="F119" s="21" t="s">
+      <c r="F119" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G119" s="18" t="s">
@@ -15892,20 +15899,20 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B120" s="21" t="s">
+      <c r="A120" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="C120" s="21" t="s">
+      <c r="C120" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="D120" s="21"/>
-      <c r="E120" s="21" t="s">
+      <c r="D120" s="22"/>
+      <c r="E120" s="22" t="s">
         <v>723</v>
       </c>
-      <c r="F120" s="21" t="s">
+      <c r="F120" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G120" s="18" t="s">
@@ -15925,20 +15932,20 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B121" s="21" t="s">
+      <c r="A121" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="C121" s="21" t="s">
+      <c r="C121" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="D121" s="21"/>
-      <c r="E121" s="21" t="s">
+      <c r="D121" s="22"/>
+      <c r="E121" s="22" t="s">
         <v>724</v>
       </c>
-      <c r="F121" s="21" t="s">
+      <c r="F121" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G121" s="18" t="s">
@@ -15958,20 +15965,20 @@
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B122" s="21" t="s">
+      <c r="A122" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="C122" s="21" t="s">
+      <c r="C122" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="D122" s="21"/>
-      <c r="E122" s="21" t="s">
+      <c r="D122" s="22"/>
+      <c r="E122" s="22" t="s">
         <v>725</v>
       </c>
-      <c r="F122" s="21" t="s">
+      <c r="F122" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G122" s="18" t="s">
@@ -15991,20 +15998,20 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B123" s="21" t="s">
+      <c r="A123" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="C123" s="21" t="s">
+      <c r="C123" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="D123" s="21"/>
-      <c r="E123" s="21" t="s">
+      <c r="D123" s="22"/>
+      <c r="E123" s="22" t="s">
         <v>726</v>
       </c>
-      <c r="F123" s="21" t="s">
+      <c r="F123" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G123" s="18" t="s">
@@ -16024,20 +16031,20 @@
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B124" s="21" t="s">
+      <c r="A124" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="C124" s="21" t="s">
+      <c r="C124" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="D124" s="21"/>
-      <c r="E124" s="21" t="s">
+      <c r="D124" s="22"/>
+      <c r="E124" s="22" t="s">
         <v>1005</v>
       </c>
-      <c r="F124" s="21" t="s">
+      <c r="F124" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G124" s="18" t="s">
@@ -16057,20 +16064,20 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B125" s="21" t="s">
+      <c r="A125" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="C125" s="21" t="s">
+      <c r="C125" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="D125" s="21"/>
-      <c r="E125" s="21" t="s">
+      <c r="D125" s="22"/>
+      <c r="E125" s="22" t="s">
         <v>730</v>
       </c>
-      <c r="F125" s="21" t="s">
+      <c r="F125" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G125" s="18" t="s">
@@ -16090,20 +16097,20 @@
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B126" s="21" t="s">
+      <c r="A126" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="C126" s="21" t="s">
+      <c r="C126" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="D126" s="21"/>
-      <c r="E126" s="21" t="s">
+      <c r="D126" s="22"/>
+      <c r="E126" s="22" t="s">
         <v>731</v>
       </c>
-      <c r="F126" s="21" t="s">
+      <c r="F126" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G126" s="18" t="s">
@@ -16123,20 +16130,20 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B127" s="21" t="s">
+      <c r="A127" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="C127" s="21" t="s">
+      <c r="C127" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="D127" s="21"/>
-      <c r="E127" s="21" t="s">
+      <c r="D127" s="22"/>
+      <c r="E127" s="22" t="s">
         <v>732</v>
       </c>
-      <c r="F127" s="21" t="s">
+      <c r="F127" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G127" s="18" t="s">
@@ -16156,22 +16163,22 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B128" s="21" t="s">
+      <c r="A128" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="C128" s="21" t="s">
+      <c r="C128" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="D128" s="21" t="s">
+      <c r="D128" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="E128" s="21" t="s">
+      <c r="E128" s="22" t="s">
         <v>979</v>
       </c>
-      <c r="F128" s="21" t="s">
+      <c r="F128" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G128" s="18" t="s">
@@ -16191,19 +16198,20 @@
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B129" s="18" t="s">
+      <c r="A129" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" s="21" t="s">
         <v>1057</v>
       </c>
-      <c r="C129" s="19" t="s">
+      <c r="C129" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="E129" s="18" t="s">
+      <c r="D129" s="21"/>
+      <c r="E129" s="21" t="s">
         <v>1058</v>
       </c>
-      <c r="F129" s="18" t="s">
+      <c r="F129" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G129" s="18" t="s">
@@ -16223,17 +16231,17 @@
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B130" s="21" t="s">
+      <c r="A130" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="C130" s="21" t="s">
+      <c r="C130" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="D130" s="21"/>
-      <c r="E130" s="21" t="s">
+      <c r="D130" s="22"/>
+      <c r="E130" s="22" t="s">
         <v>1010</v>
       </c>
       <c r="F130" s="18" t="s">
@@ -16256,17 +16264,17 @@
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B131" s="21" t="s">
+      <c r="A131" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="C131" s="21" t="s">
+      <c r="C131" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="D131" s="21"/>
-      <c r="E131" s="21" t="s">
+      <c r="D131" s="22"/>
+      <c r="E131" s="22" t="s">
         <v>951</v>
       </c>
       <c r="F131" s="19" t="s">
@@ -16289,17 +16297,17 @@
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B132" s="21" t="s">
+      <c r="A132" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="C132" s="21" t="s">
+      <c r="C132" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="D132" s="21"/>
-      <c r="E132" s="21" t="s">
+      <c r="D132" s="22"/>
+      <c r="E132" s="22" t="s">
         <v>952</v>
       </c>
       <c r="F132" s="19" t="s">
@@ -16322,17 +16330,17 @@
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B133" s="21" t="s">
+      <c r="A133" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C133" s="21" t="s">
+      <c r="C133" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="D133" s="21"/>
-      <c r="E133" s="21" t="s">
+      <c r="D133" s="22"/>
+      <c r="E133" s="22" t="s">
         <v>947</v>
       </c>
       <c r="F133" s="18" t="s">
@@ -16451,17 +16459,17 @@
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B137" s="21" t="s">
+      <c r="A137" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="C137" s="21" t="s">
+      <c r="C137" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="D137" s="21"/>
-      <c r="E137" s="21" t="s">
+      <c r="D137" s="22"/>
+      <c r="E137" s="22" t="s">
         <v>948</v>
       </c>
       <c r="F137" s="18" t="s">
@@ -16484,17 +16492,17 @@
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B138" s="21" t="s">
+      <c r="A138" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="C138" s="21" t="s">
+      <c r="C138" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="D138" s="21"/>
-      <c r="E138" s="21" t="s">
+      <c r="D138" s="22"/>
+      <c r="E138" s="22" t="s">
         <v>980</v>
       </c>
       <c r="F138" s="18" t="s">
@@ -16517,17 +16525,17 @@
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B139" s="21" t="s">
+      <c r="A139" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="C139" s="21" t="s">
+      <c r="C139" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="D139" s="21"/>
-      <c r="E139" s="21" t="s">
+      <c r="D139" s="22"/>
+      <c r="E139" s="22" t="s">
         <v>221</v>
       </c>
       <c r="F139" s="18" t="s">
@@ -16582,17 +16590,17 @@
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B141" s="21" t="s">
+      <c r="A141" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="C141" s="21" t="s">
+      <c r="C141" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="D141" s="21"/>
-      <c r="E141" s="21" t="s">
+      <c r="D141" s="22"/>
+      <c r="E141" s="22" t="s">
         <v>735</v>
       </c>
       <c r="F141" s="18" t="s">
@@ -16615,17 +16623,17 @@
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B142" s="21" t="s">
+      <c r="A142" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="C142" s="21" t="s">
+      <c r="C142" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="D142" s="21"/>
-      <c r="E142" s="21" t="s">
+      <c r="D142" s="22"/>
+      <c r="E142" s="22" t="s">
         <v>736</v>
       </c>
       <c r="F142" s="18" t="s">
@@ -16648,17 +16656,17 @@
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B143" s="21" t="s">
+      <c r="A143" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" s="22" t="s">
         <v>1078</v>
       </c>
-      <c r="C143" s="21" t="s">
+      <c r="C143" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="D143" s="21"/>
-      <c r="E143" s="21" t="s">
+      <c r="D143" s="22"/>
+      <c r="E143" s="22" t="s">
         <v>1079</v>
       </c>
       <c r="F143" s="18" t="s">
@@ -16681,17 +16689,17 @@
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B144" s="21" t="s">
+      <c r="A144" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" s="22" t="s">
         <v>1080</v>
       </c>
-      <c r="C144" s="21" t="s">
+      <c r="C144" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="D144" s="21"/>
-      <c r="E144" s="21" t="s">
+      <c r="D144" s="22"/>
+      <c r="E144" s="22" t="s">
         <v>1081</v>
       </c>
       <c r="F144" s="18" t="s">
@@ -16714,17 +16722,17 @@
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B145" s="21" t="s">
+      <c r="A145" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="C145" s="21" t="s">
+      <c r="C145" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="D145" s="21"/>
-      <c r="E145" s="21" t="s">
+      <c r="D145" s="22"/>
+      <c r="E145" s="22" t="s">
         <v>737</v>
       </c>
       <c r="F145" s="18" t="s">
@@ -16747,17 +16755,17 @@
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B146" s="21" t="s">
+      <c r="A146" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="C146" s="21" t="s">
+      <c r="C146" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="D146" s="21"/>
-      <c r="E146" s="21" t="s">
+      <c r="D146" s="22"/>
+      <c r="E146" s="22" t="s">
         <v>738</v>
       </c>
       <c r="F146" s="18" t="s">
@@ -16780,17 +16788,17 @@
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B147" s="21" t="s">
+      <c r="A147" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="C147" s="21" t="s">
+      <c r="C147" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="D147" s="21"/>
-      <c r="E147" s="21" t="s">
+      <c r="D147" s="22"/>
+      <c r="E147" s="22" t="s">
         <v>739</v>
       </c>
       <c r="F147" s="18" t="s">
@@ -16813,17 +16821,17 @@
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B148" s="21" t="s">
+      <c r="A148" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="C148" s="21" t="s">
+      <c r="C148" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="D148" s="21"/>
-      <c r="E148" s="21" t="s">
+      <c r="D148" s="22"/>
+      <c r="E148" s="22" t="s">
         <v>740</v>
       </c>
       <c r="F148" s="18" t="s">
@@ -16846,17 +16854,17 @@
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B149" s="21" t="s">
+      <c r="A149" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="C149" s="21" t="s">
+      <c r="C149" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="D149" s="21"/>
-      <c r="E149" s="21" t="s">
+      <c r="D149" s="22"/>
+      <c r="E149" s="22" t="s">
         <v>741</v>
       </c>
       <c r="F149" s="18" t="s">
@@ -16879,17 +16887,17 @@
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B150" s="21" t="s">
+      <c r="A150" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="C150" s="21" t="s">
+      <c r="C150" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="D150" s="21"/>
-      <c r="E150" s="21" t="s">
+      <c r="D150" s="22"/>
+      <c r="E150" s="22" t="s">
         <v>742</v>
       </c>
       <c r="F150" s="18" t="s">
@@ -16912,17 +16920,17 @@
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B151" s="21" t="s">
+      <c r="A151" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="C151" s="21" t="s">
+      <c r="C151" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="D151" s="21"/>
-      <c r="E151" s="21" t="s">
+      <c r="D151" s="22"/>
+      <c r="E151" s="22" t="s">
         <v>1082</v>
       </c>
       <c r="F151" s="18" t="s">
@@ -16977,19 +16985,20 @@
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B153" s="18" t="s">
+      <c r="A153" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" s="21" t="s">
         <v>1035</v>
       </c>
-      <c r="C153" s="18" t="s">
+      <c r="C153" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E153" s="18" t="s">
+      <c r="D153" s="21"/>
+      <c r="E153" s="21" t="s">
         <v>1036</v>
       </c>
-      <c r="F153" s="18" t="s">
+      <c r="F153" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G153" s="18" t="s">
@@ -17009,22 +17018,22 @@
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B154" s="18" t="s">
+      <c r="A154" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="C154" s="18" t="s">
+      <c r="C154" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="D154" s="18" t="s">
+      <c r="D154" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="E154" s="18" t="s">
+      <c r="E154" s="21" t="s">
         <v>744</v>
       </c>
-      <c r="F154" s="18" t="s">
+      <c r="F154" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G154" s="18" t="s">
@@ -17044,22 +17053,22 @@
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B155" s="18" t="s">
+      <c r="A155" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="C155" s="18" t="s">
+      <c r="C155" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="D155" s="18" t="s">
+      <c r="D155" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E155" s="18" t="s">
+      <c r="E155" s="21" t="s">
         <v>745</v>
       </c>
-      <c r="F155" s="18" t="s">
+      <c r="F155" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G155" s="18" t="s">
@@ -17442,22 +17451,22 @@
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="21" t="s">
+      <c r="A168" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B168" s="21" t="s">
+      <c r="B168" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C168" s="21" t="s">
+      <c r="C168" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D168" s="21" t="s">
+      <c r="D168" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="E168" s="21" t="s">
+      <c r="E168" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="F168" s="21" t="s">
+      <c r="F168" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G168" s="18" t="s">
@@ -17477,22 +17486,22 @@
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="21" t="s">
+      <c r="A169" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B169" s="21" t="s">
+      <c r="B169" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C169" s="21" t="s">
+      <c r="C169" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D169" s="21" t="s">
+      <c r="D169" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E169" s="21" t="s">
+      <c r="E169" s="22" t="s">
         <v>680</v>
       </c>
-      <c r="F169" s="21" t="s">
+      <c r="F169" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G169" s="18" t="s">
@@ -17512,22 +17521,22 @@
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="21" t="s">
+      <c r="A170" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B170" s="21" t="s">
+      <c r="B170" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="C170" s="21" t="s">
+      <c r="C170" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="D170" s="21" t="s">
+      <c r="D170" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E170" s="21" t="s">
+      <c r="E170" s="22" t="s">
         <v>747</v>
       </c>
-      <c r="F170" s="21" t="s">
+      <c r="F170" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G170" s="18" t="s">
@@ -17547,22 +17556,22 @@
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="21" t="s">
+      <c r="A171" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B171" s="21" t="s">
+      <c r="B171" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="C171" s="21" t="s">
+      <c r="C171" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="D171" s="21" t="s">
+      <c r="D171" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E171" s="21" t="s">
+      <c r="E171" s="22" t="s">
         <v>748</v>
       </c>
-      <c r="F171" s="21" t="s">
+      <c r="F171" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G171" s="18" t="s">
@@ -17582,22 +17591,22 @@
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="21" t="s">
+      <c r="A172" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B172" s="21" t="s">
+      <c r="B172" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C172" s="21" t="s">
+      <c r="C172" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="D172" s="21" t="s">
+      <c r="D172" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="E172" s="21" t="s">
+      <c r="E172" s="22" t="s">
         <v>749</v>
       </c>
-      <c r="F172" s="21" t="s">
+      <c r="F172" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G172" s="18" t="s">
@@ -17617,22 +17626,22 @@
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="21" t="s">
+      <c r="A173" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B173" s="21" t="s">
+      <c r="B173" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="C173" s="21" t="s">
+      <c r="C173" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="D173" s="21" t="s">
+      <c r="D173" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="E173" s="21" t="s">
+      <c r="E173" s="22" t="s">
         <v>750</v>
       </c>
-      <c r="F173" s="21" t="s">
+      <c r="F173" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G173" s="18" t="s">
@@ -17652,22 +17661,22 @@
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="21" t="s">
+      <c r="A174" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B174" s="21" t="s">
+      <c r="B174" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="C174" s="21" t="s">
+      <c r="C174" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="D174" s="21" t="s">
+      <c r="D174" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="E174" s="21" t="s">
+      <c r="E174" s="22" t="s">
         <v>751</v>
       </c>
-      <c r="F174" s="21" t="s">
+      <c r="F174" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G174" s="18" t="s">
@@ -17687,22 +17696,22 @@
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="21" t="s">
+      <c r="A175" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B175" s="21" t="s">
+      <c r="B175" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="C175" s="21" t="s">
+      <c r="C175" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="D175" s="21" t="s">
+      <c r="D175" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="E175" s="21" t="s">
+      <c r="E175" s="22" t="s">
         <v>895</v>
       </c>
-      <c r="F175" s="21" t="s">
+      <c r="F175" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G175" s="18" t="s">
@@ -17722,22 +17731,22 @@
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="21" t="s">
+      <c r="A176" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B176" s="21" t="s">
+      <c r="B176" s="22" t="s">
         <v>1045</v>
       </c>
-      <c r="C176" s="21" t="s">
+      <c r="C176" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="D176" s="21" t="s">
+      <c r="D176" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="E176" s="21" t="s">
+      <c r="E176" s="22" t="s">
         <v>1046</v>
       </c>
-      <c r="F176" s="21" t="s">
+      <c r="F176" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G176" s="18" t="s">
@@ -17757,22 +17766,22 @@
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A177" s="21" t="s">
+      <c r="A177" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B177" s="21" t="s">
+      <c r="B177" s="22" t="s">
         <v>1020</v>
       </c>
-      <c r="C177" s="21" t="s">
+      <c r="C177" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="D177" s="21" t="s">
+      <c r="D177" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="E177" s="21" t="s">
+      <c r="E177" s="22" t="s">
         <v>1021</v>
       </c>
-      <c r="F177" s="21" t="s">
+      <c r="F177" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G177" s="18" t="s">
@@ -17792,22 +17801,22 @@
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A178" s="21" t="s">
+      <c r="A178" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B178" s="21" t="s">
+      <c r="B178" s="22" t="s">
         <v>1022</v>
       </c>
-      <c r="C178" s="21" t="s">
+      <c r="C178" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="D178" s="21" t="s">
+      <c r="D178" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="E178" s="21" t="s">
+      <c r="E178" s="22" t="s">
         <v>1023</v>
       </c>
-      <c r="F178" s="21" t="s">
+      <c r="F178" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G178" s="18" t="s">
@@ -17827,22 +17836,22 @@
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" s="21" t="s">
+      <c r="A179" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B179" s="21" t="s">
+      <c r="B179" s="22" t="s">
         <v>1024</v>
       </c>
-      <c r="C179" s="21" t="s">
+      <c r="C179" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="D179" s="21" t="s">
+      <c r="D179" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="E179" s="21" t="s">
+      <c r="E179" s="22" t="s">
         <v>1025</v>
       </c>
-      <c r="F179" s="21" t="s">
+      <c r="F179" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G179" s="18" t="s">
@@ -17862,22 +17871,22 @@
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="21" t="s">
+      <c r="A180" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B180" s="21" t="s">
+      <c r="B180" s="22" t="s">
         <v>1026</v>
       </c>
-      <c r="C180" s="21" t="s">
+      <c r="C180" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="D180" s="21" t="s">
+      <c r="D180" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="E180" s="21" t="s">
+      <c r="E180" s="22" t="s">
         <v>1027</v>
       </c>
-      <c r="F180" s="21" t="s">
+      <c r="F180" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G180" s="18" t="s">
@@ -17897,22 +17906,22 @@
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="21" t="s">
+      <c r="A181" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B181" s="21" t="s">
+      <c r="B181" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="C181" s="21" t="s">
+      <c r="C181" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="D181" s="21" t="s">
+      <c r="D181" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="E181" s="21" t="s">
+      <c r="E181" s="22" t="s">
         <v>874</v>
       </c>
-      <c r="F181" s="21" t="s">
+      <c r="F181" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G181" s="18" t="s">
@@ -17932,22 +17941,22 @@
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A182" s="21" t="s">
+      <c r="A182" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B182" s="21" t="s">
+      <c r="B182" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="C182" s="21" t="s">
+      <c r="C182" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="D182" s="21" t="s">
+      <c r="D182" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="E182" s="21" t="s">
+      <c r="E182" s="22" t="s">
         <v>875</v>
       </c>
-      <c r="F182" s="21" t="s">
+      <c r="F182" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G182" s="18" t="s">
@@ -17967,22 +17976,22 @@
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A183" s="21" t="s">
+      <c r="A183" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B183" s="21" t="s">
+      <c r="B183" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="C183" s="21" t="s">
+      <c r="C183" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="D183" s="21" t="s">
+      <c r="D183" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="E183" s="21" t="s">
+      <c r="E183" s="22" t="s">
         <v>876</v>
       </c>
-      <c r="F183" s="21" t="s">
+      <c r="F183" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G183" s="18" t="s">
@@ -18002,22 +18011,22 @@
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A184" s="21" t="s">
+      <c r="A184" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B184" s="21" t="s">
+      <c r="B184" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="C184" s="21" t="s">
+      <c r="C184" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="D184" s="21" t="s">
+      <c r="D184" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="E184" s="21" t="s">
+      <c r="E184" s="22" t="s">
         <v>877</v>
       </c>
-      <c r="F184" s="21" t="s">
+      <c r="F184" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G184" s="18" t="s">
@@ -18037,22 +18046,22 @@
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A185" s="21" t="s">
+      <c r="A185" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B185" s="21" t="s">
+      <c r="B185" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="C185" s="21" t="s">
+      <c r="C185" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="D185" s="21" t="s">
+      <c r="D185" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="E185" s="21" t="s">
+      <c r="E185" s="22" t="s">
         <v>885</v>
       </c>
-      <c r="F185" s="21" t="s">
+      <c r="F185" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G185" s="18" t="s">
@@ -18072,22 +18081,22 @@
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A186" s="21" t="s">
+      <c r="A186" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B186" s="21" t="s">
+      <c r="B186" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="C186" s="21" t="s">
+      <c r="C186" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="D186" s="21" t="s">
+      <c r="D186" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="E186" s="21" t="s">
+      <c r="E186" s="22" t="s">
         <v>886</v>
       </c>
-      <c r="F186" s="21" t="s">
+      <c r="F186" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G186" s="18" t="s">
@@ -18107,22 +18116,22 @@
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A187" s="21" t="s">
+      <c r="A187" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B187" s="21" t="s">
+      <c r="B187" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="C187" s="21" t="s">
+      <c r="C187" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="D187" s="21" t="s">
+      <c r="D187" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="E187" s="21" t="s">
+      <c r="E187" s="22" t="s">
         <v>887</v>
       </c>
-      <c r="F187" s="21" t="s">
+      <c r="F187" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G187" s="18" t="s">
@@ -18142,22 +18151,22 @@
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A188" s="21" t="s">
+      <c r="A188" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B188" s="21" t="s">
+      <c r="B188" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="C188" s="21" t="s">
+      <c r="C188" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="D188" s="21" t="s">
+      <c r="D188" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="E188" s="21" t="s">
+      <c r="E188" s="22" t="s">
         <v>888</v>
       </c>
-      <c r="F188" s="21" t="s">
+      <c r="F188" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G188" s="18" t="s">
@@ -18177,22 +18186,22 @@
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A189" s="21" t="s">
+      <c r="A189" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B189" s="21" t="s">
+      <c r="B189" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="C189" s="21" t="s">
+      <c r="C189" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="D189" s="21" t="s">
+      <c r="D189" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="E189" s="21" t="s">
+      <c r="E189" s="22" t="s">
         <v>758</v>
       </c>
-      <c r="F189" s="21" t="s">
+      <c r="F189" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G189" s="18" t="s">
@@ -18212,22 +18221,22 @@
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A190" s="21" t="s">
+      <c r="A190" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B190" s="21" t="s">
+      <c r="B190" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="C190" s="21" t="s">
+      <c r="C190" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="D190" s="21" t="s">
+      <c r="D190" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="E190" s="21" t="s">
+      <c r="E190" s="22" t="s">
         <v>760</v>
       </c>
-      <c r="F190" s="21" t="s">
+      <c r="F190" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G190" s="18" t="s">
@@ -18247,22 +18256,22 @@
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A191" s="21" t="s">
+      <c r="A191" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B191" s="21" t="s">
+      <c r="B191" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="C191" s="21" t="s">
+      <c r="C191" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="D191" s="21" t="s">
+      <c r="D191" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="E191" s="21" t="s">
+      <c r="E191" s="22" t="s">
         <v>761</v>
       </c>
-      <c r="F191" s="21" t="s">
+      <c r="F191" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G191" s="18" t="s">
@@ -18282,22 +18291,22 @@
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A192" s="21" t="s">
+      <c r="A192" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B192" s="21" t="s">
+      <c r="B192" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="C192" s="21" t="s">
+      <c r="C192" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="D192" s="21" t="s">
+      <c r="D192" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="E192" s="21" t="s">
+      <c r="E192" s="22" t="s">
         <v>759</v>
       </c>
-      <c r="F192" s="21" t="s">
+      <c r="F192" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G192" s="18" t="s">
@@ -18317,22 +18326,22 @@
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A193" s="21" t="s">
+      <c r="A193" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B193" s="21" t="s">
+      <c r="B193" s="22" t="s">
         <v>1028</v>
       </c>
-      <c r="C193" s="21" t="s">
+      <c r="C193" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="D193" s="21" t="s">
+      <c r="D193" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="E193" s="21" t="s">
+      <c r="E193" s="22" t="s">
         <v>1029</v>
       </c>
-      <c r="F193" s="21" t="s">
+      <c r="F193" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G193" s="18" t="s">
@@ -18352,22 +18361,22 @@
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A194" s="21" t="s">
+      <c r="A194" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B194" s="21" t="s">
+      <c r="B194" s="22" t="s">
         <v>1030</v>
       </c>
-      <c r="C194" s="21" t="s">
+      <c r="C194" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="D194" s="21" t="s">
+      <c r="D194" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="E194" s="21" t="s">
+      <c r="E194" s="22" t="s">
         <v>1031</v>
       </c>
-      <c r="F194" s="21" t="s">
+      <c r="F194" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G194" s="18" t="s">
@@ -18387,22 +18396,22 @@
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A195" s="21" t="s">
+      <c r="A195" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B195" s="21" t="s">
+      <c r="B195" s="22" t="s">
         <v>1032</v>
       </c>
-      <c r="C195" s="21" t="s">
+      <c r="C195" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="D195" s="21" t="s">
+      <c r="D195" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="E195" s="21" t="s">
+      <c r="E195" s="22" t="s">
         <v>1033</v>
       </c>
-      <c r="F195" s="21" t="s">
+      <c r="F195" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G195" s="18" t="s">
@@ -18422,22 +18431,22 @@
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A196" s="21" t="s">
+      <c r="A196" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B196" s="21" t="s">
+      <c r="B196" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="C196" s="21" t="s">
+      <c r="C196" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="D196" s="21" t="s">
+      <c r="D196" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="E196" s="21" t="s">
+      <c r="E196" s="22" t="s">
         <v>881</v>
       </c>
-      <c r="F196" s="21" t="s">
+      <c r="F196" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G196" s="18" t="s">
@@ -18457,22 +18466,22 @@
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A197" s="21" t="s">
+      <c r="A197" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B197" s="21" t="s">
+      <c r="B197" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="C197" s="21" t="s">
+      <c r="C197" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="D197" s="21" t="s">
+      <c r="D197" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="E197" s="21" t="s">
+      <c r="E197" s="22" t="s">
         <v>882</v>
       </c>
-      <c r="F197" s="21" t="s">
+      <c r="F197" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G197" s="18" t="s">
@@ -18492,22 +18501,22 @@
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A198" s="21" t="s">
+      <c r="A198" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B198" s="21" t="s">
+      <c r="B198" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="C198" s="21" t="s">
+      <c r="C198" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="D198" s="21" t="s">
+      <c r="D198" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="E198" s="21" t="s">
+      <c r="E198" s="22" t="s">
         <v>883</v>
       </c>
-      <c r="F198" s="21" t="s">
+      <c r="F198" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G198" s="18" t="s">
@@ -18527,20 +18536,20 @@
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A199" s="21" t="s">
+      <c r="A199" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B199" s="21" t="s">
+      <c r="B199" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="C199" s="21" t="s">
+      <c r="C199" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="D199" s="21"/>
-      <c r="E199" s="21" t="s">
+      <c r="D199" s="22"/>
+      <c r="E199" s="22" t="s">
         <v>563</v>
       </c>
-      <c r="F199" s="21" t="s">
+      <c r="F199" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G199" s="18" t="s">
@@ -18560,22 +18569,22 @@
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A200" s="21" t="s">
+      <c r="A200" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B200" s="21" t="s">
+      <c r="B200" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="C200" s="21" t="s">
+      <c r="C200" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="D200" s="21" t="s">
+      <c r="D200" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="E200" s="21" t="s">
+      <c r="E200" s="22" t="s">
         <v>762</v>
       </c>
-      <c r="F200" s="21" t="s">
+      <c r="F200" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G200" s="18" t="s">
@@ -18595,22 +18604,22 @@
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A201" s="21" t="s">
+      <c r="A201" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B201" s="21" t="s">
+      <c r="B201" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="C201" s="21" t="s">
+      <c r="C201" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="D201" s="21" t="s">
+      <c r="D201" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="E201" s="21" t="s">
+      <c r="E201" s="22" t="s">
         <v>981</v>
       </c>
-      <c r="F201" s="21" t="s">
+      <c r="F201" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G201" s="18" t="s">
@@ -18630,22 +18639,22 @@
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A202" s="21" t="s">
+      <c r="A202" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B202" s="21" t="s">
+      <c r="B202" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="C202" s="21" t="s">
+      <c r="C202" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="D202" s="21" t="s">
+      <c r="D202" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="E202" s="21" t="s">
+      <c r="E202" s="22" t="s">
         <v>763</v>
       </c>
-      <c r="F202" s="21" t="s">
+      <c r="F202" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G202" s="18" t="s">
@@ -18665,22 +18674,22 @@
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A203" s="21" t="s">
+      <c r="A203" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B203" s="21" t="s">
+      <c r="B203" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="C203" s="21" t="s">
+      <c r="C203" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="D203" s="21" t="s">
+      <c r="D203" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="E203" s="21" t="s">
+      <c r="E203" s="22" t="s">
         <v>764</v>
       </c>
-      <c r="F203" s="21" t="s">
+      <c r="F203" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G203" s="18" t="s">
@@ -18700,22 +18709,22 @@
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A204" s="21" t="s">
+      <c r="A204" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B204" s="21" t="s">
+      <c r="B204" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C204" s="21" t="s">
+      <c r="C204" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D204" s="21" t="s">
+      <c r="D204" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E204" s="21" t="s">
+      <c r="E204" s="22" t="s">
         <v>642</v>
       </c>
-      <c r="F204" s="21" t="s">
+      <c r="F204" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G204" s="18" t="s">
@@ -18735,22 +18744,22 @@
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A205" s="21" t="s">
+      <c r="A205" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B205" s="21" t="s">
+      <c r="B205" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C205" s="21" t="s">
+      <c r="C205" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D205" s="21" t="s">
+      <c r="D205" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E205" s="21" t="s">
+      <c r="E205" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="F205" s="21" t="s">
+      <c r="F205" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G205" s="18" t="s">
@@ -18770,22 +18779,22 @@
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A206" s="21" t="s">
+      <c r="A206" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B206" s="21" t="s">
+      <c r="B206" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C206" s="21" t="s">
+      <c r="C206" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D206" s="21" t="s">
+      <c r="D206" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E206" s="21" t="s">
+      <c r="E206" s="22" t="s">
         <v>644</v>
       </c>
-      <c r="F206" s="21" t="s">
+      <c r="F206" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G206" s="18" t="s">
@@ -18805,22 +18814,22 @@
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A207" s="21" t="s">
+      <c r="A207" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B207" s="21" t="s">
+      <c r="B207" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="C207" s="21" t="s">
+      <c r="C207" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="D207" s="21" t="s">
+      <c r="D207" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E207" s="21" t="s">
+      <c r="E207" s="22" t="s">
         <v>766</v>
       </c>
-      <c r="F207" s="21" t="s">
+      <c r="F207" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G207" s="18" t="s">
@@ -18840,22 +18849,22 @@
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A208" s="21" t="s">
+      <c r="A208" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B208" s="21" t="s">
+      <c r="B208" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="C208" s="21" t="s">
+      <c r="C208" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="D208" s="21" t="s">
+      <c r="D208" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="E208" s="21" t="s">
+      <c r="E208" s="22" t="s">
         <v>767</v>
       </c>
-      <c r="F208" s="21" t="s">
+      <c r="F208" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G208" s="18" t="s">
@@ -18875,22 +18884,22 @@
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A209" s="21" t="s">
+      <c r="A209" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B209" s="21" t="s">
+      <c r="B209" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C209" s="21" t="s">
+      <c r="C209" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D209" s="21" t="s">
+      <c r="D209" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="E209" s="21" t="s">
+      <c r="E209" s="22" t="s">
         <v>648</v>
       </c>
-      <c r="F209" s="21" t="s">
+      <c r="F209" s="22" t="s">
         <v>991</v>
       </c>
       <c r="G209" s="18" t="s">
@@ -18910,22 +18919,22 @@
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A210" s="21" t="s">
+      <c r="A210" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B210" s="21" t="s">
+      <c r="B210" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C210" s="21" t="s">
+      <c r="C210" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D210" s="21" t="s">
+      <c r="D210" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="E210" s="21" t="s">
+      <c r="E210" s="22" t="s">
         <v>649</v>
       </c>
-      <c r="F210" s="21" t="s">
+      <c r="F210" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G210" s="18" t="s">
@@ -18945,22 +18954,22 @@
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A211" s="21" t="s">
+      <c r="A211" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B211" s="21" t="s">
+      <c r="B211" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="C211" s="21" t="s">
+      <c r="C211" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="D211" s="21" t="s">
+      <c r="D211" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="E211" s="21" t="s">
+      <c r="E211" s="22" t="s">
         <v>768</v>
       </c>
-      <c r="F211" s="21" t="s">
+      <c r="F211" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G211" s="18" t="s">
@@ -18980,22 +18989,22 @@
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A212" s="21" t="s">
+      <c r="A212" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B212" s="21" t="s">
+      <c r="B212" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="C212" s="21" t="s">
+      <c r="C212" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="D212" s="21" t="s">
+      <c r="D212" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="E212" s="21" t="s">
+      <c r="E212" s="22" t="s">
         <v>769</v>
       </c>
-      <c r="F212" s="21" t="s">
+      <c r="F212" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G212" s="18" t="s">
@@ -19015,22 +19024,22 @@
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A213" s="21" t="s">
+      <c r="A213" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B213" s="21" t="s">
+      <c r="B213" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="C213" s="21" t="s">
+      <c r="C213" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="D213" s="21" t="s">
+      <c r="D213" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="E213" s="21" t="s">
+      <c r="E213" s="22" t="s">
         <v>954</v>
       </c>
-      <c r="F213" s="21" t="s">
+      <c r="F213" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G213" s="18" t="s">
@@ -19050,22 +19059,22 @@
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A214" s="21" t="s">
+      <c r="A214" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B214" s="21" t="s">
+      <c r="B214" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="C214" s="21" t="s">
+      <c r="C214" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="D214" s="21" t="s">
+      <c r="D214" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E214" s="21" t="s">
+      <c r="E214" s="22" t="s">
         <v>770</v>
       </c>
-      <c r="F214" s="21" t="s">
+      <c r="F214" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G214" s="18" t="s">
@@ -19085,22 +19094,22 @@
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A215" s="21" t="s">
+      <c r="A215" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B215" s="21" t="s">
+      <c r="B215" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="C215" s="21" t="s">
+      <c r="C215" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="D215" s="21" t="s">
+      <c r="D215" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="E215" s="21" t="s">
+      <c r="E215" s="22" t="s">
         <v>773</v>
       </c>
-      <c r="F215" s="21" t="s">
+      <c r="F215" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G215" s="18" t="s">
@@ -19120,22 +19129,22 @@
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A216" s="21" t="s">
+      <c r="A216" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B216" s="21" t="s">
+      <c r="B216" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="C216" s="21" t="s">
+      <c r="C216" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="D216" s="21" t="s">
+      <c r="D216" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="E216" s="21" t="s">
+      <c r="E216" s="22" t="s">
         <v>772</v>
       </c>
-      <c r="F216" s="21" t="s">
+      <c r="F216" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G216" s="18" t="s">
@@ -19367,22 +19376,22 @@
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A224" s="21" t="s">
+      <c r="A224" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="B224" s="21" t="s">
+      <c r="B224" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C224" s="21" t="s">
+      <c r="C224" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D224" s="21" t="s">
+      <c r="D224" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="E224" s="21" t="s">
+      <c r="E224" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="F224" s="21" t="s">
+      <c r="F224" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G224" s="18" t="s">
@@ -19402,22 +19411,22 @@
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A225" s="21" t="s">
+      <c r="A225" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="B225" s="21" t="s">
+      <c r="B225" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="C225" s="21" t="s">
+      <c r="C225" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="D225" s="21" t="s">
+      <c r="D225" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="E225" s="21" t="s">
+      <c r="E225" s="22" t="s">
         <v>780</v>
       </c>
-      <c r="F225" s="21" t="s">
+      <c r="F225" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G225" s="18" t="s">
@@ -19437,22 +19446,22 @@
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A226" s="21" t="s">
+      <c r="A226" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="B226" s="21" t="s">
+      <c r="B226" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="C226" s="21" t="s">
+      <c r="C226" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="D226" s="21" t="s">
+      <c r="D226" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="E226" s="21" t="s">
+      <c r="E226" s="22" t="s">
         <v>781</v>
       </c>
-      <c r="F226" s="21" t="s">
+      <c r="F226" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G226" s="18" t="s">
@@ -19472,22 +19481,22 @@
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A227" s="21" t="s">
+      <c r="A227" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="B227" s="21" t="s">
+      <c r="B227" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="C227" s="21" t="s">
+      <c r="C227" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="D227" s="21" t="s">
+      <c r="D227" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="E227" s="21" t="s">
+      <c r="E227" s="22" t="s">
         <v>782</v>
       </c>
-      <c r="F227" s="21" t="s">
+      <c r="F227" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G227" s="18" t="s">
@@ -19507,22 +19516,22 @@
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A228" s="21" t="s">
+      <c r="A228" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="B228" s="21" t="s">
+      <c r="B228" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="C228" s="21" t="s">
+      <c r="C228" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="D228" s="21" t="s">
+      <c r="D228" s="22" t="s">
         <v>861</v>
       </c>
-      <c r="E228" s="21" t="s">
+      <c r="E228" s="22" t="s">
         <v>861</v>
       </c>
-      <c r="F228" s="21" t="s">
+      <c r="F228" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G228" s="18" t="s">
@@ -19542,22 +19551,22 @@
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A229" s="21" t="s">
+      <c r="A229" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="B229" s="21" t="s">
+      <c r="B229" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C229" s="21" t="s">
+      <c r="C229" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D229" s="21" t="s">
+      <c r="D229" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E229" s="21" t="s">
+      <c r="E229" s="22" t="s">
         <v>642</v>
       </c>
-      <c r="F229" s="21" t="s">
+      <c r="F229" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G229" s="18" t="s">
@@ -19577,22 +19586,22 @@
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A230" s="21" t="s">
+      <c r="A230" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="B230" s="21" t="s">
+      <c r="B230" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C230" s="21" t="s">
+      <c r="C230" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D230" s="21" t="s">
+      <c r="D230" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E230" s="21" t="s">
+      <c r="E230" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="F230" s="21" t="s">
+      <c r="F230" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G230" s="18" t="s">
@@ -19612,22 +19621,22 @@
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A231" s="21" t="s">
+      <c r="A231" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="B231" s="21" t="s">
+      <c r="B231" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C231" s="21" t="s">
+      <c r="C231" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D231" s="21" t="s">
+      <c r="D231" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E231" s="21" t="s">
+      <c r="E231" s="22" t="s">
         <v>644</v>
       </c>
-      <c r="F231" s="21" t="s">
+      <c r="F231" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G231" s="18" t="s">
@@ -19647,22 +19656,22 @@
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A232" s="21" t="s">
+      <c r="A232" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="B232" s="21" t="s">
+      <c r="B232" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="C232" s="21" t="s">
+      <c r="C232" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="D232" s="21" t="s">
+      <c r="D232" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E232" s="21" t="s">
+      <c r="E232" s="22" t="s">
         <v>783</v>
       </c>
-      <c r="F232" s="21" t="s">
+      <c r="F232" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G232" s="18" t="s">
@@ -19682,22 +19691,22 @@
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A233" s="21" t="s">
+      <c r="A233" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="B233" s="21" t="s">
+      <c r="B233" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="C233" s="21" t="s">
+      <c r="C233" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="D233" s="21" t="s">
+      <c r="D233" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="E233" s="21" t="s">
+      <c r="E233" s="22" t="s">
         <v>767</v>
       </c>
-      <c r="F233" s="21" t="s">
+      <c r="F233" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G233" s="18" t="s">
@@ -19717,22 +19726,22 @@
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A234" s="21" t="s">
+      <c r="A234" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="B234" s="21" t="s">
+      <c r="B234" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="C234" s="21" t="s">
+      <c r="C234" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="D234" s="21" t="s">
+      <c r="D234" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="E234" s="21" t="s">
+      <c r="E234" s="22" t="s">
         <v>784</v>
       </c>
-      <c r="F234" s="21" t="s">
+      <c r="F234" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G234" s="18" t="s">
@@ -19752,22 +19761,22 @@
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A235" s="21" t="s">
+      <c r="A235" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="B235" s="21" t="s">
+      <c r="B235" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="C235" s="21" t="s">
+      <c r="C235" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="D235" s="21" t="s">
+      <c r="D235" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="E235" s="21" t="s">
+      <c r="E235" s="22" t="s">
         <v>1011</v>
       </c>
-      <c r="F235" s="21" t="s">
+      <c r="F235" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G235" s="18" t="s">
@@ -19787,22 +19796,22 @@
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A236" s="21" t="s">
+      <c r="A236" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="B236" s="21" t="s">
+      <c r="B236" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="C236" s="21" t="s">
+      <c r="C236" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="D236" s="21" t="s">
+      <c r="D236" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="E236" s="21" t="s">
+      <c r="E236" s="22" t="s">
         <v>786</v>
       </c>
-      <c r="F236" s="21" t="s">
+      <c r="F236" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G236" s="18" t="s">
@@ -19822,22 +19831,22 @@
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A237" s="21" t="s">
+      <c r="A237" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="B237" s="21" t="s">
+      <c r="B237" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="C237" s="21" t="s">
+      <c r="C237" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="D237" s="21" t="s">
+      <c r="D237" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="E237" s="21" t="s">
+      <c r="E237" s="22" t="s">
         <v>787</v>
       </c>
-      <c r="F237" s="21" t="s">
+      <c r="F237" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G237" s="18" t="s">
@@ -19857,22 +19866,22 @@
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A238" s="21" t="s">
+      <c r="A238" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="B238" s="21" t="s">
+      <c r="B238" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="C238" s="21" t="s">
+      <c r="C238" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="D238" s="21" t="s">
+      <c r="D238" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="E238" s="21" t="s">
+      <c r="E238" s="22" t="s">
         <v>788</v>
       </c>
-      <c r="F238" s="21" t="s">
+      <c r="F238" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G238" s="18" t="s">
@@ -19892,22 +19901,22 @@
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A239" s="21" t="s">
+      <c r="A239" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="B239" s="21" t="s">
+      <c r="B239" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="C239" s="21" t="s">
+      <c r="C239" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="D239" s="21" t="s">
+      <c r="D239" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="E239" s="21" t="s">
+      <c r="E239" s="22" t="s">
         <v>789</v>
       </c>
-      <c r="F239" s="21" t="s">
+      <c r="F239" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G239" s="18" t="s">
@@ -19927,22 +19936,22 @@
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A240" s="21" t="s">
+      <c r="A240" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="B240" s="21" t="s">
+      <c r="B240" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="C240" s="21" t="s">
+      <c r="C240" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="D240" s="21" t="s">
+      <c r="D240" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="E240" s="21" t="s">
+      <c r="E240" s="22" t="s">
         <v>790</v>
       </c>
-      <c r="F240" s="21" t="s">
+      <c r="F240" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G240" s="18" t="s">
@@ -19962,22 +19971,22 @@
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A241" s="21" t="s">
+      <c r="A241" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="B241" s="21" t="s">
+      <c r="B241" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="C241" s="21" t="s">
+      <c r="C241" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="D241" s="21" t="s">
+      <c r="D241" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="E241" s="21" t="s">
+      <c r="E241" s="22" t="s">
         <v>663</v>
       </c>
-      <c r="F241" s="21" t="s">
+      <c r="F241" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G241" s="18" t="s">
@@ -19997,20 +20006,20 @@
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A242" s="21" t="s">
+      <c r="A242" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="B242" s="21" t="s">
+      <c r="B242" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C242" s="21" t="s">
+      <c r="C242" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D242" s="21"/>
-      <c r="E242" s="21" t="s">
+      <c r="D242" s="22"/>
+      <c r="E242" s="22" t="s">
         <v>939</v>
       </c>
-      <c r="F242" s="21" t="s">
+      <c r="F242" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G242" s="18" t="s">
@@ -20044,20 +20053,20 @@
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A244" s="21" t="s">
+      <c r="A244" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="B244" s="21" t="s">
+      <c r="B244" s="22" t="s">
         <v>502</v>
       </c>
-      <c r="C244" s="21" t="s">
+      <c r="C244" s="22" t="s">
         <v>502</v>
       </c>
-      <c r="D244" s="21"/>
-      <c r="E244" s="21" t="s">
+      <c r="D244" s="22"/>
+      <c r="E244" s="22" t="s">
         <v>858</v>
       </c>
-      <c r="F244" s="21" t="s">
+      <c r="F244" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G244" s="18" t="s">
@@ -20073,24 +20082,24 @@
       </c>
       <c r="J244" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoPessoaTitular))| registroVinculo.cod_pessoa_tit = msg.codigoPessoaTitular;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoPessoaTitular))| registroReferencia.cod_pessoa_tit = msg.codigoPessoaTitular;</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A245" s="21" t="s">
+      <c r="A245" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="B245" s="21" t="s">
+      <c r="B245" s="22" t="s">
         <v>503</v>
       </c>
-      <c r="C245" s="21" t="s">
+      <c r="C245" s="22" t="s">
         <v>503</v>
       </c>
-      <c r="D245" s="21"/>
-      <c r="E245" s="21" t="s">
+      <c r="D245" s="22"/>
+      <c r="E245" s="22" t="s">
         <v>859</v>
       </c>
-      <c r="F245" s="21" t="s">
+      <c r="F245" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G245" s="18" t="s">
@@ -20106,24 +20115,24 @@
       </c>
       <c r="J245" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoFilialTitular))| registroVinculo.cod_fil_tit = msg.codigoFilialTitular;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoFilialTitular))| registroReferencia.cod_fil_tit = msg.codigoFilialTitular;</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A246" s="21" t="s">
+      <c r="A246" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="B246" s="21" t="s">
+      <c r="B246" s="22" t="s">
         <v>504</v>
       </c>
-      <c r="C246" s="21" t="s">
+      <c r="C246" s="22" t="s">
         <v>504</v>
       </c>
-      <c r="D246" s="21"/>
-      <c r="E246" s="21" t="s">
+      <c r="D246" s="22"/>
+      <c r="E246" s="22" t="s">
         <v>854</v>
       </c>
-      <c r="F246" s="21" t="s">
+      <c r="F246" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G246" s="18" t="s">
@@ -20139,24 +20148,24 @@
       </c>
       <c r="J246" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>|if(msg.sequencial &gt; 0)| registroVinculo.seq_ref = msg.sequencial;</v>
+        <v>|if(msg.sequencial &gt; 0)| registroReferencia.seq_ref = msg.sequencial;</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A247" s="21" t="s">
+      <c r="A247" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="B247" s="21" t="s">
+      <c r="B247" s="22" t="s">
         <v>505</v>
       </c>
-      <c r="C247" s="21" t="s">
+      <c r="C247" s="22" t="s">
         <v>505</v>
       </c>
-      <c r="D247" s="21"/>
-      <c r="E247" s="21" t="s">
+      <c r="D247" s="22"/>
+      <c r="E247" s="22" t="s">
         <v>860</v>
       </c>
-      <c r="F247" s="21" t="s">
+      <c r="F247" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G247" s="18" t="s">
@@ -20172,24 +20181,24 @@
       </c>
       <c r="J247" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.tipo))| registroVinculo.tip_ref = msg.tipo;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.tipo))| registroReferencia.tip_ref = msg.tipo;</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A248" s="21" t="s">
+      <c r="A248" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="B248" s="21" t="s">
+      <c r="B248" s="22" t="s">
         <v>506</v>
       </c>
-      <c r="C248" s="21" t="s">
+      <c r="C248" s="22" t="s">
         <v>506</v>
       </c>
-      <c r="D248" s="21"/>
-      <c r="E248" s="21" t="s">
+      <c r="D248" s="22"/>
+      <c r="E248" s="22" t="s">
         <v>861</v>
       </c>
-      <c r="F248" s="21" t="s">
+      <c r="F248" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G248" s="18" t="s">
@@ -20205,24 +20214,24 @@
       </c>
       <c r="J248" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.observacao))| registroVinculo.obs_ref = msg.observacao;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.observacao))| registroReferencia.obs_ref = msg.observacao;</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A249" s="21" t="s">
+      <c r="A249" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="B249" s="21" t="s">
+      <c r="B249" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="C249" s="21" t="s">
+      <c r="C249" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="D249" s="21"/>
-      <c r="E249" s="21" t="s">
+      <c r="D249" s="22"/>
+      <c r="E249" s="22" t="s">
         <v>862</v>
       </c>
-      <c r="F249" s="21" t="s">
+      <c r="F249" s="22" t="s">
         <v>991</v>
       </c>
       <c r="G249" s="18" t="s">
@@ -20238,24 +20247,24 @@
       </c>
       <c r="J249" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>|if(msg.numeroCartao &gt; 0)| registroVinculo.num_cartao_ref = msg.numeroCartao;</v>
+        <v>|if(msg.numeroCartao &gt; 0)| registroReferencia.num_cartao_ref = msg.numeroCartao;</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A250" s="21" t="s">
+      <c r="A250" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="B250" s="21" t="s">
+      <c r="B250" s="22" t="s">
         <v>508</v>
       </c>
-      <c r="C250" s="21" t="s">
+      <c r="C250" s="22" t="s">
         <v>508</v>
       </c>
-      <c r="D250" s="21"/>
-      <c r="E250" s="21" t="s">
+      <c r="D250" s="22"/>
+      <c r="E250" s="22" t="s">
         <v>863</v>
       </c>
-      <c r="F250" s="21" t="s">
+      <c r="F250" s="22" t="s">
         <v>991</v>
       </c>
       <c r="G250" s="18" t="s">
@@ -20271,24 +20280,24 @@
       </c>
       <c r="J250" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>|if(msg.valorLimite &gt; 0)| registroVinculo.val_lim_ref = msg.valorLimite;</v>
+        <v>|if(msg.valorLimite &gt; 0)| registroReferencia.val_lim_ref = msg.valorLimite;</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A251" s="21" t="s">
+      <c r="A251" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="B251" s="21" t="s">
+      <c r="B251" s="22" t="s">
         <v>509</v>
       </c>
-      <c r="C251" s="21" t="s">
+      <c r="C251" s="22" t="s">
         <v>509</v>
       </c>
-      <c r="D251" s="21"/>
-      <c r="E251" s="21" t="s">
+      <c r="D251" s="22"/>
+      <c r="E251" s="22" t="s">
         <v>864</v>
       </c>
-      <c r="F251" s="21" t="s">
+      <c r="F251" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G251" s="18" t="s">
@@ -20304,24 +20313,24 @@
       </c>
       <c r="J251" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>|if(msg.dataInicioEmprego != DateTime.MinValue)| registroVinculo.dat_ini_emprego = msg.dataInicioEmprego;</v>
+        <v>|if(msg.dataInicioEmprego != DateTime.MinValue)| registroReferencia.dat_ini_emprego = msg.dataInicioEmprego;</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A252" s="21" t="s">
+      <c r="A252" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="B252" s="21" t="s">
+      <c r="B252" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C252" s="21" t="s">
+      <c r="C252" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="D252" s="21"/>
-      <c r="E252" s="21" t="s">
+      <c r="D252" s="22"/>
+      <c r="E252" s="22" t="s">
         <v>865</v>
       </c>
-      <c r="F252" s="21" t="s">
+      <c r="F252" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G252" s="18" t="s">
@@ -20337,24 +20346,24 @@
       </c>
       <c r="J252" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>|if(msg.dataFinalEmprego != DateTime.MinValue)| registroVinculo.dat_fim_emprego = msg.dataFinalEmprego;</v>
+        <v>|if(msg.dataFinalEmprego != DateTime.MinValue)| registroReferencia.dat_fim_emprego = msg.dataFinalEmprego;</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A253" s="21" t="s">
+      <c r="A253" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="B253" s="21" t="s">
+      <c r="B253" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C253" s="21" t="s">
+      <c r="C253" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D253" s="21"/>
-      <c r="E253" s="21" t="s">
+      <c r="D253" s="22"/>
+      <c r="E253" s="22" t="s">
         <v>642</v>
       </c>
-      <c r="F253" s="21" t="s">
+      <c r="F253" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G253" s="18" t="s">
@@ -20370,24 +20379,24 @@
       </c>
       <c r="J253" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>|if(msg.dataCadastro != DateTime.MinValue)| registroVinculo.dat_cad = msg.dataCadastro;</v>
+        <v>|if(msg.dataCadastro != DateTime.MinValue)| registroReferencia.dat_cad = msg.dataCadastro;</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A254" s="21" t="s">
+      <c r="A254" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="B254" s="21" t="s">
+      <c r="B254" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C254" s="21" t="s">
+      <c r="C254" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D254" s="21"/>
-      <c r="E254" s="21" t="s">
+      <c r="D254" s="22"/>
+      <c r="E254" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="F254" s="21" t="s">
+      <c r="F254" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G254" s="18" t="s">
@@ -20403,24 +20412,24 @@
       </c>
       <c r="J254" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.usuarioUltimaAtualizacao))| registroVinculo.usu_atu = msg.usuarioUltimaAtualizacao;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.usuarioUltimaAtualizacao))| registroReferencia.usu_atu = msg.usuarioUltimaAtualizacao;</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A255" s="21" t="s">
+      <c r="A255" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="B255" s="21" t="s">
+      <c r="B255" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C255" s="21" t="s">
+      <c r="C255" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D255" s="21"/>
-      <c r="E255" s="21" t="s">
+      <c r="D255" s="22"/>
+      <c r="E255" s="22" t="s">
         <v>644</v>
       </c>
-      <c r="F255" s="21" t="s">
+      <c r="F255" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G255" s="18" t="s">
@@ -20436,24 +20445,24 @@
       </c>
       <c r="J255" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>|if(msg.dataAtualizacao != DateTime.MinValue)| registroVinculo.dat_atu = msg.dataAtualizacao;</v>
+        <v>|if(msg.dataAtualizacao != DateTime.MinValue)| registroReferencia.dat_atu = msg.dataAtualizacao;</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A256" s="21" t="s">
+      <c r="A256" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="B256" s="21" t="s">
+      <c r="B256" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="C256" s="21" t="s">
+      <c r="C256" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="D256" s="21"/>
-      <c r="E256" s="21" t="s">
+      <c r="D256" s="22"/>
+      <c r="E256" s="22" t="s">
         <v>766</v>
       </c>
-      <c r="F256" s="21" t="s">
+      <c r="F256" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G256" s="18" t="s">
@@ -20469,24 +20478,24 @@
       </c>
       <c r="J256" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorSituacao))| registroVinculo.idc_sit = msg.indicadorSituacao;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorSituacao))| registroReferencia.idc_sit = msg.indicadorSituacao;</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A257" s="21" t="s">
+      <c r="A257" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="B257" s="21" t="s">
+      <c r="B257" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="C257" s="21" t="s">
+      <c r="C257" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="D257" s="21"/>
-      <c r="E257" s="21" t="s">
+      <c r="D257" s="22"/>
+      <c r="E257" s="22" t="s">
         <v>767</v>
       </c>
-      <c r="F257" s="21" t="s">
+      <c r="F257" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G257" s="18" t="s">
@@ -20502,24 +20511,24 @@
       </c>
       <c r="J257" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>|if(msg.dataSituacao != DateTime.MinValue)| registroVinculo.dat_sit = msg.dataSituacao;</v>
+        <v>|if(msg.dataSituacao != DateTime.MinValue)| registroReferencia.dat_sit = msg.dataSituacao;</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A258" s="21" t="s">
+      <c r="A258" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="B258" s="21" t="s">
+      <c r="B258" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="C258" s="21" t="s">
+      <c r="C258" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="D258" s="21"/>
-      <c r="E258" s="21" t="s">
+      <c r="D258" s="22"/>
+      <c r="E258" s="22" t="s">
         <v>866</v>
       </c>
-      <c r="F258" s="21" t="s">
+      <c r="F258" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G258" s="18" t="s">
@@ -20535,24 +20544,24 @@
       </c>
       <c r="J258" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>|if(msg.codigoCartao &gt; 0)| registroVinculo.cod_cartao = msg.codigoCartao;</v>
+        <v>|if(msg.codigoCartao &gt; 0)| registroReferencia.cod_cartao = msg.codigoCartao;</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A259" s="21" t="s">
+      <c r="A259" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="B259" s="21" t="s">
+      <c r="B259" s="22" t="s">
         <v>512</v>
       </c>
-      <c r="C259" s="21" t="s">
+      <c r="C259" s="22" t="s">
         <v>512</v>
       </c>
-      <c r="D259" s="21"/>
-      <c r="E259" s="21" t="s">
+      <c r="D259" s="22"/>
+      <c r="E259" s="22" t="s">
         <v>867</v>
       </c>
-      <c r="F259" s="21" t="s">
+      <c r="F259" s="22" t="s">
         <v>993</v>
       </c>
       <c r="G259" s="18" t="s">
@@ -20568,24 +20577,24 @@
       </c>
       <c r="J259" s="18" t="str">
         <f t="shared" ref="J259:J322" si="14">CONCATENATE("|if(",I259,")","| ",G259,".",B259," = msg.",E259,";")</f>
-        <v>|if(msg.codigoSeguradora &gt; 0)| registroVinculo.cod_segur = msg.codigoSeguradora;</v>
+        <v>|if(msg.codigoSeguradora &gt; 0)| registroReferencia.cod_segur = msg.codigoSeguradora;</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A260" s="21" t="s">
+      <c r="A260" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="B260" s="21" t="s">
+      <c r="B260" s="22" t="s">
         <v>513</v>
       </c>
-      <c r="C260" s="21" t="s">
+      <c r="C260" s="22" t="s">
         <v>513</v>
       </c>
-      <c r="D260" s="21"/>
-      <c r="E260" s="21" t="s">
+      <c r="D260" s="22"/>
+      <c r="E260" s="22" t="s">
         <v>868</v>
       </c>
-      <c r="F260" s="21" t="s">
+      <c r="F260" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G260" s="18" t="s">
@@ -20601,24 +20610,24 @@
       </c>
       <c r="J260" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoPessoaReferencia))| registroVinculo.cod_pessoa_ref = msg.codigoPessoaReferencia;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoPessoaReferencia))| registroReferencia.cod_pessoa_ref = msg.codigoPessoaReferencia;</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A261" s="21" t="s">
+      <c r="A261" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="B261" s="21" t="s">
+      <c r="B261" s="22" t="s">
         <v>514</v>
       </c>
-      <c r="C261" s="21" t="s">
+      <c r="C261" s="22" t="s">
         <v>514</v>
       </c>
-      <c r="D261" s="21"/>
-      <c r="E261" s="21" t="s">
+      <c r="D261" s="22"/>
+      <c r="E261" s="22" t="s">
         <v>869</v>
       </c>
-      <c r="F261" s="21" t="s">
+      <c r="F261" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G261" s="18" t="s">
@@ -20634,24 +20643,24 @@
       </c>
       <c r="J261" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoFilialReferencia))| registroVinculo.cod_fil_ref = msg.codigoFilialReferencia;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoFilialReferencia))| registroReferencia.cod_fil_ref = msg.codigoFilialReferencia;</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A262" s="21" t="s">
+      <c r="A262" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="B262" s="21" t="s">
+      <c r="B262" s="22" t="s">
         <v>515</v>
       </c>
-      <c r="C262" s="21" t="s">
+      <c r="C262" s="22" t="s">
         <v>515</v>
       </c>
-      <c r="D262" s="21"/>
-      <c r="E262" s="21" t="s">
+      <c r="D262" s="22"/>
+      <c r="E262" s="22" t="s">
         <v>870</v>
       </c>
-      <c r="F262" s="21" t="s">
+      <c r="F262" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G262" s="18" t="s">
@@ -20667,24 +20676,24 @@
       </c>
       <c r="J262" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoPessoaSimplificada))| registroVinculo.cod_simp = msg.codigoPessoaSimplificada;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoPessoaSimplificada))| registroReferencia.cod_simp = msg.codigoPessoaSimplificada;</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A263" s="21" t="s">
+      <c r="A263" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="B263" s="21" t="s">
+      <c r="B263" s="22" t="s">
         <v>516</v>
       </c>
-      <c r="C263" s="21" t="s">
+      <c r="C263" s="22" t="s">
         <v>516</v>
       </c>
-      <c r="D263" s="21"/>
-      <c r="E263" s="21" t="s">
+      <c r="D263" s="22"/>
+      <c r="E263" s="22" t="s">
         <v>871</v>
       </c>
-      <c r="F263" s="21" t="s">
+      <c r="F263" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="G263" s="18" t="s">
@@ -20700,7 +20709,7 @@
       </c>
       <c r="J263" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(msg.dataVencimentoSeguroCartao != DateTime.MinValue)| registroVinculo.dat_venc_seg_cartao = msg.dataVencimentoSeguroCartao;</v>
+        <v>|if(msg.dataVencimentoSeguroCartao != DateTime.MinValue)| registroReferencia.dat_venc_seg_cartao = msg.dataVencimentoSeguroCartao;</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
@@ -20718,20 +20727,20 @@
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A265" s="21" t="s">
+      <c r="A265" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B265" s="21" t="s">
+      <c r="B265" s="22" t="s">
         <v>515</v>
       </c>
-      <c r="C265" s="21" t="s">
+      <c r="C265" s="22" t="s">
         <v>872</v>
       </c>
-      <c r="D265" s="21"/>
-      <c r="E265" s="21" t="s">
+      <c r="D265" s="22"/>
+      <c r="E265" s="22" t="s">
         <v>872</v>
       </c>
-      <c r="F265" s="21" t="s">
+      <c r="F265" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H265" s="18" t="str">
@@ -20748,20 +20757,20 @@
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A266" s="21" t="s">
+      <c r="A266" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B266" s="21" t="s">
+      <c r="B266" s="22" t="s">
         <v>518</v>
       </c>
-      <c r="C266" s="21" t="s">
+      <c r="C266" s="22" t="s">
         <v>873</v>
       </c>
-      <c r="D266" s="21"/>
-      <c r="E266" s="21" t="s">
+      <c r="D266" s="22"/>
+      <c r="E266" s="22" t="s">
         <v>873</v>
       </c>
-      <c r="F266" s="21" t="s">
+      <c r="F266" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H266" s="18" t="str">
@@ -20778,20 +20787,20 @@
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A267" s="21" t="s">
+      <c r="A267" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B267" s="21" t="s">
+      <c r="B267" s="22" t="s">
         <v>519</v>
       </c>
-      <c r="C267" s="21" t="s">
+      <c r="C267" s="22" t="s">
         <v>1021</v>
       </c>
-      <c r="D267" s="21"/>
-      <c r="E267" s="21" t="s">
+      <c r="D267" s="22"/>
+      <c r="E267" s="22" t="s">
         <v>1021</v>
       </c>
-      <c r="F267" s="21" t="s">
+      <c r="F267" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H267" s="18" t="str">
@@ -20808,20 +20817,20 @@
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A268" s="21" t="s">
+      <c r="A268" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B268" s="21" t="s">
+      <c r="B268" s="22" t="s">
         <v>520</v>
       </c>
-      <c r="C268" s="21" t="s">
+      <c r="C268" s="22" t="s">
         <v>1023</v>
       </c>
-      <c r="D268" s="21"/>
-      <c r="E268" s="21" t="s">
+      <c r="D268" s="22"/>
+      <c r="E268" s="22" t="s">
         <v>1023</v>
       </c>
-      <c r="F268" s="21" t="s">
+      <c r="F268" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H268" s="18" t="str">
@@ -20838,20 +20847,20 @@
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A269" s="21" t="s">
+      <c r="A269" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B269" s="21" t="s">
+      <c r="B269" s="22" t="s">
         <v>521</v>
       </c>
-      <c r="C269" s="21" t="s">
+      <c r="C269" s="22" t="s">
         <v>874</v>
       </c>
-      <c r="D269" s="21"/>
-      <c r="E269" s="21" t="s">
+      <c r="D269" s="22"/>
+      <c r="E269" s="22" t="s">
         <v>874</v>
       </c>
-      <c r="F269" s="21" t="s">
+      <c r="F269" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H269" s="18" t="str">
@@ -20868,20 +20877,20 @@
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A270" s="21" t="s">
+      <c r="A270" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B270" s="21" t="s">
+      <c r="B270" s="22" t="s">
         <v>522</v>
       </c>
-      <c r="C270" s="21" t="s">
+      <c r="C270" s="22" t="s">
         <v>875</v>
       </c>
-      <c r="D270" s="21"/>
-      <c r="E270" s="21" t="s">
+      <c r="D270" s="22"/>
+      <c r="E270" s="22" t="s">
         <v>875</v>
       </c>
-      <c r="F270" s="21" t="s">
+      <c r="F270" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H270" s="18" t="str">
@@ -20898,20 +20907,20 @@
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A271" s="21" t="s">
+      <c r="A271" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B271" s="21" t="s">
+      <c r="B271" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C271" s="21" t="s">
+      <c r="C271" s="22" t="s">
         <v>885</v>
       </c>
-      <c r="D271" s="21"/>
-      <c r="E271" s="21" t="s">
+      <c r="D271" s="22"/>
+      <c r="E271" s="22" t="s">
         <v>885</v>
       </c>
-      <c r="F271" s="21" t="s">
+      <c r="F271" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H271" s="18" t="str">
@@ -20928,20 +20937,20 @@
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A272" s="21" t="s">
+      <c r="A272" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B272" s="21" t="s">
+      <c r="B272" s="22" t="s">
         <v>524</v>
       </c>
-      <c r="C272" s="21" t="s">
+      <c r="C272" s="22" t="s">
         <v>886</v>
       </c>
-      <c r="D272" s="21"/>
-      <c r="E272" s="21" t="s">
+      <c r="D272" s="22"/>
+      <c r="E272" s="22" t="s">
         <v>886</v>
       </c>
-      <c r="F272" s="21" t="s">
+      <c r="F272" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H272" s="18" t="str">
@@ -20958,20 +20967,20 @@
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A273" s="21" t="s">
+      <c r="A273" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B273" s="21" t="s">
+      <c r="B273" s="22" t="s">
         <v>525</v>
       </c>
-      <c r="C273" s="21" t="s">
+      <c r="C273" s="22" t="s">
         <v>758</v>
       </c>
-      <c r="D273" s="21"/>
-      <c r="E273" s="21" t="s">
+      <c r="D273" s="22"/>
+      <c r="E273" s="22" t="s">
         <v>758</v>
       </c>
-      <c r="F273" s="21" t="s">
+      <c r="F273" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H273" s="18" t="str">
@@ -20988,20 +20997,20 @@
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A274" s="21" t="s">
+      <c r="A274" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B274" s="21" t="s">
+      <c r="B274" s="22" t="s">
         <v>526</v>
       </c>
-      <c r="C274" s="21" t="s">
+      <c r="C274" s="22" t="s">
         <v>760</v>
       </c>
-      <c r="D274" s="21"/>
-      <c r="E274" s="21" t="s">
+      <c r="D274" s="22"/>
+      <c r="E274" s="22" t="s">
         <v>760</v>
       </c>
-      <c r="F274" s="21" t="s">
+      <c r="F274" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H274" s="18" t="str">
@@ -21018,20 +21027,20 @@
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A275" s="21" t="s">
+      <c r="A275" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B275" s="21" t="s">
+      <c r="B275" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="C275" s="21" t="s">
+      <c r="C275" s="22" t="s">
         <v>891</v>
       </c>
-      <c r="D275" s="21"/>
-      <c r="E275" s="21" t="s">
+      <c r="D275" s="22"/>
+      <c r="E275" s="22" t="s">
         <v>891</v>
       </c>
-      <c r="F275" s="21" t="s">
+      <c r="F275" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="H275" s="18" t="str">
@@ -21048,20 +21057,20 @@
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A276" s="21" t="s">
+      <c r="A276" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B276" s="21" t="s">
+      <c r="B276" s="22" t="s">
         <v>528</v>
       </c>
-      <c r="C276" s="21" t="s">
+      <c r="C276" s="22" t="s">
         <v>861</v>
       </c>
-      <c r="D276" s="21"/>
-      <c r="E276" s="21" t="s">
+      <c r="D276" s="22"/>
+      <c r="E276" s="22" t="s">
         <v>861</v>
       </c>
-      <c r="F276" s="21" t="s">
+      <c r="F276" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H276" s="18" t="str">
@@ -21078,20 +21087,20 @@
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A277" s="21" t="s">
+      <c r="A277" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B277" s="21" t="s">
+      <c r="B277" s="22" t="s">
         <v>529</v>
       </c>
-      <c r="C277" s="21" t="s">
+      <c r="C277" s="22" t="s">
         <v>955</v>
       </c>
-      <c r="D277" s="21"/>
-      <c r="E277" s="21" t="s">
+      <c r="D277" s="22"/>
+      <c r="E277" s="22" t="s">
         <v>955</v>
       </c>
-      <c r="F277" s="21" t="s">
+      <c r="F277" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H277" s="18" t="str">
@@ -21108,20 +21117,20 @@
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A278" s="21" t="s">
+      <c r="A278" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B278" s="21" t="s">
+      <c r="B278" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C278" s="21" t="s">
+      <c r="C278" s="22" t="s">
         <v>892</v>
       </c>
-      <c r="D278" s="21"/>
-      <c r="E278" s="21" t="s">
+      <c r="D278" s="22"/>
+      <c r="E278" s="22" t="s">
         <v>892</v>
       </c>
-      <c r="F278" s="21" t="s">
+      <c r="F278" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="H278" s="18" t="str">
@@ -21138,20 +21147,20 @@
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A279" s="21" t="s">
+      <c r="A279" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B279" s="21" t="s">
+      <c r="B279" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C279" s="21" t="s">
+      <c r="C279" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="D279" s="21"/>
-      <c r="E279" s="21" t="s">
+      <c r="D279" s="22"/>
+      <c r="E279" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="F279" s="21" t="s">
+      <c r="F279" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H279" s="18" t="str">
@@ -21168,20 +21177,20 @@
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A280" s="21" t="s">
+      <c r="A280" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B280" s="21" t="s">
+      <c r="B280" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C280" s="21" t="s">
+      <c r="C280" s="22" t="s">
         <v>644</v>
       </c>
-      <c r="D280" s="21"/>
-      <c r="E280" s="21" t="s">
+      <c r="D280" s="22"/>
+      <c r="E280" s="22" t="s">
         <v>644</v>
       </c>
-      <c r="F280" s="21" t="s">
+      <c r="F280" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="H280" s="18" t="str">
@@ -21198,20 +21207,20 @@
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A281" s="21" t="s">
+      <c r="A281" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B281" s="21" t="s">
+      <c r="B281" s="22" t="s">
         <v>530</v>
       </c>
-      <c r="C281" s="21" t="s">
+      <c r="C281" s="22" t="s">
         <v>648</v>
       </c>
-      <c r="D281" s="21"/>
-      <c r="E281" s="21" t="s">
+      <c r="D281" s="22"/>
+      <c r="E281" s="22" t="s">
         <v>648</v>
       </c>
-      <c r="F281" s="21" t="s">
+      <c r="F281" s="22" t="s">
         <v>993</v>
       </c>
       <c r="H281" s="18" t="str">
@@ -21228,20 +21237,20 @@
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A282" s="21" t="s">
+      <c r="A282" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B282" s="21" t="s">
+      <c r="B282" s="22" t="s">
         <v>531</v>
       </c>
-      <c r="C282" s="21" t="s">
+      <c r="C282" s="22" t="s">
         <v>649</v>
       </c>
-      <c r="D282" s="21"/>
-      <c r="E282" s="21" t="s">
+      <c r="D282" s="22"/>
+      <c r="E282" s="22" t="s">
         <v>649</v>
       </c>
-      <c r="F282" s="21" t="s">
+      <c r="F282" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H282" s="18" t="str">
@@ -21258,20 +21267,20 @@
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A283" s="21" t="s">
+      <c r="A283" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B283" s="21" t="s">
+      <c r="B283" s="22" t="s">
         <v>532</v>
       </c>
-      <c r="C283" s="21" t="s">
+      <c r="C283" s="22" t="s">
         <v>749</v>
       </c>
-      <c r="D283" s="21"/>
-      <c r="E283" s="21" t="s">
+      <c r="D283" s="22"/>
+      <c r="E283" s="22" t="s">
         <v>749</v>
       </c>
-      <c r="F283" s="21" t="s">
+      <c r="F283" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H283" s="18" t="str">
@@ -21288,20 +21297,20 @@
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A284" s="21" t="s">
+      <c r="A284" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B284" s="21" t="s">
+      <c r="B284" s="22" t="s">
         <v>533</v>
       </c>
-      <c r="C284" s="21" t="s">
+      <c r="C284" s="22" t="s">
         <v>893</v>
       </c>
-      <c r="D284" s="21"/>
-      <c r="E284" s="21" t="s">
+      <c r="D284" s="22"/>
+      <c r="E284" s="22" t="s">
         <v>893</v>
       </c>
-      <c r="F284" s="21" t="s">
+      <c r="F284" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H284" s="18" t="str">
@@ -21318,20 +21327,20 @@
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A285" s="21" t="s">
+      <c r="A285" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B285" s="21" t="s">
+      <c r="B285" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="C285" s="21" t="s">
+      <c r="C285" s="22" t="s">
         <v>768</v>
       </c>
-      <c r="D285" s="21"/>
-      <c r="E285" s="21" t="s">
+      <c r="D285" s="22"/>
+      <c r="E285" s="22" t="s">
         <v>768</v>
       </c>
-      <c r="F285" s="21" t="s">
+      <c r="F285" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H285" s="18" t="str">
@@ -21348,20 +21357,20 @@
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A286" s="21" t="s">
+      <c r="A286" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B286" s="21" t="s">
+      <c r="B286" s="22" t="s">
         <v>535</v>
       </c>
-      <c r="C286" s="21" t="s">
+      <c r="C286" s="22" t="s">
         <v>751</v>
       </c>
-      <c r="D286" s="21"/>
-      <c r="E286" s="21" t="s">
+      <c r="D286" s="22"/>
+      <c r="E286" s="22" t="s">
         <v>751</v>
       </c>
-      <c r="F286" s="21" t="s">
+      <c r="F286" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H286" s="18" t="str">
@@ -21378,20 +21387,20 @@
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A287" s="21" t="s">
+      <c r="A287" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B287" s="21" t="s">
+      <c r="B287" s="22" t="s">
         <v>536</v>
       </c>
-      <c r="C287" s="21" t="s">
+      <c r="C287" s="22" t="s">
         <v>895</v>
       </c>
-      <c r="D287" s="21"/>
-      <c r="E287" s="21" t="s">
+      <c r="D287" s="22"/>
+      <c r="E287" s="22" t="s">
         <v>895</v>
       </c>
-      <c r="F287" s="21" t="s">
+      <c r="F287" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H287" s="18" t="str">
@@ -21408,20 +21417,20 @@
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A288" s="21" t="s">
+      <c r="A288" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B288" s="21" t="s">
+      <c r="B288" s="22" t="s">
         <v>537</v>
       </c>
-      <c r="C288" s="21" t="s">
+      <c r="C288" s="22" t="s">
         <v>748</v>
       </c>
-      <c r="D288" s="21"/>
-      <c r="E288" s="21" t="s">
+      <c r="D288" s="22"/>
+      <c r="E288" s="22" t="s">
         <v>748</v>
       </c>
-      <c r="F288" s="21" t="s">
+      <c r="F288" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H288" s="18" t="str">
@@ -21438,20 +21447,20 @@
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A289" s="21" t="s">
+      <c r="A289" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B289" s="21" t="s">
+      <c r="B289" s="22" t="s">
         <v>538</v>
       </c>
-      <c r="C289" s="21" t="s">
+      <c r="C289" s="22" t="s">
         <v>1012</v>
       </c>
-      <c r="D289" s="21"/>
-      <c r="E289" s="21" t="s">
+      <c r="D289" s="22"/>
+      <c r="E289" s="22" t="s">
         <v>1012</v>
       </c>
-      <c r="F289" s="21" t="s">
+      <c r="F289" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H289" s="18" t="str">
@@ -21468,20 +21477,20 @@
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A290" s="21" t="s">
+      <c r="A290" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B290" s="21" t="s">
+      <c r="B290" s="22" t="s">
         <v>539</v>
       </c>
-      <c r="C290" s="21" t="s">
+      <c r="C290" s="22" t="s">
         <v>898</v>
       </c>
-      <c r="D290" s="21"/>
-      <c r="E290" s="21" t="s">
+      <c r="D290" s="22"/>
+      <c r="E290" s="22" t="s">
         <v>898</v>
       </c>
-      <c r="F290" s="21" t="s">
+      <c r="F290" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H290" s="18" t="str">
@@ -21498,20 +21507,20 @@
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A291" s="21" t="s">
+      <c r="A291" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B291" s="21" t="s">
+      <c r="B291" s="22" t="s">
         <v>540</v>
       </c>
-      <c r="C291" s="21" t="s">
+      <c r="C291" s="22" t="s">
         <v>1047</v>
       </c>
-      <c r="D291" s="21"/>
-      <c r="E291" s="21" t="s">
+      <c r="D291" s="22"/>
+      <c r="E291" s="22" t="s">
         <v>1047</v>
       </c>
-      <c r="F291" s="21" t="s">
+      <c r="F291" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H291" s="18" t="str">
@@ -21528,20 +21537,20 @@
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A292" s="21" t="s">
+      <c r="A292" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B292" s="21" t="s">
+      <c r="B292" s="22" t="s">
         <v>541</v>
       </c>
-      <c r="C292" s="21" t="s">
+      <c r="C292" s="22" t="s">
         <v>635</v>
       </c>
-      <c r="D292" s="21"/>
-      <c r="E292" s="21" t="s">
+      <c r="D292" s="22"/>
+      <c r="E292" s="22" t="s">
         <v>635</v>
       </c>
-      <c r="F292" s="21" t="s">
+      <c r="F292" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H292" s="18" t="str">
@@ -21558,20 +21567,20 @@
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A293" s="21" t="s">
+      <c r="A293" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B293" s="21" t="s">
+      <c r="B293" s="22" t="s">
         <v>542</v>
       </c>
-      <c r="C293" s="21" t="s">
+      <c r="C293" s="22" t="s">
         <v>636</v>
       </c>
-      <c r="D293" s="21"/>
-      <c r="E293" s="21" t="s">
+      <c r="D293" s="22"/>
+      <c r="E293" s="22" t="s">
         <v>636</v>
       </c>
-      <c r="F293" s="21" t="s">
+      <c r="F293" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H293" s="18" t="str">
@@ -21588,20 +21597,20 @@
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A294" s="21" t="s">
+      <c r="A294" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B294" s="21" t="s">
+      <c r="B294" s="22" t="s">
         <v>543</v>
       </c>
-      <c r="C294" s="21" t="s">
+      <c r="C294" s="22" t="s">
         <v>899</v>
       </c>
-      <c r="D294" s="21"/>
-      <c r="E294" s="21" t="s">
+      <c r="D294" s="22"/>
+      <c r="E294" s="22" t="s">
         <v>899</v>
       </c>
-      <c r="F294" s="21" t="s">
+      <c r="F294" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H294" s="18" t="str">
@@ -21618,20 +21627,20 @@
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A295" s="21" t="s">
+      <c r="A295" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B295" s="21" t="s">
+      <c r="B295" s="22" t="s">
         <v>544</v>
       </c>
-      <c r="C295" s="21" t="s">
+      <c r="C295" s="22" t="s">
         <v>900</v>
       </c>
-      <c r="D295" s="21"/>
-      <c r="E295" s="21" t="s">
+      <c r="D295" s="22"/>
+      <c r="E295" s="22" t="s">
         <v>900</v>
       </c>
-      <c r="F295" s="21" t="s">
+      <c r="F295" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H295" s="18" t="str">
@@ -21648,20 +21657,20 @@
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A296" s="21" t="s">
+      <c r="A296" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B296" s="21" t="s">
+      <c r="B296" s="22" t="s">
         <v>545</v>
       </c>
-      <c r="C296" s="21" t="s">
+      <c r="C296" s="22" t="s">
         <v>1017</v>
       </c>
-      <c r="D296" s="21"/>
-      <c r="E296" s="21" t="s">
+      <c r="D296" s="22"/>
+      <c r="E296" s="22" t="s">
         <v>1017</v>
       </c>
-      <c r="F296" s="21" t="s">
+      <c r="F296" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H296" s="18" t="str">
@@ -21678,20 +21687,20 @@
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A297" s="21" t="s">
+      <c r="A297" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B297" s="21" t="s">
+      <c r="B297" s="22" t="s">
         <v>546</v>
       </c>
-      <c r="C297" s="21" t="s">
+      <c r="C297" s="22" t="s">
         <v>671</v>
       </c>
-      <c r="D297" s="21"/>
-      <c r="E297" s="21" t="s">
+      <c r="D297" s="22"/>
+      <c r="E297" s="22" t="s">
         <v>671</v>
       </c>
-      <c r="F297" s="21" t="s">
+      <c r="F297" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H297" s="18" t="str">
@@ -21708,20 +21717,20 @@
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A298" s="21" t="s">
+      <c r="A298" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B298" s="21" t="s">
+      <c r="B298" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="C298" s="21" t="s">
+      <c r="C298" s="22" t="s">
         <v>1059</v>
       </c>
-      <c r="D298" s="21"/>
-      <c r="E298" s="21" t="s">
+      <c r="D298" s="22"/>
+      <c r="E298" s="22" t="s">
         <v>1059</v>
       </c>
-      <c r="F298" s="21" t="s">
+      <c r="F298" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H298" s="18" t="str">
@@ -21738,20 +21747,20 @@
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A299" s="21" t="s">
+      <c r="A299" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B299" s="21" t="s">
+      <c r="B299" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="C299" s="21" t="s">
+      <c r="C299" s="22" t="s">
         <v>708</v>
       </c>
-      <c r="D299" s="21"/>
-      <c r="E299" s="21" t="s">
+      <c r="D299" s="22"/>
+      <c r="E299" s="22" t="s">
         <v>708</v>
       </c>
-      <c r="F299" s="21" t="s">
+      <c r="F299" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H299" s="18" t="str">
@@ -21768,20 +21777,20 @@
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A300" s="21" t="s">
+      <c r="A300" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B300" s="21" t="s">
+      <c r="B300" s="22" t="s">
         <v>549</v>
       </c>
-      <c r="C300" s="21" t="s">
+      <c r="C300" s="22" t="s">
         <v>1056</v>
       </c>
-      <c r="D300" s="21"/>
-      <c r="E300" s="21" t="s">
+      <c r="D300" s="22"/>
+      <c r="E300" s="22" t="s">
         <v>1056</v>
       </c>
-      <c r="F300" s="21" t="s">
+      <c r="F300" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H300" s="18" t="str">
@@ -21798,20 +21807,20 @@
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A301" s="21" t="s">
+      <c r="A301" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B301" s="21" t="s">
+      <c r="B301" s="22" t="s">
         <v>550</v>
       </c>
-      <c r="C301" s="21" t="s">
+      <c r="C301" s="22" t="s">
         <v>1076</v>
       </c>
-      <c r="D301" s="21"/>
-      <c r="E301" s="21" t="s">
+      <c r="D301" s="22"/>
+      <c r="E301" s="22" t="s">
         <v>1076</v>
       </c>
-      <c r="F301" s="21" t="s">
+      <c r="F301" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H301" s="18" t="str">
@@ -21828,20 +21837,20 @@
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A302" s="21" t="s">
+      <c r="A302" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B302" s="21" t="s">
+      <c r="B302" s="22" t="s">
         <v>551</v>
       </c>
-      <c r="C302" s="21" t="s">
+      <c r="C302" s="22" t="s">
         <v>1087</v>
       </c>
-      <c r="D302" s="21"/>
-      <c r="E302" s="21" t="s">
+      <c r="D302" s="22"/>
+      <c r="E302" s="22" t="s">
         <v>1087</v>
       </c>
-      <c r="F302" s="21" t="s">
+      <c r="F302" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H302" s="18" t="str">
@@ -21858,20 +21867,20 @@
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A303" s="21" t="s">
+      <c r="A303" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B303" s="21" t="s">
+      <c r="B303" s="22" t="s">
         <v>552</v>
       </c>
-      <c r="C303" s="21" t="s">
+      <c r="C303" s="22" t="s">
         <v>985</v>
       </c>
-      <c r="D303" s="21"/>
-      <c r="E303" s="21" t="s">
+      <c r="D303" s="22"/>
+      <c r="E303" s="22" t="s">
         <v>985</v>
       </c>
-      <c r="F303" s="21" t="s">
+      <c r="F303" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H303" s="18" t="str">
@@ -21888,20 +21897,20 @@
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A304" s="21" t="s">
+      <c r="A304" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B304" s="21" t="s">
+      <c r="B304" s="22" t="s">
         <v>553</v>
       </c>
-      <c r="C304" s="21" t="s">
+      <c r="C304" s="22" t="s">
         <v>719</v>
       </c>
-      <c r="D304" s="21"/>
-      <c r="E304" s="21" t="s">
+      <c r="D304" s="22"/>
+      <c r="E304" s="22" t="s">
         <v>719</v>
       </c>
-      <c r="F304" s="21" t="s">
+      <c r="F304" s="22" t="s">
         <v>993</v>
       </c>
       <c r="H304" s="18" t="str">
@@ -21918,20 +21927,20 @@
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A305" s="21" t="s">
+      <c r="A305" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B305" s="21" t="s">
+      <c r="B305" s="22" t="s">
         <v>554</v>
       </c>
-      <c r="C305" s="21" t="s">
+      <c r="C305" s="22" t="s">
         <v>720</v>
       </c>
-      <c r="D305" s="21"/>
-      <c r="E305" s="21" t="s">
+      <c r="D305" s="22"/>
+      <c r="E305" s="22" t="s">
         <v>720</v>
       </c>
-      <c r="F305" s="21" t="s">
+      <c r="F305" s="22" t="s">
         <v>993</v>
       </c>
       <c r="H305" s="18" t="str">
@@ -21948,20 +21957,20 @@
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A306" s="21" t="s">
+      <c r="A306" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B306" s="21" t="s">
+      <c r="B306" s="22" t="s">
         <v>555</v>
       </c>
-      <c r="C306" s="21" t="s">
+      <c r="C306" s="22" t="s">
         <v>721</v>
       </c>
-      <c r="D306" s="21"/>
-      <c r="E306" s="21" t="s">
+      <c r="D306" s="22"/>
+      <c r="E306" s="22" t="s">
         <v>721</v>
       </c>
-      <c r="F306" s="21" t="s">
+      <c r="F306" s="22" t="s">
         <v>993</v>
       </c>
       <c r="H306" s="18" t="str">
@@ -21978,20 +21987,20 @@
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A307" s="21" t="s">
+      <c r="A307" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B307" s="21" t="s">
+      <c r="B307" s="22" t="s">
         <v>556</v>
       </c>
-      <c r="C307" s="21" t="s">
+      <c r="C307" s="22" t="s">
         <v>722</v>
       </c>
-      <c r="D307" s="21"/>
-      <c r="E307" s="21" t="s">
+      <c r="D307" s="22"/>
+      <c r="E307" s="22" t="s">
         <v>722</v>
       </c>
-      <c r="F307" s="21" t="s">
+      <c r="F307" s="22" t="s">
         <v>993</v>
       </c>
       <c r="H307" s="18" t="str">
@@ -22008,20 +22017,20 @@
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A308" s="21" t="s">
+      <c r="A308" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B308" s="21" t="s">
+      <c r="B308" s="22" t="s">
         <v>557</v>
       </c>
-      <c r="C308" s="21" t="s">
+      <c r="C308" s="22" t="s">
         <v>906</v>
       </c>
-      <c r="D308" s="21"/>
-      <c r="E308" s="21" t="s">
+      <c r="D308" s="22"/>
+      <c r="E308" s="22" t="s">
         <v>906</v>
       </c>
-      <c r="F308" s="21" t="s">
+      <c r="F308" s="22" t="s">
         <v>993</v>
       </c>
       <c r="H308" s="18" t="str">
@@ -22038,20 +22047,20 @@
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A309" s="21" t="s">
+      <c r="A309" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B309" s="21" t="s">
+      <c r="B309" s="22" t="s">
         <v>558</v>
       </c>
-      <c r="C309" s="21" t="s">
+      <c r="C309" s="22" t="s">
         <v>909</v>
       </c>
-      <c r="D309" s="21"/>
-      <c r="E309" s="21" t="s">
+      <c r="D309" s="22"/>
+      <c r="E309" s="22" t="s">
         <v>909</v>
       </c>
-      <c r="F309" s="21" t="s">
+      <c r="F309" s="22" t="s">
         <v>993</v>
       </c>
       <c r="H309" s="18" t="str">
@@ -22068,20 +22077,20 @@
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A310" s="21" t="s">
+      <c r="A310" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B310" s="21" t="s">
+      <c r="B310" s="22" t="s">
         <v>559</v>
       </c>
-      <c r="C310" s="21" t="s">
+      <c r="C310" s="22" t="s">
         <v>908</v>
       </c>
-      <c r="D310" s="21"/>
-      <c r="E310" s="21" t="s">
+      <c r="D310" s="22"/>
+      <c r="E310" s="22" t="s">
         <v>908</v>
       </c>
-      <c r="F310" s="21" t="s">
+      <c r="F310" s="22" t="s">
         <v>993</v>
       </c>
       <c r="H310" s="18" t="str">
@@ -22098,20 +22107,20 @@
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A311" s="21" t="s">
+      <c r="A311" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B311" s="21" t="s">
+      <c r="B311" s="22" t="s">
         <v>560</v>
       </c>
-      <c r="C311" s="21" t="s">
+      <c r="C311" s="22" t="s">
         <v>907</v>
       </c>
-      <c r="D311" s="21"/>
-      <c r="E311" s="21" t="s">
+      <c r="D311" s="22"/>
+      <c r="E311" s="22" t="s">
         <v>907</v>
       </c>
-      <c r="F311" s="21" t="s">
+      <c r="F311" s="22" t="s">
         <v>993</v>
       </c>
       <c r="H311" s="18" t="str">
@@ -22128,20 +22137,20 @@
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A312" s="21" t="s">
+      <c r="A312" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B312" s="21" t="s">
+      <c r="B312" s="22" t="s">
         <v>561</v>
       </c>
-      <c r="C312" s="21" t="s">
+      <c r="C312" s="22" t="s">
         <v>1034</v>
       </c>
-      <c r="D312" s="21"/>
-      <c r="E312" s="21" t="s">
+      <c r="D312" s="22"/>
+      <c r="E312" s="22" t="s">
         <v>1034</v>
       </c>
-      <c r="F312" s="21" t="s">
+      <c r="F312" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H312" s="18" t="str">
@@ -22158,20 +22167,20 @@
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A313" s="21" t="s">
+      <c r="A313" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B313" s="21" t="s">
+      <c r="B313" s="22" t="s">
         <v>562</v>
       </c>
-      <c r="C313" s="21" t="s">
+      <c r="C313" s="22" t="s">
         <v>911</v>
       </c>
-      <c r="D313" s="21"/>
-      <c r="E313" s="21" t="s">
+      <c r="D313" s="22"/>
+      <c r="E313" s="22" t="s">
         <v>911</v>
       </c>
-      <c r="F313" s="21" t="s">
+      <c r="F313" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H313" s="18" t="str">
@@ -22188,20 +22197,20 @@
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A314" s="21" t="s">
+      <c r="A314" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B314" s="21" t="s">
+      <c r="B314" s="22" t="s">
         <v>563</v>
       </c>
-      <c r="C314" s="21" t="s">
+      <c r="C314" s="22" t="s">
         <v>563</v>
       </c>
-      <c r="D314" s="21"/>
-      <c r="E314" s="21" t="s">
+      <c r="D314" s="22"/>
+      <c r="E314" s="22" t="s">
         <v>563</v>
       </c>
-      <c r="F314" s="21" t="s">
+      <c r="F314" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H314" s="18" t="str">
@@ -22218,20 +22227,20 @@
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A315" s="21" t="s">
+      <c r="A315" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B315" s="21" t="s">
+      <c r="B315" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="C315" s="21" t="s">
+      <c r="C315" s="22" t="s">
         <v>912</v>
       </c>
-      <c r="D315" s="21"/>
-      <c r="E315" s="21" t="s">
+      <c r="D315" s="22"/>
+      <c r="E315" s="22" t="s">
         <v>912</v>
       </c>
-      <c r="F315" s="21" t="s">
+      <c r="F315" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H315" s="18" t="str">
@@ -22248,20 +22257,20 @@
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A316" s="21" t="s">
+      <c r="A316" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B316" s="21" t="s">
+      <c r="B316" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="C316" s="21" t="s">
+      <c r="C316" s="22" t="s">
         <v>914</v>
       </c>
-      <c r="D316" s="21"/>
-      <c r="E316" s="21" t="s">
+      <c r="D316" s="22"/>
+      <c r="E316" s="22" t="s">
         <v>914</v>
       </c>
-      <c r="F316" s="21" t="s">
+      <c r="F316" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H316" s="18" t="str">
@@ -22278,20 +22287,20 @@
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A317" s="21" t="s">
+      <c r="A317" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="B317" s="21" t="s">
+      <c r="B317" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="C317" s="21" t="s">
+      <c r="C317" s="22" t="s">
         <v>913</v>
       </c>
-      <c r="D317" s="21"/>
-      <c r="E317" s="21" t="s">
+      <c r="D317" s="22"/>
+      <c r="E317" s="22" t="s">
         <v>913</v>
       </c>
-      <c r="F317" s="21" t="s">
+      <c r="F317" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H317" s="18" t="str">
@@ -22308,19 +22317,20 @@
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A318" s="18" t="s">
+      <c r="A318" s="21" t="s">
         <v>517</v>
       </c>
-      <c r="B318" s="18" t="s">
+      <c r="B318" s="21" t="s">
         <v>564</v>
       </c>
-      <c r="C318" s="18" t="s">
+      <c r="C318" s="21" t="s">
         <v>915</v>
       </c>
-      <c r="E318" s="18" t="s">
+      <c r="D318" s="21"/>
+      <c r="E318" s="21" t="s">
         <v>915</v>
       </c>
-      <c r="F318" s="18" t="s">
+      <c r="F318" s="21" t="s">
         <v>3</v>
       </c>
       <c r="H318" s="18" t="str">
@@ -22337,19 +22347,20 @@
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A319" s="19" t="s">
+      <c r="A319" s="21" t="s">
         <v>517</v>
       </c>
-      <c r="B319" s="19" t="s">
+      <c r="B319" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="C319" s="19" t="s">
+      <c r="C319" s="21" t="s">
         <v>1084</v>
       </c>
-      <c r="E319" s="19" t="s">
+      <c r="D319" s="21"/>
+      <c r="E319" s="21" t="s">
         <v>1084</v>
       </c>
-      <c r="F319" s="19" t="s">
+      <c r="F319" s="21" t="s">
         <v>3</v>
       </c>
       <c r="H319" s="18" t="str">
@@ -22366,19 +22377,20 @@
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A320" s="18" t="s">
+      <c r="A320" s="21" t="s">
         <v>517</v>
       </c>
-      <c r="B320" s="18" t="s">
+      <c r="B320" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="C320" s="18" t="s">
+      <c r="C320" s="21" t="s">
         <v>861</v>
       </c>
-      <c r="E320" s="18" t="s">
+      <c r="D320" s="21"/>
+      <c r="E320" s="21" t="s">
         <v>1086</v>
       </c>
-      <c r="F320" s="18" t="s">
+      <c r="F320" s="21" t="s">
         <v>3</v>
       </c>
       <c r="H320" s="18" t="str">
@@ -22456,22 +22468,22 @@
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A323" s="21" t="s">
+      <c r="A323" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="B323" s="21" t="s">
+      <c r="B323" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="C323" s="21" t="s">
+      <c r="C323" s="22" t="s">
         <v>791</v>
       </c>
-      <c r="D323" s="21" t="s">
+      <c r="D323" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="E323" s="21" t="s">
+      <c r="E323" s="22" t="s">
         <v>791</v>
       </c>
-      <c r="F323" s="21" t="s">
+      <c r="F323" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H323" s="18" t="str">
@@ -22488,22 +22500,22 @@
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A324" s="21" t="s">
+      <c r="A324" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="B324" s="21" t="s">
+      <c r="B324" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="C324" s="21" t="s">
+      <c r="C324" s="22" t="s">
         <v>792</v>
       </c>
-      <c r="D324" s="21" t="s">
+      <c r="D324" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E324" s="21" t="s">
+      <c r="E324" s="22" t="s">
         <v>792</v>
       </c>
-      <c r="F324" s="21" t="s">
+      <c r="F324" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H324" s="18" t="str">
@@ -22520,22 +22532,22 @@
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A325" s="21" t="s">
+      <c r="A325" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="B325" s="21" t="s">
+      <c r="B325" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="C325" s="21" t="s">
+      <c r="C325" s="22" t="s">
         <v>793</v>
       </c>
-      <c r="D325" s="21" t="s">
+      <c r="D325" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E325" s="21" t="s">
+      <c r="E325" s="22" t="s">
         <v>793</v>
       </c>
-      <c r="F325" s="21" t="s">
+      <c r="F325" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H325" s="18" t="str">
@@ -22552,22 +22564,22 @@
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A326" s="21" t="s">
+      <c r="A326" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="B326" s="21" t="s">
+      <c r="B326" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="C326" s="21" t="s">
+      <c r="C326" s="22" t="s">
         <v>794</v>
       </c>
-      <c r="D326" s="21" t="s">
+      <c r="D326" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E326" s="21" t="s">
+      <c r="E326" s="22" t="s">
         <v>794</v>
       </c>
-      <c r="F326" s="21" t="s">
+      <c r="F326" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H326" s="18" t="str">
@@ -22584,22 +22596,22 @@
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A327" s="21" t="s">
+      <c r="A327" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="B327" s="21" t="s">
+      <c r="B327" s="22" t="s">
         <v>366</v>
       </c>
-      <c r="C327" s="21" t="s">
+      <c r="C327" s="22" t="s">
         <v>795</v>
       </c>
-      <c r="D327" s="21" t="s">
+      <c r="D327" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="E327" s="21" t="s">
+      <c r="E327" s="22" t="s">
         <v>795</v>
       </c>
-      <c r="F327" s="21" t="s">
+      <c r="F327" s="22" t="s">
         <v>993</v>
       </c>
       <c r="H327" s="18" t="str">
@@ -22616,22 +22628,22 @@
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A328" s="21" t="s">
+      <c r="A328" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="B328" s="21" t="s">
+      <c r="B328" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C328" s="21" t="s">
+      <c r="C328" s="22" t="s">
         <v>796</v>
       </c>
-      <c r="D328" s="21" t="s">
+      <c r="D328" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="E328" s="21" t="s">
+      <c r="E328" s="22" t="s">
         <v>796</v>
       </c>
-      <c r="F328" s="21" t="s">
+      <c r="F328" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H328" s="18" t="str">
@@ -22648,22 +22660,22 @@
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A329" s="21" t="s">
+      <c r="A329" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="B329" s="21" t="s">
+      <c r="B329" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="C329" s="21" t="s">
+      <c r="C329" s="22" t="s">
         <v>797</v>
       </c>
-      <c r="D329" s="21" t="s">
+      <c r="D329" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="E329" s="21" t="s">
+      <c r="E329" s="22" t="s">
         <v>797</v>
       </c>
-      <c r="F329" s="21" t="s">
+      <c r="F329" s="22" t="s">
         <v>991</v>
       </c>
       <c r="H329" s="18" t="str">
@@ -22680,22 +22692,22 @@
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A330" s="21" t="s">
+      <c r="A330" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="B330" s="21" t="s">
+      <c r="B330" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="C330" s="21" t="s">
+      <c r="C330" s="22" t="s">
         <v>798</v>
       </c>
-      <c r="D330" s="21" t="s">
+      <c r="D330" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="E330" s="21" t="s">
+      <c r="E330" s="22" t="s">
         <v>798</v>
       </c>
-      <c r="F330" s="21" t="s">
+      <c r="F330" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="H330" s="18" t="str">
@@ -22712,20 +22724,20 @@
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A331" s="21" t="s">
+      <c r="A331" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="B331" s="21" t="s">
+      <c r="B331" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="C331" s="21" t="s">
+      <c r="C331" s="22" t="s">
         <v>799</v>
       </c>
-      <c r="D331" s="21"/>
-      <c r="E331" s="21" t="s">
+      <c r="D331" s="22"/>
+      <c r="E331" s="22" t="s">
         <v>799</v>
       </c>
-      <c r="F331" s="21" t="s">
+      <c r="F331" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H331" s="18" t="str">
@@ -22742,22 +22754,22 @@
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A332" s="21" t="s">
+      <c r="A332" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="B332" s="21" t="s">
+      <c r="B332" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="C332" s="21" t="s">
+      <c r="C332" s="22" t="s">
         <v>861</v>
       </c>
-      <c r="D332" s="21" t="s">
+      <c r="D332" s="22" t="s">
         <v>861</v>
       </c>
-      <c r="E332" s="21" t="s">
+      <c r="E332" s="22" t="s">
         <v>861</v>
       </c>
-      <c r="F332" s="21" t="s">
+      <c r="F332" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H332" s="18" t="str">
@@ -22774,22 +22786,22 @@
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A333" s="21" t="s">
+      <c r="A333" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="B333" s="21" t="s">
+      <c r="B333" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C333" s="21" t="s">
+      <c r="C333" s="22" t="s">
         <v>642</v>
       </c>
-      <c r="D333" s="21" t="s">
+      <c r="D333" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E333" s="21" t="s">
+      <c r="E333" s="22" t="s">
         <v>642</v>
       </c>
-      <c r="F333" s="21" t="s">
+      <c r="F333" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="H333" s="18" t="str">
@@ -22806,22 +22818,22 @@
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A334" s="21" t="s">
+      <c r="A334" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="B334" s="21" t="s">
+      <c r="B334" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C334" s="21" t="s">
+      <c r="C334" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="D334" s="21" t="s">
+      <c r="D334" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E334" s="21" t="s">
+      <c r="E334" s="22" t="s">
         <v>765</v>
       </c>
-      <c r="F334" s="21" t="s">
+      <c r="F334" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H334" s="18" t="str">
@@ -22838,22 +22850,22 @@
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A335" s="21" t="s">
+      <c r="A335" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="B335" s="21" t="s">
+      <c r="B335" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C335" s="21" t="s">
+      <c r="C335" s="22" t="s">
         <v>644</v>
       </c>
-      <c r="D335" s="21" t="s">
+      <c r="D335" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E335" s="21" t="s">
+      <c r="E335" s="22" t="s">
         <v>644</v>
       </c>
-      <c r="F335" s="21" t="s">
+      <c r="F335" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="H335" s="18" t="str">
@@ -22870,22 +22882,22 @@
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A336" s="21" t="s">
+      <c r="A336" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="B336" s="21" t="s">
+      <c r="B336" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="C336" s="21" t="s">
+      <c r="C336" s="22" t="s">
         <v>766</v>
       </c>
-      <c r="D336" s="21" t="s">
+      <c r="D336" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E336" s="21" t="s">
+      <c r="E336" s="22" t="s">
         <v>766</v>
       </c>
-      <c r="F336" s="21" t="s">
+      <c r="F336" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H336" s="18" t="str">
@@ -22902,22 +22914,22 @@
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A337" s="21" t="s">
+      <c r="A337" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="B337" s="21" t="s">
+      <c r="B337" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="C337" s="21" t="s">
+      <c r="C337" s="22" t="s">
         <v>767</v>
       </c>
-      <c r="D337" s="21" t="s">
+      <c r="D337" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="E337" s="21" t="s">
+      <c r="E337" s="22" t="s">
         <v>767</v>
       </c>
-      <c r="F337" s="21" t="s">
+      <c r="F337" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="H337" s="18" t="str">
@@ -22934,22 +22946,22 @@
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A338" s="21" t="s">
+      <c r="A338" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="B338" s="21" t="s">
+      <c r="B338" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="C338" s="21" t="s">
+      <c r="C338" s="22" t="s">
         <v>736</v>
       </c>
-      <c r="D338" s="21" t="s">
+      <c r="D338" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="E338" s="21" t="s">
+      <c r="E338" s="22" t="s">
         <v>736</v>
       </c>
-      <c r="F338" s="21" t="s">
+      <c r="F338" s="22" t="s">
         <v>993</v>
       </c>
       <c r="H338" s="18" t="str">
@@ -22966,22 +22978,22 @@
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A339" s="21" t="s">
+      <c r="A339" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="B339" s="21" t="s">
+      <c r="B339" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="C339" s="21" t="s">
+      <c r="C339" s="22" t="s">
         <v>807</v>
       </c>
-      <c r="D339" s="21" t="s">
+      <c r="D339" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="E339" s="21" t="s">
+      <c r="E339" s="22" t="s">
         <v>807</v>
       </c>
-      <c r="F339" s="21" t="s">
+      <c r="F339" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H339" s="18" t="str">
@@ -22998,22 +23010,22 @@
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A340" s="21" t="s">
+      <c r="A340" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="B340" s="21" t="s">
+      <c r="B340" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="C340" s="21" t="s">
+      <c r="C340" s="22" t="s">
         <v>800</v>
       </c>
-      <c r="D340" s="21" t="s">
+      <c r="D340" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="E340" s="21" t="s">
+      <c r="E340" s="22" t="s">
         <v>800</v>
       </c>
-      <c r="F340" s="21" t="s">
+      <c r="F340" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H340" s="18" t="str">
@@ -23030,22 +23042,22 @@
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A341" s="21" t="s">
+      <c r="A341" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="B341" s="21" t="s">
+      <c r="B341" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="C341" s="21" t="s">
+      <c r="C341" s="22" t="s">
         <v>718</v>
       </c>
-      <c r="D341" s="21" t="s">
+      <c r="D341" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="E341" s="21" t="s">
+      <c r="E341" s="22" t="s">
         <v>718</v>
       </c>
-      <c r="F341" s="21" t="s">
+      <c r="F341" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="H341" s="18" t="str">
@@ -23062,22 +23074,22 @@
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A342" s="21" t="s">
+      <c r="A342" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="B342" s="21" t="s">
+      <c r="B342" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="C342" s="21" t="s">
+      <c r="C342" s="22" t="s">
         <v>801</v>
       </c>
-      <c r="D342" s="21" t="s">
+      <c r="D342" s="22" t="s">
         <v>382</v>
       </c>
-      <c r="E342" s="21" t="s">
+      <c r="E342" s="22" t="s">
         <v>801</v>
       </c>
-      <c r="F342" s="21" t="s">
+      <c r="F342" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H342" s="18" t="str">
@@ -23094,22 +23106,22 @@
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A343" s="21" t="s">
+      <c r="A343" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="B343" s="21" t="s">
+      <c r="B343" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="C343" s="21" t="s">
+      <c r="C343" s="22" t="s">
         <v>802</v>
       </c>
-      <c r="D343" s="21" t="s">
+      <c r="D343" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="E343" s="21" t="s">
+      <c r="E343" s="22" t="s">
         <v>802</v>
       </c>
-      <c r="F343" s="21" t="s">
+      <c r="F343" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="H343" s="18" t="str">
@@ -23126,20 +23138,20 @@
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A344" s="21" t="s">
+      <c r="A344" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="B344" s="21" t="s">
+      <c r="B344" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="C344" s="21" t="s">
+      <c r="C344" s="22" t="s">
         <v>803</v>
       </c>
-      <c r="D344" s="21"/>
-      <c r="E344" s="21" t="s">
+      <c r="D344" s="22"/>
+      <c r="E344" s="22" t="s">
         <v>803</v>
       </c>
-      <c r="F344" s="21" t="s">
+      <c r="F344" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="H344" s="18" t="str">
@@ -23156,22 +23168,22 @@
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A345" s="21" t="s">
+      <c r="A345" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="B345" s="21" t="s">
+      <c r="B345" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="C345" s="21" t="s">
+      <c r="C345" s="22" t="s">
         <v>804</v>
       </c>
-      <c r="D345" s="21" t="s">
+      <c r="D345" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="E345" s="21" t="s">
+      <c r="E345" s="22" t="s">
         <v>804</v>
       </c>
-      <c r="F345" s="21" t="s">
+      <c r="F345" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="H345" s="18" t="str">
@@ -23188,22 +23200,22 @@
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A346" s="21" t="s">
+      <c r="A346" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="B346" s="21" t="s">
+      <c r="B346" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C346" s="21" t="s">
+      <c r="C346" s="22" t="s">
         <v>631</v>
       </c>
-      <c r="D346" s="21" t="s">
+      <c r="D346" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="E346" s="21" t="s">
+      <c r="E346" s="22" t="s">
         <v>631</v>
       </c>
-      <c r="F346" s="21" t="s">
+      <c r="F346" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H346" s="18" t="str">
@@ -23252,22 +23264,22 @@
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A348" s="21" t="s">
+      <c r="A348" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="B348" s="21" t="s">
+      <c r="B348" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="C348" s="21" t="s">
+      <c r="C348" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D348" s="21" t="s">
+      <c r="D348" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E348" s="21" t="s">
+      <c r="E348" s="22" t="s">
         <v>959</v>
       </c>
-      <c r="F348" s="21" t="s">
+      <c r="F348" s="22" t="s">
         <v>3</v>
       </c>
       <c r="H348" s="18" t="str">
@@ -23374,22 +23386,22 @@
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A352" s="18" t="s">
+      <c r="A352" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="B352" s="19" t="s">
+      <c r="B352" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="C352" s="18" t="s">
+      <c r="C352" s="21" t="s">
         <v>960</v>
       </c>
-      <c r="D352" s="16" t="s">
+      <c r="D352" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="E352" s="18" t="s">
+      <c r="E352" s="21" t="s">
         <v>960</v>
       </c>
-      <c r="F352" s="18" t="s">
+      <c r="F352" s="21" t="s">
         <v>3</v>
       </c>
       <c r="H352" s="18" t="str">
@@ -23406,22 +23418,22 @@
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A353" s="18" t="s">
+      <c r="A353" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="B353" s="19" t="s">
+      <c r="B353" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="C353" s="18" t="s">
+      <c r="C353" s="21" t="s">
         <v>806</v>
       </c>
-      <c r="D353" s="16" t="s">
+      <c r="D353" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="E353" s="18" t="s">
+      <c r="E353" s="21" t="s">
         <v>806</v>
       </c>
-      <c r="F353" s="18" t="s">
+      <c r="F353" s="21" t="s">
         <v>3</v>
       </c>
       <c r="H353" s="18" t="str">
@@ -23438,22 +23450,22 @@
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A354" s="18" t="s">
+      <c r="A354" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="B354" s="19" t="s">
+      <c r="B354" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="C354" s="18" t="s">
+      <c r="C354" s="21" t="s">
         <v>808</v>
       </c>
-      <c r="D354" s="16" t="s">
+      <c r="D354" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="E354" s="18" t="s">
+      <c r="E354" s="21" t="s">
         <v>808</v>
       </c>
-      <c r="F354" s="18" t="s">
+      <c r="F354" s="21" t="s">
         <v>3</v>
       </c>
       <c r="H354" s="18" t="str">
@@ -23470,22 +23482,22 @@
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A355" s="18" t="s">
+      <c r="A355" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="B355" s="19" t="s">
+      <c r="B355" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="C355" s="18" t="s">
+      <c r="C355" s="21" t="s">
         <v>809</v>
       </c>
-      <c r="D355" s="16" t="s">
+      <c r="D355" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="E355" s="18" t="s">
+      <c r="E355" s="21" t="s">
         <v>809</v>
       </c>
-      <c r="F355" s="18" t="s">
+      <c r="F355" s="21" t="s">
         <v>3</v>
       </c>
       <c r="H355" s="18" t="str">
@@ -23502,22 +23514,22 @@
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A356" s="18" t="s">
+      <c r="A356" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="B356" s="19" t="s">
+      <c r="B356" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="C356" s="18" t="s">
+      <c r="C356" s="21" t="s">
         <v>810</v>
       </c>
-      <c r="D356" s="16" t="s">
+      <c r="D356" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E356" s="18" t="s">
+      <c r="E356" s="21" t="s">
         <v>810</v>
       </c>
-      <c r="F356" s="18" t="s">
+      <c r="F356" s="21" t="s">
         <v>3</v>
       </c>
       <c r="H356" s="18" t="str">
@@ -23534,22 +23546,22 @@
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A357" s="18" t="s">
+      <c r="A357" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="B357" s="19" t="s">
+      <c r="B357" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="C357" s="18" t="s">
+      <c r="C357" s="21" t="s">
         <v>811</v>
       </c>
-      <c r="D357" s="16" t="s">
+      <c r="D357" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E357" s="18" t="s">
+      <c r="E357" s="21" t="s">
         <v>811</v>
       </c>
-      <c r="F357" s="18" t="s">
+      <c r="F357" s="21" t="s">
         <v>3</v>
       </c>
       <c r="H357" s="18" t="str">
@@ -23566,22 +23578,22 @@
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A358" s="18" t="s">
+      <c r="A358" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="B358" s="19" t="s">
+      <c r="B358" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="C358" s="18" t="s">
+      <c r="C358" s="21" t="s">
         <v>812</v>
       </c>
-      <c r="D358" s="16" t="s">
+      <c r="D358" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E358" s="18" t="s">
+      <c r="E358" s="21" t="s">
         <v>812</v>
       </c>
-      <c r="F358" s="18" t="s">
+      <c r="F358" s="21" t="s">
         <v>3</v>
       </c>
       <c r="H358" s="18" t="str">
@@ -23694,20 +23706,20 @@
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A362" s="18" t="s">
+      <c r="A362" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="B362" s="19" t="s">
+      <c r="B362" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="C362" s="18" t="s">
+      <c r="C362" s="21" t="s">
         <v>816</v>
       </c>
-      <c r="D362" s="16"/>
-      <c r="E362" s="18" t="s">
+      <c r="D362" s="21"/>
+      <c r="E362" s="21" t="s">
         <v>816</v>
       </c>
-      <c r="F362" s="18" t="s">
+      <c r="F362" s="21" t="s">
         <v>3</v>
       </c>
       <c r="H362" s="18" t="str">

--- a/API/documentos/Dados Entrada Cliente.xlsx
+++ b/API/documentos/Dados Entrada Cliente.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Geração propriedades" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7630" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7728" uniqueCount="1117">
   <si>
     <t>tb_pes</t>
   </si>
@@ -3371,7 +3371,13 @@
     <t>registroDocumento</t>
   </si>
   <si>
+    <t>registroVinculo</t>
+  </si>
+  <si>
     <t>registroReferencia</t>
+  </si>
+  <si>
+    <t>registroPessoaSimplificada</t>
   </si>
 </sst>
 </file>
@@ -3803,8 +3809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G362"/>
   <sheetViews>
-    <sheetView topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="G362" activeCellId="1" sqref="G352:G358 G362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6791,19 +6797,20 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>0</v>
-      </c>
-      <c r="B129" t="s">
+      <c r="A129" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" s="21" t="s">
         <v>1057</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="E129" t="s">
+      <c r="D129" s="21"/>
+      <c r="E129" s="21" t="s">
         <v>1058</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G129" t="str">
@@ -7295,19 +7302,20 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>0</v>
-      </c>
-      <c r="B153" t="s">
+      <c r="A153" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" s="21" t="s">
         <v>1035</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E153" t="s">
+      <c r="D153" s="21"/>
+      <c r="E153" s="21" t="s">
         <v>1036</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F153" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G153" t="str">
@@ -7316,22 +7324,22 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>0</v>
-      </c>
-      <c r="B154" t="s">
+      <c r="A154" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E154" s="21" t="s">
         <v>744</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F154" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G154" t="str">
@@ -7340,22 +7348,22 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>0</v>
-      </c>
-      <c r="B155" t="s">
+      <c r="A155" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="21" t="s">
         <v>745</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F155" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G155" t="str">
@@ -10794,19 +10802,20 @@
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
+      <c r="A318" s="21" t="s">
         <v>517</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318" s="21" t="s">
         <v>564</v>
       </c>
-      <c r="C318" s="10" t="s">
+      <c r="C318" s="21" t="s">
         <v>915</v>
       </c>
-      <c r="E318" t="s">
+      <c r="D318" s="21"/>
+      <c r="E318" s="21" t="s">
         <v>915</v>
       </c>
-      <c r="F318" t="s">
+      <c r="F318" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G318" t="str">
@@ -10815,19 +10824,20 @@
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A319" s="2" t="s">
+      <c r="A319" s="21" t="s">
         <v>517</v>
       </c>
-      <c r="B319" s="2" t="s">
+      <c r="B319" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="C319" s="11" t="s">
+      <c r="C319" s="21" t="s">
         <v>1084</v>
       </c>
-      <c r="E319" s="2" t="s">
+      <c r="D319" s="21"/>
+      <c r="E319" s="21" t="s">
         <v>1084</v>
       </c>
-      <c r="F319" s="2" t="s">
+      <c r="F319" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G319" t="str">
@@ -10836,19 +10846,20 @@
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
+      <c r="A320" s="21" t="s">
         <v>517</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="C320" s="10" t="s">
+      <c r="C320" s="21" t="s">
         <v>861</v>
       </c>
-      <c r="E320" t="s">
+      <c r="D320" s="21"/>
+      <c r="E320" s="21" t="s">
         <v>1086</v>
       </c>
-      <c r="F320" t="s">
+      <c r="F320" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G320" t="str">
@@ -11530,20 +11541,20 @@
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A352" s="14" t="s">
+      <c r="A352" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="B352" s="14"/>
-      <c r="C352" s="14" t="s">
+      <c r="B352" s="21"/>
+      <c r="C352" s="21" t="s">
         <v>960</v>
       </c>
-      <c r="D352" s="16" t="s">
+      <c r="D352" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="E352" s="14" t="s">
+      <c r="E352" s="21" t="s">
         <v>960</v>
       </c>
-      <c r="F352" s="18" t="s">
+      <c r="F352" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G352" s="14" t="str">
@@ -11552,20 +11563,20 @@
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A353" s="14" t="s">
+      <c r="A353" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="B353" s="14"/>
-      <c r="C353" s="14" t="s">
+      <c r="B353" s="21"/>
+      <c r="C353" s="21" t="s">
         <v>806</v>
       </c>
-      <c r="D353" s="16" t="s">
+      <c r="D353" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="E353" s="14" t="s">
+      <c r="E353" s="21" t="s">
         <v>806</v>
       </c>
-      <c r="F353" s="18" t="s">
+      <c r="F353" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G353" s="14" t="str">
@@ -11574,20 +11585,20 @@
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A354" s="14" t="s">
+      <c r="A354" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="B354" s="14"/>
-      <c r="C354" s="14" t="s">
+      <c r="B354" s="21"/>
+      <c r="C354" s="21" t="s">
         <v>808</v>
       </c>
-      <c r="D354" s="16" t="s">
+      <c r="D354" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="E354" s="14" t="s">
+      <c r="E354" s="21" t="s">
         <v>808</v>
       </c>
-      <c r="F354" s="18" t="s">
+      <c r="F354" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G354" s="14" t="str">
@@ -11596,20 +11607,20 @@
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A355" s="14" t="s">
+      <c r="A355" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="B355" s="14"/>
-      <c r="C355" s="14" t="s">
+      <c r="B355" s="21"/>
+      <c r="C355" s="21" t="s">
         <v>809</v>
       </c>
-      <c r="D355" s="16" t="s">
+      <c r="D355" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="E355" s="14" t="s">
+      <c r="E355" s="21" t="s">
         <v>809</v>
       </c>
-      <c r="F355" s="18" t="s">
+      <c r="F355" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G355" s="14" t="str">
@@ -11618,20 +11629,20 @@
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A356" s="14" t="s">
+      <c r="A356" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="B356" s="14"/>
-      <c r="C356" s="14" t="s">
+      <c r="B356" s="21"/>
+      <c r="C356" s="21" t="s">
         <v>810</v>
       </c>
-      <c r="D356" s="16" t="s">
+      <c r="D356" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E356" s="14" t="s">
+      <c r="E356" s="21" t="s">
         <v>810</v>
       </c>
-      <c r="F356" s="18" t="s">
+      <c r="F356" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G356" s="14" t="str">
@@ -11640,20 +11651,20 @@
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A357" s="14" t="s">
+      <c r="A357" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="B357" s="14"/>
-      <c r="C357" s="14" t="s">
+      <c r="B357" s="21"/>
+      <c r="C357" s="21" t="s">
         <v>811</v>
       </c>
-      <c r="D357" s="16" t="s">
+      <c r="D357" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E357" s="14" t="s">
+      <c r="E357" s="21" t="s">
         <v>811</v>
       </c>
-      <c r="F357" s="18" t="s">
+      <c r="F357" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G357" s="14" t="str">
@@ -11662,20 +11673,20 @@
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A358" s="14" t="s">
+      <c r="A358" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="B358" s="14"/>
-      <c r="C358" s="14" t="s">
+      <c r="B358" s="21"/>
+      <c r="C358" s="21" t="s">
         <v>812</v>
       </c>
-      <c r="D358" s="16" t="s">
+      <c r="D358" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E358" s="14" t="s">
+      <c r="E358" s="21" t="s">
         <v>812</v>
       </c>
-      <c r="F358" s="18" t="s">
+      <c r="F358" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G358" s="14" t="str">
@@ -11750,18 +11761,18 @@
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A362" s="14" t="s">
+      <c r="A362" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="B362" s="14"/>
-      <c r="C362" s="14" t="s">
+      <c r="B362" s="21"/>
+      <c r="C362" s="21" t="s">
         <v>816</v>
       </c>
-      <c r="D362" s="16"/>
-      <c r="E362" s="14" t="s">
+      <c r="D362" s="21"/>
+      <c r="E362" s="21" t="s">
         <v>816</v>
       </c>
-      <c r="F362" s="18" t="s">
+      <c r="F362" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G362" s="14" t="str">
@@ -11779,8 +11790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="E153" sqref="E153"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20070,7 +20081,7 @@
         <v>3</v>
       </c>
       <c r="G244" s="18" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H244" s="18" t="str">
         <f t="shared" si="12"/>
@@ -20103,7 +20114,7 @@
         <v>3</v>
       </c>
       <c r="G245" s="18" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H245" s="18" t="str">
         <f t="shared" si="12"/>
@@ -20136,7 +20147,7 @@
         <v>993</v>
       </c>
       <c r="G246" s="18" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H246" s="18" t="str">
         <f t="shared" si="12"/>
@@ -20169,7 +20180,7 @@
         <v>3</v>
       </c>
       <c r="G247" s="18" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H247" s="18" t="str">
         <f t="shared" si="12"/>
@@ -20202,7 +20213,7 @@
         <v>3</v>
       </c>
       <c r="G248" s="18" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H248" s="18" t="str">
         <f t="shared" si="12"/>
@@ -20235,7 +20246,7 @@
         <v>991</v>
       </c>
       <c r="G249" s="18" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H249" s="18" t="str">
         <f t="shared" si="12"/>
@@ -20268,7 +20279,7 @@
         <v>991</v>
       </c>
       <c r="G250" s="18" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H250" s="18" t="str">
         <f t="shared" si="12"/>
@@ -20301,7 +20312,7 @@
         <v>1089</v>
       </c>
       <c r="G251" s="18" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H251" s="18" t="str">
         <f t="shared" si="12"/>
@@ -20334,7 +20345,7 @@
         <v>1089</v>
       </c>
       <c r="G252" s="18" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H252" s="18" t="str">
         <f t="shared" si="12"/>
@@ -20367,7 +20378,7 @@
         <v>1089</v>
       </c>
       <c r="G253" s="18" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H253" s="18" t="str">
         <f t="shared" si="12"/>
@@ -20400,7 +20411,7 @@
         <v>3</v>
       </c>
       <c r="G254" s="18" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H254" s="18" t="str">
         <f t="shared" si="12"/>
@@ -20433,7 +20444,7 @@
         <v>1089</v>
       </c>
       <c r="G255" s="18" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H255" s="18" t="str">
         <f t="shared" si="12"/>
@@ -20466,7 +20477,7 @@
         <v>3</v>
       </c>
       <c r="G256" s="18" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H256" s="18" t="str">
         <f t="shared" si="12"/>
@@ -20499,7 +20510,7 @@
         <v>1089</v>
       </c>
       <c r="G257" s="18" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H257" s="18" t="str">
         <f t="shared" si="12"/>
@@ -20532,7 +20543,7 @@
         <v>993</v>
       </c>
       <c r="G258" s="18" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H258" s="18" t="str">
         <f t="shared" si="12"/>
@@ -20565,7 +20576,7 @@
         <v>993</v>
       </c>
       <c r="G259" s="18" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H259" s="18" t="str">
         <f t="shared" si="12"/>
@@ -20598,7 +20609,7 @@
         <v>3</v>
       </c>
       <c r="G260" s="18" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H260" s="18" t="str">
         <f t="shared" si="12"/>
@@ -20631,7 +20642,7 @@
         <v>3</v>
       </c>
       <c r="G261" s="18" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H261" s="18" t="str">
         <f t="shared" si="12"/>
@@ -20664,7 +20675,7 @@
         <v>3</v>
       </c>
       <c r="G262" s="18" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H262" s="18" t="str">
         <f t="shared" si="12"/>
@@ -20697,7 +20708,7 @@
         <v>1089</v>
       </c>
       <c r="G263" s="18" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H263" s="18" t="str">
         <f t="shared" si="12"/>
@@ -20743,6 +20754,9 @@
       <c r="F265" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G265" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H265" s="18" t="str">
         <f t="shared" si="12"/>
         <v>public string cod_simp  { get; set; }</v>
@@ -20753,7 +20767,7 @@
       </c>
       <c r="J265" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.codigo))| .cod_simp = msg.codigo;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.codigo))| registroPessoaSimplificada.cod_simp = msg.codigo;</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
@@ -20773,6 +20787,9 @@
       <c r="F266" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G266" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H266" s="18" t="str">
         <f t="shared" si="12"/>
         <v>public string nom_simp  { get; set; }</v>
@@ -20783,7 +20800,7 @@
       </c>
       <c r="J266" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.nome))| .nom_simp = msg.nome;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.nome))| registroPessoaSimplificada.nom_simp = msg.nome;</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
@@ -20803,6 +20820,9 @@
       <c r="F267" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G267" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H267" s="18" t="str">
         <f t="shared" si="12"/>
         <v>public string ddd_fone_1_simp  { get; set; }</v>
@@ -20813,7 +20833,7 @@
       </c>
       <c r="J267" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoDddFone1))| .ddd_fone_1_simp = msg.codigoDddFone1;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoDddFone1))| registroPessoaSimplificada.ddd_fone_1_simp = msg.codigoDddFone1;</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
@@ -20833,6 +20853,9 @@
       <c r="F268" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G268" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H268" s="18" t="str">
         <f t="shared" si="12"/>
         <v>public string ddd_fone_2_simp  { get; set; }</v>
@@ -20843,7 +20866,7 @@
       </c>
       <c r="J268" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoDddFone2))| .ddd_fone_2_simp = msg.codigoDddFone2;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoDddFone2))| registroPessoaSimplificada.ddd_fone_2_simp = msg.codigoDddFone2;</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
@@ -20863,6 +20886,9 @@
       <c r="F269" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G269" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H269" s="18" t="str">
         <f t="shared" si="12"/>
         <v>public string fone_1_simp  { get; set; }</v>
@@ -20873,7 +20899,7 @@
       </c>
       <c r="J269" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.numeroTelefone1))| .fone_1_simp = msg.numeroTelefone1;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.numeroTelefone1))| registroPessoaSimplificada.fone_1_simp = msg.numeroTelefone1;</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
@@ -20893,6 +20919,9 @@
       <c r="F270" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G270" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H270" s="18" t="str">
         <f t="shared" si="12"/>
         <v>public string fone_2_simp  { get; set; }</v>
@@ -20903,7 +20932,7 @@
       </c>
       <c r="J270" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.numeroTelefone2))| .fone_2_simp = msg.numeroTelefone2;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.numeroTelefone2))| registroPessoaSimplificada.fone_2_simp = msg.numeroTelefone2;</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
@@ -20923,6 +20952,9 @@
       <c r="F271" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G271" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H271" s="18" t="str">
         <f t="shared" si="12"/>
         <v>public string ram_fone_1_simp  { get; set; }</v>
@@ -20933,7 +20965,7 @@
       </c>
       <c r="J271" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.numeroRamal1))| .ram_fone_1_simp = msg.numeroRamal1;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.numeroRamal1))| registroPessoaSimplificada.ram_fone_1_simp = msg.numeroRamal1;</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
@@ -20953,6 +20985,9 @@
       <c r="F272" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G272" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H272" s="18" t="str">
         <f t="shared" si="12"/>
         <v>public string ram_fone_2_simp  { get; set; }</v>
@@ -20963,7 +20998,7 @@
       </c>
       <c r="J272" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.numeroRamal2))| .ram_fone_2_simp = msg.numeroRamal2;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.numeroRamal2))| registroPessoaSimplificada.ram_fone_2_simp = msg.numeroRamal2;</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
@@ -20983,6 +21018,9 @@
       <c r="F273" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G273" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H273" s="18" t="str">
         <f t="shared" si="12"/>
         <v>public string sit_fone_1_simp  { get; set; }</v>
@@ -20993,7 +21031,7 @@
       </c>
       <c r="J273" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.situacaoTelefone1))| .sit_fone_1_simp = msg.situacaoTelefone1;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.situacaoTelefone1))| registroPessoaSimplificada.sit_fone_1_simp = msg.situacaoTelefone1;</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
@@ -21013,6 +21051,9 @@
       <c r="F274" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G274" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H274" s="18" t="str">
         <f t="shared" si="12"/>
         <v>public string sit_fone_2_simp  { get; set; }</v>
@@ -21023,7 +21064,7 @@
       </c>
       <c r="J274" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.situacaoTelefone2))| .sit_fone_2_simp = msg.situacaoTelefone2;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.situacaoTelefone2))| registroPessoaSimplificada.sit_fone_2_simp = msg.situacaoTelefone2;</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
@@ -21043,6 +21084,9 @@
       <c r="F275" s="22" t="s">
         <v>1089</v>
       </c>
+      <c r="G275" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H275" s="18" t="str">
         <f t="shared" si="12"/>
         <v>public DateTime dat_nasc_simp  { get; set; }</v>
@@ -21053,7 +21097,7 @@
       </c>
       <c r="J275" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(msg.dataNascimento != DateTime.MinValue)| .dat_nasc_simp = msg.dataNascimento;</v>
+        <v>|if(msg.dataNascimento != DateTime.MinValue)| registroPessoaSimplificada.dat_nasc_simp = msg.dataNascimento;</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
@@ -21073,6 +21117,9 @@
       <c r="F276" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G276" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H276" s="18" t="str">
         <f t="shared" si="12"/>
         <v>public string obs_simp  { get; set; }</v>
@@ -21083,7 +21130,7 @@
       </c>
       <c r="J276" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.observacao))| .obs_simp = msg.observacao;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.observacao))| registroPessoaSimplificada.obs_simp = msg.observacao;</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
@@ -21103,6 +21150,9 @@
       <c r="F277" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G277" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H277" s="18" t="str">
         <f t="shared" si="12"/>
         <v>public string tip_simp  { get; set; }</v>
@@ -21113,7 +21163,7 @@
       </c>
       <c r="J277" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.tipoReferencia))| .tip_simp = msg.tipoReferencia;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.tipoReferencia))| registroPessoaSimplificada.tip_simp = msg.tipoReferencia;</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
@@ -21133,6 +21183,9 @@
       <c r="F278" s="22" t="s">
         <v>1089</v>
       </c>
+      <c r="G278" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H278" s="18" t="str">
         <f t="shared" si="12"/>
         <v>public DateTime dat_cad  { get; set; }</v>
@@ -21143,7 +21196,7 @@
       </c>
       <c r="J278" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(msg.dataCadastramento != DateTime.MinValue)| .dat_cad = msg.dataCadastramento;</v>
+        <v>|if(msg.dataCadastramento != DateTime.MinValue)| registroPessoaSimplificada.dat_cad = msg.dataCadastramento;</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
@@ -21163,6 +21216,9 @@
       <c r="F279" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G279" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H279" s="18" t="str">
         <f t="shared" si="12"/>
         <v>public string usu_atu  { get; set; }</v>
@@ -21173,7 +21229,7 @@
       </c>
       <c r="J279" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.usuarioUltimaAtualizacao))| .usu_atu = msg.usuarioUltimaAtualizacao;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.usuarioUltimaAtualizacao))| registroPessoaSimplificada.usu_atu = msg.usuarioUltimaAtualizacao;</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
@@ -21193,6 +21249,9 @@
       <c r="F280" s="22" t="s">
         <v>1089</v>
       </c>
+      <c r="G280" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H280" s="18" t="str">
         <f t="shared" si="12"/>
         <v>public DateTime dat_atu  { get; set; }</v>
@@ -21203,7 +21262,7 @@
       </c>
       <c r="J280" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(msg.dataAtualizacao != DateTime.MinValue)| .dat_atu = msg.dataAtualizacao;</v>
+        <v>|if(msg.dataAtualizacao != DateTime.MinValue)| registroPessoaSimplificada.dat_atu = msg.dataAtualizacao;</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
@@ -21223,6 +21282,9 @@
       <c r="F281" s="22" t="s">
         <v>993</v>
       </c>
+      <c r="G281" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H281" s="18" t="str">
         <f t="shared" si="12"/>
         <v>public int cod_mun_simp  { get; set; }</v>
@@ -21233,7 +21295,7 @@
       </c>
       <c r="J281" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(msg.codigoMunicipio &gt; 0)| .cod_mun_simp = msg.codigoMunicipio;</v>
+        <v>|if(msg.codigoMunicipio &gt; 0)| registroPessoaSimplificada.cod_mun_simp = msg.codigoMunicipio;</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
@@ -21253,6 +21315,9 @@
       <c r="F282" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G282" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H282" s="18" t="str">
         <f t="shared" si="12"/>
         <v>public string des_mun_simp  { get; set; }</v>
@@ -21263,7 +21328,7 @@
       </c>
       <c r="J282" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.descricaoMunicipio))| .des_mun_simp = msg.descricaoMunicipio;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.descricaoMunicipio))| registroPessoaSimplificada.des_mun_simp = msg.descricaoMunicipio;</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
@@ -21283,6 +21348,9 @@
       <c r="F283" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G283" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H283" s="18" t="str">
         <f t="shared" si="12"/>
         <v>public string tip_log_simp  { get; set; }</v>
@@ -21293,7 +21361,7 @@
       </c>
       <c r="J283" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.tipoLogradouro))| .tip_log_simp = msg.tipoLogradouro;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.tipoLogradouro))| registroPessoaSimplificada.tip_log_simp = msg.tipoLogradouro;</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
@@ -21313,6 +21381,9 @@
       <c r="F284" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G284" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H284" s="18" t="str">
         <f t="shared" si="12"/>
         <v>public string des_log_simp  { get; set; }</v>
@@ -21323,7 +21394,7 @@
       </c>
       <c r="J284" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.descricicaoLogradouro))| .des_log_simp = msg.descricicaoLogradouro;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.descricicaoLogradouro))| registroPessoaSimplificada.des_log_simp = msg.descricicaoLogradouro;</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
@@ -21343,6 +21414,9 @@
       <c r="F285" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G285" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H285" s="18" t="str">
         <f t="shared" si="12"/>
         <v>public string num_simp  { get; set; }</v>
@@ -21353,7 +21427,7 @@
       </c>
       <c r="J285" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.numeroEndereco))| .num_simp = msg.numeroEndereco;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.numeroEndereco))| registroPessoaSimplificada.num_simp = msg.numeroEndereco;</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
@@ -21373,6 +21447,9 @@
       <c r="F286" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G286" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H286" s="18" t="str">
         <f t="shared" si="12"/>
         <v>public string cpl_end_simp  { get; set; }</v>
@@ -21383,7 +21460,7 @@
       </c>
       <c r="J286" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.complementoLogradouro))| .cpl_end_simp = msg.complementoLogradouro;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.complementoLogradouro))| registroPessoaSimplificada.cpl_end_simp = msg.complementoLogradouro;</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
@@ -21403,6 +21480,9 @@
       <c r="F287" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G287" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H287" s="18" t="str">
         <f t="shared" si="12"/>
         <v>public string bai_end_simp  { get; set; }</v>
@@ -21413,7 +21493,7 @@
       </c>
       <c r="J287" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.nomeBairro))| .bai_end_simp = msg.nomeBairro;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.nomeBairro))| registroPessoaSimplificada.bai_end_simp = msg.nomeBairro;</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
@@ -21433,6 +21513,9 @@
       <c r="F288" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G288" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H288" s="18" t="str">
         <f t="shared" si="12"/>
         <v>public string tip_end_simp  { get; set; }</v>
@@ -21443,7 +21526,7 @@
       </c>
       <c r="J288" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.tipoEndereco))| .tip_end_simp = msg.tipoEndereco;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.tipoEndereco))| registroPessoaSimplificada.tip_end_simp = msg.tipoEndereco;</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
@@ -21463,6 +21546,9 @@
       <c r="F289" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G289" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H289" s="18" t="str">
         <f t="shared" si="12"/>
         <v>public string uf_end_simp  { get; set; }</v>
@@ -21473,7 +21559,7 @@
       </c>
       <c r="J289" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.uf))| .uf_end_simp = msg.uf;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.uf))| registroPessoaSimplificada.uf_end_simp = msg.uf;</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
@@ -21493,6 +21579,9 @@
       <c r="F290" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G290" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H290" s="18" t="str">
         <f t="shared" si="12"/>
         <v>public string pais_simp  { get; set; }</v>
@@ -21503,7 +21592,7 @@
       </c>
       <c r="J290" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.pais))| .pais_simp = msg.pais;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.pais))| registroPessoaSimplificada.pais_simp = msg.pais;</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
@@ -21523,6 +21612,9 @@
       <c r="F291" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G291" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H291" s="18" t="str">
         <f t="shared" si="12"/>
         <v>public string cep_simp  { get; set; }</v>
@@ -21533,7 +21625,7 @@
       </c>
       <c r="J291" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.numeroCep))| .cep_simp = msg.numeroCep;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.numeroCep))| registroPessoaSimplificada.cep_simp = msg.numeroCep;</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
@@ -21553,6 +21645,9 @@
       <c r="F292" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G292" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H292" s="18" t="str">
         <f t="shared" ref="H292:H355" si="15">CONCATENATE("public ",F292," ",B292,"  { get; set; }")</f>
         <v>public string est_civ_simp  { get; set; }</v>
@@ -21563,7 +21658,7 @@
       </c>
       <c r="J292" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.estadoCivil))| .est_civ_simp = msg.estadoCivil;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.estadoCivil))| registroPessoaSimplificada.est_civ_simp = msg.estadoCivil;</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
@@ -21583,6 +21678,9 @@
       <c r="F293" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G293" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H293" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string reg_com_simp  { get; set; }</v>
@@ -21593,7 +21691,7 @@
       </c>
       <c r="J293" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.regimeComunhao))| .reg_com_simp = msg.regimeComunhao;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.regimeComunhao))| registroPessoaSimplificada.reg_com_simp = msg.regimeComunhao;</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
@@ -21613,6 +21711,9 @@
       <c r="F294" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G294" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H294" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string nom_conj_simp  { get; set; }</v>
@@ -21623,7 +21724,7 @@
       </c>
       <c r="J294" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.nomeConjugue))| .nom_conj_simp = msg.nomeConjugue;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.nomeConjugue))| registroPessoaSimplificada.nom_conj_simp = msg.nomeConjugue;</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
@@ -21643,6 +21744,9 @@
       <c r="F295" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G295" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H295" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string idc_ava_simp  { get; set; }</v>
@@ -21653,7 +21757,7 @@
       </c>
       <c r="J295" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorAvalista))| .idc_ava_simp = msg.indicadorAvalista;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorAvalista))| registroPessoaSimplificada.idc_ava_simp = msg.indicadorAvalista;</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
@@ -21673,6 +21777,9 @@
       <c r="F296" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G296" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H296" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string cpf_cnpj_simp  { get; set; }</v>
@@ -21683,7 +21790,7 @@
       </c>
       <c r="J296" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.CpfCnpjSimplificado))| .cpf_cnpj_simp = msg.CpfCnpjSimplificado;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.CpfCnpjSimplificado))| registroPessoaSimplificada.cpf_cnpj_simp = msg.CpfCnpjSimplificado;</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
@@ -21703,6 +21810,9 @@
       <c r="F297" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G297" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H297" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string tip_pes_simp  { get; set; }</v>
@@ -21713,7 +21823,7 @@
       </c>
       <c r="J297" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.tipoPessoa))| .tip_pes_simp = msg.tipoPessoa;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.tipoPessoa))| registroPessoaSimplificada.tip_pes_simp = msg.tipoPessoa;</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
@@ -21733,6 +21843,9 @@
       <c r="F298" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G298" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H298" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string idc_isen_cpf_cnpf_simp  { get; set; }</v>
@@ -21743,7 +21856,7 @@
       </c>
       <c r="J298" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.identificadorIsentoCpf))| .idc_isen_cpf_cnpf_simp = msg.identificadorIsentoCpf;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.identificadorIsentoCpf))| registroPessoaSimplificada.idc_isen_cpf_cnpf_simp = msg.identificadorIsentoCpf;</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
@@ -21763,6 +21876,9 @@
       <c r="F299" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G299" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H299" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string pescodsisorigem  { get; set; }</v>
@@ -21773,7 +21889,7 @@
       </c>
       <c r="J299" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoSistemaOrigem))| .pescodsisorigem = msg.codigoSistemaOrigem;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoSistemaOrigem))| registroPessoaSimplificada.pescodsisorigem = msg.codigoSistemaOrigem;</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
@@ -21793,6 +21909,9 @@
       <c r="F300" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G300" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H300" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string pescpfconj  { get; set; }</v>
@@ -21803,7 +21922,7 @@
       </c>
       <c r="J300" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.CpfConjugue))| .pescpfconj = msg.CpfConjugue;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.CpfConjugue))| registroPessoaSimplificada.pescpfconj = msg.CpfConjugue;</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
@@ -21823,6 +21942,9 @@
       <c r="F301" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G301" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H301" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string idc_fatca  { get; set; }</v>
@@ -21833,7 +21955,7 @@
       </c>
       <c r="J301" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorClienteFatca))| .idc_fatca = msg.indicadorClienteFatca;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorClienteFatca))| registroPessoaSimplificada.idc_fatca = msg.indicadorClienteFatca;</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
@@ -21853,6 +21975,9 @@
       <c r="F302" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G302" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H302" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string rg_simp  { get; set; }</v>
@@ -21863,7 +21988,7 @@
       </c>
       <c r="J302" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.numeroRg))| .rg_simp = msg.numeroRg;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.numeroRg))| registroPessoaSimplificada.rg_simp = msg.numeroRg;</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
@@ -21883,6 +22008,9 @@
       <c r="F303" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G303" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H303" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string nif_simp  { get; set; }</v>
@@ -21893,7 +22021,7 @@
       </c>
       <c r="J303" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.numeroIdentificadorFiscal))| .nif_simp = msg.numeroIdentificadorFiscal;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.numeroIdentificadorFiscal))| registroPessoaSimplificada.nif_simp = msg.numeroIdentificadorFiscal;</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
@@ -21913,6 +22041,9 @@
       <c r="F304" s="22" t="s">
         <v>993</v>
       </c>
+      <c r="G304" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H304" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public int nac1_simp  { get; set; }</v>
@@ -21923,7 +22054,7 @@
       </c>
       <c r="J304" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(msg.codigoNacionalidade1 &gt; 0)| .nac1_simp = msg.codigoNacionalidade1;</v>
+        <v>|if(msg.codigoNacionalidade1 &gt; 0)| registroPessoaSimplificada.nac1_simp = msg.codigoNacionalidade1;</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
@@ -21943,6 +22074,9 @@
       <c r="F305" s="22" t="s">
         <v>993</v>
       </c>
+      <c r="G305" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H305" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public int nac2_simp  { get; set; }</v>
@@ -21953,7 +22087,7 @@
       </c>
       <c r="J305" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(msg.codigoNacionalidade2 &gt; 0)| .nac2_simp = msg.codigoNacionalidade2;</v>
+        <v>|if(msg.codigoNacionalidade2 &gt; 0)| registroPessoaSimplificada.nac2_simp = msg.codigoNacionalidade2;</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
@@ -21973,6 +22107,9 @@
       <c r="F306" s="22" t="s">
         <v>993</v>
       </c>
+      <c r="G306" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H306" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public int nac3_simp  { get; set; }</v>
@@ -21983,7 +22120,7 @@
       </c>
       <c r="J306" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(msg.codigoNacionalidade3 &gt; 0)| .nac3_simp = msg.codigoNacionalidade3;</v>
+        <v>|if(msg.codigoNacionalidade3 &gt; 0)| registroPessoaSimplificada.nac3_simp = msg.codigoNacionalidade3;</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
@@ -22003,6 +22140,9 @@
       <c r="F307" s="22" t="s">
         <v>993</v>
       </c>
+      <c r="G307" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H307" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public int nac4_simp  { get; set; }</v>
@@ -22013,7 +22153,7 @@
       </c>
       <c r="J307" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(msg.codigoNacionalidade4 &gt; 0)| .nac4_simp = msg.codigoNacionalidade4;</v>
+        <v>|if(msg.codigoNacionalidade4 &gt; 0)| registroPessoaSimplificada.nac4_simp = msg.codigoNacionalidade4;</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
@@ -22033,6 +22173,9 @@
       <c r="F308" s="22" t="s">
         <v>993</v>
       </c>
+      <c r="G308" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H308" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public int dom_fis1_simp  { get; set; }</v>
@@ -22043,7 +22186,7 @@
       </c>
       <c r="J308" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(msg.codigoDomicilioFiscal1 &gt; 0)| .dom_fis1_simp = msg.codigoDomicilioFiscal1;</v>
+        <v>|if(msg.codigoDomicilioFiscal1 &gt; 0)| registroPessoaSimplificada.dom_fis1_simp = msg.codigoDomicilioFiscal1;</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
@@ -22063,6 +22206,9 @@
       <c r="F309" s="22" t="s">
         <v>993</v>
       </c>
+      <c r="G309" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H309" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public int dom_fis2_simp  { get; set; }</v>
@@ -22073,7 +22219,7 @@
       </c>
       <c r="J309" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(msg.codigoDomicilioFiscal2 &gt; 0)| .dom_fis2_simp = msg.codigoDomicilioFiscal2;</v>
+        <v>|if(msg.codigoDomicilioFiscal2 &gt; 0)| registroPessoaSimplificada.dom_fis2_simp = msg.codigoDomicilioFiscal2;</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
@@ -22093,6 +22239,9 @@
       <c r="F310" s="22" t="s">
         <v>993</v>
       </c>
+      <c r="G310" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H310" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public int dom_fis3_simp  { get; set; }</v>
@@ -22103,7 +22252,7 @@
       </c>
       <c r="J310" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(msg.codigoDomicilioFiscal3 &gt; 0)| .dom_fis3_simp = msg.codigoDomicilioFiscal3;</v>
+        <v>|if(msg.codigoDomicilioFiscal3 &gt; 0)| registroPessoaSimplificada.dom_fis3_simp = msg.codigoDomicilioFiscal3;</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
@@ -22123,6 +22272,9 @@
       <c r="F311" s="22" t="s">
         <v>993</v>
       </c>
+      <c r="G311" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H311" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public int dom_fis4_simp  { get; set; }</v>
@@ -22133,7 +22285,7 @@
       </c>
       <c r="J311" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(msg.codigoDomicilioFiscal4 &gt; 0)| .dom_fis4_simp = msg.codigoDomicilioFiscal4;</v>
+        <v>|if(msg.codigoDomicilioFiscal4 &gt; 0)| registroPessoaSimplificada.dom_fis4_simp = msg.codigoDomicilioFiscal4;</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
@@ -22153,6 +22305,9 @@
       <c r="F312" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G312" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H312" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string ddd_cel_simp  { get; set; }</v>
@@ -22163,7 +22318,7 @@
       </c>
       <c r="J312" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoDddCelular))| .ddd_cel_simp = msg.codigoDddCelular;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoDddCelular))| registroPessoaSimplificada.ddd_cel_simp = msg.codigoDddCelular;</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
@@ -22183,6 +22338,9 @@
       <c r="F313" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G313" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H313" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string fone_cel_simp  { get; set; }</v>
@@ -22193,7 +22351,7 @@
       </c>
       <c r="J313" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.numeroCelular))| .fone_cel_simp = msg.numeroCelular;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.numeroCelular))| registroPessoaSimplificada.fone_cel_simp = msg.numeroCelular;</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
@@ -22213,6 +22371,9 @@
       <c r="F314" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G314" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H314" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string email  { get; set; }</v>
@@ -22223,7 +22384,7 @@
       </c>
       <c r="J314" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.email))| .email = msg.email;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.email))| registroPessoaSimplificada.email = msg.email;</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
@@ -22243,6 +22404,9 @@
       <c r="F315" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G315" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H315" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string idc_cli_est  { get; set; }</v>
@@ -22253,7 +22417,7 @@
       </c>
       <c r="J315" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorClienteEstrangeiro))| .idc_cli_est = msg.indicadorClienteEstrangeiro;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorClienteEstrangeiro))| registroPessoaSimplificada.idc_cli_est = msg.indicadorClienteEstrangeiro;</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
@@ -22273,6 +22437,9 @@
       <c r="F316" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G316" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H316" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string tip_doc_est  { get; set; }</v>
@@ -22283,7 +22450,7 @@
       </c>
       <c r="J316" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.tipoDocumentoEstrangeiro))| .tip_doc_est = msg.tipoDocumentoEstrangeiro;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.tipoDocumentoEstrangeiro))| registroPessoaSimplificada.tip_doc_est = msg.tipoDocumentoEstrangeiro;</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
@@ -22303,6 +22470,9 @@
       <c r="F317" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G317" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H317" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string num_doc_est  { get; set; }</v>
@@ -22313,7 +22483,7 @@
       </c>
       <c r="J317" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.numeroDocumentoEstrangeiro))| .num_doc_est = msg.numeroDocumentoEstrangeiro;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.numeroDocumentoEstrangeiro))| registroPessoaSimplificada.num_doc_est = msg.numeroDocumentoEstrangeiro;</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
@@ -22333,6 +22503,9 @@
       <c r="F318" s="21" t="s">
         <v>3</v>
       </c>
+      <c r="G318" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H318" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string nom_social_simp  { get; set; }</v>
@@ -22343,7 +22516,7 @@
       </c>
       <c r="J318" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.nomeSocial))| .nom_social_simp = msg.nomeSocial;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.nomeSocial))| registroPessoaSimplificada.nom_social_simp = msg.nomeSocial;</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
@@ -22363,6 +22536,9 @@
       <c r="F319" s="21" t="s">
         <v>3</v>
       </c>
+      <c r="G319" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H319" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string pld_pes  { get; set; }</v>
@@ -22373,7 +22549,7 @@
       </c>
       <c r="J319" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.nivelRiscoPld))| .pld_pes = msg.nivelRiscoPld;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.nivelRiscoPld))| registroPessoaSimplificada.pld_pes = msg.nivelRiscoPld;</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
@@ -22393,6 +22569,9 @@
       <c r="F320" s="21" t="s">
         <v>3</v>
       </c>
+      <c r="G320" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H320" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string obs_pld  { get; set; }</v>
@@ -22403,7 +22582,7 @@
       </c>
       <c r="J320" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.observacaoPld))| .obs_pld = msg.observacaoPld;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.observacaoPld))| registroPessoaSimplificada.obs_pld = msg.observacaoPld;</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
@@ -22425,6 +22604,9 @@
       <c r="F321" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="G321" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H321" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string cod_cbo  { get; set; }</v>
@@ -22435,7 +22617,7 @@
       </c>
       <c r="J321" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.CodigoAtividadeCbo))| .cod_cbo = msg.CodigoAtividadeCbo;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.CodigoAtividadeCbo))| registroPessoaSimplificada.cod_cbo = msg.CodigoAtividadeCbo;</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
@@ -22454,6 +22636,9 @@
       <c r="F322" s="19" t="s">
         <v>993</v>
       </c>
+      <c r="G322" s="22" t="s">
+        <v>1116</v>
+      </c>
       <c r="H322" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public int COD_ATIVIDADE  { get; set; }</v>
@@ -22464,7 +22649,7 @@
       </c>
       <c r="J322" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(msg.CodigoAtividade &gt; 0)| .COD_ATIVIDADE = msg.CodigoAtividade;</v>
+        <v>|if(msg.CodigoAtividade &gt; 0)| registroPessoaSimplificada.COD_ATIVIDADE = msg.CodigoAtividade;</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
@@ -22486,6 +22671,9 @@
       <c r="F323" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G323" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H323" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string cod_pessoa_jur  { get; set; }</v>
@@ -22496,7 +22684,7 @@
       </c>
       <c r="J323" s="18" t="str">
         <f t="shared" ref="J323:J363" si="17">CONCATENATE("|if(",I323,")","| ",G323,".",B323," = msg.",E323,";")</f>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoPessoaJuridica))| .cod_pessoa_jur = msg.codigoPessoaJuridica;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoPessoaJuridica))| registroVinculo.cod_pessoa_jur = msg.codigoPessoaJuridica;</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
@@ -22518,6 +22706,9 @@
       <c r="F324" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G324" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H324" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string cod_fil_jur  { get; set; }</v>
@@ -22528,7 +22719,7 @@
       </c>
       <c r="J324" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoFilialPessoaJuridica))| .cod_fil_jur = msg.codigoFilialPessoaJuridica;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoFilialPessoaJuridica))| registroVinculo.cod_fil_jur = msg.codigoFilialPessoaJuridica;</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
@@ -22550,6 +22741,9 @@
       <c r="F325" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G325" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H325" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string cod_pessoa_fis  { get; set; }</v>
@@ -22560,7 +22754,7 @@
       </c>
       <c r="J325" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoPessoaFisica))| .cod_pessoa_fis = msg.codigoPessoaFisica;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoPessoaFisica))| registroVinculo.cod_pessoa_fis = msg.codigoPessoaFisica;</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
@@ -22582,6 +22776,9 @@
       <c r="F326" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G326" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H326" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string cod_fil_fis  { get; set; }</v>
@@ -22592,7 +22789,7 @@
       </c>
       <c r="J326" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoFilialPessoaFisica))| .cod_fil_fis = msg.codigoFilialPessoaFisica;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoFilialPessoaFisica))| registroVinculo.cod_fil_fis = msg.codigoFilialPessoaFisica;</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
@@ -22614,6 +22811,9 @@
       <c r="F327" s="22" t="s">
         <v>993</v>
       </c>
+      <c r="G327" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H327" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public int seq_vinculo  { get; set; }</v>
@@ -22624,7 +22824,7 @@
       </c>
       <c r="J327" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(msg.numeroSequencia &gt; 0)| .seq_vinculo = msg.numeroSequencia;</v>
+        <v>|if(msg.numeroSequencia &gt; 0)| registroVinculo.seq_vinculo = msg.numeroSequencia;</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
@@ -22646,6 +22846,9 @@
       <c r="F328" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G328" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H328" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string idc_partcipacao  { get; set; }</v>
@@ -22656,7 +22859,7 @@
       </c>
       <c r="J328" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorParticipacao))| .idc_partcipacao = msg.indicadorParticipacao;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorParticipacao))| registroVinculo.idc_partcipacao = msg.indicadorParticipacao;</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
@@ -22678,6 +22881,9 @@
       <c r="F329" s="22" t="s">
         <v>991</v>
       </c>
+      <c r="G329" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H329" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public decimal pct_participacao  { get; set; }</v>
@@ -22688,7 +22894,7 @@
       </c>
       <c r="J329" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(msg.percentualParticipacao &gt; 0)| .pct_participacao = msg.percentualParticipacao;</v>
+        <v>|if(msg.percentualParticipacao &gt; 0)| registroVinculo.pct_participacao = msg.percentualParticipacao;</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
@@ -22710,6 +22916,9 @@
       <c r="F330" s="22" t="s">
         <v>1089</v>
       </c>
+      <c r="G330" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H330" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public DateTime dat_posse  { get; set; }</v>
@@ -22720,7 +22929,7 @@
       </c>
       <c r="J330" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(msg.dataPosse != DateTime.MinValue)| .dat_posse = msg.dataPosse;</v>
+        <v>|if(msg.dataPosse != DateTime.MinValue)| registroVinculo.dat_posse = msg.dataPosse;</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
@@ -22740,6 +22949,9 @@
       <c r="F331" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G331" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H331" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string tmp_mandato  { get; set; }</v>
@@ -22750,7 +22962,7 @@
       </c>
       <c r="J331" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.tempoMandato))| .tmp_mandato = msg.tempoMandato;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.tempoMandato))| registroVinculo.tmp_mandato = msg.tempoMandato;</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
@@ -22772,6 +22984,9 @@
       <c r="F332" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G332" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H332" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string des_vinc_fisjur  { get; set; }</v>
@@ -22782,7 +22997,7 @@
       </c>
       <c r="J332" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.observacao))| .des_vinc_fisjur = msg.observacao;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.observacao))| registroVinculo.des_vinc_fisjur = msg.observacao;</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
@@ -22804,6 +23019,9 @@
       <c r="F333" s="22" t="s">
         <v>1089</v>
       </c>
+      <c r="G333" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H333" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public DateTime dat_cad  { get; set; }</v>
@@ -22814,7 +23032,7 @@
       </c>
       <c r="J333" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(msg.dataCadastro != DateTime.MinValue)| .dat_cad = msg.dataCadastro;</v>
+        <v>|if(msg.dataCadastro != DateTime.MinValue)| registroVinculo.dat_cad = msg.dataCadastro;</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
@@ -22836,6 +23054,9 @@
       <c r="F334" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G334" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H334" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string usu_atu  { get; set; }</v>
@@ -22846,7 +23067,7 @@
       </c>
       <c r="J334" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.usuarioUltimaAtualizacao))| .usu_atu = msg.usuarioUltimaAtualizacao;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.usuarioUltimaAtualizacao))| registroVinculo.usu_atu = msg.usuarioUltimaAtualizacao;</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
@@ -22868,6 +23089,9 @@
       <c r="F335" s="22" t="s">
         <v>1089</v>
       </c>
+      <c r="G335" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H335" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public DateTime dat_atu  { get; set; }</v>
@@ -22878,7 +23102,7 @@
       </c>
       <c r="J335" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(msg.dataAtualizacao != DateTime.MinValue)| .dat_atu = msg.dataAtualizacao;</v>
+        <v>|if(msg.dataAtualizacao != DateTime.MinValue)| registroVinculo.dat_atu = msg.dataAtualizacao;</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
@@ -22900,6 +23124,9 @@
       <c r="F336" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G336" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H336" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string idc_sit  { get; set; }</v>
@@ -22910,7 +23137,7 @@
       </c>
       <c r="J336" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorSituacao))| .idc_sit = msg.indicadorSituacao;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorSituacao))| registroVinculo.idc_sit = msg.indicadorSituacao;</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
@@ -22932,6 +23159,9 @@
       <c r="F337" s="22" t="s">
         <v>1089</v>
       </c>
+      <c r="G337" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H337" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public DateTime dat_sit  { get; set; }</v>
@@ -22942,7 +23172,7 @@
       </c>
       <c r="J337" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(msg.dataSituacao != DateTime.MinValue)| .dat_sit = msg.dataSituacao;</v>
+        <v>|if(msg.dataSituacao != DateTime.MinValue)| registroVinculo.dat_sit = msg.dataSituacao;</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
@@ -22964,6 +23194,9 @@
       <c r="F338" s="22" t="s">
         <v>993</v>
       </c>
+      <c r="G338" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H338" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public int cod_cargo  { get; set; }</v>
@@ -22974,7 +23207,7 @@
       </c>
       <c r="J338" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(msg.codigoCargo &gt; 0)| .cod_cargo = msg.codigoCargo;</v>
+        <v>|if(msg.codigoCargo &gt; 0)| registroVinculo.cod_cargo = msg.codigoCargo;</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
@@ -22996,6 +23229,9 @@
       <c r="F339" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G339" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H339" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string idc_assina  { get; set; }</v>
@@ -23006,7 +23242,7 @@
       </c>
       <c r="J339" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorAssinaEmpresa))| .idc_assina = msg.indicadorAssinaEmpresa;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorAssinaEmpresa))| registroVinculo.idc_assina = msg.indicadorAssinaEmpresa;</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
@@ -23028,6 +23264,9 @@
       <c r="F340" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G340" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H340" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string idc_contato  { get; set; }</v>
@@ -23038,7 +23277,7 @@
       </c>
       <c r="J340" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorContato))| .idc_contato = msg.indicadorContato;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorContato))| registroVinculo.idc_contato = msg.indicadorContato;</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
@@ -23060,6 +23299,9 @@
       <c r="F341" s="22" t="s">
         <v>1089</v>
       </c>
+      <c r="G341" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H341" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public DateTime dat_fim  { get; set; }</v>
@@ -23070,7 +23312,7 @@
       </c>
       <c r="J341" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(msg.dataFim != DateTime.MinValue)| .dat_fim = msg.dataFim;</v>
+        <v>|if(msg.dataFim != DateTime.MinValue)| registroVinculo.dat_fim = msg.dataFim;</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
@@ -23092,6 +23334,9 @@
       <c r="F342" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G342" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H342" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string cod_vinculo  { get; set; }</v>
@@ -23102,7 +23347,7 @@
       </c>
       <c r="J342" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoVinculo))| .cod_vinculo = msg.codigoVinculo;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoVinculo))| registroVinculo.cod_vinculo = msg.codigoVinculo;</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
@@ -23124,6 +23369,9 @@
       <c r="F343" s="22" t="s">
         <v>1089</v>
       </c>
+      <c r="G343" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H343" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public DateTime dat_venc_proc  { get; set; }</v>
@@ -23134,7 +23382,7 @@
       </c>
       <c r="J343" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(msg.dataVencimentoProcuracao != DateTime.MinValue)| .dat_venc_proc = msg.dataVencimentoProcuracao;</v>
+        <v>|if(msg.dataVencimentoProcuracao != DateTime.MinValue)| registroVinculo.dat_venc_proc = msg.dataVencimentoProcuracao;</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
@@ -23154,6 +23402,9 @@
       <c r="F344" s="22" t="s">
         <v>1089</v>
       </c>
+      <c r="G344" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H344" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public DateTime tmp_mandato_1  { get; set; }</v>
@@ -23164,7 +23415,7 @@
       </c>
       <c r="J344" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(msg.tempoMandato1 != DateTime.MinValue)| .tmp_mandato_1 = msg.tempoMandato1;</v>
+        <v>|if(msg.tempoMandato1 != DateTime.MinValue)| registroVinculo.tmp_mandato_1 = msg.tempoMandato1;</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
@@ -23186,6 +23437,9 @@
       <c r="F345" s="22" t="s">
         <v>1089</v>
       </c>
+      <c r="G345" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H345" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public DateTime dat_fim_mandato  { get; set; }</v>
@@ -23196,7 +23450,7 @@
       </c>
       <c r="J345" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(msg.dataFimMandato != DateTime.MinValue)| .dat_fim_mandato = msg.dataFimMandato;</v>
+        <v>|if(msg.dataFimMandato != DateTime.MinValue)| registroVinculo.dat_fim_mandato = msg.dataFimMandato;</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
@@ -23218,6 +23472,9 @@
       <c r="F346" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G346" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H346" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string nom_pessoa  { get; set; }</v>
@@ -23228,7 +23485,7 @@
       </c>
       <c r="J346" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.nomePessoa))| .nom_pessoa = msg.nomePessoa;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.nomePessoa))| registroVinculo.nom_pessoa = msg.nomePessoa;</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
@@ -23250,6 +23507,9 @@
       <c r="F347" s="18" t="s">
         <v>3</v>
       </c>
+      <c r="G347" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H347" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string cpf_cnpj_soc  { get; set; }</v>
@@ -23260,7 +23520,7 @@
       </c>
       <c r="J347" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.CNPJCPFSoc))| .cpf_cnpj_soc = msg.CNPJCPFSoc;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.CNPJCPFSoc))| registroVinculo.cpf_cnpj_soc = msg.CNPJCPFSoc;</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
@@ -23282,6 +23542,9 @@
       <c r="F348" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="G348" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H348" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string tip_pes_soc  { get; set; }</v>
@@ -23292,7 +23555,7 @@
       </c>
       <c r="J348" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.tipoPesoa))| .tip_pes_soc = msg.tipoPesoa;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.tipoPesoa))| registroVinculo.tip_pes_soc = msg.tipoPesoa;</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
@@ -23312,6 +23575,9 @@
       <c r="F349" s="19" t="s">
         <v>993</v>
       </c>
+      <c r="G349" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H349" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public int ppsseqpes  { get; set; }</v>
@@ -23322,7 +23588,7 @@
       </c>
       <c r="J349" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(msg.ppsseqpes &gt; 0)| .ppsseqpes = msg.ppsseqpes;</v>
+        <v>|if(msg.ppsseqpes &gt; 0)| registroVinculo.ppsseqpes = msg.ppsseqpes;</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
@@ -23342,6 +23608,9 @@
       <c r="F350" s="19" t="s">
         <v>992</v>
       </c>
+      <c r="G350" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H350" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public dateTime pepdthatu  { get; set; }</v>
@@ -23352,7 +23621,7 @@
       </c>
       <c r="J350" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(msg.pepdthatu != DateTime.MinValue)| .pepdthatu = msg.pepdthatu;</v>
+        <v>|if(msg.pepdthatu != DateTime.MinValue)| registroVinculo.pepdthatu = msg.pepdthatu;</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
@@ -23372,6 +23641,9 @@
       <c r="F351" s="18" t="s">
         <v>3</v>
       </c>
+      <c r="G351" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H351" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string pepidcpep  { get; set; }</v>
@@ -23382,7 +23654,7 @@
       </c>
       <c r="J351" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.pepidcpep))| .pepidcpep = msg.pepidcpep;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.pepidcpep))| registroVinculo.pepidcpep = msg.pepidcpep;</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
@@ -23404,6 +23676,9 @@
       <c r="F352" s="21" t="s">
         <v>3</v>
       </c>
+      <c r="G352" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H352" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string idc_emite_dupl  { get; set; }</v>
@@ -23414,7 +23689,7 @@
       </c>
       <c r="J352" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorEmiteDuplicata))| .idc_emite_dupl = msg.indicadorEmiteDuplicata;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorEmiteDuplicata))| registroVinculo.idc_emite_dupl = msg.indicadorEmiteDuplicata;</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
@@ -23436,6 +23711,9 @@
       <c r="F353" s="21" t="s">
         <v>3</v>
       </c>
+      <c r="G353" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H353" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string idc_assina_endosso  { get; set; }</v>
@@ -23446,7 +23724,7 @@
       </c>
       <c r="J353" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorAssinaEndosso))| .idc_assina_endosso = msg.indicadorAssinaEndosso;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorAssinaEndosso))| registroVinculo.idc_assina_endosso = msg.indicadorAssinaEndosso;</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
@@ -23468,6 +23746,9 @@
       <c r="F354" s="21" t="s">
         <v>3</v>
       </c>
+      <c r="G354" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H354" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string idc_assina_cessao  { get; set; }</v>
@@ -23478,7 +23759,7 @@
       </c>
       <c r="J354" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorAssinaCessao))| .idc_assina_cessao = msg.indicadorAssinaCessao;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorAssinaCessao))| registroVinculo.idc_assina_cessao = msg.indicadorAssinaCessao;</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
@@ -23500,6 +23781,9 @@
       <c r="F355" s="21" t="s">
         <v>3</v>
       </c>
+      <c r="G355" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H355" s="18" t="str">
         <f t="shared" si="15"/>
         <v>public string idc_assina_isoladamente  { get; set; }</v>
@@ -23510,7 +23794,7 @@
       </c>
       <c r="J355" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorAssinaIsoladamente))| .idc_assina_isoladamente = msg.indicadorAssinaIsoladamente;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorAssinaIsoladamente))| registroVinculo.idc_assina_isoladamente = msg.indicadorAssinaIsoladamente;</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
@@ -23532,6 +23816,9 @@
       <c r="F356" s="21" t="s">
         <v>3</v>
       </c>
+      <c r="G356" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H356" s="18" t="str">
         <f t="shared" ref="H356:H362" si="18">CONCATENATE("public ",F356," ",B356,"  { get; set; }")</f>
         <v>public string cod_pessoa_assina1  { get; set; }</v>
@@ -23542,7 +23829,7 @@
       </c>
       <c r="J356" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoPessoaAssina1))| .cod_pessoa_assina1 = msg.codigoPessoaAssina1;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoPessoaAssina1))| registroVinculo.cod_pessoa_assina1 = msg.codigoPessoaAssina1;</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
@@ -23564,6 +23851,9 @@
       <c r="F357" s="21" t="s">
         <v>3</v>
       </c>
+      <c r="G357" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H357" s="18" t="str">
         <f t="shared" si="18"/>
         <v>public string cod_pessoa_assina2  { get; set; }</v>
@@ -23574,7 +23864,7 @@
       </c>
       <c r="J357" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoPessoaAssina2))| .cod_pessoa_assina2 = msg.codigoPessoaAssina2;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoPessoaAssina2))| registroVinculo.cod_pessoa_assina2 = msg.codigoPessoaAssina2;</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
@@ -23596,6 +23886,9 @@
       <c r="F358" s="21" t="s">
         <v>3</v>
       </c>
+      <c r="G358" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H358" s="18" t="str">
         <f t="shared" si="18"/>
         <v>public string cod_pessoa_assina3  { get; set; }</v>
@@ -23606,7 +23899,7 @@
       </c>
       <c r="J358" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoPessoaAssina3))| .cod_pessoa_assina3 = msg.codigoPessoaAssina3;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoPessoaAssina3))| registroVinculo.cod_pessoa_assina3 = msg.codigoPessoaAssina3;</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
@@ -23628,6 +23921,9 @@
       <c r="F359" s="18" t="s">
         <v>3</v>
       </c>
+      <c r="G359" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H359" s="18" t="str">
         <f t="shared" si="18"/>
         <v>public string nom_assina1  { get; set; }</v>
@@ -23638,7 +23934,7 @@
       </c>
       <c r="J359" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.nomeAssina1))| .nom_assina1 = msg.nomeAssina1;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.nomeAssina1))| registroVinculo.nom_assina1 = msg.nomeAssina1;</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
@@ -23660,6 +23956,9 @@
       <c r="F360" s="18" t="s">
         <v>3</v>
       </c>
+      <c r="G360" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H360" s="18" t="str">
         <f t="shared" si="18"/>
         <v>public string nom_assina2  { get; set; }</v>
@@ -23670,7 +23969,7 @@
       </c>
       <c r="J360" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.nomeAssina2))| .nom_assina2 = msg.nomeAssina2;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.nomeAssina2))| registroVinculo.nom_assina2 = msg.nomeAssina2;</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
@@ -23692,6 +23991,9 @@
       <c r="F361" s="18" t="s">
         <v>3</v>
       </c>
+      <c r="G361" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H361" s="18" t="str">
         <f t="shared" si="18"/>
         <v>public string nom_assina3  { get; set; }</v>
@@ -23702,7 +24004,7 @@
       </c>
       <c r="J361" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.nomeAssina3))| .nom_assina3 = msg.nomeAssina3;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.nomeAssina3))| registroVinculo.nom_assina3 = msg.nomeAssina3;</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
@@ -23722,6 +24024,9 @@
       <c r="F362" s="21" t="s">
         <v>3</v>
       </c>
+      <c r="G362" s="22" t="s">
+        <v>1114</v>
+      </c>
       <c r="H362" s="18" t="str">
         <f t="shared" si="18"/>
         <v>public string fisjuremailvinculo  { get; set; }</v>
@@ -23732,7 +24037,7 @@
       </c>
       <c r="J362" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.emailVinculo))| .fisjuremailvinculo = msg.emailVinculo;</v>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.emailVinculo))| registroVinculo.fisjuremailvinculo = msg.emailVinculo;</v>
       </c>
     </row>
   </sheetData>

--- a/API/documentos/Dados Entrada Cliente.xlsx
+++ b/API/documentos/Dados Entrada Cliente.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Geração propriedades" sheetId="3" r:id="rId1"/>
@@ -3419,7 +3419,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3474,6 +3474,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3487,7 +3493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3511,6 +3517,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3827,8 +3834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G362"/>
   <sheetViews>
-    <sheetView topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="G362" activeCellId="1" sqref="G352:G358 G362"/>
+    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
+      <selection activeCell="A278" sqref="A278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11808,8 +11815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M362"/>
+    <sheetView topLeftCell="L342" workbookViewId="0">
+      <selection activeCell="M323" sqref="M323:M362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11867,4498 +11874,4492 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>630</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="18" t="s">
+      <c r="F2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I2" s="18" t="str">
+      <c r="I2" s="23" t="str">
         <f>CONCATENATE("public ",F2," ",B2,"  { get; set; }")</f>
         <v>public string cod_pessoa  { get; set; }</v>
       </c>
-      <c r="J2" s="18" t="str">
+      <c r="J2" s="23" t="str">
         <f>IF(F2="string",CONCATENATE("!string.IsNullOrWhiteSpace(",H2,".",E2,")"),IF(F2="int",CONCATENATE(H2,".",E2," != null &amp;&amp; ",H2,".",E2,".Value &gt; 0"),IF(F2="DateTime",CONCATENATE(H2,".",E2," != null &amp;&amp; ",H2,".",E2,".Value != DateTime.MinValue"),IF(F2="decimal",CONCATENATE(H2,".",E2," != null &amp;&amp; ",H2,".",E2,".Value &gt; 0")))))</f>
         <v>!string.IsNullOrWhiteSpace(msg.codigoPessoa)</v>
       </c>
-      <c r="K2" s="18" t="str">
+      <c r="K2" s="23" t="str">
         <f>CONCATENATE("|if(",J2,")","| ",G2,".",B2," = ",H2,".",E2,";")</f>
         <v>|if(!string.IsNullOrWhiteSpace(msg.codigoPessoa))| registroPessoa.cod_pessoa = msg.codigoPessoa;</v>
       </c>
-      <c r="L2" s="18" t="str">
+      <c r="L2" s="23" t="str">
         <f>IF(F2="string",CONCATENATE("!string.IsNullOrWhiteSpace(",G2,".",B2,")"),IF(F2="int",CONCATENATE(G2,".",B2," != null &amp;&amp; ",G2,".",B2,".Value &gt; 0"),IF(F2="DateTime",CONCATENATE(G2,".",B2," != null &amp;&amp; ",G2,".",B2,".Value != DateTime.MinValue"),IF(F2="decimal",CONCATENATE(G2,".",B2," != null &amp;&amp; ",G2,".",B2,".Value &gt; 0")))))</f>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.cod_pessoa)</v>
       </c>
-      <c r="M2" s="18" t="str">
+      <c r="M2" s="23" t="str">
         <f>CONCATENATE("|if(",L2,")","| ",H2,".",E2," = ",G2,".",B2,";")</f>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.cod_pessoa))| msg.codigoPessoa = registroPessoa.cod_pessoa;</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="22" t="s">
+    <row r="3" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="23" t="s">
         <v>631</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="18" t="s">
+      <c r="F3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I3" s="18" t="str">
+      <c r="I3" s="23" t="str">
         <f t="shared" ref="I3:I66" si="0">CONCATENATE("public ",F3," ",B3,"  { get; set; }")</f>
         <v>public string nom_pessoa  { get; set; }</v>
       </c>
-      <c r="J3" s="18" t="str">
+      <c r="J3" s="23" t="str">
         <f t="shared" ref="J3:J66" si="1">IF(F3="string",CONCATENATE("!string.IsNullOrWhiteSpace(",H3,".",E3,")"),IF(F3="int",CONCATENATE(H3,".",E3," != null &amp;&amp; ",H3,".",E3,".Value &gt; 0"),IF(F3="DateTime",CONCATENATE(H3,".",E3," != null &amp;&amp; ",H3,".",E3,".Value != DateTime.MinValue"),IF(F3="decimal",CONCATENATE(H3,".",E3," != null &amp;&amp; ",H3,".",E3,".Value &gt; 0")))))</f>
         <v>!string.IsNullOrWhiteSpace(msg.nomePessoa)</v>
       </c>
-      <c r="K3" s="18" t="str">
+      <c r="K3" s="23" t="str">
         <f t="shared" ref="K3:K66" si="2">CONCATENATE("|if(",J3,")","| ",G3,".",B3," = ",H3,".",E3,";")</f>
         <v>|if(!string.IsNullOrWhiteSpace(msg.nomePessoa))| registroPessoa.nom_pessoa = msg.nomePessoa;</v>
       </c>
-      <c r="L3" s="18" t="str">
+      <c r="L3" s="23" t="str">
         <f t="shared" ref="L3:L66" si="3">IF(F3="string",CONCATENATE("!string.IsNullOrWhiteSpace(",G3,".",B3,")"),IF(F3="int",CONCATENATE(G3,".",B3," != null &amp;&amp; ",G3,".",B3,".Value &gt; 0"),IF(F3="DateTime",CONCATENATE(G3,".",B3," != null &amp;&amp; ",G3,".",B3,".Value != DateTime.MinValue"),IF(F3="decimal",CONCATENATE(G3,".",B3," != null &amp;&amp; ",G3,".",B3,".Value &gt; 0")))))</f>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.nom_pessoa)</v>
       </c>
-      <c r="M3" s="18" t="str">
+      <c r="M3" s="23" t="str">
         <f t="shared" ref="M3:M66" si="4">CONCATENATE("|if(",L3,")","| ",H3,".",E3," = ",G3,".",B3,";")</f>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.nom_pessoa))| msg.nomePessoa = registroPessoa.nom_pessoa;</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="22" t="s">
+    <row r="4" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I4" s="18" t="str">
+      <c r="I4" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string nom_abv_pessoa  { get; set; }</v>
       </c>
-      <c r="J4" s="18" t="str">
+      <c r="J4" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.nomeAbvPessoa)</v>
       </c>
-      <c r="K4" s="18" t="str">
+      <c r="K4" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.nomeAbvPessoa))| registroPessoa.nom_abv_pessoa = msg.nomeAbvPessoa;</v>
       </c>
-      <c r="L4" s="18" t="str">
+      <c r="L4" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.nom_abv_pessoa)</v>
       </c>
-      <c r="M4" s="18" t="str">
+      <c r="M4" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.nom_abv_pessoa))| msg.nomeAbvPessoa = registroPessoa.nom_abv_pessoa;</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="22" t="s">
+    <row r="5" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="23" t="s">
         <v>633</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="F5" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I5" s="18" t="str">
+      <c r="I5" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string set_pessoa  { get; set; }</v>
       </c>
-      <c r="J5" s="18" t="str">
+      <c r="J5" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.setorAtividade)</v>
       </c>
-      <c r="K5" s="18" t="str">
+      <c r="K5" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.setorAtividade))| registroPessoa.set_pessoa = msg.setorAtividade;</v>
       </c>
-      <c r="L5" s="18" t="str">
+      <c r="L5" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.set_pessoa)</v>
       </c>
-      <c r="M5" s="18" t="str">
+      <c r="M5" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.set_pessoa))| msg.setorAtividade = registroPessoa.set_pessoa;</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="22" t="s">
+    <row r="6" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="23" t="s">
         <v>634</v>
       </c>
-      <c r="F6" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="F6" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I6" s="18" t="str">
+      <c r="I6" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string des_profissao  { get; set; }</v>
       </c>
-      <c r="J6" s="18" t="str">
+      <c r="J6" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.descricaoProfissao)</v>
       </c>
-      <c r="K6" s="18" t="str">
+      <c r="K6" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.descricaoProfissao))| registroPessoa.des_profissao = msg.descricaoProfissao;</v>
       </c>
-      <c r="L6" s="18" t="str">
+      <c r="L6" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.des_profissao)</v>
       </c>
-      <c r="M6" s="18" t="str">
+      <c r="M6" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.des_profissao))| msg.descricaoProfissao = registroPessoa.des_profissao;</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="22" t="s">
+    <row r="7" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>635</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="18" t="s">
+      <c r="F7" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I7" s="18" t="str">
+      <c r="I7" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string est_civil  { get; set; }</v>
       </c>
-      <c r="J7" s="18" t="str">
+      <c r="J7" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.estadoCivil)</v>
       </c>
-      <c r="K7" s="18" t="str">
+      <c r="K7" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.estadoCivil))| registroPessoa.est_civil = msg.estadoCivil;</v>
       </c>
-      <c r="L7" s="18" t="str">
+      <c r="L7" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.est_civil)</v>
       </c>
-      <c r="M7" s="18" t="str">
+      <c r="M7" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.est_civil))| msg.estadoCivil = registroPessoa.est_civil;</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="22" t="s">
+    <row r="8" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="23" t="s">
         <v>636</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="18" t="s">
+      <c r="F8" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I8" s="18" t="str">
+      <c r="I8" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string com_bens  { get; set; }</v>
       </c>
-      <c r="J8" s="18" t="str">
+      <c r="J8" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.regimeComunhao)</v>
       </c>
-      <c r="K8" s="18" t="str">
+      <c r="K8" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.regimeComunhao))| registroPessoa.com_bens = msg.regimeComunhao;</v>
       </c>
-      <c r="L8" s="18" t="str">
+      <c r="L8" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.com_bens)</v>
       </c>
-      <c r="M8" s="18" t="str">
+      <c r="M8" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.com_bens))| msg.regimeComunhao = registroPessoa.com_bens;</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="22" t="s">
+    <row r="9" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="18" t="s">
+      <c r="F9" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I9" s="18" t="str">
+      <c r="I9" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string sex_pessoa  { get; set; }</v>
       </c>
-      <c r="J9" s="18" t="str">
+      <c r="J9" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.sexoPessoa)</v>
       </c>
-      <c r="K9" s="18" t="str">
+      <c r="K9" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.sexoPessoa))| registroPessoa.sex_pessoa = msg.sexoPessoa;</v>
       </c>
-      <c r="L9" s="18" t="str">
+      <c r="L9" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.sex_pessoa)</v>
       </c>
-      <c r="M9" s="18" t="str">
+      <c r="M9" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.sex_pessoa))| msg.sexoPessoa = registroPessoa.sex_pessoa;</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="22" t="s">
+    <row r="10" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="23" t="s">
         <v>638</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="18" t="s">
+      <c r="F10" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I10" s="18" t="str">
+      <c r="I10" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string gra_instrucao  { get; set; }</v>
       </c>
-      <c r="J10" s="18" t="str">
+      <c r="J10" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.grauInstrucao)</v>
       </c>
-      <c r="K10" s="18" t="str">
+      <c r="K10" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.grauInstrucao))| registroPessoa.gra_instrucao = msg.grauInstrucao;</v>
       </c>
-      <c r="L10" s="18" t="str">
+      <c r="L10" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.gra_instrucao)</v>
       </c>
-      <c r="M10" s="18" t="str">
+      <c r="M10" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.gra_instrucao))| msg.grauInstrucao = registroPessoa.gra_instrucao;</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="22" t="s">
+    <row r="11" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="23" t="s">
         <v>639</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I11" s="18" t="str">
+      <c r="I11" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string fil_paterna  { get; set; }</v>
       </c>
-      <c r="J11" s="18" t="str">
+      <c r="J11" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.nomePai)</v>
       </c>
-      <c r="K11" s="18" t="str">
+      <c r="K11" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.nomePai))| registroPessoa.fil_paterna = msg.nomePai;</v>
       </c>
-      <c r="L11" s="18" t="str">
+      <c r="L11" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.fil_paterna)</v>
       </c>
-      <c r="M11" s="18" t="str">
+      <c r="M11" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.fil_paterna))| msg.nomePai = registroPessoa.fil_paterna;</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="22" t="s">
+    <row r="12" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="23" t="s">
         <v>640</v>
       </c>
-      <c r="F12" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="18" t="s">
+      <c r="F12" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I12" s="18" t="str">
+      <c r="I12" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string fil_materna  { get; set; }</v>
       </c>
-      <c r="J12" s="18" t="str">
+      <c r="J12" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.nomeMae)</v>
       </c>
-      <c r="K12" s="18" t="str">
+      <c r="K12" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.nomeMae))| registroPessoa.fil_materna = msg.nomeMae;</v>
       </c>
-      <c r="L12" s="18" t="str">
+      <c r="L12" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.fil_materna)</v>
       </c>
-      <c r="M12" s="18" t="str">
+      <c r="M12" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.fil_materna))| msg.nomeMae = registroPessoa.fil_materna;</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="22" t="s">
+    <row r="13" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I13" s="18" t="str">
+      <c r="I13" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public int num_dep  { get; set; }</v>
       </c>
-      <c r="J13" s="18" t="str">
+      <c r="J13" s="23" t="str">
         <f t="shared" si="1"/>
         <v>msg.qtdeDependentes != null &amp;&amp; msg.qtdeDependentes.Value &gt; 0</v>
       </c>
-      <c r="K13" s="18" t="str">
+      <c r="K13" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(msg.qtdeDependentes != null &amp;&amp; msg.qtdeDependentes.Value &gt; 0)| registroPessoa.num_dep = msg.qtdeDependentes;</v>
       </c>
-      <c r="L13" s="18" t="str">
+      <c r="L13" s="23" t="str">
         <f t="shared" si="3"/>
         <v>registroPessoa.num_dep != null &amp;&amp; registroPessoa.num_dep.Value &gt; 0</v>
       </c>
-      <c r="M13" s="18" t="str">
+      <c r="M13" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(registroPessoa.num_dep != null &amp;&amp; registroPessoa.num_dep.Value &gt; 0)| msg.qtdeDependentes = registroPessoa.num_dep;</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="22" t="s">
+    <row r="14" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="23" t="s">
         <v>642</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="23" t="s">
         <v>1089</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I14" s="18" t="str">
+      <c r="I14" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public DateTime dat_cad  { get; set; }</v>
       </c>
-      <c r="J14" s="18" t="str">
+      <c r="J14" s="23" t="str">
         <f t="shared" si="1"/>
         <v>msg.dataCadastro != null &amp;&amp; msg.dataCadastro.Value != DateTime.MinValue</v>
       </c>
-      <c r="K14" s="18" t="str">
+      <c r="K14" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(msg.dataCadastro != null &amp;&amp; msg.dataCadastro.Value != DateTime.MinValue)| registroPessoa.dat_cad = msg.dataCadastro;</v>
       </c>
-      <c r="L14" s="18" t="str">
+      <c r="L14" s="23" t="str">
         <f t="shared" si="3"/>
         <v>registroPessoa.dat_cad != null &amp;&amp; registroPessoa.dat_cad.Value != DateTime.MinValue</v>
       </c>
-      <c r="M14" s="18" t="str">
+      <c r="M14" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(registroPessoa.dat_cad != null &amp;&amp; registroPessoa.dat_cad.Value != DateTime.MinValue)| msg.dataCadastro = registroPessoa.dat_cad;</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="22" t="s">
+    <row r="15" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="23" t="s">
         <v>643</v>
       </c>
-      <c r="F15" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="18" t="s">
+      <c r="F15" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I15" s="18" t="str">
+      <c r="I15" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string usu_atu  { get; set; }</v>
       </c>
-      <c r="J15" s="18" t="str">
+      <c r="J15" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.usuarioAtualizacao)</v>
       </c>
-      <c r="K15" s="18" t="str">
+      <c r="K15" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.usuarioAtualizacao))| registroPessoa.usu_atu = msg.usuarioAtualizacao;</v>
       </c>
-      <c r="L15" s="18" t="str">
+      <c r="L15" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.usu_atu)</v>
       </c>
-      <c r="M15" s="18" t="str">
+      <c r="M15" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.usu_atu))| msg.usuarioAtualizacao = registroPessoa.usu_atu;</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="22" t="s">
+    <row r="16" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="23" t="s">
         <v>1089</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I16" s="18" t="str">
+      <c r="I16" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public DateTime dat_atu  { get; set; }</v>
       </c>
-      <c r="J16" s="18" t="str">
+      <c r="J16" s="23" t="str">
         <f t="shared" si="1"/>
         <v>msg.dataAtualizacao != null &amp;&amp; msg.dataAtualizacao.Value != DateTime.MinValue</v>
       </c>
-      <c r="K16" s="18" t="str">
+      <c r="K16" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(msg.dataAtualizacao != null &amp;&amp; msg.dataAtualizacao.Value != DateTime.MinValue)| registroPessoa.dat_atu = msg.dataAtualizacao;</v>
       </c>
-      <c r="L16" s="18" t="str">
+      <c r="L16" s="23" t="str">
         <f t="shared" si="3"/>
         <v>registroPessoa.dat_atu != null &amp;&amp; registroPessoa.dat_atu.Value != DateTime.MinValue</v>
       </c>
-      <c r="M16" s="18" t="str">
+      <c r="M16" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(registroPessoa.dat_atu != null &amp;&amp; registroPessoa.dat_atu.Value != DateTime.MinValue)| msg.dataAtualizacao = registroPessoa.dat_atu;</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="22" t="s">
+    <row r="17" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="23" t="s">
         <v>645</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="23" t="s">
         <v>1089</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I17" s="18" t="str">
+      <c r="I17" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public DateTime dat_fundacao  { get; set; }</v>
       </c>
-      <c r="J17" s="18" t="str">
+      <c r="J17" s="23" t="str">
         <f t="shared" si="1"/>
         <v>msg.dataFundacao != null &amp;&amp; msg.dataFundacao.Value != DateTime.MinValue</v>
       </c>
-      <c r="K17" s="18" t="str">
+      <c r="K17" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(msg.dataFundacao != null &amp;&amp; msg.dataFundacao.Value != DateTime.MinValue)| registroPessoa.dat_fundacao = msg.dataFundacao;</v>
       </c>
-      <c r="L17" s="18" t="str">
+      <c r="L17" s="23" t="str">
         <f t="shared" si="3"/>
         <v>registroPessoa.dat_fundacao != null &amp;&amp; registroPessoa.dat_fundacao.Value != DateTime.MinValue</v>
       </c>
-      <c r="M17" s="18" t="str">
+      <c r="M17" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(registroPessoa.dat_fundacao != null &amp;&amp; registroPessoa.dat_fundacao.Value != DateTime.MinValue)| msg.dataFundacao = registroPessoa.dat_fundacao;</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="22" t="s">
+    <row r="18" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="23" t="s">
         <v>646</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I18" s="18" t="str">
+      <c r="I18" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public int cod_atividade  { get; set; }</v>
       </c>
-      <c r="J18" s="18" t="str">
+      <c r="J18" s="23" t="str">
         <f t="shared" si="1"/>
         <v>msg.codigoAtividade != null &amp;&amp; msg.codigoAtividade.Value &gt; 0</v>
       </c>
-      <c r="K18" s="18" t="str">
+      <c r="K18" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(msg.codigoAtividade != null &amp;&amp; msg.codigoAtividade.Value &gt; 0)| registroPessoa.cod_atividade = msg.codigoAtividade;</v>
       </c>
-      <c r="L18" s="18" t="str">
+      <c r="L18" s="23" t="str">
         <f t="shared" si="3"/>
         <v>registroPessoa.cod_atividade != null &amp;&amp; registroPessoa.cod_atividade.Value &gt; 0</v>
       </c>
-      <c r="M18" s="18" t="str">
+      <c r="M18" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(registroPessoa.cod_atividade != null &amp;&amp; registroPessoa.cod_atividade.Value &gt; 0)| msg.codigoAtividade = registroPessoa.cod_atividade;</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="22" t="s">
+    <row r="19" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="23" t="s">
         <v>647</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I19" s="18" t="str">
+      <c r="I19" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public int cod_grpemp  { get; set; }</v>
       </c>
-      <c r="J19" s="18" t="str">
+      <c r="J19" s="23" t="str">
         <f t="shared" si="1"/>
         <v>msg.codigoGrupoEmpresarial != null &amp;&amp; msg.codigoGrupoEmpresarial.Value &gt; 0</v>
       </c>
-      <c r="K19" s="18" t="str">
+      <c r="K19" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(msg.codigoGrupoEmpresarial != null &amp;&amp; msg.codigoGrupoEmpresarial.Value &gt; 0)| registroPessoa.cod_grpemp = msg.codigoGrupoEmpresarial;</v>
       </c>
-      <c r="L19" s="18" t="str">
+      <c r="L19" s="23" t="str">
         <f t="shared" si="3"/>
         <v>registroPessoa.cod_grpemp != null &amp;&amp; registroPessoa.cod_grpemp.Value &gt; 0</v>
       </c>
-      <c r="M19" s="18" t="str">
+      <c r="M19" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(registroPessoa.cod_grpemp != null &amp;&amp; registroPessoa.cod_grpemp.Value &gt; 0)| msg.codigoGrupoEmpresarial = registroPessoa.cod_grpemp;</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="22" t="s">
+    <row r="20" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="23" t="s">
         <v>648</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I20" s="18" t="str">
+      <c r="I20" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public int cod_municipio  { get; set; }</v>
       </c>
-      <c r="J20" s="18" t="str">
+      <c r="J20" s="23" t="str">
         <f t="shared" si="1"/>
         <v>msg.codigoMunicipio != null &amp;&amp; msg.codigoMunicipio.Value &gt; 0</v>
       </c>
-      <c r="K20" s="18" t="str">
+      <c r="K20" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(msg.codigoMunicipio != null &amp;&amp; msg.codigoMunicipio.Value &gt; 0)| registroPessoa.cod_municipio = msg.codigoMunicipio;</v>
       </c>
-      <c r="L20" s="18" t="str">
+      <c r="L20" s="23" t="str">
         <f t="shared" si="3"/>
         <v>registroPessoa.cod_municipio != null &amp;&amp; registroPessoa.cod_municipio.Value &gt; 0</v>
       </c>
-      <c r="M20" s="18" t="str">
+      <c r="M20" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(registroPessoa.cod_municipio != null &amp;&amp; registroPessoa.cod_municipio.Value &gt; 0)| msg.codigoMunicipio = registroPessoa.cod_municipio;</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="22" t="s">
+    <row r="21" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="23" t="s">
         <v>649</v>
       </c>
-      <c r="F21" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="18" t="s">
+      <c r="F21" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I21" s="18" t="str">
+      <c r="I21" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string des_municipio  { get; set; }</v>
       </c>
-      <c r="J21" s="18" t="str">
+      <c r="J21" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.descricaoMunicipio)</v>
       </c>
-      <c r="K21" s="18" t="str">
+      <c r="K21" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.descricaoMunicipio))| registroPessoa.des_municipio = msg.descricaoMunicipio;</v>
       </c>
-      <c r="L21" s="18" t="str">
+      <c r="L21" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.des_municipio)</v>
       </c>
-      <c r="M21" s="18" t="str">
+      <c r="M21" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.des_municipio))| msg.descricaoMunicipio = registroPessoa.des_municipio;</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="22" t="s">
+    <row r="22" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="23" t="s">
         <v>650</v>
       </c>
-      <c r="F22" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="18" t="s">
+      <c r="F22" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I22" s="18" t="str">
+      <c r="I22" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string des_nacionalidade  { get; set; }</v>
       </c>
-      <c r="J22" s="18" t="str">
+      <c r="J22" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.descricaoNacionalidade)</v>
       </c>
-      <c r="K22" s="18" t="str">
+      <c r="K22" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.descricaoNacionalidade))| registroPessoa.des_nacionalidade = msg.descricaoNacionalidade;</v>
       </c>
-      <c r="L22" s="18" t="str">
+      <c r="L22" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.des_nacionalidade)</v>
       </c>
-      <c r="M22" s="18" t="str">
+      <c r="M22" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.des_nacionalidade))| msg.descricaoNacionalidade = registroPessoa.des_nacionalidade;</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="22" t="s">
+    <row r="23" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="23" t="s">
         <v>651</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="23" t="s">
         <v>1089</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I23" s="18" t="str">
+      <c r="I23" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public DateTime dat_naturalizacao  { get; set; }</v>
       </c>
-      <c r="J23" s="18" t="str">
+      <c r="J23" s="23" t="str">
         <f t="shared" si="1"/>
         <v>msg.dataNaturalizacao != null &amp;&amp; msg.dataNaturalizacao.Value != DateTime.MinValue</v>
       </c>
-      <c r="K23" s="18" t="str">
+      <c r="K23" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(msg.dataNaturalizacao != null &amp;&amp; msg.dataNaturalizacao.Value != DateTime.MinValue)| registroPessoa.dat_naturalizacao = msg.dataNaturalizacao;</v>
       </c>
-      <c r="L23" s="18" t="str">
+      <c r="L23" s="23" t="str">
         <f t="shared" si="3"/>
         <v>registroPessoa.dat_naturalizacao != null &amp;&amp; registroPessoa.dat_naturalizacao.Value != DateTime.MinValue</v>
       </c>
-      <c r="M23" s="18" t="str">
+      <c r="M23" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(registroPessoa.dat_naturalizacao != null &amp;&amp; registroPessoa.dat_naturalizacao.Value != DateTime.MinValue)| msg.dataNaturalizacao = registroPessoa.dat_naturalizacao;</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="22" t="s">
+    <row r="24" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="23" t="s">
         <v>1066</v>
       </c>
-      <c r="F24" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="18" t="s">
+      <c r="F24" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I24" s="18" t="str">
+      <c r="I24" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string cod_cbo  { get; set; }</v>
       </c>
-      <c r="J24" s="18" t="str">
+      <c r="J24" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.codigoCbo)</v>
       </c>
-      <c r="K24" s="18" t="str">
+      <c r="K24" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.codigoCbo))| registroPessoa.cod_cbo = msg.codigoCbo;</v>
       </c>
-      <c r="L24" s="18" t="str">
+      <c r="L24" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.cod_cbo)</v>
       </c>
-      <c r="M24" s="18" t="str">
+      <c r="M24" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.cod_cbo))| msg.codigoCbo = registroPessoa.cod_cbo;</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="22" t="s">
+    <row r="25" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="23" t="s">
         <v>652</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H25" s="19" t="s">
+      <c r="H25" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I25" s="18" t="str">
+      <c r="I25" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public int cod_setor  { get; set; }</v>
       </c>
-      <c r="J25" s="18" t="str">
+      <c r="J25" s="23" t="str">
         <f t="shared" si="1"/>
         <v>msg.codigoSetor != null &amp;&amp; msg.codigoSetor.Value &gt; 0</v>
       </c>
-      <c r="K25" s="18" t="str">
+      <c r="K25" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(msg.codigoSetor != null &amp;&amp; msg.codigoSetor.Value &gt; 0)| registroPessoa.cod_setor = msg.codigoSetor;</v>
       </c>
-      <c r="L25" s="18" t="str">
+      <c r="L25" s="23" t="str">
         <f t="shared" si="3"/>
         <v>registroPessoa.cod_setor != null &amp;&amp; registroPessoa.cod_setor.Value &gt; 0</v>
       </c>
-      <c r="M25" s="18" t="str">
+      <c r="M25" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(registroPessoa.cod_setor != null &amp;&amp; registroPessoa.cod_setor.Value &gt; 0)| msg.codigoSetor = registroPessoa.cod_setor;</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="22" t="s">
+    <row r="26" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="23" t="s">
         <v>653</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H26" s="19" t="s">
+      <c r="H26" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I26" s="18" t="str">
+      <c r="I26" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public int cod_subsetor  { get; set; }</v>
       </c>
-      <c r="J26" s="18" t="str">
+      <c r="J26" s="23" t="str">
         <f t="shared" si="1"/>
         <v>msg.codigoSubsetor != null &amp;&amp; msg.codigoSubsetor.Value &gt; 0</v>
       </c>
-      <c r="K26" s="18" t="str">
+      <c r="K26" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(msg.codigoSubsetor != null &amp;&amp; msg.codigoSubsetor.Value &gt; 0)| registroPessoa.cod_subsetor = msg.codigoSubsetor;</v>
       </c>
-      <c r="L26" s="18" t="str">
+      <c r="L26" s="23" t="str">
         <f t="shared" si="3"/>
         <v>registroPessoa.cod_subsetor != null &amp;&amp; registroPessoa.cod_subsetor.Value &gt; 0</v>
       </c>
-      <c r="M26" s="18" t="str">
+      <c r="M26" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(registroPessoa.cod_subsetor != null &amp;&amp; registroPessoa.cod_subsetor.Value &gt; 0)| msg.codigoSubsetor = registroPessoa.cod_subsetor;</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="22" t="s">
+    <row r="27" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="23" t="s">
         <v>654</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I27" s="18" t="str">
+      <c r="I27" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public int cod_ramo  { get; set; }</v>
       </c>
-      <c r="J27" s="18" t="str">
+      <c r="J27" s="23" t="str">
         <f t="shared" si="1"/>
         <v>msg.codigoRamo != null &amp;&amp; msg.codigoRamo.Value &gt; 0</v>
       </c>
-      <c r="K27" s="18" t="str">
+      <c r="K27" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(msg.codigoRamo != null &amp;&amp; msg.codigoRamo.Value &gt; 0)| registroPessoa.cod_ramo = msg.codigoRamo;</v>
       </c>
-      <c r="L27" s="18" t="str">
+      <c r="L27" s="23" t="str">
         <f t="shared" si="3"/>
         <v>registroPessoa.cod_ramo != null &amp;&amp; registroPessoa.cod_ramo.Value &gt; 0</v>
       </c>
-      <c r="M27" s="18" t="str">
+      <c r="M27" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(registroPessoa.cod_ramo != null &amp;&amp; registroPessoa.cod_ramo.Value &gt; 0)| msg.codigoRamo = registroPessoa.cod_ramo;</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="22" t="s">
+    <row r="28" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="23" t="s">
         <v>655</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I28" s="18" t="str">
+      <c r="I28" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public int cod_ramo_ativ  { get; set; }</v>
       </c>
-      <c r="J28" s="18" t="str">
+      <c r="J28" s="23" t="str">
         <f t="shared" si="1"/>
         <v>msg.codigoRamoAtiv != null &amp;&amp; msg.codigoRamoAtiv.Value &gt; 0</v>
       </c>
-      <c r="K28" s="18" t="str">
+      <c r="K28" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(msg.codigoRamoAtiv != null &amp;&amp; msg.codigoRamoAtiv.Value &gt; 0)| registroPessoa.cod_ramo_ativ = msg.codigoRamoAtiv;</v>
       </c>
-      <c r="L28" s="18" t="str">
+      <c r="L28" s="23" t="str">
         <f t="shared" si="3"/>
         <v>registroPessoa.cod_ramo_ativ != null &amp;&amp; registroPessoa.cod_ramo_ativ.Value &gt; 0</v>
       </c>
-      <c r="M28" s="18" t="str">
+      <c r="M28" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(registroPessoa.cod_ramo_ativ != null &amp;&amp; registroPessoa.cod_ramo_ativ.Value &gt; 0)| msg.codigoRamoAtiv = registroPessoa.cod_ramo_ativ;</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="22" t="s">
+    <row r="29" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="23" t="s">
         <v>657</v>
       </c>
-      <c r="F29" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="18" t="s">
+      <c r="F29" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H29" s="19" t="s">
+      <c r="H29" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I29" s="18" t="str">
+      <c r="I29" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string idc_constituicao  { get; set; }</v>
       </c>
-      <c r="J29" s="18" t="str">
+      <c r="J29" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.indicadorConstituicao)</v>
       </c>
-      <c r="K29" s="18" t="str">
+      <c r="K29" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorConstituicao))| registroPessoa.idc_constituicao = msg.indicadorConstituicao;</v>
       </c>
-      <c r="L29" s="18" t="str">
+      <c r="L29" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.idc_constituicao)</v>
       </c>
-      <c r="M29" s="18" t="str">
+      <c r="M29" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.idc_constituicao))| msg.indicadorConstituicao = registroPessoa.idc_constituicao;</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="22" t="s">
+    <row r="30" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="23" t="s">
         <v>656</v>
       </c>
-      <c r="F30" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="18" t="s">
+      <c r="F30" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H30" s="19" t="s">
+      <c r="H30" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I30" s="18" t="str">
+      <c r="I30" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string niv_risco  { get; set; }</v>
       </c>
-      <c r="J30" s="18" t="str">
+      <c r="J30" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.nivelRisco)</v>
       </c>
-      <c r="K30" s="18" t="str">
+      <c r="K30" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.nivelRisco))| registroPessoa.niv_risco = msg.nivelRisco;</v>
       </c>
-      <c r="L30" s="18" t="str">
+      <c r="L30" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.niv_risco)</v>
       </c>
-      <c r="M30" s="18" t="str">
+      <c r="M30" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.niv_risco))| msg.nivelRisco = registroPessoa.niv_risco;</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="22" t="s">
+    <row r="31" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="23" t="s">
         <v>658</v>
       </c>
-      <c r="F31" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="18" t="s">
+      <c r="F31" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I31" s="18" t="str">
+      <c r="I31" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string idc_func  { get; set; }</v>
       </c>
-      <c r="J31" s="18" t="str">
+      <c r="J31" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.indicadorfuncionario)</v>
       </c>
-      <c r="K31" s="18" t="str">
+      <c r="K31" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorfuncionario))| registroPessoa.idc_func = msg.indicadorfuncionario;</v>
       </c>
-      <c r="L31" s="18" t="str">
+      <c r="L31" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.idc_func)</v>
       </c>
-      <c r="M31" s="18" t="str">
+      <c r="M31" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.idc_func))| msg.indicadorfuncionario = registroPessoa.idc_func;</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="22" t="s">
+    <row r="32" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="23" t="s">
         <v>659</v>
       </c>
-      <c r="F32" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="18" t="s">
+      <c r="F32" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H32" s="19" t="s">
+      <c r="H32" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I32" s="18" t="str">
+      <c r="I32" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string cod_segmento  { get; set; }</v>
       </c>
-      <c r="J32" s="18" t="str">
+      <c r="J32" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.codigoSegmento)</v>
       </c>
-      <c r="K32" s="18" t="str">
+      <c r="K32" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.codigoSegmento))| registroPessoa.cod_segmento = msg.codigoSegmento;</v>
       </c>
-      <c r="L32" s="18" t="str">
+      <c r="L32" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.cod_segmento)</v>
       </c>
-      <c r="M32" s="18" t="str">
+      <c r="M32" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.cod_segmento))| msg.codigoSegmento = registroPessoa.cod_segmento;</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="22" t="s">
+    <row r="33" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="23" t="s">
         <v>660</v>
       </c>
-      <c r="F33" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="18" t="s">
+      <c r="F33" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H33" s="19" t="s">
+      <c r="H33" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I33" s="18" t="str">
+      <c r="I33" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string cod_subsegmento  { get; set; }</v>
       </c>
-      <c r="J33" s="18" t="str">
+      <c r="J33" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.codigoSubsegmento)</v>
       </c>
-      <c r="K33" s="18" t="str">
+      <c r="K33" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.codigoSubsegmento))| registroPessoa.cod_subsegmento = msg.codigoSubsegmento;</v>
       </c>
-      <c r="L33" s="18" t="str">
+      <c r="L33" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.cod_subsegmento)</v>
       </c>
-      <c r="M33" s="18" t="str">
+      <c r="M33" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.cod_subsegmento))| msg.codigoSubsegmento = registroPessoa.cod_subsegmento;</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="22" t="s">
+    <row r="34" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="23" t="s">
         <v>661</v>
       </c>
-      <c r="F34" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" s="18" t="s">
+      <c r="F34" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I34" s="18" t="str">
+      <c r="I34" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string cod_classe  { get; set; }</v>
       </c>
-      <c r="J34" s="18" t="str">
+      <c r="J34" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.codigoClasse)</v>
       </c>
-      <c r="K34" s="18" t="str">
+      <c r="K34" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.codigoClasse))| registroPessoa.cod_classe = msg.codigoClasse;</v>
       </c>
-      <c r="L34" s="18" t="str">
+      <c r="L34" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.cod_classe)</v>
       </c>
-      <c r="M34" s="18" t="str">
+      <c r="M34" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.cod_classe))| msg.codigoClasse = registroPessoa.cod_classe;</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="22" t="s">
+    <row r="35" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="23" t="s">
         <v>662</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="23" t="s">
         <v>1089</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H35" s="19" t="s">
+      <c r="H35" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I35" s="18" t="str">
+      <c r="I35" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public DateTime dat_ren_cad  { get; set; }</v>
       </c>
-      <c r="J35" s="18" t="str">
+      <c r="J35" s="23" t="str">
         <f t="shared" si="1"/>
         <v>msg.dataRenovacao != null &amp;&amp; msg.dataRenovacao.Value != DateTime.MinValue</v>
       </c>
-      <c r="K35" s="18" t="str">
+      <c r="K35" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(msg.dataRenovacao != null &amp;&amp; msg.dataRenovacao.Value != DateTime.MinValue)| registroPessoa.dat_ren_cad = msg.dataRenovacao;</v>
       </c>
-      <c r="L35" s="18" t="str">
+      <c r="L35" s="23" t="str">
         <f t="shared" si="3"/>
         <v>registroPessoa.dat_ren_cad != null &amp;&amp; registroPessoa.dat_ren_cad.Value != DateTime.MinValue</v>
       </c>
-      <c r="M35" s="18" t="str">
+      <c r="M35" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(registroPessoa.dat_ren_cad != null &amp;&amp; registroPessoa.dat_ren_cad.Value != DateTime.MinValue)| msg.dataRenovacao = registroPessoa.dat_ren_cad;</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="22" t="s">
+    <row r="36" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="23" t="s">
         <v>663</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="23" t="s">
         <v>1089</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H36" s="19" t="s">
+      <c r="H36" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I36" s="18" t="str">
+      <c r="I36" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public DateTime dat_ven_cad  { get; set; }</v>
       </c>
-      <c r="J36" s="18" t="str">
+      <c r="J36" s="23" t="str">
         <f t="shared" si="1"/>
         <v>msg.dataVencimento != null &amp;&amp; msg.dataVencimento.Value != DateTime.MinValue</v>
       </c>
-      <c r="K36" s="18" t="str">
+      <c r="K36" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(msg.dataVencimento != null &amp;&amp; msg.dataVencimento.Value != DateTime.MinValue)| registroPessoa.dat_ven_cad = msg.dataVencimento;</v>
       </c>
-      <c r="L36" s="18" t="str">
+      <c r="L36" s="23" t="str">
         <f t="shared" si="3"/>
         <v>registroPessoa.dat_ven_cad != null &amp;&amp; registroPessoa.dat_ven_cad.Value != DateTime.MinValue</v>
       </c>
-      <c r="M36" s="18" t="str">
+      <c r="M36" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(registroPessoa.dat_ven_cad != null &amp;&amp; registroPessoa.dat_ven_cad.Value != DateTime.MinValue)| msg.dataVencimento = registroPessoa.dat_ven_cad;</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="22" t="s">
+    <row r="37" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="23" t="s">
         <v>664</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H37" s="19" t="s">
+      <c r="H37" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I37" s="18" t="str">
+      <c r="I37" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public int cod_tip  { get; set; }</v>
       </c>
-      <c r="J37" s="18" t="str">
+      <c r="J37" s="23" t="str">
         <f t="shared" si="1"/>
         <v>msg.codigoTipo != null &amp;&amp; msg.codigoTipo.Value &gt; 0</v>
       </c>
-      <c r="K37" s="18" t="str">
+      <c r="K37" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(msg.codigoTipo != null &amp;&amp; msg.codigoTipo.Value &gt; 0)| registroPessoa.cod_tip = msg.codigoTipo;</v>
       </c>
-      <c r="L37" s="18" t="str">
+      <c r="L37" s="23" t="str">
         <f t="shared" si="3"/>
         <v>registroPessoa.cod_tip != null &amp;&amp; registroPessoa.cod_tip.Value &gt; 0</v>
       </c>
-      <c r="M37" s="18" t="str">
+      <c r="M37" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(registroPessoa.cod_tip != null &amp;&amp; registroPessoa.cod_tip.Value &gt; 0)| msg.codigoTipo = registroPessoa.cod_tip;</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="22" t="s">
+    <row r="38" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="23" t="s">
         <v>665</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H38" s="19" t="s">
+      <c r="H38" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I38" s="18" t="str">
+      <c r="I38" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public int cod_leg  { get; set; }</v>
       </c>
-      <c r="J38" s="18" t="str">
+      <c r="J38" s="23" t="str">
         <f t="shared" si="1"/>
         <v>msg.codigoclassificacaoLegal != null &amp;&amp; msg.codigoclassificacaoLegal.Value &gt; 0</v>
       </c>
-      <c r="K38" s="18" t="str">
+      <c r="K38" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(msg.codigoclassificacaoLegal != null &amp;&amp; msg.codigoclassificacaoLegal.Value &gt; 0)| registroPessoa.cod_leg = msg.codigoclassificacaoLegal;</v>
       </c>
-      <c r="L38" s="18" t="str">
+      <c r="L38" s="23" t="str">
         <f t="shared" si="3"/>
         <v>registroPessoa.cod_leg != null &amp;&amp; registroPessoa.cod_leg.Value &gt; 0</v>
       </c>
-      <c r="M38" s="18" t="str">
+      <c r="M38" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(registroPessoa.cod_leg != null &amp;&amp; registroPessoa.cod_leg.Value &gt; 0)| msg.codigoclassificacaoLegal = registroPessoa.cod_leg;</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="22" t="s">
+    <row r="39" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="23" t="s">
         <v>666</v>
       </c>
-      <c r="F39" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G39" s="18" t="s">
+      <c r="F39" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H39" s="19" t="s">
+      <c r="H39" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I39" s="18" t="str">
+      <c r="I39" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string idc_estrang  { get; set; }</v>
       </c>
-      <c r="J39" s="18" t="str">
+      <c r="J39" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.indicadorEstrangeiro)</v>
       </c>
-      <c r="K39" s="18" t="str">
+      <c r="K39" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorEstrangeiro))| registroPessoa.idc_estrang = msg.indicadorEstrangeiro;</v>
       </c>
-      <c r="L39" s="18" t="str">
+      <c r="L39" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.idc_estrang)</v>
       </c>
-      <c r="M39" s="18" t="str">
+      <c r="M39" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.idc_estrang))| msg.indicadorEstrangeiro = registroPessoa.idc_estrang;</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="22" t="s">
+    <row r="40" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="23" t="s">
         <v>1018</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="23" t="s">
         <v>1019</v>
       </c>
-      <c r="F40" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G40" s="18" t="s">
+      <c r="F40" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H40" s="19" t="s">
+      <c r="H40" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I40" s="18" t="str">
+      <c r="I40" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string Ddd_contato  { get; set; }</v>
       </c>
-      <c r="J40" s="18" t="str">
+      <c r="J40" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.codigoDddContato)</v>
       </c>
-      <c r="K40" s="18" t="str">
+      <c r="K40" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.codigoDddContato))| registroPessoa.Ddd_contato = msg.codigoDddContato;</v>
       </c>
-      <c r="L40" s="18" t="str">
+      <c r="L40" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.Ddd_contato)</v>
       </c>
-      <c r="M40" s="18" t="str">
+      <c r="M40" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.Ddd_contato))| msg.codigoDddContato = registroPessoa.Ddd_contato;</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="22" t="s">
+    <row r="41" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="23" t="s">
         <v>667</v>
       </c>
-      <c r="F41" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="18" t="s">
+      <c r="F41" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H41" s="19" t="s">
+      <c r="H41" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I41" s="18" t="str">
+      <c r="I41" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string tel_contato  { get; set; }</v>
       </c>
-      <c r="J41" s="18" t="str">
+      <c r="J41" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.telefoneContato)</v>
       </c>
-      <c r="K41" s="18" t="str">
+      <c r="K41" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.telefoneContato))| registroPessoa.tel_contato = msg.telefoneContato;</v>
       </c>
-      <c r="L41" s="18" t="str">
+      <c r="L41" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.tel_contato)</v>
       </c>
-      <c r="M41" s="18" t="str">
+      <c r="M41" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.tel_contato))| msg.telefoneContato = registroPessoa.tel_contato;</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="22" t="s">
+    <row r="42" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="23" t="s">
         <v>890</v>
       </c>
-      <c r="F42" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="18" t="s">
+      <c r="F42" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H42" s="19" t="s">
+      <c r="H42" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I42" s="18" t="str">
+      <c r="I42" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string ramal_contato  { get; set; }</v>
       </c>
-      <c r="J42" s="18" t="str">
+      <c r="J42" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.numeroRamalContato)</v>
       </c>
-      <c r="K42" s="18" t="str">
+      <c r="K42" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.numeroRamalContato))| registroPessoa.ramal_contato = msg.numeroRamalContato;</v>
       </c>
-      <c r="L42" s="18" t="str">
+      <c r="L42" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.ramal_contato)</v>
       </c>
-      <c r="M42" s="18" t="str">
+      <c r="M42" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.ramal_contato))| msg.numeroRamalContato = registroPessoa.ramal_contato;</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="22" t="s">
+    <row r="43" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="23" t="s">
         <v>668</v>
       </c>
-      <c r="F43" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="18" t="s">
+      <c r="F43" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H43" s="19" t="s">
+      <c r="H43" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I43" s="18" t="str">
+      <c r="I43" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string idc_cons_risco  { get; set; }</v>
       </c>
-      <c r="J43" s="18" t="str">
+      <c r="J43" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.indicadorConsRisco)</v>
       </c>
-      <c r="K43" s="18" t="str">
+      <c r="K43" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorConsRisco))| registroPessoa.idc_cons_risco = msg.indicadorConsRisco;</v>
       </c>
-      <c r="L43" s="18" t="str">
+      <c r="L43" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.idc_cons_risco)</v>
       </c>
-      <c r="M43" s="18" t="str">
+      <c r="M43" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.idc_cons_risco))| msg.indicadorConsRisco = registroPessoa.idc_cons_risco;</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="22" t="s">
+    <row r="44" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="23" t="s">
         <v>1067</v>
       </c>
-      <c r="F44" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="18" t="s">
+      <c r="F44" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H44" s="19" t="s">
+      <c r="H44" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I44" s="18" t="str">
+      <c r="I44" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string cvmcod  { get; set; }</v>
       </c>
-      <c r="J44" s="18" t="str">
+      <c r="J44" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.codigoCvm)</v>
       </c>
-      <c r="K44" s="18" t="str">
+      <c r="K44" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.codigoCvm))| registroPessoa.cvmcod = msg.codigoCvm;</v>
       </c>
-      <c r="L44" s="18" t="str">
+      <c r="L44" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.cvmcod)</v>
       </c>
-      <c r="M44" s="18" t="str">
+      <c r="M44" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.cvmcod))| msg.codigoCvm = registroPessoa.cvmcod;</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="22" t="s">
+    <row r="45" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="23" t="s">
         <v>1068</v>
       </c>
-      <c r="F45" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="18" t="s">
+      <c r="F45" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H45" s="19" t="s">
+      <c r="H45" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I45" s="18" t="str">
+      <c r="I45" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string anbcod  { get; set; }</v>
       </c>
-      <c r="J45" s="18" t="str">
+      <c r="J45" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.codigoAnbid)</v>
       </c>
-      <c r="K45" s="18" t="str">
+      <c r="K45" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.codigoAnbid))| registroPessoa.anbcod = msg.codigoAnbid;</v>
       </c>
-      <c r="L45" s="18" t="str">
+      <c r="L45" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.anbcod)</v>
       </c>
-      <c r="M45" s="18" t="str">
+      <c r="M45" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.anbcod))| msg.codigoAnbid = registroPessoa.anbcod;</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="22" t="s">
+    <row r="46" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="23" t="s">
         <v>671</v>
       </c>
-      <c r="F46" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="18" t="s">
+      <c r="F46" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H46" s="19" t="s">
+      <c r="H46" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I46" s="18" t="str">
+      <c r="I46" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string tip_pes  { get; set; }</v>
       </c>
-      <c r="J46" s="18" t="str">
+      <c r="J46" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.tipoPessoa)</v>
       </c>
-      <c r="K46" s="18" t="str">
+      <c r="K46" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.tipoPessoa))| registroPessoa.tip_pes = msg.tipoPessoa;</v>
       </c>
-      <c r="L46" s="18" t="str">
+      <c r="L46" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.tip_pes)</v>
       </c>
-      <c r="M46" s="18" t="str">
+      <c r="M46" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.tip_pes))| msg.tipoPessoa = registroPessoa.tip_pes;</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="22" t="s">
+    <row r="47" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="23" t="s">
         <v>939</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G47" s="18" t="s">
+      <c r="G47" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H47" s="19" t="s">
+      <c r="H47" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I47" s="18" t="str">
+      <c r="I47" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public int naccod  { get; set; }</v>
       </c>
-      <c r="J47" s="18" t="str">
+      <c r="J47" s="23" t="str">
         <f t="shared" si="1"/>
         <v>msg.codigoNacionalidade != null &amp;&amp; msg.codigoNacionalidade.Value &gt; 0</v>
       </c>
-      <c r="K47" s="18" t="str">
+      <c r="K47" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(msg.codigoNacionalidade != null &amp;&amp; msg.codigoNacionalidade.Value &gt; 0)| registroPessoa.naccod = msg.codigoNacionalidade;</v>
       </c>
-      <c r="L47" s="18" t="str">
+      <c r="L47" s="23" t="str">
         <f t="shared" si="3"/>
         <v>registroPessoa.naccod != null &amp;&amp; registroPessoa.naccod.Value &gt; 0</v>
       </c>
-      <c r="M47" s="18" t="str">
+      <c r="M47" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(registroPessoa.naccod != null &amp;&amp; registroPessoa.naccod.Value &gt; 0)| msg.codigoNacionalidade = registroPessoa.naccod;</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="22" t="s">
+    <row r="48" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="23" t="s">
         <v>672</v>
       </c>
-      <c r="F48" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="18" t="s">
+      <c r="F48" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H48" s="19" t="s">
+      <c r="H48" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I48" s="18" t="str">
+      <c r="I48" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string pessta  { get; set; }</v>
       </c>
-      <c r="J48" s="18" t="str">
+      <c r="J48" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.indicadorSituacaoCadastral)</v>
       </c>
-      <c r="K48" s="18" t="str">
+      <c r="K48" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorSituacaoCadastral))| registroPessoa.pessta = msg.indicadorSituacaoCadastral;</v>
       </c>
-      <c r="L48" s="18" t="str">
+      <c r="L48" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.pessta)</v>
       </c>
-      <c r="M48" s="18" t="str">
+      <c r="M48" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.pessta))| msg.indicadorSituacaoCadastral = registroPessoa.pessta;</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="22" t="s">
+    <row r="49" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="23" t="s">
         <v>673</v>
       </c>
-      <c r="F49" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="18" t="s">
+      <c r="F49" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H49" s="19" t="s">
+      <c r="H49" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I49" s="18" t="str">
+      <c r="I49" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string pesidcimpedido  { get; set; }</v>
       </c>
-      <c r="J49" s="18" t="str">
+      <c r="J49" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.indicadorImpedidoOperar)</v>
       </c>
-      <c r="K49" s="18" t="str">
+      <c r="K49" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorImpedidoOperar))| registroPessoa.pesidcimpedido = msg.indicadorImpedidoOperar;</v>
       </c>
-      <c r="L49" s="18" t="str">
+      <c r="L49" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.pesidcimpedido)</v>
       </c>
-      <c r="M49" s="18" t="str">
+      <c r="M49" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.pesidcimpedido))| msg.indicadorImpedidoOperar = registroPessoa.pesidcimpedido;</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="22" t="s">
+    <row r="50" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22" t="s">
+      <c r="E50" s="23" t="s">
         <v>1060</v>
       </c>
-      <c r="F50" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G50" s="18" t="s">
+      <c r="F50" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H50" s="19" t="s">
+      <c r="H50" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I50" s="18" t="str">
+      <c r="I50" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string pesidcpro  { get; set; }</v>
       </c>
-      <c r="J50" s="18" t="str">
+      <c r="J50" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.indicadorCnpjCpfVerificado)</v>
       </c>
-      <c r="K50" s="18" t="str">
+      <c r="K50" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorCnpjCpfVerificado))| registroPessoa.pesidcpro = msg.indicadorCnpjCpfVerificado;</v>
       </c>
-      <c r="L50" s="18" t="str">
+      <c r="L50" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.pesidcpro)</v>
       </c>
-      <c r="M50" s="18" t="str">
+      <c r="M50" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.pesidcpro))| msg.indicadorCnpjCpfVerificado = registroPessoa.pesidcpro;</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="22" t="s">
+    <row r="51" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E51" s="22" t="s">
+      <c r="E51" s="23" t="s">
         <v>674</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="F51" s="23" t="s">
         <v>1089</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="G51" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H51" s="19" t="s">
+      <c r="H51" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I51" s="18" t="str">
+      <c r="I51" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public DateTime pesdatsta  { get; set; }</v>
       </c>
-      <c r="J51" s="18" t="str">
+      <c r="J51" s="23" t="str">
         <f t="shared" si="1"/>
         <v>msg.dataConsulta != null &amp;&amp; msg.dataConsulta.Value != DateTime.MinValue</v>
       </c>
-      <c r="K51" s="18" t="str">
+      <c r="K51" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(msg.dataConsulta != null &amp;&amp; msg.dataConsulta.Value != DateTime.MinValue)| registroPessoa.pesdatsta = msg.dataConsulta;</v>
       </c>
-      <c r="L51" s="18" t="str">
+      <c r="L51" s="23" t="str">
         <f t="shared" si="3"/>
         <v>registroPessoa.pesdatsta != null &amp;&amp; registroPessoa.pesdatsta.Value != DateTime.MinValue</v>
       </c>
-      <c r="M51" s="18" t="str">
+      <c r="M51" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(registroPessoa.pesdatsta != null &amp;&amp; registroPessoa.pesdatsta.Value != DateTime.MinValue)| msg.dataConsulta = registroPessoa.pesdatsta;</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="22" t="s">
+    <row r="52" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="23" t="s">
         <v>675</v>
       </c>
-      <c r="F52" s="22" t="s">
+      <c r="F52" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G52" s="18" t="s">
+      <c r="G52" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H52" s="19" t="s">
+      <c r="H52" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I52" s="18" t="str">
+      <c r="I52" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public int rcfcodpro  { get; set; }</v>
       </c>
-      <c r="J52" s="18" t="str">
+      <c r="J52" s="23" t="str">
         <f t="shared" si="1"/>
         <v>msg.numeroProcuracao != null &amp;&amp; msg.numeroProcuracao.Value &gt; 0</v>
       </c>
-      <c r="K52" s="18" t="str">
+      <c r="K52" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(msg.numeroProcuracao != null &amp;&amp; msg.numeroProcuracao.Value &gt; 0)| registroPessoa.rcfcodpro = msg.numeroProcuracao;</v>
       </c>
-      <c r="L52" s="18" t="str">
+      <c r="L52" s="23" t="str">
         <f t="shared" si="3"/>
         <v>registroPessoa.rcfcodpro != null &amp;&amp; registroPessoa.rcfcodpro.Value &gt; 0</v>
       </c>
-      <c r="M52" s="18" t="str">
+      <c r="M52" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(registroPessoa.rcfcodpro != null &amp;&amp; registroPessoa.rcfcodpro.Value &gt; 0)| msg.numeroProcuracao = registroPessoa.rcfcodpro;</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="22" t="s">
+    <row r="53" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E53" s="22" t="s">
+      <c r="E53" s="23" t="s">
         <v>676</v>
       </c>
-      <c r="F53" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G53" s="18" t="s">
+      <c r="F53" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H53" s="19" t="s">
+      <c r="H53" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I53" s="18" t="str">
+      <c r="I53" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string pesstanom  { get; set; }</v>
       </c>
-      <c r="J53" s="18" t="str">
+      <c r="J53" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.nomeDivergente)</v>
       </c>
-      <c r="K53" s="18" t="str">
+      <c r="K53" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.nomeDivergente))| registroPessoa.pesstanom = msg.nomeDivergente;</v>
       </c>
-      <c r="L53" s="18" t="str">
+      <c r="L53" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.pesstanom)</v>
       </c>
-      <c r="M53" s="18" t="str">
+      <c r="M53" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.pesstanom))| msg.nomeDivergente = registroPessoa.pesstanom;</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="22" t="s">
+    <row r="54" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="23" t="s">
         <v>677</v>
       </c>
-      <c r="F54" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="18" t="s">
+      <c r="F54" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H54" s="19" t="s">
+      <c r="H54" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I54" s="18" t="str">
+      <c r="I54" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string pesidcusucad  { get; set; }</v>
       </c>
-      <c r="J54" s="18" t="str">
+      <c r="J54" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.usuarioCadastro)</v>
       </c>
-      <c r="K54" s="18" t="str">
+      <c r="K54" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.usuarioCadastro))| registroPessoa.pesidcusucad = msg.usuarioCadastro;</v>
       </c>
-      <c r="L54" s="18" t="str">
+      <c r="L54" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.pesidcusucad)</v>
       </c>
-      <c r="M54" s="18" t="str">
+      <c r="M54" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.pesidcusucad))| msg.usuarioCadastro = registroPessoa.pesidcusucad;</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="22" t="s">
+    <row r="55" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="23" t="s">
         <v>1064</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="E55" s="22" t="s">
+      <c r="E55" s="23" t="s">
         <v>1065</v>
       </c>
-      <c r="F55" s="22" t="s">
+      <c r="F55" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G55" s="18" t="s">
+      <c r="G55" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H55" s="19" t="s">
+      <c r="H55" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I55" s="18" t="str">
+      <c r="I55" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public int pescodPisPasep  { get; set; }</v>
       </c>
-      <c r="J55" s="18" t="str">
+      <c r="J55" s="23" t="str">
         <f t="shared" si="1"/>
         <v>msg.codigoPisPasep != null &amp;&amp; msg.codigoPisPasep.Value &gt; 0</v>
       </c>
-      <c r="K55" s="18" t="str">
+      <c r="K55" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(msg.codigoPisPasep != null &amp;&amp; msg.codigoPisPasep.Value &gt; 0)| registroPessoa.pescodPisPasep = msg.codigoPisPasep;</v>
       </c>
-      <c r="L55" s="18" t="str">
+      <c r="L55" s="23" t="str">
         <f t="shared" si="3"/>
         <v>registroPessoa.pescodPisPasep != null &amp;&amp; registroPessoa.pescodPisPasep.Value &gt; 0</v>
       </c>
-      <c r="M55" s="18" t="str">
+      <c r="M55" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(registroPessoa.pescodPisPasep != null &amp;&amp; registroPessoa.pescodPisPasep.Value &gt; 0)| msg.codigoPisPasep = registroPessoa.pescodPisPasep;</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="22" t="s">
+    <row r="56" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="23" t="s">
         <v>941</v>
       </c>
-      <c r="F56" s="22" t="s">
+      <c r="F56" s="23" t="s">
         <v>991</v>
       </c>
-      <c r="G56" s="18" t="s">
+      <c r="G56" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H56" s="19" t="s">
+      <c r="H56" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I56" s="18" t="str">
+      <c r="I56" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public decimal pestotvlrben  { get; set; }</v>
       </c>
-      <c r="J56" s="18" t="str">
+      <c r="J56" s="23" t="str">
         <f t="shared" si="1"/>
         <v>msg.valorTotalBens != null &amp;&amp; msg.valorTotalBens.Value &gt; 0</v>
       </c>
-      <c r="K56" s="18" t="str">
+      <c r="K56" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(msg.valorTotalBens != null &amp;&amp; msg.valorTotalBens.Value &gt; 0)| registroPessoa.pestotvlrben = msg.valorTotalBens;</v>
       </c>
-      <c r="L56" s="18" t="str">
+      <c r="L56" s="23" t="str">
         <f t="shared" si="3"/>
         <v>registroPessoa.pestotvlrben != null &amp;&amp; registroPessoa.pestotvlrben.Value &gt; 0</v>
       </c>
-      <c r="M56" s="18" t="str">
+      <c r="M56" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(registroPessoa.pestotvlrben != null &amp;&amp; registroPessoa.pestotvlrben.Value &gt; 0)| msg.valorTotalBens = registroPessoa.pestotvlrben;</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="22" t="s">
+    <row r="57" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22" t="s">
+      <c r="E57" s="23" t="s">
         <v>817</v>
       </c>
-      <c r="F57" s="22" t="s">
+      <c r="F57" s="23" t="s">
         <v>991</v>
       </c>
-      <c r="G57" s="18" t="s">
+      <c r="G57" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H57" s="19" t="s">
+      <c r="H57" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I57" s="18" t="str">
+      <c r="I57" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public decimal pesvalmedmen  { get; set; }</v>
       </c>
-      <c r="J57" s="18" t="str">
+      <c r="J57" s="23" t="str">
         <f t="shared" si="1"/>
         <v>msg.valorRendaMensal != null &amp;&amp; msg.valorRendaMensal.Value &gt; 0</v>
       </c>
-      <c r="K57" s="18" t="str">
+      <c r="K57" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(msg.valorRendaMensal != null &amp;&amp; msg.valorRendaMensal.Value &gt; 0)| registroPessoa.pesvalmedmen = msg.valorRendaMensal;</v>
       </c>
-      <c r="L57" s="18" t="str">
+      <c r="L57" s="23" t="str">
         <f t="shared" si="3"/>
         <v>registroPessoa.pesvalmedmen != null &amp;&amp; registroPessoa.pesvalmedmen.Value &gt; 0</v>
       </c>
-      <c r="M57" s="18" t="str">
+      <c r="M57" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(registroPessoa.pesvalmedmen != null &amp;&amp; registroPessoa.pesvalmedmen.Value &gt; 0)| msg.valorRendaMensal = registroPessoa.pesvalmedmen;</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="22" t="s">
+    <row r="58" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22" t="s">
+      <c r="E58" s="23" t="s">
         <v>975</v>
       </c>
-      <c r="F58" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="18" t="s">
+      <c r="F58" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H58" s="19" t="s">
+      <c r="H58" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I58" s="18" t="str">
+      <c r="I58" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string pesidcposren  { get; set; }</v>
       </c>
-      <c r="J58" s="18" t="str">
+      <c r="J58" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.indicadorPosuiRenda)</v>
       </c>
-      <c r="K58" s="18" t="str">
+      <c r="K58" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorPosuiRenda))| registroPessoa.pesidcposren = msg.indicadorPosuiRenda;</v>
       </c>
-      <c r="L58" s="18" t="str">
+      <c r="L58" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.pesidcposren)</v>
       </c>
-      <c r="M58" s="18" t="str">
+      <c r="M58" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.pesidcposren))| msg.indicadorPosuiRenda = registroPessoa.pesidcposren;</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="22" t="s">
+    <row r="59" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="E59" s="22" t="s">
+      <c r="E59" s="23" t="s">
         <v>679</v>
       </c>
-      <c r="F59" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="18" t="s">
+      <c r="F59" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H59" s="19" t="s">
+      <c r="H59" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I59" s="18" t="str">
+      <c r="I59" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string pesidtlig  { get; set; }</v>
       </c>
-      <c r="J59" s="18" t="str">
+      <c r="J59" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.pessoaLigada)</v>
       </c>
-      <c r="K59" s="18" t="str">
+      <c r="K59" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.pessoaLigada))| registroPessoa.pesidtlig = msg.pessoaLigada;</v>
       </c>
-      <c r="L59" s="18" t="str">
+      <c r="L59" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.pesidtlig)</v>
       </c>
-      <c r="M59" s="18" t="str">
+      <c r="M59" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.pesidtlig))| msg.pessoaLigada = registroPessoa.pesidtlig;</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="22" t="s">
+    <row r="60" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22" t="s">
+      <c r="E60" s="23" t="s">
         <v>1069</v>
       </c>
-      <c r="F60" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="18" t="s">
+      <c r="F60" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H60" s="19" t="s">
+      <c r="H60" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I60" s="18" t="str">
+      <c r="I60" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string pesidciof  { get; set; }</v>
       </c>
-      <c r="J60" s="18" t="str">
+      <c r="J60" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.indicadorCobrancaIOf)</v>
       </c>
-      <c r="K60" s="18" t="str">
+      <c r="K60" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorCobrancaIOf))| registroPessoa.pesidciof = msg.indicadorCobrancaIOf;</v>
       </c>
-      <c r="L60" s="18" t="str">
+      <c r="L60" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.pesidciof)</v>
       </c>
-      <c r="M60" s="18" t="str">
+      <c r="M60" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.pesidciof))| msg.indicadorCobrancaIOf = registroPessoa.pesidciof;</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="22" t="s">
+    <row r="61" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="E61" s="22" t="s">
+      <c r="E61" s="23" t="s">
         <v>680</v>
       </c>
-      <c r="F61" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G61" s="18" t="s">
+      <c r="F61" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H61" s="19" t="s">
+      <c r="H61" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I61" s="18" t="str">
+      <c r="I61" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string cod_fil  { get; set; }</v>
       </c>
-      <c r="J61" s="18" t="str">
+      <c r="J61" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.codigoFilial)</v>
       </c>
-      <c r="K61" s="18" t="str">
+      <c r="K61" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.codigoFilial))| registroPessoa.cod_fil = msg.codigoFilial;</v>
       </c>
-      <c r="L61" s="18" t="str">
+      <c r="L61" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.cod_fil)</v>
       </c>
-      <c r="M61" s="18" t="str">
+      <c r="M61" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.cod_fil))| msg.codigoFilial = registroPessoa.cod_fil;</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="22" t="s">
+    <row r="62" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="23" t="s">
         <v>1048</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="E62" s="22" t="s">
+      <c r="E62" s="23" t="s">
         <v>1013</v>
       </c>
-      <c r="F62" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="18" t="s">
+      <c r="F62" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H62" s="19" t="s">
+      <c r="H62" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I62" s="18" t="str">
+      <c r="I62" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string bas_cgcCpf  { get; set; }</v>
       </c>
-      <c r="J62" s="18" t="str">
+      <c r="J62" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.codigoCpfCnpjBase)</v>
       </c>
-      <c r="K62" s="18" t="str">
+      <c r="K62" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.codigoCpfCnpjBase))| registroPessoa.bas_cgcCpf = msg.codigoCpfCnpjBase;</v>
       </c>
-      <c r="L62" s="18" t="str">
+      <c r="L62" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.bas_cgcCpf)</v>
       </c>
-      <c r="M62" s="18" t="str">
+      <c r="M62" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.bas_cgcCpf))| msg.codigoCpfCnpjBase = registroPessoa.bas_cgcCpf;</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="22" t="s">
+    <row r="63" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="23" t="s">
         <v>1049</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="D63" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="E63" s="22" t="s">
+      <c r="E63" s="23" t="s">
         <v>1014</v>
       </c>
-      <c r="F63" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G63" s="18" t="s">
+      <c r="F63" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H63" s="19" t="s">
+      <c r="H63" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I63" s="18" t="str">
+      <c r="I63" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string fil_cgcCpf  { get; set; }</v>
       </c>
-      <c r="J63" s="18" t="str">
+      <c r="J63" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.codigoCpfCnpjFilial)</v>
       </c>
-      <c r="K63" s="18" t="str">
+      <c r="K63" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.codigoCpfCnpjFilial))| registroPessoa.fil_cgcCpf = msg.codigoCpfCnpjFilial;</v>
       </c>
-      <c r="L63" s="18" t="str">
+      <c r="L63" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.fil_cgcCpf)</v>
       </c>
-      <c r="M63" s="18" t="str">
+      <c r="M63" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.fil_cgcCpf))| msg.codigoCpfCnpjFilial = registroPessoa.fil_cgcCpf;</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="22" t="s">
+    <row r="64" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="23" t="s">
         <v>1050</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D64" s="22" t="s">
+      <c r="D64" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E64" s="22" t="s">
+      <c r="E64" s="23" t="s">
         <v>1015</v>
       </c>
-      <c r="F64" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G64" s="18" t="s">
+      <c r="F64" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H64" s="19" t="s">
+      <c r="H64" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I64" s="18" t="str">
+      <c r="I64" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string dig_cgcCpf  { get; set; }</v>
       </c>
-      <c r="J64" s="18" t="str">
+      <c r="J64" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.codigoCpfCnpjDigito)</v>
       </c>
-      <c r="K64" s="18" t="str">
+      <c r="K64" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.codigoCpfCnpjDigito))| registroPessoa.dig_cgcCpf = msg.codigoCpfCnpjDigito;</v>
       </c>
-      <c r="L64" s="18" t="str">
+      <c r="L64" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.dig_cgcCpf)</v>
       </c>
-      <c r="M64" s="18" t="str">
+      <c r="M64" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.dig_cgcCpf))| msg.codigoCpfCnpjDigito = registroPessoa.dig_cgcCpf;</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="22" t="s">
+    <row r="65" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D65" s="22" t="s">
+      <c r="D65" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E65" s="22" t="s">
+      <c r="E65" s="23" t="s">
         <v>685</v>
       </c>
-      <c r="F65" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G65" s="18" t="s">
+      <c r="F65" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H65" s="19" t="s">
+      <c r="H65" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I65" s="18" t="str">
+      <c r="I65" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string tip_fil  { get; set; }</v>
       </c>
-      <c r="J65" s="18" t="str">
+      <c r="J65" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.tipoPessoaFilial)</v>
       </c>
-      <c r="K65" s="18" t="str">
+      <c r="K65" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.tipoPessoaFilial))| registroPessoa.tip_fil = msg.tipoPessoaFilial;</v>
       </c>
-      <c r="L65" s="18" t="str">
+      <c r="L65" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.tip_fil)</v>
       </c>
-      <c r="M65" s="18" t="str">
+      <c r="M65" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.tip_fil))| msg.tipoPessoaFilial = registroPessoa.tip_fil;</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="22" t="s">
+    <row r="66" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="23" t="s">
         <v>1051</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D66" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="E66" s="22" t="s">
+      <c r="E66" s="23" t="s">
         <v>1052</v>
       </c>
-      <c r="F66" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="18" t="s">
+      <c r="F66" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H66" s="19" t="s">
+      <c r="H66" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I66" s="18" t="str">
+      <c r="I66" s="23" t="str">
         <f t="shared" si="0"/>
         <v>public string idc_isen_cgcCpf  { get; set; }</v>
       </c>
-      <c r="J66" s="18" t="str">
+      <c r="J66" s="23" t="str">
         <f t="shared" si="1"/>
         <v>!string.IsNullOrWhiteSpace(msg.indicadorIsencaoCpf)</v>
       </c>
-      <c r="K66" s="18" t="str">
+      <c r="K66" s="23" t="str">
         <f t="shared" si="2"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorIsencaoCpf))| registroPessoa.idc_isen_cgcCpf = msg.indicadorIsencaoCpf;</v>
       </c>
-      <c r="L66" s="18" t="str">
+      <c r="L66" s="23" t="str">
         <f t="shared" si="3"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.idc_isen_cgcCpf)</v>
       </c>
-      <c r="M66" s="18" t="str">
+      <c r="M66" s="23" t="str">
         <f t="shared" si="4"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.idc_isen_cgcCpf))| msg.indicadorIsencaoCpf = registroPessoa.idc_isen_cgcCpf;</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="22" t="s">
+    <row r="67" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="23" t="s">
         <v>1053</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D67" s="22" t="s">
+      <c r="D67" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E67" s="22" t="s">
+      <c r="E67" s="23" t="s">
         <v>1054</v>
       </c>
-      <c r="F67" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G67" s="18" t="s">
+      <c r="F67" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G67" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H67" s="19" t="s">
+      <c r="H67" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I67" s="18" t="str">
+      <c r="I67" s="23" t="str">
         <f t="shared" ref="I67:I130" si="5">CONCATENATE("public ",F67," ",B67,"  { get; set; }")</f>
         <v>public string til_Cpf  { get; set; }</v>
       </c>
-      <c r="J67" s="18" t="str">
+      <c r="J67" s="23" t="str">
         <f t="shared" ref="J67:J130" si="6">IF(F67="string",CONCATENATE("!string.IsNullOrWhiteSpace(",H67,".",E67,")"),IF(F67="int",CONCATENATE(H67,".",E67," != null &amp;&amp; ",H67,".",E67,".Value &gt; 0"),IF(F67="DateTime",CONCATENATE(H67,".",E67," != null &amp;&amp; ",H67,".",E67,".Value != DateTime.MinValue"),IF(F67="decimal",CONCATENATE(H67,".",E67," != null &amp;&amp; ",H67,".",E67,".Value &gt; 0")))))</f>
         <v>!string.IsNullOrWhiteSpace(msg.CpfTitular)</v>
       </c>
-      <c r="K67" s="18" t="str">
+      <c r="K67" s="23" t="str">
         <f t="shared" ref="K67:K130" si="7">CONCATENATE("|if(",J67,")","| ",G67,".",B67," = ",H67,".",E67,";")</f>
         <v>|if(!string.IsNullOrWhiteSpace(msg.CpfTitular))| registroPessoa.til_Cpf = msg.CpfTitular;</v>
       </c>
-      <c r="L67" s="18" t="str">
+      <c r="L67" s="23" t="str">
         <f t="shared" ref="L67:L130" si="8">IF(F67="string",CONCATENATE("!string.IsNullOrWhiteSpace(",G67,".",B67,")"),IF(F67="int",CONCATENATE(G67,".",B67," != null &amp;&amp; ",G67,".",B67,".Value &gt; 0"),IF(F67="DateTime",CONCATENATE(G67,".",B67," != null &amp;&amp; ",G67,".",B67,".Value != DateTime.MinValue"),IF(F67="decimal",CONCATENATE(G67,".",B67," != null &amp;&amp; ",G67,".",B67,".Value &gt; 0")))))</f>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.til_Cpf)</v>
       </c>
-      <c r="M67" s="18" t="str">
+      <c r="M67" s="23" t="str">
         <f t="shared" ref="M67:M130" si="9">CONCATENATE("|if(",L67,")","| ",H67,".",E67," = ",G67,".",B67,";")</f>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.til_Cpf))| msg.CpfTitular = registroPessoa.til_Cpf;</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="22" t="s">
+    <row r="68" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D68" s="22" t="s">
+      <c r="D68" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="E68" s="22" t="s">
+      <c r="E68" s="23" t="s">
         <v>945</v>
       </c>
-      <c r="F68" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G68" s="18" t="s">
+      <c r="F68" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H68" s="19" t="s">
+      <c r="H68" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I68" s="18" t="str">
+      <c r="I68" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public string ins_est  { get; set; }</v>
       </c>
-      <c r="J68" s="18" t="str">
+      <c r="J68" s="23" t="str">
         <f t="shared" si="6"/>
         <v>!string.IsNullOrWhiteSpace(msg.inscricaoEstadualTitular)</v>
       </c>
-      <c r="K68" s="18" t="str">
+      <c r="K68" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.inscricaoEstadualTitular))| registroPessoa.ins_est = msg.inscricaoEstadualTitular;</v>
       </c>
-      <c r="L68" s="18" t="str">
+      <c r="L68" s="23" t="str">
         <f t="shared" si="8"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.ins_est)</v>
       </c>
-      <c r="M68" s="18" t="str">
+      <c r="M68" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.ins_est))| msg.inscricaoEstadualTitular = registroPessoa.ins_est;</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" s="22" t="s">
+    <row r="69" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D69" s="22" t="s">
+      <c r="D69" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="E69" s="22" t="s">
+      <c r="E69" s="23" t="s">
         <v>944</v>
       </c>
-      <c r="F69" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G69" s="18" t="s">
+      <c r="F69" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H69" s="19" t="s">
+      <c r="H69" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I69" s="18" t="str">
+      <c r="I69" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public string ins_mun  { get; set; }</v>
       </c>
-      <c r="J69" s="18" t="str">
+      <c r="J69" s="23" t="str">
         <f t="shared" si="6"/>
         <v>!string.IsNullOrWhiteSpace(msg.inscricaoMunicipalTitular)</v>
       </c>
-      <c r="K69" s="18" t="str">
+      <c r="K69" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.inscricaoMunicipalTitular))| registroPessoa.ins_mun = msg.inscricaoMunicipalTitular;</v>
       </c>
-      <c r="L69" s="18" t="str">
+      <c r="L69" s="23" t="str">
         <f t="shared" si="8"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.ins_mun)</v>
       </c>
-      <c r="M69" s="18" t="str">
+      <c r="M69" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.ins_mun))| msg.inscricaoMunicipalTitular = registroPessoa.ins_mun;</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="22" t="s">
+    <row r="70" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="E70" s="22" t="s">
+      <c r="E70" s="23" t="s">
         <v>686</v>
       </c>
-      <c r="F70" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G70" s="18" t="s">
+      <c r="F70" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H70" s="19" t="s">
+      <c r="H70" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I70" s="18" t="str">
+      <c r="I70" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public string idc_dep  { get; set; }</v>
       </c>
-      <c r="J70" s="18" t="str">
+      <c r="J70" s="23" t="str">
         <f t="shared" si="6"/>
         <v>!string.IsNullOrWhiteSpace(msg.indicadorDependente)</v>
       </c>
-      <c r="K70" s="18" t="str">
+      <c r="K70" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorDependente))| registroPessoa.idc_dep = msg.indicadorDependente;</v>
       </c>
-      <c r="L70" s="18" t="str">
+      <c r="L70" s="23" t="str">
         <f t="shared" si="8"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.idc_dep)</v>
       </c>
-      <c r="M70" s="18" t="str">
+      <c r="M70" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.idc_dep))| msg.indicadorDependente = registroPessoa.idc_dep;</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="22" t="s">
+    <row r="71" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="D71" s="22" t="s">
+      <c r="D71" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="E71" s="22" t="s">
+      <c r="E71" s="23" t="s">
         <v>687</v>
       </c>
-      <c r="F71" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G71" s="18" t="s">
+      <c r="F71" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H71" s="19" t="s">
+      <c r="H71" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I71" s="18" t="str">
+      <c r="I71" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public string idc_for  { get; set; }</v>
       </c>
-      <c r="J71" s="18" t="str">
+      <c r="J71" s="23" t="str">
         <f t="shared" si="6"/>
         <v>!string.IsNullOrWhiteSpace(msg.indicadorFornecedor)</v>
       </c>
-      <c r="K71" s="18" t="str">
+      <c r="K71" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorFornecedor))| registroPessoa.idc_for = msg.indicadorFornecedor;</v>
       </c>
-      <c r="L71" s="18" t="str">
+      <c r="L71" s="23" t="str">
         <f t="shared" si="8"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.idc_for)</v>
       </c>
-      <c r="M71" s="18" t="str">
+      <c r="M71" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.idc_for))| msg.indicadorFornecedor = registroPessoa.idc_for;</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="22" t="s">
+    <row r="72" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="D72" s="22" t="s">
+      <c r="D72" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E72" s="22" t="s">
+      <c r="E72" s="23" t="s">
         <v>688</v>
       </c>
-      <c r="F72" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="18" t="s">
+      <c r="F72" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H72" s="19" t="s">
+      <c r="H72" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I72" s="18" t="str">
+      <c r="I72" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public string idc_cli  { get; set; }</v>
       </c>
-      <c r="J72" s="18" t="str">
+      <c r="J72" s="23" t="str">
         <f t="shared" si="6"/>
         <v>!string.IsNullOrWhiteSpace(msg.indicadorCliente)</v>
       </c>
-      <c r="K72" s="18" t="str">
+      <c r="K72" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorCliente))| registroPessoa.idc_cli = msg.indicadorCliente;</v>
       </c>
-      <c r="L72" s="18" t="str">
+      <c r="L72" s="23" t="str">
         <f t="shared" si="8"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.idc_cli)</v>
       </c>
-      <c r="M72" s="18" t="str">
+      <c r="M72" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.idc_cli))| msg.indicadorCliente = registroPessoa.idc_cli;</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="22" t="s">
+    <row r="73" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="D73" s="22" t="s">
+      <c r="D73" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="E73" s="22" t="s">
+      <c r="E73" s="23" t="s">
         <v>689</v>
       </c>
-      <c r="F73" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G73" s="18" t="s">
+      <c r="F73" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G73" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H73" s="19" t="s">
+      <c r="H73" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I73" s="18" t="str">
+      <c r="I73" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public string idc_sit_fil  { get; set; }</v>
       </c>
-      <c r="J73" s="18" t="str">
+      <c r="J73" s="23" t="str">
         <f t="shared" si="6"/>
         <v>!string.IsNullOrWhiteSpace(msg.indicadorSituacaoFilial)</v>
       </c>
-      <c r="K73" s="18" t="str">
+      <c r="K73" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorSituacaoFilial))| registroPessoa.idc_sit_fil = msg.indicadorSituacaoFilial;</v>
       </c>
-      <c r="L73" s="18" t="str">
+      <c r="L73" s="23" t="str">
         <f t="shared" si="8"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.idc_sit_fil)</v>
       </c>
-      <c r="M73" s="18" t="str">
+      <c r="M73" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.idc_sit_fil))| msg.indicadorSituacaoFilial = registroPessoa.idc_sit_fil;</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="22" t="s">
+    <row r="74" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D74" s="22" t="s">
+      <c r="D74" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E74" s="22" t="s">
+      <c r="E74" s="23" t="s">
         <v>1088</v>
       </c>
-      <c r="F74" s="22" t="s">
+      <c r="F74" s="23" t="s">
         <v>1089</v>
       </c>
-      <c r="G74" s="18" t="s">
+      <c r="G74" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H74" s="19" t="s">
+      <c r="H74" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I74" s="18" t="str">
+      <c r="I74" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public DateTime dat_cad1  { get; set; }</v>
       </c>
-      <c r="J74" s="18" t="str">
+      <c r="J74" s="23" t="str">
         <f t="shared" si="6"/>
         <v>msg.dataCadastro1 != null &amp;&amp; msg.dataCadastro1.Value != DateTime.MinValue</v>
       </c>
-      <c r="K74" s="18" t="str">
+      <c r="K74" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(msg.dataCadastro1 != null &amp;&amp; msg.dataCadastro1.Value != DateTime.MinValue)| registroPessoa.dat_cad1 = msg.dataCadastro1;</v>
       </c>
-      <c r="L74" s="18" t="str">
+      <c r="L74" s="23" t="str">
         <f t="shared" si="8"/>
         <v>registroPessoa.dat_cad1 != null &amp;&amp; registroPessoa.dat_cad1.Value != DateTime.MinValue</v>
       </c>
-      <c r="M74" s="18" t="str">
+      <c r="M74" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(registroPessoa.dat_cad1 != null &amp;&amp; registroPessoa.dat_cad1.Value != DateTime.MinValue)| msg.dataCadastro1 = registroPessoa.dat_cad1;</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="22" t="s">
+    <row r="75" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D75" s="22" t="s">
+      <c r="D75" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E75" s="22" t="s">
+      <c r="E75" s="23" t="s">
         <v>989</v>
       </c>
-      <c r="F75" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G75" s="18" t="s">
+      <c r="F75" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H75" s="19" t="s">
+      <c r="H75" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I75" s="18" t="str">
+      <c r="I75" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public string usu_atu1  { get; set; }</v>
       </c>
-      <c r="J75" s="18" t="str">
+      <c r="J75" s="23" t="str">
         <f t="shared" si="6"/>
         <v>!string.IsNullOrWhiteSpace(msg.usuarioAtualizacao1)</v>
       </c>
-      <c r="K75" s="18" t="str">
+      <c r="K75" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.usuarioAtualizacao1))| registroPessoa.usu_atu1 = msg.usuarioAtualizacao1;</v>
       </c>
-      <c r="L75" s="18" t="str">
+      <c r="L75" s="23" t="str">
         <f t="shared" si="8"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.usu_atu1)</v>
       </c>
-      <c r="M75" s="18" t="str">
+      <c r="M75" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.usu_atu1))| msg.usuarioAtualizacao1 = registroPessoa.usu_atu1;</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="22" t="s">
+    <row r="76" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D76" s="22" t="s">
+      <c r="D76" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E76" s="22" t="s">
+      <c r="E76" s="23" t="s">
         <v>1009</v>
       </c>
-      <c r="F76" s="22" t="s">
+      <c r="F76" s="23" t="s">
         <v>1089</v>
       </c>
-      <c r="G76" s="18" t="s">
+      <c r="G76" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H76" s="19" t="s">
+      <c r="H76" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I76" s="18" t="str">
+      <c r="I76" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public DateTime dat_atu1  { get; set; }</v>
       </c>
-      <c r="J76" s="18" t="str">
+      <c r="J76" s="23" t="str">
         <f t="shared" si="6"/>
         <v>msg.dataAtualizacao1 != null &amp;&amp; msg.dataAtualizacao1.Value != DateTime.MinValue</v>
       </c>
-      <c r="K76" s="18" t="str">
+      <c r="K76" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(msg.dataAtualizacao1 != null &amp;&amp; msg.dataAtualizacao1.Value != DateTime.MinValue)| registroPessoa.dat_atu1 = msg.dataAtualizacao1;</v>
       </c>
-      <c r="L76" s="18" t="str">
+      <c r="L76" s="23" t="str">
         <f t="shared" si="8"/>
         <v>registroPessoa.dat_atu1 != null &amp;&amp; registroPessoa.dat_atu1.Value != DateTime.MinValue</v>
       </c>
-      <c r="M76" s="18" t="str">
+      <c r="M76" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(registroPessoa.dat_atu1 != null &amp;&amp; registroPessoa.dat_atu1.Value != DateTime.MinValue)| msg.dataAtualizacao1 = registroPessoa.dat_atu1;</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="22" t="s">
+    <row r="77" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="D77" s="22" t="s">
+      <c r="D77" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="E77" s="22" t="s">
+      <c r="E77" s="23" t="s">
         <v>767</v>
       </c>
-      <c r="F77" s="22" t="s">
+      <c r="F77" s="23" t="s">
         <v>1089</v>
       </c>
-      <c r="G77" s="18" t="s">
+      <c r="G77" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H77" s="19" t="s">
+      <c r="H77" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I77" s="18" t="str">
+      <c r="I77" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public DateTime dat_sit  { get; set; }</v>
       </c>
-      <c r="J77" s="18" t="str">
+      <c r="J77" s="23" t="str">
         <f t="shared" si="6"/>
         <v>msg.dataSituacao != null &amp;&amp; msg.dataSituacao.Value != DateTime.MinValue</v>
       </c>
-      <c r="K77" s="18" t="str">
+      <c r="K77" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(msg.dataSituacao != null &amp;&amp; msg.dataSituacao.Value != DateTime.MinValue)| registroPessoa.dat_sit = msg.dataSituacao;</v>
       </c>
-      <c r="L77" s="18" t="str">
+      <c r="L77" s="23" t="str">
         <f t="shared" si="8"/>
         <v>registroPessoa.dat_sit != null &amp;&amp; registroPessoa.dat_sit.Value != DateTime.MinValue</v>
       </c>
-      <c r="M77" s="18" t="str">
+      <c r="M77" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(registroPessoa.dat_sit != null &amp;&amp; registroPessoa.dat_sit.Value != DateTime.MinValue)| msg.dataSituacao = registroPessoa.dat_sit;</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="22" t="s">
+    <row r="78" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="D78" s="22" t="s">
+      <c r="D78" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E78" s="22" t="s">
+      <c r="E78" s="23" t="s">
         <v>692</v>
       </c>
-      <c r="F78" s="22" t="s">
+      <c r="F78" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G78" s="18" t="s">
+      <c r="G78" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H78" s="19" t="s">
+      <c r="H78" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I78" s="18" t="str">
+      <c r="I78" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public int cod_empresa  { get; set; }</v>
       </c>
-      <c r="J78" s="18" t="str">
+      <c r="J78" s="23" t="str">
         <f t="shared" si="6"/>
         <v>msg.codigoEmpresa != null &amp;&amp; msg.codigoEmpresa.Value &gt; 0</v>
       </c>
-      <c r="K78" s="18" t="str">
+      <c r="K78" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(msg.codigoEmpresa != null &amp;&amp; msg.codigoEmpresa.Value &gt; 0)| registroPessoa.cod_empresa = msg.codigoEmpresa;</v>
       </c>
-      <c r="L78" s="18" t="str">
+      <c r="L78" s="23" t="str">
         <f t="shared" si="8"/>
         <v>registroPessoa.cod_empresa != null &amp;&amp; registroPessoa.cod_empresa.Value &gt; 0</v>
       </c>
-      <c r="M78" s="18" t="str">
+      <c r="M78" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(registroPessoa.cod_empresa != null &amp;&amp; registroPessoa.cod_empresa.Value &gt; 0)| msg.codigoEmpresa = registroPessoa.cod_empresa;</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="22" t="s">
+    <row r="79" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="D79" s="22" t="s">
+      <c r="D79" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E79" s="22" t="s">
+      <c r="E79" s="23" t="s">
         <v>693</v>
       </c>
-      <c r="F79" s="22" t="s">
+      <c r="F79" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G79" s="18" t="s">
+      <c r="G79" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H79" s="19" t="s">
+      <c r="H79" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I79" s="18" t="str">
+      <c r="I79" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public int cod_depend  { get; set; }</v>
       </c>
-      <c r="J79" s="18" t="str">
+      <c r="J79" s="23" t="str">
         <f t="shared" si="6"/>
         <v>msg.codigoDependente != null &amp;&amp; msg.codigoDependente.Value &gt; 0</v>
       </c>
-      <c r="K79" s="18" t="str">
+      <c r="K79" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(msg.codigoDependente != null &amp;&amp; msg.codigoDependente.Value &gt; 0)| registroPessoa.cod_depend = msg.codigoDependente;</v>
       </c>
-      <c r="L79" s="18" t="str">
+      <c r="L79" s="23" t="str">
         <f t="shared" si="8"/>
         <v>registroPessoa.cod_depend != null &amp;&amp; registroPessoa.cod_depend.Value &gt; 0</v>
       </c>
-      <c r="M79" s="18" t="str">
+      <c r="M79" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(registroPessoa.cod_depend != null &amp;&amp; registroPessoa.cod_depend.Value &gt; 0)| msg.codigoDependente = registroPessoa.cod_depend;</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" s="22" t="s">
+    <row r="80" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D80" s="22" t="s">
+      <c r="D80" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E80" s="22" t="s">
+      <c r="E80" s="23" t="s">
         <v>694</v>
       </c>
-      <c r="F80" s="22" t="s">
+      <c r="F80" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G80" s="18" t="s">
+      <c r="G80" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H80" s="19" t="s">
+      <c r="H80" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I80" s="18" t="str">
+      <c r="I80" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public int cod_oper  { get; set; }</v>
       </c>
-      <c r="J80" s="18" t="str">
+      <c r="J80" s="23" t="str">
         <f t="shared" si="6"/>
         <v>msg.codigoOperador != null &amp;&amp; msg.codigoOperador.Value &gt; 0</v>
       </c>
-      <c r="K80" s="18" t="str">
+      <c r="K80" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(msg.codigoOperador != null &amp;&amp; msg.codigoOperador.Value &gt; 0)| registroPessoa.cod_oper = msg.codigoOperador;</v>
       </c>
-      <c r="L80" s="18" t="str">
+      <c r="L80" s="23" t="str">
         <f t="shared" si="8"/>
         <v>registroPessoa.cod_oper != null &amp;&amp; registroPessoa.cod_oper.Value &gt; 0</v>
       </c>
-      <c r="M80" s="18" t="str">
+      <c r="M80" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(registroPessoa.cod_oper != null &amp;&amp; registroPessoa.cod_oper.Value &gt; 0)| msg.codigoOperador = registroPessoa.cod_oper;</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="22" t="s">
+    <row r="81" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="C81" s="22" t="s">
+      <c r="C81" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="D81" s="22" t="s">
+      <c r="D81" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="E81" s="22" t="s">
+      <c r="E81" s="23" t="s">
         <v>695</v>
       </c>
-      <c r="F81" s="22" t="s">
+      <c r="F81" s="23" t="s">
         <v>1089</v>
       </c>
-      <c r="G81" s="18" t="s">
+      <c r="G81" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H81" s="19" t="s">
+      <c r="H81" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I81" s="18" t="str">
+      <c r="I81" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public DateTime dat_ini_gerente  { get; set; }</v>
       </c>
-      <c r="J81" s="18" t="str">
+      <c r="J81" s="23" t="str">
         <f t="shared" si="6"/>
         <v>msg.dataInicialGerente != null &amp;&amp; msg.dataInicialGerente.Value != DateTime.MinValue</v>
       </c>
-      <c r="K81" s="18" t="str">
+      <c r="K81" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(msg.dataInicialGerente != null &amp;&amp; msg.dataInicialGerente.Value != DateTime.MinValue)| registroPessoa.dat_ini_gerente = msg.dataInicialGerente;</v>
       </c>
-      <c r="L81" s="18" t="str">
+      <c r="L81" s="23" t="str">
         <f t="shared" si="8"/>
         <v>registroPessoa.dat_ini_gerente != null &amp;&amp; registroPessoa.dat_ini_gerente.Value != DateTime.MinValue</v>
       </c>
-      <c r="M81" s="18" t="str">
+      <c r="M81" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(registroPessoa.dat_ini_gerente != null &amp;&amp; registroPessoa.dat_ini_gerente.Value != DateTime.MinValue)| msg.dataInicialGerente = registroPessoa.dat_ini_gerente;</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="22" t="s">
+    <row r="82" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="C82" s="22" t="s">
+      <c r="C82" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="D82" s="22" t="s">
+      <c r="D82" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="E82" s="22" t="s">
+      <c r="E82" s="23" t="s">
         <v>696</v>
       </c>
-      <c r="F82" s="22" t="s">
+      <c r="F82" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G82" s="18" t="s">
+      <c r="G82" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H82" s="19" t="s">
+      <c r="H82" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I82" s="18" t="str">
+      <c r="I82" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public int cli_cod  { get; set; }</v>
       </c>
-      <c r="J82" s="18" t="str">
+      <c r="J82" s="23" t="str">
         <f t="shared" si="6"/>
         <v>msg.codigoCliente != null &amp;&amp; msg.codigoCliente.Value &gt; 0</v>
       </c>
-      <c r="K82" s="18" t="str">
+      <c r="K82" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(msg.codigoCliente != null &amp;&amp; msg.codigoCliente.Value &gt; 0)| registroPessoa.cli_cod = msg.codigoCliente;</v>
       </c>
-      <c r="L82" s="18" t="str">
+      <c r="L82" s="23" t="str">
         <f t="shared" si="8"/>
         <v>registroPessoa.cli_cod != null &amp;&amp; registroPessoa.cli_cod.Value &gt; 0</v>
       </c>
-      <c r="M82" s="18" t="str">
+      <c r="M82" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(registroPessoa.cli_cod != null &amp;&amp; registroPessoa.cli_cod.Value &gt; 0)| msg.codigoCliente = registroPessoa.cli_cod;</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="22" t="s">
+    <row r="83" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="D83" s="22" t="s">
+      <c r="D83" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="E83" s="22" t="s">
+      <c r="E83" s="23" t="s">
         <v>697</v>
       </c>
-      <c r="F83" s="22" t="s">
+      <c r="F83" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G83" s="18" t="s">
+      <c r="G83" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H83" s="19" t="s">
+      <c r="H83" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I83" s="18" t="str">
+      <c r="I83" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public int cod_porte  { get; set; }</v>
       </c>
-      <c r="J83" s="18" t="str">
+      <c r="J83" s="23" t="str">
         <f t="shared" si="6"/>
         <v>msg.codigoPorte != null &amp;&amp; msg.codigoPorte.Value &gt; 0</v>
       </c>
-      <c r="K83" s="18" t="str">
+      <c r="K83" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(msg.codigoPorte != null &amp;&amp; msg.codigoPorte.Value &gt; 0)| registroPessoa.cod_porte = msg.codigoPorte;</v>
       </c>
-      <c r="L83" s="18" t="str">
+      <c r="L83" s="23" t="str">
         <f t="shared" si="8"/>
         <v>registroPessoa.cod_porte != null &amp;&amp; registroPessoa.cod_porte.Value &gt; 0</v>
       </c>
-      <c r="M83" s="18" t="str">
+      <c r="M83" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(registroPessoa.cod_porte != null &amp;&amp; registroPessoa.cod_porte.Value &gt; 0)| msg.codigoPorte = registroPessoa.cod_porte;</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="22" t="s">
+    <row r="84" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="D84" s="22" t="s">
+      <c r="D84" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="E84" s="22" t="s">
+      <c r="E84" s="23" t="s">
         <v>698</v>
       </c>
-      <c r="F84" s="22" t="s">
+      <c r="F84" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G84" s="18" t="s">
+      <c r="G84" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H84" s="19" t="s">
+      <c r="H84" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I84" s="18" t="str">
+      <c r="I84" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public int qtd_assinatura  { get; set; }</v>
       </c>
-      <c r="J84" s="18" t="str">
+      <c r="J84" s="23" t="str">
         <f t="shared" si="6"/>
         <v>msg.qtdAssinaturas != null &amp;&amp; msg.qtdAssinaturas.Value &gt; 0</v>
       </c>
-      <c r="K84" s="18" t="str">
+      <c r="K84" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(msg.qtdAssinaturas != null &amp;&amp; msg.qtdAssinaturas.Value &gt; 0)| registroPessoa.qtd_assinatura = msg.qtdAssinaturas;</v>
       </c>
-      <c r="L84" s="18" t="str">
+      <c r="L84" s="23" t="str">
         <f t="shared" si="8"/>
         <v>registroPessoa.qtd_assinatura != null &amp;&amp; registroPessoa.qtd_assinatura.Value &gt; 0</v>
       </c>
-      <c r="M84" s="18" t="str">
+      <c r="M84" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(registroPessoa.qtd_assinatura != null &amp;&amp; registroPessoa.qtd_assinatura.Value &gt; 0)| msg.qtdAssinaturas = registroPessoa.qtd_assinatura;</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" s="22" t="s">
+    <row r="85" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="D85" s="22" t="s">
+      <c r="D85" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="E85" s="22" t="s">
+      <c r="E85" s="23" t="s">
         <v>699</v>
       </c>
-      <c r="F85" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G85" s="18" t="s">
+      <c r="F85" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G85" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H85" s="19" t="s">
+      <c r="H85" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I85" s="18" t="str">
+      <c r="I85" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public string end_home_page  { get; set; }</v>
       </c>
-      <c r="J85" s="18" t="str">
+      <c r="J85" s="23" t="str">
         <f t="shared" si="6"/>
         <v>!string.IsNullOrWhiteSpace(msg.enderecoHomePage)</v>
       </c>
-      <c r="K85" s="18" t="str">
+      <c r="K85" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.enderecoHomePage))| registroPessoa.end_home_page = msg.enderecoHomePage;</v>
       </c>
-      <c r="L85" s="18" t="str">
+      <c r="L85" s="23" t="str">
         <f t="shared" si="8"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.end_home_page)</v>
       </c>
-      <c r="M85" s="18" t="str">
+      <c r="M85" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.end_home_page))| msg.enderecoHomePage = registroPessoa.end_home_page;</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" s="22" t="s">
+    <row r="86" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="D86" s="22" t="s">
+      <c r="D86" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="E86" s="22" t="s">
+      <c r="E86" s="23" t="s">
         <v>700</v>
       </c>
-      <c r="F86" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G86" s="18" t="s">
+      <c r="F86" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H86" s="19" t="s">
+      <c r="H86" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I86" s="18" t="str">
+      <c r="I86" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public string eml_fil_1  { get; set; }</v>
       </c>
-      <c r="J86" s="18" t="str">
+      <c r="J86" s="23" t="str">
         <f t="shared" si="6"/>
         <v>!string.IsNullOrWhiteSpace(msg.email1)</v>
       </c>
-      <c r="K86" s="18" t="str">
+      <c r="K86" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.email1))| registroPessoa.eml_fil_1 = msg.email1;</v>
       </c>
-      <c r="L86" s="18" t="str">
+      <c r="L86" s="23" t="str">
         <f t="shared" si="8"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.eml_fil_1)</v>
       </c>
-      <c r="M86" s="18" t="str">
+      <c r="M86" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.eml_fil_1))| msg.email1 = registroPessoa.eml_fil_1;</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" s="22" t="s">
+    <row r="87" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="C87" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="D87" s="22" t="s">
+      <c r="D87" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="E87" s="22" t="s">
+      <c r="E87" s="23" t="s">
         <v>701</v>
       </c>
-      <c r="F87" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G87" s="18" t="s">
+      <c r="F87" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G87" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H87" s="19" t="s">
+      <c r="H87" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I87" s="18" t="str">
+      <c r="I87" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public string eml_fil_2  { get; set; }</v>
       </c>
-      <c r="J87" s="18" t="str">
+      <c r="J87" s="23" t="str">
         <f t="shared" si="6"/>
         <v>!string.IsNullOrWhiteSpace(msg.email2)</v>
       </c>
-      <c r="K87" s="18" t="str">
+      <c r="K87" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.email2))| registroPessoa.eml_fil_2 = msg.email2;</v>
       </c>
-      <c r="L87" s="18" t="str">
+      <c r="L87" s="23" t="str">
         <f t="shared" si="8"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.eml_fil_2)</v>
       </c>
-      <c r="M87" s="18" t="str">
+      <c r="M87" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.eml_fil_2))| msg.email2 = registroPessoa.eml_fil_2;</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" s="22" t="s">
+    <row r="88" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D88" s="22" t="s">
+      <c r="D88" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="E88" s="22" t="s">
+      <c r="E88" s="23" t="s">
         <v>702</v>
       </c>
-      <c r="F88" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G88" s="18" t="s">
+      <c r="F88" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G88" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H88" s="19" t="s">
+      <c r="H88" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I88" s="18" t="str">
+      <c r="I88" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public string eml_fil_3  { get; set; }</v>
       </c>
-      <c r="J88" s="18" t="str">
+      <c r="J88" s="23" t="str">
         <f t="shared" si="6"/>
         <v>!string.IsNullOrWhiteSpace(msg.email3)</v>
       </c>
-      <c r="K88" s="18" t="str">
+      <c r="K88" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.email3))| registroPessoa.eml_fil_3 = msg.email3;</v>
       </c>
-      <c r="L88" s="18" t="str">
+      <c r="L88" s="23" t="str">
         <f t="shared" si="8"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.eml_fil_3)</v>
       </c>
-      <c r="M88" s="18" t="str">
+      <c r="M88" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.eml_fil_3))| msg.email3 = registroPessoa.eml_fil_3;</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" s="22" t="s">
+    <row r="89" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="C89" s="22" t="s">
+      <c r="C89" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="D89" s="22" t="s">
+      <c r="D89" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="E89" s="22" t="s">
+      <c r="E89" s="23" t="s">
         <v>703</v>
       </c>
-      <c r="F89" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="18" t="s">
+      <c r="F89" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H89" s="19" t="s">
+      <c r="H89" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I89" s="18" t="str">
+      <c r="I89" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public string eml_fil_4  { get; set; }</v>
       </c>
-      <c r="J89" s="18" t="str">
+      <c r="J89" s="23" t="str">
         <f t="shared" si="6"/>
         <v>!string.IsNullOrWhiteSpace(msg.email4)</v>
       </c>
-      <c r="K89" s="18" t="str">
+      <c r="K89" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.email4))| registroPessoa.eml_fil_4 = msg.email4;</v>
       </c>
-      <c r="L89" s="18" t="str">
+      <c r="L89" s="23" t="str">
         <f t="shared" si="8"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.eml_fil_4)</v>
       </c>
-      <c r="M89" s="18" t="str">
+      <c r="M89" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.eml_fil_4))| msg.email4 = registroPessoa.eml_fil_4;</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" s="22" t="s">
+    <row r="90" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="C90" s="22" t="s">
+      <c r="C90" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="D90" s="22" t="s">
+      <c r="D90" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="E90" s="22" t="s">
+      <c r="E90" s="23" t="s">
         <v>704</v>
       </c>
-      <c r="F90" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G90" s="18" t="s">
+      <c r="F90" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G90" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H90" s="19" t="s">
+      <c r="H90" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I90" s="18" t="str">
+      <c r="I90" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public string eml_fil_5  { get; set; }</v>
       </c>
-      <c r="J90" s="18" t="str">
+      <c r="J90" s="23" t="str">
         <f t="shared" si="6"/>
         <v>!string.IsNullOrWhiteSpace(msg.email5)</v>
       </c>
-      <c r="K90" s="18" t="str">
+      <c r="K90" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.email5))| registroPessoa.eml_fil_5 = msg.email5;</v>
       </c>
-      <c r="L90" s="18" t="str">
+      <c r="L90" s="23" t="str">
         <f t="shared" si="8"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.eml_fil_5)</v>
       </c>
-      <c r="M90" s="18" t="str">
+      <c r="M90" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.eml_fil_5))| msg.email5 = registroPessoa.eml_fil_5;</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" s="22" t="s">
+    <row r="91" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="C91" s="22" t="s">
+      <c r="C91" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="D91" s="22" t="s">
+      <c r="D91" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="E91" s="22" t="s">
+      <c r="E91" s="23" t="s">
         <v>1070</v>
       </c>
-      <c r="F91" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="18" t="s">
+      <c r="F91" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H91" s="19" t="s">
+      <c r="H91" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I91" s="18" t="str">
+      <c r="I91" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public string idc_isen_ir  { get; set; }</v>
       </c>
-      <c r="J91" s="18" t="str">
+      <c r="J91" s="23" t="str">
         <f t="shared" si="6"/>
         <v>!string.IsNullOrWhiteSpace(msg.indicadorIsencaoIr)</v>
       </c>
-      <c r="K91" s="18" t="str">
+      <c r="K91" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorIsencaoIr))| registroPessoa.idc_isen_ir = msg.indicadorIsencaoIr;</v>
       </c>
-      <c r="L91" s="18" t="str">
+      <c r="L91" s="23" t="str">
         <f t="shared" si="8"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.idc_isen_ir)</v>
       </c>
-      <c r="M91" s="18" t="str">
+      <c r="M91" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.idc_isen_ir))| msg.indicadorIsencaoIr = registroPessoa.idc_isen_ir;</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" s="22" t="s">
+    <row r="92" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="C92" s="22" t="s">
+      <c r="C92" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="D92" s="22" t="s">
+      <c r="D92" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="E92" s="22" t="s">
+      <c r="E92" s="23" t="s">
         <v>706</v>
       </c>
-      <c r="F92" s="22" t="s">
+      <c r="F92" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G92" s="18" t="s">
+      <c r="G92" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H92" s="19" t="s">
+      <c r="H92" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I92" s="18" t="str">
+      <c r="I92" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public int cod_empresa_indic  { get; set; }</v>
       </c>
-      <c r="J92" s="18" t="str">
+      <c r="J92" s="23" t="str">
         <f t="shared" si="6"/>
         <v>msg.codigoEmpresaIndic != null &amp;&amp; msg.codigoEmpresaIndic.Value &gt; 0</v>
       </c>
-      <c r="K92" s="18" t="str">
+      <c r="K92" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(msg.codigoEmpresaIndic != null &amp;&amp; msg.codigoEmpresaIndic.Value &gt; 0)| registroPessoa.cod_empresa_indic = msg.codigoEmpresaIndic;</v>
       </c>
-      <c r="L92" s="18" t="str">
+      <c r="L92" s="23" t="str">
         <f t="shared" si="8"/>
         <v>registroPessoa.cod_empresa_indic != null &amp;&amp; registroPessoa.cod_empresa_indic.Value &gt; 0</v>
       </c>
-      <c r="M92" s="18" t="str">
+      <c r="M92" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(registroPessoa.cod_empresa_indic != null &amp;&amp; registroPessoa.cod_empresa_indic.Value &gt; 0)| msg.codigoEmpresaIndic = registroPessoa.cod_empresa_indic;</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" s="22" t="s">
+    <row r="93" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="C93" s="22" t="s">
+      <c r="C93" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="D93" s="22" t="s">
+      <c r="D93" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="E93" s="22" t="s">
+      <c r="E93" s="23" t="s">
         <v>707</v>
       </c>
-      <c r="F93" s="22" t="s">
+      <c r="F93" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G93" s="18" t="s">
+      <c r="G93" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H93" s="19" t="s">
+      <c r="H93" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I93" s="18" t="str">
+      <c r="I93" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public int cod_oper_indic  { get; set; }</v>
       </c>
-      <c r="J93" s="18" t="str">
+      <c r="J93" s="23" t="str">
         <f t="shared" si="6"/>
         <v>msg.codigoOperIndic != null &amp;&amp; msg.codigoOperIndic.Value &gt; 0</v>
       </c>
-      <c r="K93" s="18" t="str">
+      <c r="K93" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(msg.codigoOperIndic != null &amp;&amp; msg.codigoOperIndic.Value &gt; 0)| registroPessoa.cod_oper_indic = msg.codigoOperIndic;</v>
       </c>
-      <c r="L93" s="18" t="str">
+      <c r="L93" s="23" t="str">
         <f t="shared" si="8"/>
         <v>registroPessoa.cod_oper_indic != null &amp;&amp; registroPessoa.cod_oper_indic.Value &gt; 0</v>
       </c>
-      <c r="M93" s="18" t="str">
+      <c r="M93" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(registroPessoa.cod_oper_indic != null &amp;&amp; registroPessoa.cod_oper_indic.Value &gt; 0)| msg.codigoOperIndic = registroPessoa.cod_oper_indic;</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" s="22" t="s">
+    <row r="94" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="C94" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D94" s="22" t="s">
+      <c r="D94" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="E94" s="22" t="s">
+      <c r="E94" s="23" t="s">
         <v>708</v>
       </c>
-      <c r="F94" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="18" t="s">
+      <c r="F94" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H94" s="19" t="s">
+      <c r="H94" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I94" s="18" t="str">
+      <c r="I94" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public string cod_sist_origem  { get; set; }</v>
       </c>
-      <c r="J94" s="18" t="str">
+      <c r="J94" s="23" t="str">
         <f t="shared" si="6"/>
         <v>!string.IsNullOrWhiteSpace(msg.codigoSistemaOrigem)</v>
       </c>
-      <c r="K94" s="18" t="str">
+      <c r="K94" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.codigoSistemaOrigem))| registroPessoa.cod_sist_origem = msg.codigoSistemaOrigem;</v>
       </c>
-      <c r="L94" s="18" t="str">
+      <c r="L94" s="23" t="str">
         <f t="shared" si="8"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.cod_sist_origem)</v>
       </c>
-      <c r="M94" s="18" t="str">
+      <c r="M94" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.cod_sist_origem))| msg.codigoSistemaOrigem = registroPessoa.cod_sist_origem;</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" s="22" t="s">
+    <row r="95" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="C95" s="22" t="s">
+      <c r="C95" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="D95" s="22" t="s">
+      <c r="D95" s="23" t="s">
         <v>861</v>
       </c>
-      <c r="E95" s="22" t="s">
+      <c r="E95" s="23" t="s">
         <v>709</v>
       </c>
-      <c r="F95" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G95" s="18" t="s">
+      <c r="F95" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G95" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H95" s="19" t="s">
+      <c r="H95" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I95" s="18" t="str">
+      <c r="I95" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public string observ  { get; set; }</v>
       </c>
-      <c r="J95" s="18" t="str">
+      <c r="J95" s="23" t="str">
         <f t="shared" si="6"/>
         <v>!string.IsNullOrWhiteSpace(msg.obs)</v>
       </c>
-      <c r="K95" s="18" t="str">
+      <c r="K95" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.obs))| registroPessoa.observ = msg.obs;</v>
       </c>
-      <c r="L95" s="18" t="str">
+      <c r="L95" s="23" t="str">
         <f t="shared" si="8"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.observ)</v>
       </c>
-      <c r="M95" s="18" t="str">
+      <c r="M95" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.observ))| msg.obs = registroPessoa.observ;</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" s="22" t="s">
+    <row r="96" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="C96" s="22" t="s">
+      <c r="C96" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D96" s="22" t="s">
+      <c r="D96" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="E96" s="22" t="s">
+      <c r="E96" s="23" t="s">
         <v>1071</v>
       </c>
-      <c r="F96" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G96" s="18" t="s">
+      <c r="F96" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G96" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H96" s="19" t="s">
+      <c r="H96" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I96" s="18" t="str">
+      <c r="I96" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public string cod_ispb  { get; set; }</v>
       </c>
-      <c r="J96" s="18" t="str">
+      <c r="J96" s="23" t="str">
         <f t="shared" si="6"/>
         <v>!string.IsNullOrWhiteSpace(msg.codigoIspb)</v>
       </c>
-      <c r="K96" s="18" t="str">
+      <c r="K96" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.codigoIspb))| registroPessoa.cod_ispb = msg.codigoIspb;</v>
       </c>
-      <c r="L96" s="18" t="str">
+      <c r="L96" s="23" t="str">
         <f t="shared" si="8"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.cod_ispb)</v>
       </c>
-      <c r="M96" s="18" t="str">
+      <c r="M96" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.cod_ispb))| msg.codigoIspb = registroPessoa.cod_ispb;</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97" s="22" t="s">
+    <row r="97" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="23" t="s">
         <v>1061</v>
       </c>
-      <c r="C97" s="22" t="s">
+      <c r="C97" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D97" s="22" t="s">
+      <c r="D97" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="E97" s="22" t="s">
+      <c r="E97" s="23" t="s">
         <v>1062</v>
       </c>
-      <c r="F97" s="22" t="s">
+      <c r="F97" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G97" s="18" t="s">
+      <c r="G97" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H97" s="19" t="s">
+      <c r="H97" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I97" s="18" t="str">
+      <c r="I97" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public int seq_Cnpj  { get; set; }</v>
       </c>
-      <c r="J97" s="18" t="str">
+      <c r="J97" s="23" t="str">
         <f t="shared" si="6"/>
         <v>msg.sequencialCnpjDuplicado != null &amp;&amp; msg.sequencialCnpjDuplicado.Value &gt; 0</v>
       </c>
-      <c r="K97" s="18" t="str">
+      <c r="K97" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(msg.sequencialCnpjDuplicado != null &amp;&amp; msg.sequencialCnpjDuplicado.Value &gt; 0)| registroPessoa.seq_Cnpj = msg.sequencialCnpjDuplicado;</v>
       </c>
-      <c r="L97" s="18" t="str">
+      <c r="L97" s="23" t="str">
         <f t="shared" si="8"/>
         <v>registroPessoa.seq_Cnpj != null &amp;&amp; registroPessoa.seq_Cnpj.Value &gt; 0</v>
       </c>
-      <c r="M97" s="18" t="str">
+      <c r="M97" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(registroPessoa.seq_Cnpj != null &amp;&amp; registroPessoa.seq_Cnpj.Value &gt; 0)| msg.sequencialCnpjDuplicado = registroPessoa.seq_Cnpj;</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" s="22" t="s">
+    <row r="98" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="C98" s="22" t="s">
+      <c r="C98" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="D98" s="22" t="s">
+      <c r="D98" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="E98" s="22" t="s">
+      <c r="E98" s="23" t="s">
         <v>711</v>
       </c>
-      <c r="F98" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G98" s="18" t="s">
+      <c r="F98" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G98" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H98" s="19" t="s">
+      <c r="H98" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I98" s="18" t="str">
+      <c r="I98" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public string idc_corresp_age  { get; set; }</v>
       </c>
-      <c r="J98" s="18" t="str">
+      <c r="J98" s="23" t="str">
         <f t="shared" si="6"/>
         <v>!string.IsNullOrWhiteSpace(msg.indicadorCorrespAgencia)</v>
       </c>
-      <c r="K98" s="18" t="str">
+      <c r="K98" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorCorrespAgencia))| registroPessoa.idc_corresp_age = msg.indicadorCorrespAgencia;</v>
       </c>
-      <c r="L98" s="18" t="str">
+      <c r="L98" s="23" t="str">
         <f t="shared" si="8"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.idc_corresp_age)</v>
       </c>
-      <c r="M98" s="18" t="str">
+      <c r="M98" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.idc_corresp_age))| msg.indicadorCorrespAgencia = registroPessoa.idc_corresp_age;</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99" s="22" t="s">
+    <row r="99" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="C99" s="22" t="s">
+      <c r="C99" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="D99" s="22" t="s">
+      <c r="D99" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="E99" s="22" t="s">
+      <c r="E99" s="23" t="s">
         <v>1072</v>
       </c>
-      <c r="F99" s="22" t="s">
+      <c r="F99" s="23" t="s">
         <v>1089</v>
       </c>
-      <c r="G99" s="18" t="s">
+      <c r="G99" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H99" s="19" t="s">
+      <c r="H99" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I99" s="18" t="str">
+      <c r="I99" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public DateTime fildatsfn  { get; set; }</v>
       </c>
-      <c r="J99" s="18" t="str">
+      <c r="J99" s="23" t="str">
         <f t="shared" si="6"/>
         <v>msg.dataInicioSfn != null &amp;&amp; msg.dataInicioSfn.Value != DateTime.MinValue</v>
       </c>
-      <c r="K99" s="18" t="str">
+      <c r="K99" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(msg.dataInicioSfn != null &amp;&amp; msg.dataInicioSfn.Value != DateTime.MinValue)| registroPessoa.fildatsfn = msg.dataInicioSfn;</v>
       </c>
-      <c r="L99" s="18" t="str">
+      <c r="L99" s="23" t="str">
         <f t="shared" si="8"/>
         <v>registroPessoa.fildatsfn != null &amp;&amp; registroPessoa.fildatsfn.Value != DateTime.MinValue</v>
       </c>
-      <c r="M99" s="18" t="str">
+      <c r="M99" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(registroPessoa.fildatsfn != null &amp;&amp; registroPessoa.fildatsfn.Value != DateTime.MinValue)| msg.dataInicioSfn = registroPessoa.fildatsfn;</v>
       </c>
@@ -16449,178 +16450,174 @@
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.nome_conjuge))| msg.nomeConjugue = registroPessoa.nome_conjuge;</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" s="22" t="s">
+    <row r="102" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="C102" s="22" t="s">
+      <c r="C102" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22" t="s">
+      <c r="E102" s="23" t="s">
         <v>727</v>
       </c>
-      <c r="F102" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="18" t="s">
+      <c r="F102" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H102" s="19" t="s">
+      <c r="H102" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I102" s="18" t="str">
+      <c r="I102" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public string FILIDTNAORESIDE  { get; set; }</v>
       </c>
-      <c r="J102" s="18" t="str">
+      <c r="J102" s="23" t="str">
         <f t="shared" si="6"/>
         <v>!string.IsNullOrWhiteSpace(msg.indicadorNaoResidente)</v>
       </c>
-      <c r="K102" s="18" t="str">
+      <c r="K102" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorNaoResidente))| registroPessoa.FILIDTNAORESIDE = msg.indicadorNaoResidente;</v>
       </c>
-      <c r="L102" s="18" t="str">
+      <c r="L102" s="23" t="str">
         <f t="shared" si="8"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.FILIDTNAORESIDE)</v>
       </c>
-      <c r="M102" s="18" t="str">
+      <c r="M102" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.FILIDTNAORESIDE))| msg.indicadorNaoResidente = registroPessoa.FILIDTNAORESIDE;</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" s="22" t="s">
+    <row r="103" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="C103" s="22" t="s">
+      <c r="C103" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22" t="s">
+      <c r="E103" s="23" t="s">
         <v>1073</v>
       </c>
-      <c r="F103" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G103" s="18" t="s">
+      <c r="F103" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G103" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H103" s="19" t="s">
+      <c r="H103" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I103" s="18" t="str">
+      <c r="I103" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public string FILIDTRES2686  { get; set; }</v>
       </c>
-      <c r="J103" s="18" t="str">
+      <c r="J103" s="23" t="str">
         <f t="shared" si="6"/>
         <v>!string.IsNullOrWhiteSpace(msg.indicadorRes2686)</v>
       </c>
-      <c r="K103" s="18" t="str">
+      <c r="K103" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorRes2686))| registroPessoa.FILIDTRES2686 = msg.indicadorRes2686;</v>
       </c>
-      <c r="L103" s="18" t="str">
+      <c r="L103" s="23" t="str">
         <f t="shared" si="8"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.FILIDTRES2686)</v>
       </c>
-      <c r="M103" s="18" t="str">
+      <c r="M103" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.FILIDTRES2686))| msg.indicadorRes2686 = registroPessoa.FILIDTRES2686;</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" s="22" t="s">
+    <row r="104" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C104" s="22" t="s">
+      <c r="C104" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="D104" s="22"/>
-      <c r="E104" s="22" t="s">
+      <c r="E104" s="23" t="s">
         <v>946</v>
       </c>
-      <c r="F104" s="22" t="s">
+      <c r="F104" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G104" s="18" t="s">
+      <c r="G104" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H104" s="19" t="s">
+      <c r="H104" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I104" s="18" t="str">
+      <c r="I104" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public int FILCODNOVONAC  { get; set; }</v>
       </c>
-      <c r="J104" s="18" t="str">
+      <c r="J104" s="23" t="str">
         <f t="shared" si="6"/>
         <v>msg.codigoNovaNacionalidade != null &amp;&amp; msg.codigoNovaNacionalidade.Value &gt; 0</v>
       </c>
-      <c r="K104" s="18" t="str">
+      <c r="K104" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(msg.codigoNovaNacionalidade != null &amp;&amp; msg.codigoNovaNacionalidade.Value &gt; 0)| registroPessoa.FILCODNOVONAC = msg.codigoNovaNacionalidade;</v>
       </c>
-      <c r="L104" s="18" t="str">
+      <c r="L104" s="23" t="str">
         <f t="shared" si="8"/>
         <v>registroPessoa.FILCODNOVONAC != null &amp;&amp; registroPessoa.FILCODNOVONAC.Value &gt; 0</v>
       </c>
-      <c r="M104" s="18" t="str">
+      <c r="M104" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(registroPessoa.FILCODNOVONAC != null &amp;&amp; registroPessoa.FILCODNOVONAC.Value &gt; 0)| msg.codigoNovaNacionalidade = registroPessoa.FILCODNOVONAC;</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105" s="22" t="s">
+    <row r="105" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="C105" s="22" t="s">
+      <c r="C105" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="D105" s="22"/>
-      <c r="E105" s="22" t="s">
+      <c r="E105" s="23" t="s">
         <v>729</v>
       </c>
-      <c r="F105" s="22" t="s">
+      <c r="F105" s="23" t="s">
         <v>1089</v>
       </c>
-      <c r="G105" s="18" t="s">
+      <c r="G105" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H105" s="19" t="s">
+      <c r="H105" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I105" s="18" t="str">
+      <c r="I105" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public DateTime FILDATSAIDAPAIS  { get; set; }</v>
       </c>
-      <c r="J105" s="18" t="str">
+      <c r="J105" s="23" t="str">
         <f t="shared" si="6"/>
         <v>msg.dataSaídaPais != null &amp;&amp; msg.dataSaídaPais.Value != DateTime.MinValue</v>
       </c>
-      <c r="K105" s="18" t="str">
+      <c r="K105" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(msg.dataSaídaPais != null &amp;&amp; msg.dataSaídaPais.Value != DateTime.MinValue)| registroPessoa.FILDATSAIDAPAIS = msg.dataSaídaPais;</v>
       </c>
-      <c r="L105" s="18" t="str">
+      <c r="L105" s="23" t="str">
         <f t="shared" si="8"/>
         <v>registroPessoa.FILDATSAIDAPAIS != null &amp;&amp; registroPessoa.FILDATSAIDAPAIS.Value != DateTime.MinValue</v>
       </c>
-      <c r="M105" s="18" t="str">
+      <c r="M105" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(registroPessoa.FILDATSAIDAPAIS != null &amp;&amp; registroPessoa.FILDATSAIDAPAIS.Value != DateTime.MinValue)| msg.dataSaídaPais = registroPessoa.FILDATSAIDAPAIS;</v>
       </c>
@@ -16668,977 +16665,956 @@
         <v>|if(registroPessoa.natcod != null &amp;&amp; registroPessoa.natcod.Value &gt; 0)| msg.codigoNatureza = registroPessoa.natcod;</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B107" s="22" t="s">
+    <row r="107" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="C107" s="22" t="s">
+      <c r="C107" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="D107" s="22"/>
-      <c r="E107" s="22" t="s">
+      <c r="E107" s="23" t="s">
         <v>713</v>
       </c>
-      <c r="F107" s="22" t="s">
+      <c r="F107" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G107" s="18" t="s">
+      <c r="G107" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H107" s="19" t="s">
+      <c r="H107" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I107" s="18" t="str">
+      <c r="I107" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public int tip_imunidade  { get; set; }</v>
       </c>
-      <c r="J107" s="18" t="str">
+      <c r="J107" s="23" t="str">
         <f t="shared" si="6"/>
         <v>msg.tipoImunidade != null &amp;&amp; msg.tipoImunidade.Value &gt; 0</v>
       </c>
-      <c r="K107" s="18" t="str">
+      <c r="K107" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(msg.tipoImunidade != null &amp;&amp; msg.tipoImunidade.Value &gt; 0)| registroPessoa.tip_imunidade = msg.tipoImunidade;</v>
       </c>
-      <c r="L107" s="18" t="str">
+      <c r="L107" s="23" t="str">
         <f t="shared" si="8"/>
         <v>registroPessoa.tip_imunidade != null &amp;&amp; registroPessoa.tip_imunidade.Value &gt; 0</v>
       </c>
-      <c r="M107" s="18" t="str">
+      <c r="M107" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(registroPessoa.tip_imunidade != null &amp;&amp; registroPessoa.tip_imunidade.Value &gt; 0)| msg.tipoImunidade = registroPessoa.tip_imunidade;</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" s="22" t="s">
+    <row r="108" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="C108" s="22" t="s">
+      <c r="C108" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="D108" s="22"/>
-      <c r="E108" s="22" t="s">
+      <c r="E108" s="23" t="s">
         <v>1074</v>
       </c>
-      <c r="F108" s="22" t="s">
+      <c r="F108" s="23" t="s">
         <v>1089</v>
       </c>
-      <c r="G108" s="18" t="s">
+      <c r="G108" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H108" s="19" t="s">
+      <c r="H108" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I108" s="18" t="str">
+      <c r="I108" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public DateTime dat_reg_rbf  { get; set; }</v>
       </c>
-      <c r="J108" s="18" t="str">
+      <c r="J108" s="23" t="str">
         <f t="shared" si="6"/>
         <v>msg.dataRegistroRbf != null &amp;&amp; msg.dataRegistroRbf.Value != DateTime.MinValue</v>
       </c>
-      <c r="K108" s="18" t="str">
+      <c r="K108" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(msg.dataRegistroRbf != null &amp;&amp; msg.dataRegistroRbf.Value != DateTime.MinValue)| registroPessoa.dat_reg_rbf = msg.dataRegistroRbf;</v>
       </c>
-      <c r="L108" s="18" t="str">
+      <c r="L108" s="23" t="str">
         <f t="shared" si="8"/>
         <v>registroPessoa.dat_reg_rbf != null &amp;&amp; registroPessoa.dat_reg_rbf.Value != DateTime.MinValue</v>
       </c>
-      <c r="M108" s="18" t="str">
+      <c r="M108" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(registroPessoa.dat_reg_rbf != null &amp;&amp; registroPessoa.dat_reg_rbf.Value != DateTime.MinValue)| msg.dataRegistroRbf = registroPessoa.dat_reg_rbf;</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B109" s="22" t="s">
+    <row r="109" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="C109" s="22" t="s">
+      <c r="C109" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="D109" s="22"/>
-      <c r="E109" s="22" t="s">
+      <c r="E109" s="23" t="s">
         <v>715</v>
       </c>
-      <c r="F109" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G109" s="18" t="s">
+      <c r="F109" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G109" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H109" s="19" t="s">
+      <c r="H109" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I109" s="18" t="str">
+      <c r="I109" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public string num_processo  { get; set; }</v>
       </c>
-      <c r="J109" s="18" t="str">
+      <c r="J109" s="23" t="str">
         <f t="shared" si="6"/>
         <v>!string.IsNullOrWhiteSpace(msg.numeroProcesso)</v>
       </c>
-      <c r="K109" s="18" t="str">
+      <c r="K109" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.numeroProcesso))| registroPessoa.num_processo = msg.numeroProcesso;</v>
       </c>
-      <c r="L109" s="18" t="str">
+      <c r="L109" s="23" t="str">
         <f t="shared" si="8"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.num_processo)</v>
       </c>
-      <c r="M109" s="18" t="str">
+      <c r="M109" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.num_processo))| msg.numeroProcesso = registroPessoa.num_processo;</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110" s="22" t="s">
+    <row r="110" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C110" s="22" t="s">
+      <c r="C110" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22" t="s">
+      <c r="E110" s="23" t="s">
         <v>716</v>
       </c>
-      <c r="F110" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G110" s="18" t="s">
+      <c r="F110" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G110" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H110" s="19" t="s">
+      <c r="H110" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I110" s="18" t="str">
+      <c r="I110" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public string num_vara  { get; set; }</v>
       </c>
-      <c r="J110" s="18" t="str">
+      <c r="J110" s="23" t="str">
         <f t="shared" si="6"/>
         <v>!string.IsNullOrWhiteSpace(msg.numeroVara)</v>
       </c>
-      <c r="K110" s="18" t="str">
+      <c r="K110" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.numeroVara))| registroPessoa.num_vara = msg.numeroVara;</v>
       </c>
-      <c r="L110" s="18" t="str">
+      <c r="L110" s="23" t="str">
         <f t="shared" si="8"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.num_vara)</v>
       </c>
-      <c r="M110" s="18" t="str">
+      <c r="M110" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.num_vara))| msg.numeroVara = registroPessoa.num_vara;</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" s="22" t="s">
+    <row r="111" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="C111" s="22" t="s">
+      <c r="C111" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22" t="s">
+      <c r="E111" s="23" t="s">
         <v>717</v>
       </c>
-      <c r="F111" s="22" t="s">
+      <c r="F111" s="23" t="s">
         <v>1089</v>
       </c>
-      <c r="G111" s="18" t="s">
+      <c r="G111" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H111" s="19" t="s">
+      <c r="H111" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I111" s="18" t="str">
+      <c r="I111" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public DateTime dat_inicio  { get; set; }</v>
       </c>
-      <c r="J111" s="18" t="str">
+      <c r="J111" s="23" t="str">
         <f t="shared" si="6"/>
         <v>msg.dataInicio != null &amp;&amp; msg.dataInicio.Value != DateTime.MinValue</v>
       </c>
-      <c r="K111" s="18" t="str">
+      <c r="K111" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(msg.dataInicio != null &amp;&amp; msg.dataInicio.Value != DateTime.MinValue)| registroPessoa.dat_inicio = msg.dataInicio;</v>
       </c>
-      <c r="L111" s="18" t="str">
+      <c r="L111" s="23" t="str">
         <f t="shared" si="8"/>
         <v>registroPessoa.dat_inicio != null &amp;&amp; registroPessoa.dat_inicio.Value != DateTime.MinValue</v>
       </c>
-      <c r="M111" s="18" t="str">
+      <c r="M111" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(registroPessoa.dat_inicio != null &amp;&amp; registroPessoa.dat_inicio.Value != DateTime.MinValue)| msg.dataInicio = registroPessoa.dat_inicio;</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="22" t="s">
+    <row r="112" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="C112" s="22" t="s">
+      <c r="C112" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D112" s="22"/>
-      <c r="E112" s="22" t="s">
+      <c r="E112" s="23" t="s">
         <v>718</v>
       </c>
-      <c r="F112" s="22" t="s">
+      <c r="F112" s="23" t="s">
         <v>1089</v>
       </c>
-      <c r="G112" s="18" t="s">
+      <c r="G112" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H112" s="19" t="s">
+      <c r="H112" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I112" s="18" t="str">
+      <c r="I112" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public DateTime dat_fim  { get; set; }</v>
       </c>
-      <c r="J112" s="18" t="str">
+      <c r="J112" s="23" t="str">
         <f t="shared" si="6"/>
         <v>msg.dataFim != null &amp;&amp; msg.dataFim.Value != DateTime.MinValue</v>
       </c>
-      <c r="K112" s="18" t="str">
+      <c r="K112" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(msg.dataFim != null &amp;&amp; msg.dataFim.Value != DateTime.MinValue)| registroPessoa.dat_fim = msg.dataFim;</v>
       </c>
-      <c r="L112" s="18" t="str">
+      <c r="L112" s="23" t="str">
         <f t="shared" si="8"/>
         <v>registroPessoa.dat_fim != null &amp;&amp; registroPessoa.dat_fim.Value != DateTime.MinValue</v>
       </c>
-      <c r="M112" s="18" t="str">
+      <c r="M112" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(registroPessoa.dat_fim != null &amp;&amp; registroPessoa.dat_fim.Value != DateTime.MinValue)| msg.dataFim = registroPessoa.dat_fim;</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B113" s="22" t="s">
+    <row r="113" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="C113" s="22" t="s">
+      <c r="C113" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="D113" s="22"/>
-      <c r="E113" s="22" t="s">
+      <c r="E113" s="23" t="s">
         <v>770</v>
       </c>
-      <c r="F113" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G113" s="18" t="s">
+      <c r="F113" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G113" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H113" s="19" t="s">
+      <c r="H113" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I113" s="18" t="str">
+      <c r="I113" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public string STA_REGISTRO  { get; set; }</v>
       </c>
-      <c r="J113" s="18" t="str">
+      <c r="J113" s="23" t="str">
         <f t="shared" si="6"/>
         <v>!string.IsNullOrWhiteSpace(msg.indicadorSituacaoRegistro)</v>
       </c>
-      <c r="K113" s="18" t="str">
+      <c r="K113" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorSituacaoRegistro))| registroPessoa.STA_REGISTRO = msg.indicadorSituacaoRegistro;</v>
       </c>
-      <c r="L113" s="18" t="str">
+      <c r="L113" s="23" t="str">
         <f t="shared" si="8"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.STA_REGISTRO)</v>
       </c>
-      <c r="M113" s="18" t="str">
+      <c r="M113" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.STA_REGISTRO))| msg.indicadorSituacaoRegistro = registroPessoa.STA_REGISTRO;</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B114" s="22" t="s">
+    <row r="114" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="C114" s="22" t="s">
+      <c r="C114" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="D114" s="22"/>
-      <c r="E114" s="22" t="s">
+      <c r="E114" s="23" t="s">
         <v>1075</v>
       </c>
-      <c r="F114" s="22" t="s">
+      <c r="F114" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G114" s="18" t="s">
+      <c r="G114" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H114" s="19" t="s">
+      <c r="H114" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I114" s="18" t="str">
+      <c r="I114" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public int cnaseq  { get; set; }</v>
       </c>
-      <c r="J114" s="18" t="str">
+      <c r="J114" s="23" t="str">
         <f t="shared" si="6"/>
         <v>msg.codigoCnae2 != null &amp;&amp; msg.codigoCnae2.Value &gt; 0</v>
       </c>
-      <c r="K114" s="18" t="str">
+      <c r="K114" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(msg.codigoCnae2 != null &amp;&amp; msg.codigoCnae2.Value &gt; 0)| registroPessoa.cnaseq = msg.codigoCnae2;</v>
       </c>
-      <c r="L114" s="18" t="str">
+      <c r="L114" s="23" t="str">
         <f t="shared" si="8"/>
         <v>registroPessoa.cnaseq != null &amp;&amp; registroPessoa.cnaseq.Value &gt; 0</v>
       </c>
-      <c r="M114" s="18" t="str">
+      <c r="M114" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(registroPessoa.cnaseq != null &amp;&amp; registroPessoa.cnaseq.Value &gt; 0)| msg.codigoCnae2 = registroPessoa.cnaseq;</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115" s="22" t="s">
+    <row r="115" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="23" t="s">
         <v>1077</v>
       </c>
-      <c r="C115" s="22" t="s">
+      <c r="C115" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22" t="s">
+      <c r="E115" s="23" t="s">
         <v>1076</v>
       </c>
-      <c r="F115" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G115" s="18" t="s">
+      <c r="F115" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G115" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H115" s="19" t="s">
+      <c r="H115" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I115" s="18" t="str">
+      <c r="I115" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public string pesidcFatca  { get; set; }</v>
       </c>
-      <c r="J115" s="18" t="str">
+      <c r="J115" s="23" t="str">
         <f t="shared" si="6"/>
         <v>!string.IsNullOrWhiteSpace(msg.indicadorClienteFatca)</v>
       </c>
-      <c r="K115" s="18" t="str">
+      <c r="K115" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorClienteFatca))| registroPessoa.pesidcFatca = msg.indicadorClienteFatca;</v>
       </c>
-      <c r="L115" s="18" t="str">
+      <c r="L115" s="23" t="str">
         <f t="shared" si="8"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.pesidcFatca)</v>
       </c>
-      <c r="M115" s="18" t="str">
+      <c r="M115" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.pesidcFatca))| msg.indicadorClienteFatca = registroPessoa.pesidcFatca;</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B116" s="22" t="s">
+    <row r="116" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="C116" s="22" t="s">
+      <c r="C116" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="D116" s="22"/>
-      <c r="E116" s="22" t="s">
+      <c r="E116" s="23" t="s">
         <v>719</v>
       </c>
-      <c r="F116" s="22" t="s">
+      <c r="F116" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G116" s="18" t="s">
+      <c r="G116" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H116" s="19" t="s">
+      <c r="H116" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I116" s="18" t="str">
+      <c r="I116" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public int PESNACIONALIDADE1  { get; set; }</v>
       </c>
-      <c r="J116" s="18" t="str">
+      <c r="J116" s="23" t="str">
         <f t="shared" si="6"/>
         <v>msg.codigoNacionalidade1 != null &amp;&amp; msg.codigoNacionalidade1.Value &gt; 0</v>
       </c>
-      <c r="K116" s="18" t="str">
+      <c r="K116" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(msg.codigoNacionalidade1 != null &amp;&amp; msg.codigoNacionalidade1.Value &gt; 0)| registroPessoa.PESNACIONALIDADE1 = msg.codigoNacionalidade1;</v>
       </c>
-      <c r="L116" s="18" t="str">
+      <c r="L116" s="23" t="str">
         <f t="shared" si="8"/>
         <v>registroPessoa.PESNACIONALIDADE1 != null &amp;&amp; registroPessoa.PESNACIONALIDADE1.Value &gt; 0</v>
       </c>
-      <c r="M116" s="18" t="str">
+      <c r="M116" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(registroPessoa.PESNACIONALIDADE1 != null &amp;&amp; registroPessoa.PESNACIONALIDADE1.Value &gt; 0)| msg.codigoNacionalidade1 = registroPessoa.PESNACIONALIDADE1;</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B117" s="22" t="s">
+    <row r="117" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="C117" s="22" t="s">
+      <c r="C117" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="D117" s="22"/>
-      <c r="E117" s="22" t="s">
+      <c r="E117" s="23" t="s">
         <v>720</v>
       </c>
-      <c r="F117" s="22" t="s">
+      <c r="F117" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G117" s="18" t="s">
+      <c r="G117" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H117" s="19" t="s">
+      <c r="H117" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I117" s="18" t="str">
+      <c r="I117" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public int PESNACIONALIDADE2  { get; set; }</v>
       </c>
-      <c r="J117" s="18" t="str">
+      <c r="J117" s="23" t="str">
         <f t="shared" si="6"/>
         <v>msg.codigoNacionalidade2 != null &amp;&amp; msg.codigoNacionalidade2.Value &gt; 0</v>
       </c>
-      <c r="K117" s="18" t="str">
+      <c r="K117" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(msg.codigoNacionalidade2 != null &amp;&amp; msg.codigoNacionalidade2.Value &gt; 0)| registroPessoa.PESNACIONALIDADE2 = msg.codigoNacionalidade2;</v>
       </c>
-      <c r="L117" s="18" t="str">
+      <c r="L117" s="23" t="str">
         <f t="shared" si="8"/>
         <v>registroPessoa.PESNACIONALIDADE2 != null &amp;&amp; registroPessoa.PESNACIONALIDADE2.Value &gt; 0</v>
       </c>
-      <c r="M117" s="18" t="str">
+      <c r="M117" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(registroPessoa.PESNACIONALIDADE2 != null &amp;&amp; registroPessoa.PESNACIONALIDADE2.Value &gt; 0)| msg.codigoNacionalidade2 = registroPessoa.PESNACIONALIDADE2;</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B118" s="22" t="s">
+    <row r="118" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="C118" s="22" t="s">
+      <c r="C118" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D118" s="22"/>
-      <c r="E118" s="22" t="s">
+      <c r="E118" s="23" t="s">
         <v>721</v>
       </c>
-      <c r="F118" s="22" t="s">
+      <c r="F118" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G118" s="18" t="s">
+      <c r="G118" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H118" s="19" t="s">
+      <c r="H118" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I118" s="18" t="str">
+      <c r="I118" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public int PESNACIONALIDADE3  { get; set; }</v>
       </c>
-      <c r="J118" s="18" t="str">
+      <c r="J118" s="23" t="str">
         <f t="shared" si="6"/>
         <v>msg.codigoNacionalidade3 != null &amp;&amp; msg.codigoNacionalidade3.Value &gt; 0</v>
       </c>
-      <c r="K118" s="18" t="str">
+      <c r="K118" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(msg.codigoNacionalidade3 != null &amp;&amp; msg.codigoNacionalidade3.Value &gt; 0)| registroPessoa.PESNACIONALIDADE3 = msg.codigoNacionalidade3;</v>
       </c>
-      <c r="L118" s="18" t="str">
+      <c r="L118" s="23" t="str">
         <f t="shared" si="8"/>
         <v>registroPessoa.PESNACIONALIDADE3 != null &amp;&amp; registroPessoa.PESNACIONALIDADE3.Value &gt; 0</v>
       </c>
-      <c r="M118" s="18" t="str">
+      <c r="M118" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(registroPessoa.PESNACIONALIDADE3 != null &amp;&amp; registroPessoa.PESNACIONALIDADE3.Value &gt; 0)| msg.codigoNacionalidade3 = registroPessoa.PESNACIONALIDADE3;</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B119" s="22" t="s">
+    <row r="119" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="C119" s="22" t="s">
+      <c r="C119" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="D119" s="22"/>
-      <c r="E119" s="22" t="s">
+      <c r="E119" s="23" t="s">
         <v>722</v>
       </c>
-      <c r="F119" s="22" t="s">
+      <c r="F119" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G119" s="18" t="s">
+      <c r="G119" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H119" s="19" t="s">
+      <c r="H119" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I119" s="18" t="str">
+      <c r="I119" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public int PESNACIONALIDADE4  { get; set; }</v>
       </c>
-      <c r="J119" s="18" t="str">
+      <c r="J119" s="23" t="str">
         <f t="shared" si="6"/>
         <v>msg.codigoNacionalidade4 != null &amp;&amp; msg.codigoNacionalidade4.Value &gt; 0</v>
       </c>
-      <c r="K119" s="18" t="str">
+      <c r="K119" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(msg.codigoNacionalidade4 != null &amp;&amp; msg.codigoNacionalidade4.Value &gt; 0)| registroPessoa.PESNACIONALIDADE4 = msg.codigoNacionalidade4;</v>
       </c>
-      <c r="L119" s="18" t="str">
+      <c r="L119" s="23" t="str">
         <f t="shared" si="8"/>
         <v>registroPessoa.PESNACIONALIDADE4 != null &amp;&amp; registroPessoa.PESNACIONALIDADE4.Value &gt; 0</v>
       </c>
-      <c r="M119" s="18" t="str">
+      <c r="M119" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(registroPessoa.PESNACIONALIDADE4 != null &amp;&amp; registroPessoa.PESNACIONALIDADE4.Value &gt; 0)| msg.codigoNacionalidade4 = registroPessoa.PESNACIONALIDADE4;</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B120" s="22" t="s">
+    <row r="120" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="C120" s="22" t="s">
+      <c r="C120" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="D120" s="22"/>
-      <c r="E120" s="22" t="s">
+      <c r="E120" s="23" t="s">
         <v>723</v>
       </c>
-      <c r="F120" s="22" t="s">
+      <c r="F120" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G120" s="18" t="s">
+      <c r="G120" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H120" s="19" t="s">
+      <c r="H120" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I120" s="18" t="str">
+      <c r="I120" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public int PESDOMICILIO1  { get; set; }</v>
       </c>
-      <c r="J120" s="18" t="str">
+      <c r="J120" s="23" t="str">
         <f t="shared" si="6"/>
         <v>msg.codigoDomicilio1 != null &amp;&amp; msg.codigoDomicilio1.Value &gt; 0</v>
       </c>
-      <c r="K120" s="18" t="str">
+      <c r="K120" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(msg.codigoDomicilio1 != null &amp;&amp; msg.codigoDomicilio1.Value &gt; 0)| registroPessoa.PESDOMICILIO1 = msg.codigoDomicilio1;</v>
       </c>
-      <c r="L120" s="18" t="str">
+      <c r="L120" s="23" t="str">
         <f t="shared" si="8"/>
         <v>registroPessoa.PESDOMICILIO1 != null &amp;&amp; registroPessoa.PESDOMICILIO1.Value &gt; 0</v>
       </c>
-      <c r="M120" s="18" t="str">
+      <c r="M120" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(registroPessoa.PESDOMICILIO1 != null &amp;&amp; registroPessoa.PESDOMICILIO1.Value &gt; 0)| msg.codigoDomicilio1 = registroPessoa.PESDOMICILIO1;</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B121" s="22" t="s">
+    <row r="121" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="C121" s="22" t="s">
+      <c r="C121" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="D121" s="22"/>
-      <c r="E121" s="22" t="s">
+      <c r="E121" s="23" t="s">
         <v>724</v>
       </c>
-      <c r="F121" s="22" t="s">
+      <c r="F121" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G121" s="18" t="s">
+      <c r="G121" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H121" s="19" t="s">
+      <c r="H121" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I121" s="18" t="str">
+      <c r="I121" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public int PESDOMICILIO2  { get; set; }</v>
       </c>
-      <c r="J121" s="18" t="str">
+      <c r="J121" s="23" t="str">
         <f t="shared" si="6"/>
         <v>msg.codigoDomicilio2 != null &amp;&amp; msg.codigoDomicilio2.Value &gt; 0</v>
       </c>
-      <c r="K121" s="18" t="str">
+      <c r="K121" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(msg.codigoDomicilio2 != null &amp;&amp; msg.codigoDomicilio2.Value &gt; 0)| registroPessoa.PESDOMICILIO2 = msg.codigoDomicilio2;</v>
       </c>
-      <c r="L121" s="18" t="str">
+      <c r="L121" s="23" t="str">
         <f t="shared" si="8"/>
         <v>registroPessoa.PESDOMICILIO2 != null &amp;&amp; registroPessoa.PESDOMICILIO2.Value &gt; 0</v>
       </c>
-      <c r="M121" s="18" t="str">
+      <c r="M121" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(registroPessoa.PESDOMICILIO2 != null &amp;&amp; registroPessoa.PESDOMICILIO2.Value &gt; 0)| msg.codigoDomicilio2 = registroPessoa.PESDOMICILIO2;</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B122" s="22" t="s">
+    <row r="122" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="C122" s="22" t="s">
+      <c r="C122" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="D122" s="22"/>
-      <c r="E122" s="22" t="s">
+      <c r="E122" s="23" t="s">
         <v>725</v>
       </c>
-      <c r="F122" s="22" t="s">
+      <c r="F122" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G122" s="18" t="s">
+      <c r="G122" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H122" s="19" t="s">
+      <c r="H122" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I122" s="18" t="str">
+      <c r="I122" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public int PESDOMICILIO3  { get; set; }</v>
       </c>
-      <c r="J122" s="18" t="str">
+      <c r="J122" s="23" t="str">
         <f t="shared" si="6"/>
         <v>msg.codigoDomicilio3 != null &amp;&amp; msg.codigoDomicilio3.Value &gt; 0</v>
       </c>
-      <c r="K122" s="18" t="str">
+      <c r="K122" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(msg.codigoDomicilio3 != null &amp;&amp; msg.codigoDomicilio3.Value &gt; 0)| registroPessoa.PESDOMICILIO3 = msg.codigoDomicilio3;</v>
       </c>
-      <c r="L122" s="18" t="str">
+      <c r="L122" s="23" t="str">
         <f t="shared" si="8"/>
         <v>registroPessoa.PESDOMICILIO3 != null &amp;&amp; registroPessoa.PESDOMICILIO3.Value &gt; 0</v>
       </c>
-      <c r="M122" s="18" t="str">
+      <c r="M122" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(registroPessoa.PESDOMICILIO3 != null &amp;&amp; registroPessoa.PESDOMICILIO3.Value &gt; 0)| msg.codigoDomicilio3 = registroPessoa.PESDOMICILIO3;</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B123" s="22" t="s">
+    <row r="123" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="C123" s="22" t="s">
+      <c r="C123" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="D123" s="22"/>
-      <c r="E123" s="22" t="s">
+      <c r="E123" s="23" t="s">
         <v>726</v>
       </c>
-      <c r="F123" s="22" t="s">
+      <c r="F123" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G123" s="18" t="s">
+      <c r="G123" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H123" s="19" t="s">
+      <c r="H123" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I123" s="18" t="str">
+      <c r="I123" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public int PESDOMICILIO4  { get; set; }</v>
       </c>
-      <c r="J123" s="18" t="str">
+      <c r="J123" s="23" t="str">
         <f t="shared" si="6"/>
         <v>msg.codigoDomicilio4 != null &amp;&amp; msg.codigoDomicilio4.Value &gt; 0</v>
       </c>
-      <c r="K123" s="18" t="str">
+      <c r="K123" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(msg.codigoDomicilio4 != null &amp;&amp; msg.codigoDomicilio4.Value &gt; 0)| registroPessoa.PESDOMICILIO4 = msg.codigoDomicilio4;</v>
       </c>
-      <c r="L123" s="18" t="str">
+      <c r="L123" s="23" t="str">
         <f t="shared" si="8"/>
         <v>registroPessoa.PESDOMICILIO4 != null &amp;&amp; registroPessoa.PESDOMICILIO4.Value &gt; 0</v>
       </c>
-      <c r="M123" s="18" t="str">
+      <c r="M123" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(registroPessoa.PESDOMICILIO4 != null &amp;&amp; registroPessoa.PESDOMICILIO4.Value &gt; 0)| msg.codigoDomicilio4 = registroPessoa.PESDOMICILIO4;</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A124" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B124" s="22" t="s">
+    <row r="124" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="C124" s="22" t="s">
+      <c r="C124" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="D124" s="22"/>
-      <c r="E124" s="22" t="s">
+      <c r="E124" s="23" t="s">
         <v>1005</v>
       </c>
-      <c r="F124" s="22" t="s">
+      <c r="F124" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="G124" s="18" t="s">
+      <c r="G124" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H124" s="19" t="s">
+      <c r="H124" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I124" s="18" t="str">
+      <c r="I124" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public int SUNID  { get; set; }</v>
       </c>
-      <c r="J124" s="18" t="str">
+      <c r="J124" s="23" t="str">
         <f t="shared" si="6"/>
         <v>msg.sUnid != null &amp;&amp; msg.sUnid.Value &gt; 0</v>
       </c>
-      <c r="K124" s="18" t="str">
+      <c r="K124" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(msg.sUnid != null &amp;&amp; msg.sUnid.Value &gt; 0)| registroPessoa.SUNID = msg.sUnid;</v>
       </c>
-      <c r="L124" s="18" t="str">
+      <c r="L124" s="23" t="str">
         <f t="shared" si="8"/>
         <v>registroPessoa.SUNID != null &amp;&amp; registroPessoa.SUNID.Value &gt; 0</v>
       </c>
-      <c r="M124" s="18" t="str">
+      <c r="M124" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(registroPessoa.SUNID != null &amp;&amp; registroPessoa.SUNID.Value &gt; 0)| msg.sUnid = registroPessoa.SUNID;</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B125" s="22" t="s">
+    <row r="125" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="C125" s="22" t="s">
+      <c r="C125" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="D125" s="22"/>
-      <c r="E125" s="22" t="s">
+      <c r="E125" s="23" t="s">
         <v>730</v>
       </c>
-      <c r="F125" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G125" s="18" t="s">
+      <c r="F125" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G125" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H125" s="19" t="s">
+      <c r="H125" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I125" s="18" t="str">
+      <c r="I125" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public string APELIDO1  { get; set; }</v>
       </c>
-      <c r="J125" s="18" t="str">
+      <c r="J125" s="23" t="str">
         <f t="shared" si="6"/>
         <v>!string.IsNullOrWhiteSpace(msg.apelido1)</v>
       </c>
-      <c r="K125" s="18" t="str">
+      <c r="K125" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.apelido1))| registroPessoa.APELIDO1 = msg.apelido1;</v>
       </c>
-      <c r="L125" s="18" t="str">
+      <c r="L125" s="23" t="str">
         <f t="shared" si="8"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.APELIDO1)</v>
       </c>
-      <c r="M125" s="18" t="str">
+      <c r="M125" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.APELIDO1))| msg.apelido1 = registroPessoa.APELIDO1;</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B126" s="22" t="s">
+    <row r="126" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="C126" s="22" t="s">
+      <c r="C126" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="D126" s="22"/>
-      <c r="E126" s="22" t="s">
+      <c r="E126" s="23" t="s">
         <v>731</v>
       </c>
-      <c r="F126" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G126" s="18" t="s">
+      <c r="F126" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G126" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H126" s="19" t="s">
+      <c r="H126" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I126" s="18" t="str">
+      <c r="I126" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public string APELIDO2  { get; set; }</v>
       </c>
-      <c r="J126" s="18" t="str">
+      <c r="J126" s="23" t="str">
         <f t="shared" si="6"/>
         <v>!string.IsNullOrWhiteSpace(msg.apelido2)</v>
       </c>
-      <c r="K126" s="18" t="str">
+      <c r="K126" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.apelido2))| registroPessoa.APELIDO2 = msg.apelido2;</v>
       </c>
-      <c r="L126" s="18" t="str">
+      <c r="L126" s="23" t="str">
         <f t="shared" si="8"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.APELIDO2)</v>
       </c>
-      <c r="M126" s="18" t="str">
+      <c r="M126" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.APELIDO2))| msg.apelido2 = registroPessoa.APELIDO2;</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B127" s="22" t="s">
+    <row r="127" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="C127" s="22" t="s">
+      <c r="C127" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="D127" s="22"/>
-      <c r="E127" s="22" t="s">
+      <c r="E127" s="23" t="s">
         <v>732</v>
       </c>
-      <c r="F127" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G127" s="18" t="s">
+      <c r="F127" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G127" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H127" s="19" t="s">
+      <c r="H127" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I127" s="18" t="str">
+      <c r="I127" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public string APELIDO3  { get; set; }</v>
       </c>
-      <c r="J127" s="18" t="str">
+      <c r="J127" s="23" t="str">
         <f t="shared" si="6"/>
         <v>!string.IsNullOrWhiteSpace(msg.apelido3)</v>
       </c>
-      <c r="K127" s="18" t="str">
+      <c r="K127" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.apelido3))| registroPessoa.APELIDO3 = msg.apelido3;</v>
       </c>
-      <c r="L127" s="18" t="str">
+      <c r="L127" s="23" t="str">
         <f t="shared" si="8"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.APELIDO3)</v>
       </c>
-      <c r="M127" s="18" t="str">
+      <c r="M127" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.APELIDO3))| msg.apelido3 = registroPessoa.APELIDO3;</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B128" s="22" t="s">
+    <row r="128" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="C128" s="22" t="s">
+      <c r="C128" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="D128" s="22" t="s">
+      <c r="D128" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="E128" s="22" t="s">
+      <c r="E128" s="23" t="s">
         <v>979</v>
       </c>
-      <c r="F128" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G128" s="18" t="s">
+      <c r="F128" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G128" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H128" s="19" t="s">
+      <c r="H128" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I128" s="18" t="str">
+      <c r="I128" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public string IDC_SIMP  { get; set; }</v>
       </c>
-      <c r="J128" s="18" t="str">
+      <c r="J128" s="23" t="str">
         <f t="shared" si="6"/>
         <v>!string.IsNullOrWhiteSpace(msg.indicadorOptanteSimples)</v>
       </c>
-      <c r="K128" s="18" t="str">
+      <c r="K128" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorOptanteSimples))| registroPessoa.IDC_SIMP = msg.indicadorOptanteSimples;</v>
       </c>
-      <c r="L128" s="18" t="str">
+      <c r="L128" s="23" t="str">
         <f t="shared" si="8"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.IDC_SIMP)</v>
       </c>
-      <c r="M128" s="18" t="str">
+      <c r="M128" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.IDC_SIMP))| msg.indicadorOptanteSimples = registroPessoa.IDC_SIMP;</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
         <v>0</v>
       </c>
@@ -17648,212 +17624,207 @@
       <c r="C129" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="D129" s="21"/>
       <c r="E129" s="21" t="s">
         <v>1058</v>
       </c>
       <c r="F129" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G129" s="18" t="s">
+      <c r="G129" s="21" t="s">
         <v>1109</v>
       </c>
-      <c r="H129" s="19" t="s">
+      <c r="H129" s="21" t="s">
         <v>1120</v>
       </c>
-      <c r="I129" s="18" t="str">
+      <c r="I129" s="21" t="str">
         <f t="shared" si="5"/>
         <v>public string CGCCpf_FORMATADO  { get; set; }</v>
       </c>
-      <c r="J129" s="18" t="str">
+      <c r="J129" s="21" t="str">
         <f t="shared" si="6"/>
         <v>!string.IsNullOrWhiteSpace(msg.CpfFormatado)</v>
       </c>
-      <c r="K129" s="18" t="str">
+      <c r="K129" s="21" t="str">
         <f t="shared" si="7"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.CpfFormatado))| registroPessoa.CGCCpf_FORMATADO = msg.CpfFormatado;</v>
       </c>
-      <c r="L129" s="18" t="str">
+      <c r="L129" s="21" t="str">
         <f t="shared" si="8"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.CGCCpf_FORMATADO)</v>
       </c>
-      <c r="M129" s="18" t="str">
+      <c r="M129" s="21" t="str">
         <f t="shared" si="9"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.CGCCpf_FORMATADO))| msg.CpfFormatado = registroPessoa.CGCCpf_FORMATADO;</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B130" s="22" t="s">
+    <row r="130" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="C130" s="22" t="s">
+      <c r="C130" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="D130" s="22"/>
-      <c r="E130" s="22" t="s">
+      <c r="E130" s="23" t="s">
         <v>1010</v>
       </c>
-      <c r="F130" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G130" s="18" t="s">
+      <c r="F130" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G130" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H130" s="19" t="s">
+      <c r="H130" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I130" s="18" t="str">
+      <c r="I130" s="23" t="str">
         <f t="shared" si="5"/>
         <v>public string SIT_BEN  { get; set; }</v>
       </c>
-      <c r="J130" s="18" t="str">
+      <c r="J130" s="23" t="str">
         <f t="shared" si="6"/>
         <v>!string.IsNullOrWhiteSpace(msg.situacaoBeneficiario)</v>
       </c>
-      <c r="K130" s="18" t="str">
+      <c r="K130" s="23" t="str">
         <f t="shared" si="7"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.situacaoBeneficiario))| registroPessoa.SIT_BEN = msg.situacaoBeneficiario;</v>
       </c>
-      <c r="L130" s="18" t="str">
+      <c r="L130" s="23" t="str">
         <f t="shared" si="8"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.SIT_BEN)</v>
       </c>
-      <c r="M130" s="18" t="str">
+      <c r="M130" s="23" t="str">
         <f t="shared" si="9"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.SIT_BEN))| msg.situacaoBeneficiario = registroPessoa.SIT_BEN;</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B131" s="22" t="s">
+    <row r="131" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="C131" s="22" t="s">
+      <c r="C131" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="D131" s="22"/>
-      <c r="E131" s="22" t="s">
+      <c r="E131" s="23" t="s">
         <v>951</v>
       </c>
-      <c r="F131" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G131" s="18" t="s">
+      <c r="F131" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G131" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H131" s="19" t="s">
+      <c r="H131" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I131" s="18" t="str">
+      <c r="I131" s="23" t="str">
         <f t="shared" ref="I131:I162" si="10">CONCATENATE("public ",F131," ",B131,"  { get; set; }")</f>
         <v>public string idc_ope_pro  { get; set; }</v>
       </c>
-      <c r="J131" s="18" t="str">
+      <c r="J131" s="23" t="str">
         <f t="shared" ref="J131:J194" si="11">IF(F131="string",CONCATENATE("!string.IsNullOrWhiteSpace(",H131,".",E131,")"),IF(F131="int",CONCATENATE(H131,".",E131," != null &amp;&amp; ",H131,".",E131,".Value &gt; 0"),IF(F131="DateTime",CONCATENATE(H131,".",E131," != null &amp;&amp; ",H131,".",E131,".Value != DateTime.MinValue"),IF(F131="decimal",CONCATENATE(H131,".",E131," != null &amp;&amp; ",H131,".",E131,".Value &gt; 0")))))</f>
         <v>!string.IsNullOrWhiteSpace(msg.indicadorOperaContaPropria)</v>
       </c>
-      <c r="K131" s="18" t="str">
+      <c r="K131" s="23" t="str">
         <f t="shared" ref="K131:K194" si="12">CONCATENATE("|if(",J131,")","| ",G131,".",B131," = ",H131,".",E131,";")</f>
         <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorOperaContaPropria))| registroPessoa.idc_ope_pro = msg.indicadorOperaContaPropria;</v>
       </c>
-      <c r="L131" s="18" t="str">
+      <c r="L131" s="23" t="str">
         <f t="shared" ref="L131:L194" si="13">IF(F131="string",CONCATENATE("!string.IsNullOrWhiteSpace(",G131,".",B131,")"),IF(F131="int",CONCATENATE(G131,".",B131," != null &amp;&amp; ",G131,".",B131,".Value &gt; 0"),IF(F131="DateTime",CONCATENATE(G131,".",B131," != null &amp;&amp; ",G131,".",B131,".Value != DateTime.MinValue"),IF(F131="decimal",CONCATENATE(G131,".",B131," != null &amp;&amp; ",G131,".",B131,".Value &gt; 0")))))</f>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.idc_ope_pro)</v>
       </c>
-      <c r="M131" s="18" t="str">
+      <c r="M131" s="23" t="str">
         <f t="shared" ref="M131:M194" si="14">CONCATENATE("|if(",L131,")","| ",H131,".",E131," = ",G131,".",B131,";")</f>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.idc_ope_pro))| msg.indicadorOperaContaPropria = registroPessoa.idc_ope_pro;</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B132" s="22" t="s">
+    <row r="132" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="C132" s="22" t="s">
+      <c r="C132" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="D132" s="22"/>
-      <c r="E132" s="22" t="s">
+      <c r="E132" s="23" t="s">
         <v>952</v>
       </c>
-      <c r="F132" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G132" s="18" t="s">
+      <c r="F132" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G132" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H132" s="19" t="s">
+      <c r="H132" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I132" s="18" t="str">
+      <c r="I132" s="23" t="str">
         <f t="shared" si="10"/>
         <v>public string idc_aut_tra  { get; set; }</v>
       </c>
-      <c r="J132" s="18" t="str">
+      <c r="J132" s="23" t="str">
         <f t="shared" si="11"/>
         <v>!string.IsNullOrWhiteSpace(msg.indicadorTransmissaoProcurador)</v>
       </c>
-      <c r="K132" s="18" t="str">
+      <c r="K132" s="23" t="str">
         <f t="shared" si="12"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorTransmissaoProcurador))| registroPessoa.idc_aut_tra = msg.indicadorTransmissaoProcurador;</v>
       </c>
-      <c r="L132" s="18" t="str">
+      <c r="L132" s="23" t="str">
         <f t="shared" si="13"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.idc_aut_tra)</v>
       </c>
-      <c r="M132" s="18" t="str">
+      <c r="M132" s="23" t="str">
         <f t="shared" si="14"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.idc_aut_tra))| msg.indicadorTransmissaoProcurador = registroPessoa.idc_aut_tra;</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B133" s="22" t="s">
+    <row r="133" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="C133" s="22" t="s">
+      <c r="C133" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="D133" s="22"/>
-      <c r="E133" s="22" t="s">
+      <c r="E133" s="23" t="s">
         <v>947</v>
       </c>
-      <c r="F133" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G133" s="18" t="s">
+      <c r="F133" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G133" s="23" t="s">
         <v>1109</v>
       </c>
-      <c r="H133" s="19" t="s">
+      <c r="H133" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="I133" s="18" t="str">
+      <c r="I133" s="23" t="str">
         <f t="shared" si="10"/>
         <v>public string pestipdec  { get; set; }</v>
       </c>
-      <c r="J133" s="18" t="str">
+      <c r="J133" s="23" t="str">
         <f t="shared" si="11"/>
         <v>!string.IsNullOrWhiteSpace(msg.tipoDeclarado)</v>
       </c>
-      <c r="K133" s="18" t="str">
+      <c r="K133" s="23" t="str">
         <f t="shared" si="12"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.tipoDeclarado))| registroPessoa.pestipdec = msg.tipoDeclarado;</v>
       </c>
-      <c r="L133" s="18" t="str">
+      <c r="L133" s="23" t="str">
         <f t="shared" si="13"/>
         <v>!string.IsNullOrWhiteSpace(registroPessoa.pestipdec)</v>
       </c>
-      <c r="M133" s="18" t="str">
+      <c r="M133" s="23" t="str">
         <f t="shared" si="14"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroPessoa.pestipdec))| msg.tipoDeclarado = registroPessoa.pestipdec;</v>
       </c>

--- a/API/documentos/Dados Entrada Cliente.xlsx
+++ b/API/documentos/Dados Entrada Cliente.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Geração adaptador" sheetId="4" r:id="rId2"/>
     <sheet name="geração json" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8094" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8214" uniqueCount="1158">
   <si>
     <t>tb_pes</t>
   </si>
@@ -3396,6 +3397,111 @@
   </si>
   <si>
     <t>classeMsg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cod_fil </t>
+  </si>
+  <si>
+    <t>COD_CTA_RESGATE</t>
+  </si>
+  <si>
+    <t>NEGIDCBCO</t>
+  </si>
+  <si>
+    <t>NEGCODISPB</t>
+  </si>
+  <si>
+    <t>IPGCOD</t>
+  </si>
+  <si>
+    <t>NEGSTACONTAPADRAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código de pessoa </t>
+  </si>
+  <si>
+    <t>Código de filial</t>
+  </si>
+  <si>
+    <t>Sequencial negócio</t>
+  </si>
+  <si>
+    <t>Código da agência</t>
+  </si>
+  <si>
+    <t>Número da conta</t>
+  </si>
+  <si>
+    <t>Valor do limite</t>
+  </si>
+  <si>
+    <t>Saldo devedor</t>
+  </si>
+  <si>
+    <t>Data de inicio da operação</t>
+  </si>
+  <si>
+    <t>Data de fim da operação</t>
+  </si>
+  <si>
+    <t>Data de cadastramento</t>
+  </si>
+  <si>
+    <t>Último usuário de atualização</t>
+  </si>
+  <si>
+    <t>Data da última atualização</t>
+  </si>
+  <si>
+    <t>Data da situação</t>
+  </si>
+  <si>
+    <t>Identificador de situação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código Empresa </t>
+  </si>
+  <si>
+    <t>Código do produto bancário</t>
+  </si>
+  <si>
+    <t>Código do Banco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código do banco do negócio </t>
+  </si>
+  <si>
+    <t>Conta de Crédito para Resgate</t>
+  </si>
+  <si>
+    <t>Situação do Registro</t>
+  </si>
+  <si>
+    <t>Indica se é Banco ou Instituição de Pagamento</t>
+  </si>
+  <si>
+    <t>Código ISPB do banco</t>
+  </si>
+  <si>
+    <t>Código de Instituição de Pagamento</t>
+  </si>
+  <si>
+    <t>Indica se é Conta Padrão ou não - S - sim | N - não</t>
+  </si>
+  <si>
+    <t>valdoDevedor</t>
+  </si>
+  <si>
+    <t>identificadorSituacao</t>
+  </si>
+  <si>
+    <t>SituacaoRegistro</t>
+  </si>
+  <si>
+    <t>IndicadorBancoOuInstPagamento</t>
+  </si>
+  <si>
+    <t>codigoInstPagamento</t>
   </si>
 </sst>
 </file>
@@ -3832,10 +3938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G362"/>
+  <dimension ref="A1:G387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
-      <selection activeCell="A278" sqref="A278"/>
+    <sheetView tabSelected="1" topLeftCell="B241" workbookViewId="0">
+      <selection activeCell="E260" sqref="E260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10977,7 +11083,7 @@
         <v>3</v>
       </c>
       <c r="G324" s="14" t="str">
-        <f t="shared" ref="G324:G362" si="5">CONCATENATE("|/// &lt;summary&gt;|/// ",D324,"|/// &lt;/summary&gt;| public ",F324," ",E324," { get; set; }")</f>
+        <f t="shared" ref="G324:G386" si="5">CONCATENATE("|/// &lt;summary&gt;|/// ",D324,"|/// &lt;/summary&gt;| public ",F324," ",E324," { get; set; }")</f>
         <v>|/// &lt;summary&gt;|/// Filial|/// &lt;/summary&gt;| public string codigoFilialPessoaJuridica { get; set; }</v>
       </c>
     </row>
@@ -11804,6 +11910,537 @@
         <f t="shared" si="5"/>
         <v>|/// &lt;summary&gt;|/// |/// &lt;/summary&gt;| public string emailVinculo { get; set; }</v>
       </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A363" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B363" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C363" s="20"/>
+      <c r="D363" s="20" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E363" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="F363" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G363" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>|/// &lt;summary&gt;|/// Código de pessoa |/// &lt;/summary&gt;| public string codigoPessoa { get; set; }</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A364" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B364" s="20" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C364" s="20"/>
+      <c r="D364" s="20" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E364" s="20" t="s">
+        <v>680</v>
+      </c>
+      <c r="F364" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G364" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>|/// &lt;summary&gt;|/// Código de filial|/// &lt;/summary&gt;| public string codigoFilial { get; set; }</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A365" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B365" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="C365" s="20"/>
+      <c r="D365" s="20" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E365" s="20" t="s">
+        <v>854</v>
+      </c>
+      <c r="F365" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="G365" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>|/// &lt;summary&gt;|/// Sequencial negócio|/// &lt;/summary&gt;| public int sequencial { get; set; }</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A366" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B366" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="C366" s="20"/>
+      <c r="D366" s="20" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E366" s="20" t="s">
+        <v>921</v>
+      </c>
+      <c r="F366" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="G366" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>|/// &lt;summary&gt;|/// Código da agência|/// &lt;/summary&gt;| public int codigoAgencia { get; set; }</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A367" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B367" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="C367" s="20"/>
+      <c r="D367" s="20" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E367" s="20" t="s">
+        <v>922</v>
+      </c>
+      <c r="F367" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G367" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>|/// &lt;summary&gt;|/// Número da conta|/// &lt;/summary&gt;| public string numeroConta { get; set; }</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A368" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B368" s="20" t="s">
+        <v>584</v>
+      </c>
+      <c r="C368" s="20"/>
+      <c r="D368" s="20" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E368" s="20" t="s">
+        <v>863</v>
+      </c>
+      <c r="F368" s="20" t="s">
+        <v>991</v>
+      </c>
+      <c r="G368" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>|/// &lt;summary&gt;|/// Valor do limite|/// &lt;/summary&gt;| public decimal valorLimite { get; set; }</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A369" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B369" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="C369" s="20"/>
+      <c r="D369" s="20" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E369" s="20" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F369" s="20" t="s">
+        <v>991</v>
+      </c>
+      <c r="G369" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>|/// &lt;summary&gt;|/// Saldo devedor|/// &lt;/summary&gt;| public decimal valdoDevedor { get; set; }</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A370" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B370" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="C370" s="20"/>
+      <c r="D370" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E370" s="20" t="s">
+        <v>717</v>
+      </c>
+      <c r="F370" s="20" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G370" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>|/// &lt;summary&gt;|/// Data de inicio da operação|/// &lt;/summary&gt;| public DateTime dataInicio { get; set; }</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A371" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B371" s="20" t="s">
+        <v>587</v>
+      </c>
+      <c r="C371" s="20"/>
+      <c r="D371" s="20" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E371" s="20" t="s">
+        <v>718</v>
+      </c>
+      <c r="F371" s="20" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G371" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>|/// &lt;summary&gt;|/// Data de fim da operação|/// &lt;/summary&gt;| public DateTime dataFim { get; set; }</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A372" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B372" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C372" s="20"/>
+      <c r="D372" s="20" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E372" s="20" t="s">
+        <v>642</v>
+      </c>
+      <c r="F372" s="20" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G372" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>|/// &lt;summary&gt;|/// Data de cadastramento|/// &lt;/summary&gt;| public DateTime dataCadastro { get; set; }</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A373" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B373" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C373" s="20"/>
+      <c r="D373" s="20" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E373" s="20" t="s">
+        <v>765</v>
+      </c>
+      <c r="F373" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G373" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>|/// &lt;summary&gt;|/// Último usuário de atualização|/// &lt;/summary&gt;| public string usuarioUltimaAtualizacao { get; set; }</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A374" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B374" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C374" s="20"/>
+      <c r="D374" s="20" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E374" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="F374" s="20" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G374" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>|/// &lt;summary&gt;|/// Data da última atualização|/// &lt;/summary&gt;| public DateTime dataAtualizacao { get; set; }</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A375" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B375" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C375" s="20"/>
+      <c r="D375" s="20" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E375" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="F375" s="20" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G375" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>|/// &lt;summary&gt;|/// Data da situação|/// &lt;/summary&gt;| public DateTime dataSituacao { get; set; }</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A376" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B376" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="C376" s="20"/>
+      <c r="D376" s="20" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E376" s="20" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F376" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G376" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>|/// &lt;summary&gt;|/// Identificador de situação|/// &lt;/summary&gt;| public string identificadorSituacao { get; set; }</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A377" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B377" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C377" s="20"/>
+      <c r="D377" s="20" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E377" s="20" t="s">
+        <v>692</v>
+      </c>
+      <c r="F377" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="G377" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>|/// &lt;summary&gt;|/// Código Empresa |/// &lt;/summary&gt;| public int codigoEmpresa { get; set; }</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A378" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B378" s="20" t="s">
+        <v>588</v>
+      </c>
+      <c r="C378" s="20"/>
+      <c r="D378" s="20" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E378" s="20" t="s">
+        <v>925</v>
+      </c>
+      <c r="F378" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="G378" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>|/// &lt;summary&gt;|/// Código do produto bancário|/// &lt;/summary&gt;| public int codigoProdutoBancario { get; set; }</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A379" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B379" s="20" t="s">
+        <v>589</v>
+      </c>
+      <c r="C379" s="20"/>
+      <c r="D379" s="20" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E379" s="20" t="s">
+        <v>926</v>
+      </c>
+      <c r="F379" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="G379" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>|/// &lt;summary&gt;|/// Código do Banco|/// &lt;/summary&gt;| public int codigoBanco { get; set; }</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A380" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B380" s="20" t="s">
+        <v>590</v>
+      </c>
+      <c r="C380" s="20"/>
+      <c r="D380" s="20" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E380" s="20" t="s">
+        <v>927</v>
+      </c>
+      <c r="F380" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="G380" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>|/// &lt;summary&gt;|/// Código do banco do negócio |/// &lt;/summary&gt;| public int codigoBancoNegocio { get; set; }</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A381" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B381" s="20" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C381" s="20"/>
+      <c r="D381" s="20" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E381" s="20" t="s">
+        <v>929</v>
+      </c>
+      <c r="F381" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G381" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>|/// &lt;summary&gt;|/// Conta de Crédito para Resgate|/// &lt;/summary&gt;| public string contaCreditoResgate { get; set; }</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A382" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B382" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C382" s="20"/>
+      <c r="D382" s="20" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E382" s="20" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F382" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G382" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>|/// &lt;summary&gt;|/// Situação do Registro|/// &lt;/summary&gt;| public string SituacaoRegistro { get; set; }</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A383" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B383" s="20" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C383" s="20"/>
+      <c r="D383" s="20" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E383" s="20" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F383" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G383" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>|/// &lt;summary&gt;|/// Indica se é Banco ou Instituição de Pagamento|/// &lt;/summary&gt;| public string IndicadorBancoOuInstPagamento { get; set; }</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A384" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B384" s="20" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C384" s="20"/>
+      <c r="D384" s="20" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E384" s="20" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F384" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G384" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>|/// &lt;summary&gt;|/// Código ISPB do banco|/// &lt;/summary&gt;| public string codigoIspb { get; set; }</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A385" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B385" s="20" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C385" s="20"/>
+      <c r="D385" s="20" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E385" s="20" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F385" s="20" t="s">
+        <v>991</v>
+      </c>
+      <c r="G385" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>|/// &lt;summary&gt;|/// Código de Instituição de Pagamento|/// &lt;/summary&gt;| public decimal codigoInstPagamento { get; set; }</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A386" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B386" s="20" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C386" s="20"/>
+      <c r="D386" s="20" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E386" s="20" t="s">
+        <v>932</v>
+      </c>
+      <c r="F386" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G386" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>|/// &lt;summary&gt;|/// Indica se é Conta Padrão ou não - S - sim | N - não|/// &lt;/summary&gt;| public string indicadorContaPadrao { get; set; }</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A387" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45052,4 +45689,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/API/documentos/Dados Entrada Cliente.xlsx
+++ b/API/documentos/Dados Entrada Cliente.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_sourceCode\GitHub\CoreBank\APIsIntegracao\implantacaoSinqia\API\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Implantacao\implantacaoSinqia\API\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC22D67-4494-477A-85CB-C048A027849B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Geração propriedades" sheetId="3" r:id="rId1"/>
@@ -18,17 +19,25 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8214" uniqueCount="1158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8382" uniqueCount="1159">
   <si>
     <t>tb_pes</t>
   </si>
@@ -3502,12 +3511,15 @@
   </si>
   <si>
     <t>codigoInstPagamento</t>
+  </si>
+  <si>
+    <t>registroNegocio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3937,11 +3949,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B241" workbookViewId="0">
-      <selection activeCell="E260" sqref="E260"/>
+    <sheetView topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="F386" sqref="A363:F386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12449,11 +12461,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M362"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M389"/>
   <sheetViews>
-    <sheetView topLeftCell="L342" workbookViewId="0">
-      <selection activeCell="M323" sqref="M323:M362"/>
+    <sheetView tabSelected="1" topLeftCell="J358" workbookViewId="0">
+      <selection activeCell="K366" sqref="K366:K389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19800,7 +19812,7 @@
       </c>
       <c r="K164" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>|if(FALSE)| . = msg.;</v>
+        <v>|if(FALSO)| . = msg.;</v>
       </c>
       <c r="L164" s="18" t="b">
         <f t="shared" si="13"/>
@@ -19808,7 +19820,7 @@
       </c>
       <c r="M164" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(FALSE)| msg. = .;</v>
+        <v>|if(FALSO)| msg. = .;</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -19917,7 +19929,7 @@
       </c>
       <c r="K167" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>|if(FALSE)| . = msg.;</v>
+        <v>|if(FALSO)| . = msg.;</v>
       </c>
       <c r="L167" s="18" t="b">
         <f t="shared" si="13"/>
@@ -19925,7 +19937,7 @@
       </c>
       <c r="M167" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>|if(FALSE)| msg. = .;</v>
+        <v>|if(FALSO)| msg. = .;</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -22458,7 +22470,7 @@
       </c>
       <c r="K223" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(FALSE)| . = msg.;</v>
+        <v>|if(FALSO)| . = msg.;</v>
       </c>
       <c r="L223" s="18" t="b">
         <f t="shared" si="18"/>
@@ -22466,7 +22478,7 @@
       </c>
       <c r="M223" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| msg. = .;</v>
+        <v>|if(FALSO)| msg. = .;</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -23355,7 +23367,7 @@
       </c>
       <c r="K243" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>|if(FALSE)| . = msg.;</v>
+        <v>|if(FALSO)| . = msg.;</v>
       </c>
       <c r="L243" s="18" t="b">
         <f t="shared" si="18"/>
@@ -23363,7 +23375,7 @@
       </c>
       <c r="M243" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>|if(FALSE)| msg. = .;</v>
+        <v>|if(FALSO)| msg. = .;</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -24260,7 +24272,7 @@
       </c>
       <c r="K264" s="18" t="str">
         <f t="shared" si="22"/>
-        <v>|if(FALSE)| . = msg.;</v>
+        <v>|if(FALSO)| . = msg.;</v>
       </c>
       <c r="L264" s="18" t="b">
         <f t="shared" si="23"/>
@@ -24268,7 +24280,7 @@
       </c>
       <c r="M264" s="18" t="str">
         <f t="shared" si="24"/>
-        <v>|if(FALSE)| msg. = .;</v>
+        <v>|if(FALSO)| msg. = .;</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
@@ -26854,11 +26866,11 @@
         <v>public string cod_pessoa_jur  { get; set; }</v>
       </c>
       <c r="J323" s="18" t="str">
-        <f t="shared" ref="J323:J362" si="26">IF(F323="string",CONCATENATE("!string.IsNullOrWhiteSpace(",H323,".",E323,")"),IF(F323="int",CONCATENATE(H323,".",E323," != null &amp;&amp; ",H323,".",E323,".Value &gt; 0"),IF(F323="DateTime",CONCATENATE(H323,".",E323," != null &amp;&amp; ",H323,".",E323,".Value != DateTime.MinValue"),IF(F323="decimal",CONCATENATE(H323,".",E323," != null &amp;&amp; ",H323,".",E323,".Value &gt; 0")))))</f>
+        <f t="shared" ref="J323:J386" si="26">IF(F323="string",CONCATENATE("!string.IsNullOrWhiteSpace(",H323,".",E323,")"),IF(F323="int",CONCATENATE(H323,".",E323," != null &amp;&amp; ",H323,".",E323,".Value &gt; 0"),IF(F323="DateTime",CONCATENATE(H323,".",E323," != null &amp;&amp; ",H323,".",E323,".Value != DateTime.MinValue"),IF(F323="decimal",CONCATENATE(H323,".",E323," != null &amp;&amp; ",H323,".",E323,".Value &gt; 0")))))</f>
         <v>!string.IsNullOrWhiteSpace(msg.codigoPessoaJuridica)</v>
       </c>
       <c r="K323" s="18" t="str">
-        <f t="shared" ref="K323:K362" si="27">CONCATENATE("|if(",J323,")","| ",G323,".",B323," = ",H323,".",E323,";")</f>
+        <f t="shared" ref="K323:K386" si="27">CONCATENATE("|if(",J323,")","| ",G323,".",B323," = ",H323,".",E323,";")</f>
         <v>|if(!string.IsNullOrWhiteSpace(msg.codigoPessoaJuridica))| registroVinculo.cod_pessoa_jur = msg.codigoPessoaJuridica;</v>
       </c>
       <c r="L323" s="18" t="str">
@@ -28358,7 +28370,7 @@
         <v>1120</v>
       </c>
       <c r="I356" s="18" t="str">
-        <f t="shared" ref="I356:I362" si="30">CONCATENATE("public ",F356," ",B356,"  { get; set; }")</f>
+        <f t="shared" ref="I356:I389" si="30">CONCATENATE("public ",F356," ",B356,"  { get; set; }")</f>
         <v>public string cod_pessoa_assina1  { get; set; }</v>
       </c>
       <c r="J356" s="18" t="str">
@@ -28650,6 +28662,870 @@
       <c r="M362" s="18" t="str">
         <f t="shared" si="29"/>
         <v>|if(!string.IsNullOrWhiteSpace(registroVinculo.fisjuremailvinculo))| msg.emailVinculo = registroVinculo.fisjuremailvinculo;</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A366" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B366" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C366" s="20"/>
+      <c r="D366" s="20" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E366" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="F366" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G366" s="22" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H366" s="19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I366" s="18" t="str">
+        <f t="shared" si="30"/>
+        <v>public string cod_pessoa  { get; set; }</v>
+      </c>
+      <c r="J366" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v>!string.IsNullOrWhiteSpace(msg.codigoPessoa)</v>
+      </c>
+      <c r="K366" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoPessoa))| registroNegocio.cod_pessoa = msg.codigoPessoa;</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A367" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B367" s="20" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C367" s="20"/>
+      <c r="D367" s="20" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E367" s="20" t="s">
+        <v>680</v>
+      </c>
+      <c r="F367" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G367" s="22" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H367" s="19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I367" s="18" t="str">
+        <f t="shared" si="30"/>
+        <v>public string cod_fil   { get; set; }</v>
+      </c>
+      <c r="J367" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v>!string.IsNullOrWhiteSpace(msg.codigoFilial)</v>
+      </c>
+      <c r="K367" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoFilial))| registroNegocio.cod_fil  = msg.codigoFilial;</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A368" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B368" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="C368" s="20"/>
+      <c r="D368" s="20" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E368" s="20" t="s">
+        <v>854</v>
+      </c>
+      <c r="F368" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="G368" s="22" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H368" s="19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I368" s="18" t="str">
+        <f t="shared" si="30"/>
+        <v>public int seq_negbco  { get; set; }</v>
+      </c>
+      <c r="J368" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v>msg.sequencial != null &amp;&amp; msg.sequencial.Value &gt; 0</v>
+      </c>
+      <c r="K368" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v>|if(msg.sequencial != null &amp;&amp; msg.sequencial.Value &gt; 0)| registroNegocio.seq_negbco = msg.sequencial;</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A369" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B369" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="C369" s="20"/>
+      <c r="D369" s="20" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E369" s="20" t="s">
+        <v>921</v>
+      </c>
+      <c r="F369" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="G369" s="22" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H369" s="19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I369" s="18" t="str">
+        <f t="shared" si="30"/>
+        <v>public int cod_age_negbco  { get; set; }</v>
+      </c>
+      <c r="J369" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v>msg.codigoAgencia != null &amp;&amp; msg.codigoAgencia.Value &gt; 0</v>
+      </c>
+      <c r="K369" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v>|if(msg.codigoAgencia != null &amp;&amp; msg.codigoAgencia.Value &gt; 0)| registroNegocio.cod_age_negbco = msg.codigoAgencia;</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A370" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B370" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="C370" s="20"/>
+      <c r="D370" s="20" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E370" s="20" t="s">
+        <v>922</v>
+      </c>
+      <c r="F370" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G370" s="22" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H370" s="19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I370" s="18" t="str">
+        <f t="shared" si="30"/>
+        <v>public string num_negbco  { get; set; }</v>
+      </c>
+      <c r="J370" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v>!string.IsNullOrWhiteSpace(msg.numeroConta)</v>
+      </c>
+      <c r="K370" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.numeroConta))| registroNegocio.num_negbco = msg.numeroConta;</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A371" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B371" s="20" t="s">
+        <v>584</v>
+      </c>
+      <c r="C371" s="20"/>
+      <c r="D371" s="20" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E371" s="20" t="s">
+        <v>863</v>
+      </c>
+      <c r="F371" s="20" t="s">
+        <v>991</v>
+      </c>
+      <c r="G371" s="22" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H371" s="19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I371" s="18" t="str">
+        <f t="shared" si="30"/>
+        <v>public decimal val_limite_negbco  { get; set; }</v>
+      </c>
+      <c r="J371" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v>msg.valorLimite != null &amp;&amp; msg.valorLimite.Value &gt; 0</v>
+      </c>
+      <c r="K371" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v>|if(msg.valorLimite != null &amp;&amp; msg.valorLimite.Value &gt; 0)| registroNegocio.val_limite_negbco = msg.valorLimite;</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A372" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B372" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="C372" s="20"/>
+      <c r="D372" s="20" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E372" s="20" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F372" s="20" t="s">
+        <v>991</v>
+      </c>
+      <c r="G372" s="22" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H372" s="19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I372" s="18" t="str">
+        <f t="shared" si="30"/>
+        <v>public decimal val_dev_negbco  { get; set; }</v>
+      </c>
+      <c r="J372" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v>msg.valdoDevedor != null &amp;&amp; msg.valdoDevedor.Value &gt; 0</v>
+      </c>
+      <c r="K372" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v>|if(msg.valdoDevedor != null &amp;&amp; msg.valdoDevedor.Value &gt; 0)| registroNegocio.val_dev_negbco = msg.valdoDevedor;</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A373" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B373" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="C373" s="20"/>
+      <c r="D373" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E373" s="20" t="s">
+        <v>717</v>
+      </c>
+      <c r="F373" s="20" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G373" s="22" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H373" s="19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I373" s="18" t="str">
+        <f t="shared" si="30"/>
+        <v>public DateTime dat_ini_negbco  { get; set; }</v>
+      </c>
+      <c r="J373" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v>msg.dataInicio != null &amp;&amp; msg.dataInicio.Value != DateTime.MinValue</v>
+      </c>
+      <c r="K373" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v>|if(msg.dataInicio != null &amp;&amp; msg.dataInicio.Value != DateTime.MinValue)| registroNegocio.dat_ini_negbco = msg.dataInicio;</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A374" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B374" s="20" t="s">
+        <v>587</v>
+      </c>
+      <c r="C374" s="20"/>
+      <c r="D374" s="20" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E374" s="20" t="s">
+        <v>718</v>
+      </c>
+      <c r="F374" s="20" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G374" s="22" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H374" s="19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I374" s="18" t="str">
+        <f t="shared" si="30"/>
+        <v>public DateTime dat_fim_negbco  { get; set; }</v>
+      </c>
+      <c r="J374" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v>msg.dataFim != null &amp;&amp; msg.dataFim.Value != DateTime.MinValue</v>
+      </c>
+      <c r="K374" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v>|if(msg.dataFim != null &amp;&amp; msg.dataFim.Value != DateTime.MinValue)| registroNegocio.dat_fim_negbco = msg.dataFim;</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A375" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B375" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C375" s="20"/>
+      <c r="D375" s="20" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E375" s="20" t="s">
+        <v>642</v>
+      </c>
+      <c r="F375" s="20" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G375" s="22" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H375" s="19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I375" s="18" t="str">
+        <f t="shared" si="30"/>
+        <v>public DateTime dat_cad  { get; set; }</v>
+      </c>
+      <c r="J375" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v>msg.dataCadastro != null &amp;&amp; msg.dataCadastro.Value != DateTime.MinValue</v>
+      </c>
+      <c r="K375" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v>|if(msg.dataCadastro != null &amp;&amp; msg.dataCadastro.Value != DateTime.MinValue)| registroNegocio.dat_cad = msg.dataCadastro;</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A376" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B376" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C376" s="20"/>
+      <c r="D376" s="20" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E376" s="20" t="s">
+        <v>765</v>
+      </c>
+      <c r="F376" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G376" s="22" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H376" s="19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I376" s="18" t="str">
+        <f t="shared" si="30"/>
+        <v>public string usu_atu  { get; set; }</v>
+      </c>
+      <c r="J376" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v>!string.IsNullOrWhiteSpace(msg.usuarioUltimaAtualizacao)</v>
+      </c>
+      <c r="K376" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.usuarioUltimaAtualizacao))| registroNegocio.usu_atu = msg.usuarioUltimaAtualizacao;</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A377" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B377" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C377" s="20"/>
+      <c r="D377" s="20" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E377" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="F377" s="20" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G377" s="22" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H377" s="19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I377" s="18" t="str">
+        <f t="shared" si="30"/>
+        <v>public DateTime dat_atu  { get; set; }</v>
+      </c>
+      <c r="J377" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v>msg.dataAtualizacao != null &amp;&amp; msg.dataAtualizacao.Value != DateTime.MinValue</v>
+      </c>
+      <c r="K377" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v>|if(msg.dataAtualizacao != null &amp;&amp; msg.dataAtualizacao.Value != DateTime.MinValue)| registroNegocio.dat_atu = msg.dataAtualizacao;</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A378" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B378" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C378" s="20"/>
+      <c r="D378" s="20" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E378" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="F378" s="20" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G378" s="22" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H378" s="19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I378" s="18" t="str">
+        <f t="shared" si="30"/>
+        <v>public DateTime dat_sit  { get; set; }</v>
+      </c>
+      <c r="J378" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v>msg.dataSituacao != null &amp;&amp; msg.dataSituacao.Value != DateTime.MinValue</v>
+      </c>
+      <c r="K378" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v>|if(msg.dataSituacao != null &amp;&amp; msg.dataSituacao.Value != DateTime.MinValue)| registroNegocio.dat_sit = msg.dataSituacao;</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A379" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B379" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="C379" s="20"/>
+      <c r="D379" s="20" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E379" s="20" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F379" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G379" s="22" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H379" s="19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I379" s="18" t="str">
+        <f t="shared" si="30"/>
+        <v>public string idc_sit  { get; set; }</v>
+      </c>
+      <c r="J379" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v>!string.IsNullOrWhiteSpace(msg.identificadorSituacao)</v>
+      </c>
+      <c r="K379" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.identificadorSituacao))| registroNegocio.idc_sit = msg.identificadorSituacao;</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A380" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B380" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C380" s="20"/>
+      <c r="D380" s="20" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E380" s="20" t="s">
+        <v>692</v>
+      </c>
+      <c r="F380" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="G380" s="22" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H380" s="19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I380" s="18" t="str">
+        <f t="shared" si="30"/>
+        <v>public int cod_empresa  { get; set; }</v>
+      </c>
+      <c r="J380" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v>msg.codigoEmpresa != null &amp;&amp; msg.codigoEmpresa.Value &gt; 0</v>
+      </c>
+      <c r="K380" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v>|if(msg.codigoEmpresa != null &amp;&amp; msg.codigoEmpresa.Value &gt; 0)| registroNegocio.cod_empresa = msg.codigoEmpresa;</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A381" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B381" s="20" t="s">
+        <v>588</v>
+      </c>
+      <c r="C381" s="20"/>
+      <c r="D381" s="20" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E381" s="20" t="s">
+        <v>925</v>
+      </c>
+      <c r="F381" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="G381" s="22" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H381" s="19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I381" s="18" t="str">
+        <f t="shared" si="30"/>
+        <v>public int cod_prodbco  { get; set; }</v>
+      </c>
+      <c r="J381" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v>msg.codigoProdutoBancario != null &amp;&amp; msg.codigoProdutoBancario.Value &gt; 0</v>
+      </c>
+      <c r="K381" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v>|if(msg.codigoProdutoBancario != null &amp;&amp; msg.codigoProdutoBancario.Value &gt; 0)| registroNegocio.cod_prodbco = msg.codigoProdutoBancario;</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A382" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B382" s="20" t="s">
+        <v>589</v>
+      </c>
+      <c r="C382" s="20"/>
+      <c r="D382" s="20" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E382" s="20" t="s">
+        <v>926</v>
+      </c>
+      <c r="F382" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="G382" s="22" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H382" s="19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I382" s="18" t="str">
+        <f t="shared" si="30"/>
+        <v>public int cod_bco  { get; set; }</v>
+      </c>
+      <c r="J382" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v>msg.codigoBanco != null &amp;&amp; msg.codigoBanco.Value &gt; 0</v>
+      </c>
+      <c r="K382" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v>|if(msg.codigoBanco != null &amp;&amp; msg.codigoBanco.Value &gt; 0)| registroNegocio.cod_bco = msg.codigoBanco;</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A383" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B383" s="20" t="s">
+        <v>590</v>
+      </c>
+      <c r="C383" s="20"/>
+      <c r="D383" s="20" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E383" s="20" t="s">
+        <v>927</v>
+      </c>
+      <c r="F383" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="G383" s="22" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H383" s="19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I383" s="18" t="str">
+        <f t="shared" si="30"/>
+        <v>public int cod_bco_negbco  { get; set; }</v>
+      </c>
+      <c r="J383" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v>msg.codigoBancoNegocio != null &amp;&amp; msg.codigoBancoNegocio.Value &gt; 0</v>
+      </c>
+      <c r="K383" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v>|if(msg.codigoBancoNegocio != null &amp;&amp; msg.codigoBancoNegocio.Value &gt; 0)| registroNegocio.cod_bco_negbco = msg.codigoBancoNegocio;</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A384" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B384" s="20" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C384" s="20"/>
+      <c r="D384" s="20" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E384" s="20" t="s">
+        <v>929</v>
+      </c>
+      <c r="F384" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G384" s="22" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H384" s="19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I384" s="18" t="str">
+        <f t="shared" si="30"/>
+        <v>public string COD_CTA_RESGATE  { get; set; }</v>
+      </c>
+      <c r="J384" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v>!string.IsNullOrWhiteSpace(msg.contaCreditoResgate)</v>
+      </c>
+      <c r="K384" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.contaCreditoResgate))| registroNegocio.COD_CTA_RESGATE = msg.contaCreditoResgate;</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A385" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B385" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C385" s="20"/>
+      <c r="D385" s="20" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E385" s="20" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F385" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G385" s="22" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H385" s="19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I385" s="18" t="str">
+        <f t="shared" si="30"/>
+        <v>public string STA_REGISTRO  { get; set; }</v>
+      </c>
+      <c r="J385" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v>!string.IsNullOrWhiteSpace(msg.SituacaoRegistro)</v>
+      </c>
+      <c r="K385" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.SituacaoRegistro))| registroNegocio.STA_REGISTRO = msg.SituacaoRegistro;</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A386" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B386" s="20" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C386" s="20"/>
+      <c r="D386" s="20" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E386" s="20" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F386" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G386" s="22" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H386" s="19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I386" s="18" t="str">
+        <f t="shared" si="30"/>
+        <v>public string NEGIDCBCO  { get; set; }</v>
+      </c>
+      <c r="J386" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v>!string.IsNullOrWhiteSpace(msg.IndicadorBancoOuInstPagamento)</v>
+      </c>
+      <c r="K386" s="18" t="str">
+        <f t="shared" si="27"/>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.IndicadorBancoOuInstPagamento))| registroNegocio.NEGIDCBCO = msg.IndicadorBancoOuInstPagamento;</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A387" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B387" s="20" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C387" s="20"/>
+      <c r="D387" s="20" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E387" s="20" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F387" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G387" s="22" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H387" s="19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I387" s="18" t="str">
+        <f t="shared" si="30"/>
+        <v>public string NEGCODISPB  { get; set; }</v>
+      </c>
+      <c r="J387" s="18" t="str">
+        <f t="shared" ref="J387:J389" si="31">IF(F387="string",CONCATENATE("!string.IsNullOrWhiteSpace(",H387,".",E387,")"),IF(F387="int",CONCATENATE(H387,".",E387," != null &amp;&amp; ",H387,".",E387,".Value &gt; 0"),IF(F387="DateTime",CONCATENATE(H387,".",E387," != null &amp;&amp; ",H387,".",E387,".Value != DateTime.MinValue"),IF(F387="decimal",CONCATENATE(H387,".",E387," != null &amp;&amp; ",H387,".",E387,".Value &gt; 0")))))</f>
+        <v>!string.IsNullOrWhiteSpace(msg.codigoIspb)</v>
+      </c>
+      <c r="K387" s="18" t="str">
+        <f t="shared" ref="K387:K389" si="32">CONCATENATE("|if(",J387,")","| ",G387,".",B387," = ",H387,".",E387,";")</f>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoIspb))| registroNegocio.NEGCODISPB = msg.codigoIspb;</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A388" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B388" s="20" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C388" s="20"/>
+      <c r="D388" s="20" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E388" s="20" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F388" s="20" t="s">
+        <v>991</v>
+      </c>
+      <c r="G388" s="22" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H388" s="19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I388" s="18" t="str">
+        <f t="shared" si="30"/>
+        <v>public decimal IPGCOD  { get; set; }</v>
+      </c>
+      <c r="J388" s="18" t="str">
+        <f t="shared" si="31"/>
+        <v>msg.codigoInstPagamento != null &amp;&amp; msg.codigoInstPagamento.Value &gt; 0</v>
+      </c>
+      <c r="K388" s="18" t="str">
+        <f t="shared" si="32"/>
+        <v>|if(msg.codigoInstPagamento != null &amp;&amp; msg.codigoInstPagamento.Value &gt; 0)| registroNegocio.IPGCOD = msg.codigoInstPagamento;</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A389" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B389" s="20" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C389" s="20"/>
+      <c r="D389" s="20" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E389" s="20" t="s">
+        <v>932</v>
+      </c>
+      <c r="F389" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G389" s="22" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H389" s="19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I389" s="18" t="str">
+        <f t="shared" si="30"/>
+        <v>public string NEGSTACONTAPADRAO  { get; set; }</v>
+      </c>
+      <c r="J389" s="18" t="str">
+        <f t="shared" si="31"/>
+        <v>!string.IsNullOrWhiteSpace(msg.indicadorContaPadrao)</v>
+      </c>
+      <c r="K389" s="18" t="str">
+        <f t="shared" si="32"/>
+        <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorContaPadrao))| registroNegocio.NEGSTACONTAPADRAO = msg.indicadorContaPadrao;</v>
       </c>
     </row>
   </sheetData>
@@ -28659,7 +29535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G341"/>
   <sheetViews>
     <sheetView topLeftCell="A306" workbookViewId="0">
@@ -35559,7 +36435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -45692,7 +46568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/API/documentos/Dados Entrada Cliente.xlsx
+++ b/API/documentos/Dados Entrada Cliente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Implantacao\implantacaoSinqia\API\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC22D67-4494-477A-85CB-C048A027849B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FAE2F8-E37A-40CC-ABD8-26D7FCF973C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8382" uniqueCount="1159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8383" uniqueCount="1160">
   <si>
     <t>tb_pes</t>
   </si>
@@ -3514,6 +3514,9 @@
   </si>
   <si>
     <t>registroNegocio</t>
+  </si>
+  <si>
+    <t>verdade, tinha e</t>
   </si>
 </sst>
 </file>
@@ -3952,8 +3955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G387"/>
   <sheetViews>
-    <sheetView topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="F386" sqref="A363:F386"/>
+    <sheetView topLeftCell="D352" workbookViewId="0">
+      <selection activeCell="A363" sqref="A363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12462,10 +12465,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M389"/>
+  <dimension ref="A1:M390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J358" workbookViewId="0">
-      <selection activeCell="K366" sqref="K366:K389"/>
+    <sheetView tabSelected="1" topLeftCell="L359" workbookViewId="0">
+      <selection activeCell="M366" sqref="M366:M389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26874,11 +26877,11 @@
         <v>|if(!string.IsNullOrWhiteSpace(msg.codigoPessoaJuridica))| registroVinculo.cod_pessoa_jur = msg.codigoPessoaJuridica;</v>
       </c>
       <c r="L323" s="18" t="str">
-        <f t="shared" ref="L323:L362" si="28">IF(F323="string",CONCATENATE("!string.IsNullOrWhiteSpace(",G323,".",B323,")"),IF(F323="int",CONCATENATE(G323,".",B323," != null &amp;&amp; ",G323,".",B323,".Value &gt; 0"),IF(F323="DateTime",CONCATENATE(G323,".",B323," != null &amp;&amp; ",G323,".",B323,".Value != DateTime.MinValue"),IF(F323="decimal",CONCATENATE(G323,".",B323," != null &amp;&amp; ",G323,".",B323,".Value &gt; 0")))))</f>
+        <f t="shared" ref="L323:L386" si="28">IF(F323="string",CONCATENATE("!string.IsNullOrWhiteSpace(",G323,".",B323,")"),IF(F323="int",CONCATENATE(G323,".",B323," != null &amp;&amp; ",G323,".",B323,".Value &gt; 0"),IF(F323="DateTime",CONCATENATE(G323,".",B323," != null &amp;&amp; ",G323,".",B323,".Value != DateTime.MinValue"),IF(F323="decimal",CONCATENATE(G323,".",B323," != null &amp;&amp; ",G323,".",B323,".Value &gt; 0")))))</f>
         <v>!string.IsNullOrWhiteSpace(registroVinculo.cod_pessoa_jur)</v>
       </c>
       <c r="M323" s="18" t="str">
-        <f t="shared" ref="M323:M362" si="29">CONCATENATE("|if(",L323,")","| ",H323,".",E323," = ",G323,".",B323,";")</f>
+        <f t="shared" ref="M323:M386" si="29">CONCATENATE("|if(",L323,")","| ",H323,".",E323," = ",G323,".",B323,";")</f>
         <v>|if(!string.IsNullOrWhiteSpace(registroVinculo.cod_pessoa_jur))| msg.codigoPessoaJuridica = registroVinculo.cod_pessoa_jur;</v>
       </c>
     </row>
@@ -28695,9 +28698,16 @@
         <f t="shared" si="26"/>
         <v>!string.IsNullOrWhiteSpace(msg.codigoPessoa)</v>
       </c>
-      <c r="K366" s="18" t="str">
-        <f t="shared" si="27"/>
-        <v>|if(!string.IsNullOrWhiteSpace(msg.codigoPessoa))| registroNegocio.cod_pessoa = msg.codigoPessoa;</v>
+      <c r="K366" s="18" t="s">
+        <v>1159</v>
+      </c>
+      <c r="L366" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v>!string.IsNullOrWhiteSpace(registroNegocio.cod_pessoa)</v>
+      </c>
+      <c r="M366" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v>|if(!string.IsNullOrWhiteSpace(registroNegocio.cod_pessoa))| msg.codigoPessoa = registroNegocio.cod_pessoa;</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
@@ -28735,6 +28745,14 @@
         <f t="shared" si="27"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.codigoFilial))| registroNegocio.cod_fil  = msg.codigoFilial;</v>
       </c>
+      <c r="L367" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v>!string.IsNullOrWhiteSpace(registroNegocio.cod_fil )</v>
+      </c>
+      <c r="M367" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v>|if(!string.IsNullOrWhiteSpace(registroNegocio.cod_fil ))| msg.codigoFilial = registroNegocio.cod_fil ;</v>
+      </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" s="20" t="s">
@@ -28771,8 +28789,16 @@
         <f t="shared" si="27"/>
         <v>|if(msg.sequencial != null &amp;&amp; msg.sequencial.Value &gt; 0)| registroNegocio.seq_negbco = msg.sequencial;</v>
       </c>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L368" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v>registroNegocio.seq_negbco != null &amp;&amp; registroNegocio.seq_negbco.Value &gt; 0</v>
+      </c>
+      <c r="M368" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v>|if(registroNegocio.seq_negbco != null &amp;&amp; registroNegocio.seq_negbco.Value &gt; 0)| msg.sequencial = registroNegocio.seq_negbco;</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" s="20" t="s">
         <v>580</v>
       </c>
@@ -28807,8 +28833,16 @@
         <f t="shared" si="27"/>
         <v>|if(msg.codigoAgencia != null &amp;&amp; msg.codigoAgencia.Value &gt; 0)| registroNegocio.cod_age_negbco = msg.codigoAgencia;</v>
       </c>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L369" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v>registroNegocio.cod_age_negbco != null &amp;&amp; registroNegocio.cod_age_negbco.Value &gt; 0</v>
+      </c>
+      <c r="M369" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v>|if(registroNegocio.cod_age_negbco != null &amp;&amp; registroNegocio.cod_age_negbco.Value &gt; 0)| msg.codigoAgencia = registroNegocio.cod_age_negbco;</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" s="20" t="s">
         <v>580</v>
       </c>
@@ -28843,8 +28877,16 @@
         <f t="shared" si="27"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.numeroConta))| registroNegocio.num_negbco = msg.numeroConta;</v>
       </c>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L370" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v>!string.IsNullOrWhiteSpace(registroNegocio.num_negbco)</v>
+      </c>
+      <c r="M370" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v>|if(!string.IsNullOrWhiteSpace(registroNegocio.num_negbco))| msg.numeroConta = registroNegocio.num_negbco;</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" s="20" t="s">
         <v>580</v>
       </c>
@@ -28879,8 +28921,16 @@
         <f t="shared" si="27"/>
         <v>|if(msg.valorLimite != null &amp;&amp; msg.valorLimite.Value &gt; 0)| registroNegocio.val_limite_negbco = msg.valorLimite;</v>
       </c>
-    </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L371" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v>registroNegocio.val_limite_negbco != null &amp;&amp; registroNegocio.val_limite_negbco.Value &gt; 0</v>
+      </c>
+      <c r="M371" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v>|if(registroNegocio.val_limite_negbco != null &amp;&amp; registroNegocio.val_limite_negbco.Value &gt; 0)| msg.valorLimite = registroNegocio.val_limite_negbco;</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" s="20" t="s">
         <v>580</v>
       </c>
@@ -28915,8 +28965,16 @@
         <f t="shared" si="27"/>
         <v>|if(msg.valdoDevedor != null &amp;&amp; msg.valdoDevedor.Value &gt; 0)| registroNegocio.val_dev_negbco = msg.valdoDevedor;</v>
       </c>
-    </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L372" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v>registroNegocio.val_dev_negbco != null &amp;&amp; registroNegocio.val_dev_negbco.Value &gt; 0</v>
+      </c>
+      <c r="M372" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v>|if(registroNegocio.val_dev_negbco != null &amp;&amp; registroNegocio.val_dev_negbco.Value &gt; 0)| msg.valdoDevedor = registroNegocio.val_dev_negbco;</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" s="20" t="s">
         <v>580</v>
       </c>
@@ -28951,8 +29009,16 @@
         <f t="shared" si="27"/>
         <v>|if(msg.dataInicio != null &amp;&amp; msg.dataInicio.Value != DateTime.MinValue)| registroNegocio.dat_ini_negbco = msg.dataInicio;</v>
       </c>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L373" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v>registroNegocio.dat_ini_negbco != null &amp;&amp; registroNegocio.dat_ini_negbco.Value != DateTime.MinValue</v>
+      </c>
+      <c r="M373" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v>|if(registroNegocio.dat_ini_negbco != null &amp;&amp; registroNegocio.dat_ini_negbco.Value != DateTime.MinValue)| msg.dataInicio = registroNegocio.dat_ini_negbco;</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" s="20" t="s">
         <v>580</v>
       </c>
@@ -28987,8 +29053,16 @@
         <f t="shared" si="27"/>
         <v>|if(msg.dataFim != null &amp;&amp; msg.dataFim.Value != DateTime.MinValue)| registroNegocio.dat_fim_negbco = msg.dataFim;</v>
       </c>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L374" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v>registroNegocio.dat_fim_negbco != null &amp;&amp; registroNegocio.dat_fim_negbco.Value != DateTime.MinValue</v>
+      </c>
+      <c r="M374" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v>|if(registroNegocio.dat_fim_negbco != null &amp;&amp; registroNegocio.dat_fim_negbco.Value != DateTime.MinValue)| msg.dataFim = registroNegocio.dat_fim_negbco;</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" s="20" t="s">
         <v>580</v>
       </c>
@@ -29023,8 +29097,16 @@
         <f t="shared" si="27"/>
         <v>|if(msg.dataCadastro != null &amp;&amp; msg.dataCadastro.Value != DateTime.MinValue)| registroNegocio.dat_cad = msg.dataCadastro;</v>
       </c>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L375" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v>registroNegocio.dat_cad != null &amp;&amp; registroNegocio.dat_cad.Value != DateTime.MinValue</v>
+      </c>
+      <c r="M375" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v>|if(registroNegocio.dat_cad != null &amp;&amp; registroNegocio.dat_cad.Value != DateTime.MinValue)| msg.dataCadastro = registroNegocio.dat_cad;</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" s="20" t="s">
         <v>580</v>
       </c>
@@ -29059,8 +29141,16 @@
         <f t="shared" si="27"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.usuarioUltimaAtualizacao))| registroNegocio.usu_atu = msg.usuarioUltimaAtualizacao;</v>
       </c>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L376" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v>!string.IsNullOrWhiteSpace(registroNegocio.usu_atu)</v>
+      </c>
+      <c r="M376" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v>|if(!string.IsNullOrWhiteSpace(registroNegocio.usu_atu))| msg.usuarioUltimaAtualizacao = registroNegocio.usu_atu;</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" s="20" t="s">
         <v>580</v>
       </c>
@@ -29095,8 +29185,16 @@
         <f t="shared" si="27"/>
         <v>|if(msg.dataAtualizacao != null &amp;&amp; msg.dataAtualizacao.Value != DateTime.MinValue)| registroNegocio.dat_atu = msg.dataAtualizacao;</v>
       </c>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L377" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v>registroNegocio.dat_atu != null &amp;&amp; registroNegocio.dat_atu.Value != DateTime.MinValue</v>
+      </c>
+      <c r="M377" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v>|if(registroNegocio.dat_atu != null &amp;&amp; registroNegocio.dat_atu.Value != DateTime.MinValue)| msg.dataAtualizacao = registroNegocio.dat_atu;</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" s="20" t="s">
         <v>580</v>
       </c>
@@ -29131,8 +29229,16 @@
         <f t="shared" si="27"/>
         <v>|if(msg.dataSituacao != null &amp;&amp; msg.dataSituacao.Value != DateTime.MinValue)| registroNegocio.dat_sit = msg.dataSituacao;</v>
       </c>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L378" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v>registroNegocio.dat_sit != null &amp;&amp; registroNegocio.dat_sit.Value != DateTime.MinValue</v>
+      </c>
+      <c r="M378" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v>|if(registroNegocio.dat_sit != null &amp;&amp; registroNegocio.dat_sit.Value != DateTime.MinValue)| msg.dataSituacao = registroNegocio.dat_sit;</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" s="20" t="s">
         <v>580</v>
       </c>
@@ -29167,8 +29273,16 @@
         <f t="shared" si="27"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.identificadorSituacao))| registroNegocio.idc_sit = msg.identificadorSituacao;</v>
       </c>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L379" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v>!string.IsNullOrWhiteSpace(registroNegocio.idc_sit)</v>
+      </c>
+      <c r="M379" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v>|if(!string.IsNullOrWhiteSpace(registroNegocio.idc_sit))| msg.identificadorSituacao = registroNegocio.idc_sit;</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" s="20" t="s">
         <v>580</v>
       </c>
@@ -29203,8 +29317,16 @@
         <f t="shared" si="27"/>
         <v>|if(msg.codigoEmpresa != null &amp;&amp; msg.codigoEmpresa.Value &gt; 0)| registroNegocio.cod_empresa = msg.codigoEmpresa;</v>
       </c>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L380" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v>registroNegocio.cod_empresa != null &amp;&amp; registroNegocio.cod_empresa.Value &gt; 0</v>
+      </c>
+      <c r="M380" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v>|if(registroNegocio.cod_empresa != null &amp;&amp; registroNegocio.cod_empresa.Value &gt; 0)| msg.codigoEmpresa = registroNegocio.cod_empresa;</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" s="20" t="s">
         <v>580</v>
       </c>
@@ -29239,8 +29361,16 @@
         <f t="shared" si="27"/>
         <v>|if(msg.codigoProdutoBancario != null &amp;&amp; msg.codigoProdutoBancario.Value &gt; 0)| registroNegocio.cod_prodbco = msg.codigoProdutoBancario;</v>
       </c>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L381" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v>registroNegocio.cod_prodbco != null &amp;&amp; registroNegocio.cod_prodbco.Value &gt; 0</v>
+      </c>
+      <c r="M381" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v>|if(registroNegocio.cod_prodbco != null &amp;&amp; registroNegocio.cod_prodbco.Value &gt; 0)| msg.codigoProdutoBancario = registroNegocio.cod_prodbco;</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" s="20" t="s">
         <v>580</v>
       </c>
@@ -29275,8 +29405,16 @@
         <f t="shared" si="27"/>
         <v>|if(msg.codigoBanco != null &amp;&amp; msg.codigoBanco.Value &gt; 0)| registroNegocio.cod_bco = msg.codigoBanco;</v>
       </c>
-    </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L382" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v>registroNegocio.cod_bco != null &amp;&amp; registroNegocio.cod_bco.Value &gt; 0</v>
+      </c>
+      <c r="M382" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v>|if(registroNegocio.cod_bco != null &amp;&amp; registroNegocio.cod_bco.Value &gt; 0)| msg.codigoBanco = registroNegocio.cod_bco;</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" s="20" t="s">
         <v>580</v>
       </c>
@@ -29311,8 +29449,16 @@
         <f t="shared" si="27"/>
         <v>|if(msg.codigoBancoNegocio != null &amp;&amp; msg.codigoBancoNegocio.Value &gt; 0)| registroNegocio.cod_bco_negbco = msg.codigoBancoNegocio;</v>
       </c>
-    </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L383" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v>registroNegocio.cod_bco_negbco != null &amp;&amp; registroNegocio.cod_bco_negbco.Value &gt; 0</v>
+      </c>
+      <c r="M383" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v>|if(registroNegocio.cod_bco_negbco != null &amp;&amp; registroNegocio.cod_bco_negbco.Value &gt; 0)| msg.codigoBancoNegocio = registroNegocio.cod_bco_negbco;</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" s="20" t="s">
         <v>580</v>
       </c>
@@ -29347,8 +29493,16 @@
         <f t="shared" si="27"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.contaCreditoResgate))| registroNegocio.COD_CTA_RESGATE = msg.contaCreditoResgate;</v>
       </c>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L384" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v>!string.IsNullOrWhiteSpace(registroNegocio.COD_CTA_RESGATE)</v>
+      </c>
+      <c r="M384" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v>|if(!string.IsNullOrWhiteSpace(registroNegocio.COD_CTA_RESGATE))| msg.contaCreditoResgate = registroNegocio.COD_CTA_RESGATE;</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" s="20" t="s">
         <v>580</v>
       </c>
@@ -29383,8 +29537,16 @@
         <f t="shared" si="27"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.SituacaoRegistro))| registroNegocio.STA_REGISTRO = msg.SituacaoRegistro;</v>
       </c>
-    </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L385" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v>!string.IsNullOrWhiteSpace(registroNegocio.STA_REGISTRO)</v>
+      </c>
+      <c r="M385" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v>|if(!string.IsNullOrWhiteSpace(registroNegocio.STA_REGISTRO))| msg.SituacaoRegistro = registroNegocio.STA_REGISTRO;</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" s="20" t="s">
         <v>580</v>
       </c>
@@ -29419,8 +29581,16 @@
         <f t="shared" si="27"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.IndicadorBancoOuInstPagamento))| registroNegocio.NEGIDCBCO = msg.IndicadorBancoOuInstPagamento;</v>
       </c>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L386" s="18" t="str">
+        <f t="shared" si="28"/>
+        <v>!string.IsNullOrWhiteSpace(registroNegocio.NEGIDCBCO)</v>
+      </c>
+      <c r="M386" s="18" t="str">
+        <f t="shared" si="29"/>
+        <v>|if(!string.IsNullOrWhiteSpace(registroNegocio.NEGIDCBCO))| msg.IndicadorBancoOuInstPagamento = registroNegocio.NEGIDCBCO;</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" s="20" t="s">
         <v>580</v>
       </c>
@@ -29455,8 +29625,16 @@
         <f t="shared" ref="K387:K389" si="32">CONCATENATE("|if(",J387,")","| ",G387,".",B387," = ",H387,".",E387,";")</f>
         <v>|if(!string.IsNullOrWhiteSpace(msg.codigoIspb))| registroNegocio.NEGCODISPB = msg.codigoIspb;</v>
       </c>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L387" s="18" t="str">
+        <f t="shared" ref="L387:L389" si="33">IF(F387="string",CONCATENATE("!string.IsNullOrWhiteSpace(",G387,".",B387,")"),IF(F387="int",CONCATENATE(G387,".",B387," != null &amp;&amp; ",G387,".",B387,".Value &gt; 0"),IF(F387="DateTime",CONCATENATE(G387,".",B387," != null &amp;&amp; ",G387,".",B387,".Value != DateTime.MinValue"),IF(F387="decimal",CONCATENATE(G387,".",B387," != null &amp;&amp; ",G387,".",B387,".Value &gt; 0")))))</f>
+        <v>!string.IsNullOrWhiteSpace(registroNegocio.NEGCODISPB)</v>
+      </c>
+      <c r="M387" s="18" t="str">
+        <f t="shared" ref="M387:M389" si="34">CONCATENATE("|if(",L387,")","| ",H387,".",E387," = ",G387,".",B387,";")</f>
+        <v>|if(!string.IsNullOrWhiteSpace(registroNegocio.NEGCODISPB))| msg.codigoIspb = registroNegocio.NEGCODISPB;</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" s="20" t="s">
         <v>580</v>
       </c>
@@ -29491,8 +29669,16 @@
         <f t="shared" si="32"/>
         <v>|if(msg.codigoInstPagamento != null &amp;&amp; msg.codigoInstPagamento.Value &gt; 0)| registroNegocio.IPGCOD = msg.codigoInstPagamento;</v>
       </c>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L388" s="18" t="str">
+        <f t="shared" si="33"/>
+        <v>registroNegocio.IPGCOD != null &amp;&amp; registroNegocio.IPGCOD.Value &gt; 0</v>
+      </c>
+      <c r="M388" s="18" t="str">
+        <f t="shared" si="34"/>
+        <v>|if(registroNegocio.IPGCOD != null &amp;&amp; registroNegocio.IPGCOD.Value &gt; 0)| msg.codigoInstPagamento = registroNegocio.IPGCOD;</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" s="20" t="s">
         <v>580</v>
       </c>
@@ -29527,6 +29713,17 @@
         <f t="shared" si="32"/>
         <v>|if(!string.IsNullOrWhiteSpace(msg.indicadorContaPadrao))| registroNegocio.NEGSTACONTAPADRAO = msg.indicadorContaPadrao;</v>
       </c>
+      <c r="L389" s="18" t="str">
+        <f t="shared" si="33"/>
+        <v>!string.IsNullOrWhiteSpace(registroNegocio.NEGSTACONTAPADRAO)</v>
+      </c>
+      <c r="M389" s="18" t="str">
+        <f t="shared" si="34"/>
+        <v>|if(!string.IsNullOrWhiteSpace(registroNegocio.NEGSTACONTAPADRAO))| msg.indicadorContaPadrao = registroNegocio.NEGSTACONTAPADRAO;</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M390" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
